--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4529,10 +4562,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4639,10 +4672,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4655,84 +4688,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>1667195712</v>
+        <v>8265639486</v>
       </c>
       <c r="AA2" t="n">
-        <v>1727093205</v>
+        <v>11222966166</v>
       </c>
       <c r="AB2" t="n">
-        <v>1931802616.9004</v>
+        <v>11120140626</v>
       </c>
       <c r="AC2" t="n">
-        <v>2718922830.9402</v>
+        <v>10540513074</v>
       </c>
       <c r="AD2" t="n">
-        <v>2346290595.815</v>
+        <v>12818877326.5156</v>
       </c>
       <c r="AE2" t="n">
-        <v>2642218538.2292</v>
+        <v>11598110708.5245</v>
       </c>
       <c r="AF2" t="n">
-        <v>2453725006.2732</v>
+        <v>14102583252.3517</v>
       </c>
       <c r="AG2" t="n">
-        <v>3202886359.6965</v>
+        <v>14500076462.1738</v>
       </c>
       <c r="AH2" t="n">
-        <v>2861249718.6648</v>
+        <v>16553847794.1065</v>
       </c>
       <c r="AI2" t="n">
-        <v>3312262871.845</v>
+        <v>18661733716.402</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4238616460.4125</v>
+        <v>13967338487.0003</v>
       </c>
       <c r="AK2" t="n">
-        <v>4425453498.0671</v>
+        <v>24577714669.5493</v>
       </c>
       <c r="AL2" t="n">
-        <v>4774888332.263</v>
+        <v>19844126584.3259</v>
       </c>
       <c r="AM2" t="n">
-        <v>4951947482.5283</v>
+        <v>19321922682.4328</v>
       </c>
       <c r="AN2" t="n">
-        <v>4792567355.8634</v>
+        <v>19853932889.6631</v>
       </c>
       <c r="AO2" t="n">
-        <v>5096148423.2276</v>
+        <v>17542827513.9945</v>
       </c>
       <c r="AP2" t="n">
-        <v>6153491832.0523</v>
+        <v>20149476609.3658</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6472698753.751</v>
+        <v>21828433698.5253</v>
       </c>
       <c r="AR2" t="n">
-        <v>10187532234.7569</v>
+        <v>23361267665.8085</v>
       </c>
       <c r="AS2" t="n">
-        <v>9628505320.8608</v>
+        <v>25212313739.8772</v>
       </c>
       <c r="AT2" t="n">
-        <v>9686922996.7466</v>
+        <v>32014124074.1493</v>
       </c>
       <c r="AU2" t="n">
-        <v>10243092545.4533</v>
+        <v>24085635254.2797</v>
       </c>
       <c r="AV2" t="n">
-        <v>10200800420.8508</v>
+        <v>25630831552.3427</v>
       </c>
       <c r="AW2" t="n">
-        <v>4163556387.7586</v>
+        <v>17760662762.3544</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4745,84 +4778,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>42608597</v>
+        <v>128306121</v>
       </c>
       <c r="AA3" t="n">
-        <v>79793253</v>
+        <v>146068198</v>
       </c>
       <c r="AB3" t="n">
-        <v>32403293</v>
+        <v>199804095.9004</v>
       </c>
       <c r="AC3" t="n">
-        <v>177010212</v>
+        <v>252967277.01</v>
       </c>
       <c r="AD3" t="n">
-        <v>73103772</v>
+        <v>256300483.3297</v>
       </c>
       <c r="AE3" t="n">
-        <v>196581720</v>
+        <v>329764593.6109</v>
       </c>
       <c r="AF3" t="n">
-        <v>143628794.2143</v>
+        <v>353801647.9729</v>
       </c>
       <c r="AG3" t="n">
-        <v>156354936.1983</v>
+        <v>347617661.2713</v>
       </c>
       <c r="AH3" t="n">
-        <v>243207269.7392</v>
+        <v>429847100.4329</v>
       </c>
       <c r="AI3" t="n">
-        <v>20495863.5518</v>
+        <v>450976954.2315</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34008317.3251</v>
+        <v>520575140.2767</v>
       </c>
       <c r="AK3" t="n">
-        <v>5372142.8962</v>
+        <v>601220689.2413</v>
       </c>
       <c r="AL3" t="n">
-        <v>16910367.747</v>
+        <v>570171648.0302</v>
       </c>
       <c r="AM3" t="n">
-        <v>53063710.23</v>
+        <v>603292186.9749</v>
       </c>
       <c r="AN3" t="n">
-        <v>53108763.7401</v>
+        <v>734616182.8559</v>
       </c>
       <c r="AO3" t="n">
-        <v>89077679.8018</v>
+        <v>756785456.2461</v>
       </c>
       <c r="AP3" t="n">
-        <v>157381974.3137</v>
+        <v>789486829.6154</v>
       </c>
       <c r="AQ3" t="n">
-        <v>80938967.2787</v>
+        <v>805332404.5743</v>
       </c>
       <c r="AR3" t="n">
-        <v>77585967.1931</v>
+        <v>1053187865.5391</v>
       </c>
       <c r="AS3" t="n">
-        <v>103358499.5228</v>
+        <v>979219338.8192</v>
       </c>
       <c r="AT3" t="n">
-        <v>95969336.6814</v>
+        <v>696309278.4826</v>
       </c>
       <c r="AU3" t="n">
-        <v>41928674.1341</v>
+        <v>817030689.018</v>
       </c>
       <c r="AV3" t="n">
-        <v>43179483.2424</v>
+        <v>997392353.2473</v>
       </c>
       <c r="AW3" t="n">
-        <v>44013620.301</v>
+        <v>108655578.0499</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4835,84 +4868,74 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>46616562</v>
+        <v>6338932</v>
       </c>
       <c r="AA4" t="n">
-        <v>58743049</v>
+        <v>3668769</v>
       </c>
       <c r="AB4" t="n">
-        <v>65982705.0298</v>
+        <v>3036643</v>
       </c>
       <c r="AC4" t="n">
-        <v>174022821</v>
+        <v>1170677</v>
       </c>
       <c r="AD4" t="n">
-        <v>110534832</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>140213100.1094</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>59198494.2424</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>25165281.6259</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>30376675.1904</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>32101743.8966</v>
-      </c>
+        <v>3702</v>
+      </c>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
       <c r="AJ4" t="n">
-        <v>41409123.5261</v>
+        <v>56409823.1518</v>
       </c>
       <c r="AK4" t="n">
-        <v>65650961.8043</v>
+        <v>250065008.9206</v>
       </c>
       <c r="AL4" t="n">
-        <v>29613076.7526</v>
+        <v>381304486.5243</v>
       </c>
       <c r="AM4" t="n">
-        <v>13200990.7966</v>
+        <v>480540808.8799</v>
       </c>
       <c r="AN4" t="n">
-        <v>17506633.5072</v>
+        <v>643651442.0328</v>
       </c>
       <c r="AO4" t="n">
-        <v>5576212.1403</v>
+        <v>718208530.6321</v>
       </c>
       <c r="AP4" t="n">
-        <v>13082959.8042</v>
+        <v>667404355.4719</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14559790.6104</v>
+        <v>629344893.2809</v>
       </c>
       <c r="AR4" t="n">
-        <v>3169753.1363</v>
+        <v>829836926.9361</v>
       </c>
       <c r="AS4" t="n">
-        <v>-2969035.9445</v>
+        <v>701016324.3303</v>
       </c>
       <c r="AT4" t="n">
-        <v>1117704.6305</v>
+        <v>577597002.7029</v>
       </c>
       <c r="AU4" t="n">
-        <v>-747226.0256</v>
+        <v>570758528.3878</v>
       </c>
       <c r="AV4" t="n">
-        <v>1198822.3338</v>
+        <v>625095019.9544</v>
       </c>
       <c r="AW4" t="n">
-        <v>1750156.776</v>
+        <v>142246961.3464</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4925,84 +4948,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>1616998464</v>
+        <v>32523679</v>
       </c>
       <c r="AA5" t="n">
-        <v>2697976676</v>
+        <v>56035838</v>
       </c>
       <c r="AB5" t="n">
-        <v>4435139464</v>
+        <v>118921417</v>
       </c>
       <c r="AC5" t="n">
-        <v>3443823422</v>
+        <v>119266440</v>
       </c>
       <c r="AD5" t="n">
-        <v>5756277306</v>
+        <v>134696725</v>
       </c>
       <c r="AE5" t="n">
-        <v>4538650461</v>
+        <v>109713900.0935</v>
       </c>
       <c r="AF5" t="n">
-        <v>5911155403</v>
+        <v>133357334.7812</v>
       </c>
       <c r="AG5" t="n">
-        <v>3259575698.6475</v>
+        <v>212214642.033</v>
       </c>
       <c r="AH5" t="n">
-        <v>3456927991.2977</v>
+        <v>170544365.131</v>
       </c>
       <c r="AI5" t="n">
-        <v>4794309155.5902</v>
+        <v>195375550.9643</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5086650779.3947</v>
+        <v>131941268.3299</v>
       </c>
       <c r="AK5" t="n">
-        <v>15289390780.2664</v>
+        <v>94382657.1387</v>
       </c>
       <c r="AL5" t="n">
-        <v>11206652460.1353</v>
+        <v>152329909.3883</v>
       </c>
       <c r="AM5" t="n">
-        <v>10678338421.22</v>
+        <v>56836161.9164</v>
       </c>
       <c r="AN5" t="n">
-        <v>7274551809.9082</v>
+        <v>57855391.4834</v>
       </c>
       <c r="AO5" t="n">
-        <v>5190649825.2102</v>
+        <v>33431187.7537</v>
       </c>
       <c r="AP5" t="n">
-        <v>5615949372.3369</v>
+        <v>18375603.5163</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8060537642.4228</v>
+        <v>12853616.411</v>
       </c>
       <c r="AR5" t="n">
-        <v>8030415143.8174</v>
+        <v>16425608.077</v>
       </c>
       <c r="AS5" t="n">
-        <v>11311726614.541</v>
+        <v>41579470.835</v>
       </c>
       <c r="AT5" t="n">
-        <v>18565398235.6409</v>
+        <v>26540799.9291</v>
       </c>
       <c r="AU5" t="n">
-        <v>11537249595.1452</v>
+        <v>24438506.002</v>
       </c>
       <c r="AV5" t="n">
-        <v>14543467142.6914</v>
+        <v>13669433.5681</v>
       </c>
       <c r="AW5" t="n">
-        <v>9707061527.1701</v>
+        <v>8297662.8575</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -5015,84 +5038,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>4005329951</v>
+        <v>124083067</v>
       </c>
       <c r="AA6" t="n">
-        <v>6677452003</v>
+        <v>102877275</v>
       </c>
       <c r="AB6" t="n">
-        <v>4319774574</v>
+        <v>131319695</v>
       </c>
       <c r="AC6" t="n">
-        <v>5267270448.1104</v>
+        <v>303568109.1104</v>
       </c>
       <c r="AD6" t="n">
-        <v>5130624360.3486</v>
+        <v>341229471</v>
       </c>
       <c r="AE6" t="n">
-        <v>5464461775.3018</v>
+        <v>496105422.2316</v>
       </c>
       <c r="AF6" t="n">
-        <v>6091538304.2878</v>
+        <v>779178032.1475</v>
       </c>
       <c r="AG6" t="n">
-        <v>4657659409.6979</v>
+        <v>609435905.6012</v>
       </c>
       <c r="AH6" t="n">
-        <v>2973877195.0597</v>
+        <v>635615279.8952</v>
       </c>
       <c r="AI6" t="n">
-        <v>4386736921.5168</v>
+        <v>599581960.0733</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5479095335.5009</v>
+        <v>874308123.0461</v>
       </c>
       <c r="AK6" t="n">
-        <v>7580586843.098</v>
+        <v>904116064.0669</v>
       </c>
       <c r="AL6" t="n">
-        <v>6854719630.6743</v>
+        <v>793595992.8994</v>
       </c>
       <c r="AM6" t="n">
-        <v>6091895031.0357</v>
+        <v>719807686.7205</v>
       </c>
       <c r="AN6" t="n">
-        <v>10322279061.4678</v>
+        <v>830181982.2714</v>
       </c>
       <c r="AO6" t="n">
-        <v>11015888196.5484</v>
+        <v>537231108.3566</v>
       </c>
       <c r="AP6" t="n">
-        <v>11570884116.7565</v>
+        <v>707789483.891</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10913180367.195</v>
+        <v>1130270922.0799</v>
       </c>
       <c r="AR6" t="n">
-        <v>8765457964.9645</v>
+        <v>1700609509.1899</v>
       </c>
       <c r="AS6" t="n">
-        <v>8504096158.8808</v>
+        <v>1383347471.8993</v>
       </c>
       <c r="AT6" t="n">
-        <v>8211259026.6831</v>
+        <v>1561385244.7797</v>
       </c>
       <c r="AU6" t="n">
-        <v>7308619713.2113</v>
+        <v>3919265108.5473</v>
       </c>
       <c r="AV6" t="n">
-        <v>8352538388.251</v>
+        <v>5235460904.853</v>
       </c>
       <c r="AW6" t="n">
-        <v>6333025513.2799</v>
+        <v>2159652686.9528</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -5105,84 +5128,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>257328243</v>
+        <v>792136941</v>
       </c>
       <c r="AA7" t="n">
-        <v>1315501462</v>
+        <v>871079231</v>
       </c>
       <c r="AB7" t="n">
-        <v>1511373778</v>
+        <v>1120969379.0298</v>
       </c>
       <c r="AC7" t="n">
-        <v>395985005</v>
+        <v>1464312729.9302</v>
       </c>
       <c r="AD7" t="n">
-        <v>678680544</v>
+        <v>1289854915.3183</v>
       </c>
       <c r="AE7" t="n">
-        <v>746852964</v>
+        <v>1508419219.6701</v>
       </c>
       <c r="AF7" t="n">
-        <v>1682374880.8296</v>
+        <v>1450200011.2365</v>
       </c>
       <c r="AG7" t="n">
-        <v>1828612094.6802</v>
+        <v>1582425417.3198</v>
       </c>
       <c r="AH7" t="n">
-        <v>1722360492.9125</v>
+        <v>1563229550.5037</v>
       </c>
       <c r="AI7" t="n">
-        <v>2052820904.886</v>
+        <v>1593823433.7213</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2673368525.4409</v>
+        <v>2011188756.3825</v>
       </c>
       <c r="AK7" t="n">
-        <v>1020734586.6304</v>
+        <v>1961892673.1586</v>
       </c>
       <c r="AL7" t="n">
-        <v>936718114.1251</v>
+        <v>2081826812.5887</v>
       </c>
       <c r="AM7" t="n">
-        <v>1261465628.7801</v>
+        <v>1867039154.4264</v>
       </c>
       <c r="AN7" t="n">
-        <v>1361449328.264</v>
+        <v>1706797661.9929</v>
       </c>
       <c r="AO7" t="n">
-        <v>77370557.0903</v>
+        <v>1888932509.5129</v>
       </c>
       <c r="AP7" t="n">
-        <v>1142257912.731</v>
+        <v>2320080315.9824</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1665810518.1036</v>
+        <v>2801513021.4291</v>
       </c>
       <c r="AR7" t="n">
-        <v>4245570241.7497</v>
+        <v>4348403730.0673</v>
       </c>
       <c r="AS7" t="n">
-        <v>3761084099.2761</v>
+        <v>4988325311.376</v>
       </c>
       <c r="AT7" t="n">
-        <v>3522637569.9642</v>
+        <v>5207346306.2631</v>
       </c>
       <c r="AU7" t="n">
-        <v>2831000939.6954</v>
+        <v>2544016155.3789</v>
       </c>
       <c r="AV7" t="n">
-        <v>1242290243.7502</v>
+        <v>1881025237.1541</v>
       </c>
       <c r="AW7" t="n">
-        <v>463166061.7772</v>
+        <v>533057615.5018</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -5194,57 +5217,69 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
+      <c r="Z8" t="n">
+        <v>6793537</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1631816</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1359533</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-9159299</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1859084</v>
+      </c>
       <c r="AE8" t="n">
-        <v>7691886</v>
+        <v>230117</v>
       </c>
       <c r="AF8" t="n">
-        <v>218594703.5625</v>
+        <v>83603</v>
       </c>
       <c r="AG8" t="n">
-        <v>3912092184.0428</v>
+        <v>724868.71</v>
       </c>
       <c r="AH8" t="n">
-        <v>5685520694.5724</v>
+        <v>1403.64</v>
       </c>
       <c r="AI8" t="n">
-        <v>6028533390.1495</v>
+        <v>2900</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7931174.4824</v>
+        <v>428334.8573</v>
       </c>
       <c r="AK8" t="n">
-        <v>1819345.7709</v>
+        <v>179501.4579</v>
       </c>
       <c r="AL8" t="n">
-        <v>-173519.7795</v>
+        <v>162102.161</v>
       </c>
       <c r="AM8" t="n">
-        <v>371282.6702</v>
+        <v>1839845.91</v>
       </c>
       <c r="AN8" t="n">
-        <v>-67390.9</v>
-      </c>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
+        <v>390822.77</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>792766.4127</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>46025.9219</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>168808.7998</v>
+      </c>
       <c r="AR8"/>
       <c r="AS8"/>
-      <c r="AT8" t="n">
-        <v>-2164.04</v>
-      </c>
+      <c r="AT8"/>
       <c r="AU8"/>
       <c r="AV8"/>
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>10680657493</v>
@@ -5277,84 +5312,74 @@
         <v>8320132027</v>
       </c>
       <c r="Z9" t="n">
-        <v>1719744234</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-152232355</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>399074958</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>495604269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB9"/>
+      <c r="AC9"/>
       <c r="AD9" t="n">
-        <v>747310297</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>305673516.4902</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>258988295.08</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>210148992.52</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>2379565456.2726</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>874233663.9565</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1110216.962</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>563105</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>4189074</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>995980</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>6030811.2188</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>3498178.89</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>-388944.2299</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>191325.7388</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
+      <c r="AR9"/>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5461,10 +5486,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5477,84 +5502,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>2693738210.72471</v>
+        <v>13355042098.0888</v>
       </c>
       <c r="AA14" t="n">
-        <v>2724450049.19268</v>
+        <v>17703972567.6221</v>
       </c>
       <c r="AB14" t="n">
-        <v>3000023474.47697</v>
+        <v>17269198532.8256</v>
       </c>
       <c r="AC14" t="n">
-        <v>4143198841.52598</v>
+        <v>16062037899.8343</v>
       </c>
       <c r="AD14" t="n">
-        <v>3490058760.36448</v>
+        <v>19067815040.1498</v>
       </c>
       <c r="AE14" t="n">
-        <v>3814451227.33943</v>
+        <v>16743667106.5822</v>
       </c>
       <c r="AF14" t="n">
-        <v>3430638280.01906</v>
+        <v>19717312180.0458</v>
       </c>
       <c r="AG14" t="n">
-        <v>4358542027.71612</v>
+        <v>19731949737.8204</v>
       </c>
       <c r="AH14" t="n">
-        <v>3814091001.61527</v>
+        <v>22066540191.072</v>
       </c>
       <c r="AI14" t="n">
-        <v>4370881941.82181</v>
+        <v>24626135684.2953</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5545075531.37427</v>
+        <v>18272459328.6626</v>
       </c>
       <c r="AK14" t="n">
-        <v>5675125852.9186</v>
+        <v>31518040803.6684</v>
       </c>
       <c r="AL14" t="n">
-        <v>6013016875.67151</v>
+        <v>24989708602.8736</v>
       </c>
       <c r="AM14" t="n">
-        <v>6123919730.90012</v>
+        <v>23894821980.9196</v>
       </c>
       <c r="AN14" t="n">
-        <v>5814335329.95073</v>
+        <v>24086760783.3636</v>
       </c>
       <c r="AO14" t="n">
-        <v>6112562827.69639</v>
+        <v>21041701781.2872</v>
       </c>
       <c r="AP14" t="n">
-        <v>7320132503.6416</v>
+        <v>23969616387.7724</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7564797721.26585</v>
+        <v>25511412130.1742</v>
       </c>
       <c r="AR14" t="n">
-        <v>11633260193.9669</v>
+        <v>26676500152.8106</v>
       </c>
       <c r="AS14" t="n">
-        <v>10783686190.5719</v>
+        <v>28237163552.2732</v>
       </c>
       <c r="AT14" t="n">
-        <v>10706285884.2024</v>
+        <v>35382996725.0986</v>
       </c>
       <c r="AU14" t="n">
-        <v>10952811792.5147</v>
+        <v>25754470993.2726</v>
       </c>
       <c r="AV14" t="n">
-        <v>10200800420.8508</v>
+        <v>25630831552.3427</v>
       </c>
       <c r="AW14" t="n">
-        <v>3971193335.33172</v>
+        <v>16940091360.4308</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5567,84 +5592,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>68843990.5514046</v>
+        <v>207308055.269019</v>
       </c>
       <c r="AA15" t="n">
-        <v>125872032.517836</v>
+        <v>230419243.196887</v>
       </c>
       <c r="AB15" t="n">
-        <v>50321207.1460649</v>
+        <v>310288935.70898</v>
       </c>
       <c r="AC15" t="n">
-        <v>269734946.851384</v>
+        <v>385481234.378905</v>
       </c>
       <c r="AD15" t="n">
-        <v>108740349.698953</v>
+        <v>381241670.885084</v>
       </c>
       <c r="AE15" t="n">
-        <v>283796125.217198</v>
+        <v>476066207.481538</v>
       </c>
       <c r="AF15" t="n">
-        <v>200812413.08004</v>
+        <v>494662390.433542</v>
       </c>
       <c r="AG15" t="n">
-        <v>212770446.443732</v>
+        <v>473044003.462838</v>
       </c>
       <c r="AH15" t="n">
-        <v>324199126.342796</v>
+        <v>572992964.275973</v>
       </c>
       <c r="AI15" t="n">
-        <v>27046464.4102072</v>
+        <v>595111892.290808</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44490623.302178</v>
+        <v>681030826.815864</v>
       </c>
       <c r="AK15" t="n">
-        <v>6889144.14062054</v>
+        <v>770995125.881019</v>
       </c>
       <c r="AL15" t="n">
-        <v>21295226.099734</v>
+        <v>718017156.227433</v>
       </c>
       <c r="AM15" t="n">
-        <v>65622243.2121495</v>
+        <v>746072719.944755</v>
       </c>
       <c r="AN15" t="n">
-        <v>64431470.3196153</v>
+        <v>891235220.869027</v>
       </c>
       <c r="AO15" t="n">
-        <v>106844006.319006</v>
+        <v>907724474.292567</v>
       </c>
       <c r="AP15" t="n">
-        <v>187220026.79197</v>
+        <v>939165657.547837</v>
       </c>
       <c r="AQ15" t="n">
-        <v>94595305.3780997</v>
+        <v>941211227.458212</v>
       </c>
       <c r="AR15" t="n">
-        <v>88596308.0125113</v>
+        <v>1202647333.09453</v>
       </c>
       <c r="AS15" t="n">
-        <v>115758945.634835</v>
+        <v>1096701274.98268</v>
       </c>
       <c r="AT15" t="n">
-        <v>106068269.044094</v>
+        <v>769582477.507166</v>
       </c>
       <c r="AU15" t="n">
-        <v>44833811.1232163</v>
+        <v>873640780.439397</v>
       </c>
       <c r="AV15" t="n">
-        <v>43179483.2424</v>
+        <v>997392353.2473</v>
       </c>
       <c r="AW15" t="n">
-        <v>41980119.7161753</v>
+        <v>103635514.260602</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5657,84 +5682,74 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="n">
-        <v>75319780.0403277</v>
+        <v>10242002.9158434</v>
       </c>
       <c r="AA16" t="n">
-        <v>92665816.9196942</v>
+        <v>5787399.22870959</v>
       </c>
       <c r="AB16" t="n">
-        <v>102468886.969675</v>
+        <v>4715802.8485453</v>
       </c>
       <c r="AC16" t="n">
-        <v>265182645.921936</v>
+        <v>1783922.49129184</v>
       </c>
       <c r="AD16" t="n">
-        <v>164418277.699747</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>202419301.834061</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>82767473.921588</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>34245341.6349717</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>40492587.1191558</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>42361653.6873718</v>
-      </c>
+        <v>5506.64847479447</v>
+      </c>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
       <c r="AJ16" t="n">
-        <v>54172563.0957148</v>
+        <v>73796894.1067516</v>
       </c>
       <c r="AK16" t="n">
-        <v>84189670.2264038</v>
+        <v>320679089.195143</v>
       </c>
       <c r="AL16" t="n">
-        <v>37291747.5474339</v>
+        <v>480176739.788433</v>
       </c>
       <c r="AM16" t="n">
-        <v>16325255.5266306</v>
+        <v>594269901.162164</v>
       </c>
       <c r="AN16" t="n">
-        <v>21239020.7901574</v>
+        <v>780876937.494984</v>
       </c>
       <c r="AO16" t="n">
-        <v>6688374.08518014</v>
+        <v>861453474.719599</v>
       </c>
       <c r="AP16" t="n">
-        <v>15563358.4833443</v>
+        <v>793937564.053356</v>
       </c>
       <c r="AQ16" t="n">
-        <v>17016375.2434537</v>
+        <v>735530417.173004</v>
       </c>
       <c r="AR16" t="n">
-        <v>3619577.55180544</v>
+        <v>947600328.239834</v>
       </c>
       <c r="AS16" t="n">
-        <v>-3325246.32298316</v>
+        <v>785120826.55943</v>
       </c>
       <c r="AT16" t="n">
-        <v>1235321.60958116</v>
+        <v>638378011.146836</v>
       </c>
       <c r="AU16" t="n">
-        <v>-798999.519778664</v>
+        <v>610305014.102321</v>
       </c>
       <c r="AV16" t="n">
-        <v>1198822.3338</v>
+        <v>625095019.9544</v>
       </c>
       <c r="AW16" t="n">
-        <v>1669296.69670654</v>
+        <v>135674921.211795</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5747,84 +5762,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>2612633008.71539</v>
+        <v>52549485.4893465</v>
       </c>
       <c r="AA17" t="n">
-        <v>4255996530.10556</v>
+        <v>88395253.4545771</v>
       </c>
       <c r="AB17" t="n">
-        <v>6887620085.08305</v>
+        <v>184680898.295138</v>
       </c>
       <c r="AC17" t="n">
-        <v>5247830151.73565</v>
+        <v>181742773.431364</v>
       </c>
       <c r="AD17" t="n">
-        <v>8562343502.85763</v>
+        <v>200358594.079163</v>
       </c>
       <c r="AE17" t="n">
-        <v>6552244097.50332</v>
+        <v>158388988.197896</v>
       </c>
       <c r="AF17" t="n">
-        <v>8264591978.65607</v>
+        <v>186451528.370968</v>
       </c>
       <c r="AG17" t="n">
-        <v>4435685840.70011</v>
+        <v>288785280.625819</v>
       </c>
       <c r="AH17" t="n">
-        <v>4608139533.86539</v>
+        <v>227338328.486015</v>
       </c>
       <c r="AI17" t="n">
-        <v>6326599102.32535</v>
+        <v>257818748.276966</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6654497531.65975</v>
+        <v>172609224.124849</v>
       </c>
       <c r="AK17" t="n">
-        <v>19606853157.6172</v>
+        <v>121034704.766175</v>
       </c>
       <c r="AL17" t="n">
-        <v>14112537440.3557</v>
+        <v>191829054.856085</v>
       </c>
       <c r="AM17" t="n">
-        <v>13205569643.3901</v>
+        <v>70287517.1064552</v>
       </c>
       <c r="AN17" t="n">
-        <v>8825475044.42666</v>
+        <v>70190071.7824051</v>
       </c>
       <c r="AO17" t="n">
-        <v>6225912304.38965</v>
+        <v>40098956.8156224</v>
       </c>
       <c r="AP17" t="n">
-        <v>6680677355.43548</v>
+        <v>21859434.6502669</v>
       </c>
       <c r="AQ17" t="n">
-        <v>9420542977.4159</v>
+        <v>15022328.6816198</v>
       </c>
       <c r="AR17" t="n">
-        <v>9170023385.53375</v>
+        <v>18756590.7229175</v>
       </c>
       <c r="AS17" t="n">
-        <v>12668852123.9603</v>
+        <v>46567971.924285</v>
       </c>
       <c r="AT17" t="n">
-        <v>20519050386.9592</v>
+        <v>29333710.1711035</v>
       </c>
       <c r="AU17" t="n">
-        <v>12336637871.6341</v>
+        <v>26131791.3064215</v>
       </c>
       <c r="AV17" t="n">
-        <v>14543467142.6914</v>
+        <v>13669433.5681</v>
       </c>
       <c r="AW17" t="n">
-        <v>9258579553.69378</v>
+        <v>7914297.38658414</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5837,84 +5852,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>6471531961.07118</v>
+        <v>200484740.019421</v>
       </c>
       <c r="AA18" t="n">
-        <v>10533527886.8491</v>
+        <v>162286549.517493</v>
       </c>
       <c r="AB18" t="n">
-        <v>6708462351.72944</v>
+        <v>203935000.509148</v>
       </c>
       <c r="AC18" t="n">
-        <v>8026468633.19345</v>
+        <v>462588722.150498</v>
       </c>
       <c r="AD18" t="n">
-        <v>7631697679.26986</v>
+        <v>507571784.450858</v>
       </c>
       <c r="AE18" t="n">
-        <v>7888795958.38384</v>
+        <v>716204927.541433</v>
       </c>
       <c r="AF18" t="n">
-        <v>8516791587.26614</v>
+        <v>1089395909.15899</v>
       </c>
       <c r="AG18" t="n">
-        <v>6338221843.71206</v>
+        <v>829330706.573607</v>
       </c>
       <c r="AH18" t="n">
-        <v>3964225203.97104</v>
+        <v>847285192.803355</v>
       </c>
       <c r="AI18" t="n">
-        <v>5788764338.95493</v>
+        <v>791211948.847142</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7167904376.98535</v>
+        <v>1143794118.96892</v>
       </c>
       <c r="AK18" t="n">
-        <v>9721214874.89366</v>
+        <v>1159422972.46285</v>
       </c>
       <c r="AL18" t="n">
-        <v>8632148429.26113</v>
+        <v>999375433.667534</v>
       </c>
       <c r="AM18" t="n">
-        <v>7533657477.33749</v>
+        <v>890163821.549787</v>
       </c>
       <c r="AN18" t="n">
-        <v>12522973048.9392</v>
+        <v>1007175501.43634</v>
       </c>
       <c r="AO18" t="n">
-        <v>13212980296.5266</v>
+        <v>644380545.875641</v>
       </c>
       <c r="AP18" t="n">
-        <v>13764608328.1938</v>
+        <v>841979309.98768</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12754494703.7243</v>
+        <v>1320974638.40845</v>
       </c>
       <c r="AR18" t="n">
-        <v>10009377234.4412</v>
+        <v>1941945551.9605</v>
       </c>
       <c r="AS18" t="n">
-        <v>9524375929.16234</v>
+        <v>1549314720.444</v>
       </c>
       <c r="AT18" t="n">
-        <v>9075336578.85297</v>
+        <v>1725691100.42488</v>
       </c>
       <c r="AU18" t="n">
-        <v>7815016395.356</v>
+        <v>4190821561.78925</v>
       </c>
       <c r="AV18" t="n">
-        <v>8352538388.251</v>
+        <v>5235460904.853</v>
       </c>
       <c r="AW18" t="n">
-        <v>6040429471.4889</v>
+        <v>2059873232.95871</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5927,84 +5942,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>415772974.869403</v>
+        <v>1279879459.10593</v>
       </c>
       <c r="AA19" t="n">
-        <v>2075173483.67944</v>
+        <v>1374107573.8577</v>
       </c>
       <c r="AB19" t="n">
-        <v>2347111849.33793</v>
+        <v>1740827153.78817</v>
       </c>
       <c r="AC19" t="n">
-        <v>603417130.971065</v>
+        <v>2231375873.2831</v>
       </c>
       <c r="AD19" t="n">
-        <v>1009523279.98117</v>
+        <v>1918632523.53962</v>
       </c>
       <c r="AE19" t="n">
-        <v>1078197796.266</v>
+        <v>2177636505.29421</v>
       </c>
       <c r="AF19" t="n">
-        <v>2352186839.50353</v>
+        <v>2027575078.50824</v>
       </c>
       <c r="AG19" t="n">
-        <v>2488406322.29265</v>
+        <v>2153391320.37395</v>
       </c>
       <c r="AH19" t="n">
-        <v>2295933701.52282</v>
+        <v>2083809645.53403</v>
       </c>
       <c r="AI19" t="n">
-        <v>2708914772.20302</v>
+        <v>2103218957.6863</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3497374800.29646</v>
+        <v>2631092873.38216</v>
       </c>
       <c r="AK19" t="n">
-        <v>1308972570.62682</v>
+        <v>2515897598.9595</v>
       </c>
       <c r="AL19" t="n">
-        <v>1179609120.89267</v>
+        <v>2621644504.59274</v>
       </c>
       <c r="AM19" t="n">
-        <v>1560015384.08775</v>
+        <v>2308909364.74902</v>
       </c>
       <c r="AN19" t="n">
-        <v>1651708226.81886</v>
+        <v>2070684293.0567</v>
       </c>
       <c r="AO19" t="n">
-        <v>92801926.4652425</v>
+        <v>2265675502.90522</v>
       </c>
       <c r="AP19" t="n">
-        <v>1358818619.20589</v>
+        <v>2759944401.58664</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1946872562.87157</v>
+        <v>3274195220.08837</v>
       </c>
       <c r="AR19" t="n">
-        <v>4848065474.14234</v>
+        <v>4965492216.82007</v>
       </c>
       <c r="AS19" t="n">
-        <v>4212320532.76958</v>
+        <v>5586800129.59232</v>
       </c>
       <c r="AT19" t="n">
-        <v>3893327623.55344</v>
+        <v>5755319648.10934</v>
       </c>
       <c r="AU19" t="n">
-        <v>3027154186.03531</v>
+        <v>2720284916.23366</v>
       </c>
       <c r="AV19" t="n">
-        <v>1242290243.7502</v>
+        <v>1881025237.1541</v>
       </c>
       <c r="AW19" t="n">
-        <v>441767039.132532</v>
+        <v>508429489.811272</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -6016,57 +6031,69 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
+      <c r="Z20" t="n">
+        <v>10976521.8751187</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2574152.43636107</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2111308.30792139</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-13957290.9441006</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2765349.02029033</v>
+      </c>
       <c r="AE20" t="n">
-        <v>11104427.4229181</v>
+        <v>332209.490010597</v>
       </c>
       <c r="AF20" t="n">
-        <v>305624858.504391</v>
+        <v>116888.262291483</v>
       </c>
       <c r="AG20" t="n">
-        <v>5323641330.2113</v>
+        <v>986413.622683368</v>
       </c>
       <c r="AH20" t="n">
-        <v>7578888755.91932</v>
+        <v>1871.07425772173</v>
       </c>
       <c r="AI20" t="n">
-        <v>7955288801.0959</v>
+        <v>3826.85738472886</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10375782.2789978</v>
+        <v>560359.532086036</v>
       </c>
       <c r="AK20" t="n">
-        <v>2333097.89027099</v>
+        <v>230189.598604935</v>
       </c>
       <c r="AL20" t="n">
-        <v>-218513.458282658</v>
+        <v>204135.251308351</v>
       </c>
       <c r="AM20" t="n">
-        <v>459153.75270058</v>
+        <v>2275280.3235127</v>
       </c>
       <c r="AN20" t="n">
-        <v>-81758.5360188613</v>
-      </c>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
+        <v>474145.582237901</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>950881.744972249</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>54751.9775934914</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>197290.878602473</v>
+      </c>
       <c r="AR20"/>
       <c r="AS20"/>
-      <c r="AT20" t="n">
-        <v>-2391.76371203019</v>
-      </c>
+      <c r="AT20"/>
       <c r="AU20"/>
       <c r="AV20"/>
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>21228143918.8223</v>
@@ -6099,74 +6126,64 @@
         <v>13723041606.5727</v>
       </c>
       <c r="Z21" t="n">
-        <v>2778642436.79107</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>-240143059.95053</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>619749777.540361</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>755220784.425894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AB21"/>
+      <c r="AC21"/>
       <c r="AD21" t="n">
-        <v>1111608618.90147</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>441287010.62049</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>362100543.828991</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>285974309.768335</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>3171998282.88986</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1153643983.75534</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1452416.60055832</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>722116.218101378</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>5275300.88719347</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1231697.54830837</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>7316570.87611551</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>4195882.15880565</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>-462684.176253351</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>223606.963332721</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
+      <c r="AR21"/>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -235,14 +236,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,8 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2968,88 +2981,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>1667195712</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>1727093205</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>1931802616.9004</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>2718922830.9402</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>2346290595.815</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>2642218538.2292</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>2453725006.2732</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>3202886359.6965</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>2861249718.6648</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>3312262871.845</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>4238616460.4125</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>4425453498.0671</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>4774888332.263</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>4951947482.5283</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>4792567355.8634</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>5096148423.2276</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>6153491832.0523</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>6472698753.751</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>10187532234.7569</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>9628505320.8608</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>9686922996.7466</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>10243092545.4533</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>10200800420.8508</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>4163556387.7586</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -3061,88 +3075,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>42608597</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>79793253</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>32403293</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>177010212</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>73103772</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>196581720</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>143628794.2143</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>156354936.1983</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>243207269.7392</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>20495863.5518</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>34008317.3251</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>5372142.8962</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>16910367.747</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>53063710.23</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>53108763.7401</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>89077679.8018</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="1" t="n">
         <v>157381974.3137</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>80938967.2787</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="1" t="n">
         <v>77585967.1931</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>103358499.5228</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>95969336.6814</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>41928674.1341</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>43179483.2424</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>44013620.301</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -3154,88 +3169,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>46616562</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>58743049</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>65982705.0298</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>174022821</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>110534832</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>140213100.1094</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>59198494.2424</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>25165281.6259</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>30376675.1904</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>32101743.8966</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>41409123.5261</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>65650961.8043</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>29613076.7526</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>13200990.7966</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>17506633.5072</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>5576212.1403</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>13082959.8042</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>14559790.6104</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>3169753.1363</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>-2969035.9445</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>1117704.6305</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>-747226.0256</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>1198822.3338</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>1750156.776</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -3247,88 +3263,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>1616998464</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>2697976676</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>4435139464</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>3443823422</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>5756277306</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>4538650461</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>5911155403</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>3259575698.6475</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>3456927991.2977</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>4794309155.5902</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>5086650779.3947</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>15289390780.2664</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>11206652460.1353</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>10678338421.22</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>7274551809.9082</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>5190649825.2102</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>5615949372.3369</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>8060537642.4228</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>8030415143.8174</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>11311726614.541</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>18565398235.6409</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>11537249595.1452</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>14543467142.6914</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>9707061527.1701</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3340,88 +3357,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>4005329951</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>6677452003</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>4319774574</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>5267270448.1104</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>5130624360.3486</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>5464461775.3018</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>6091538304.2878</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>4657659409.6979</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>2973877195.0597</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>4386736921.5168</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>5479095335.5009</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>7580586843.098</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>6854719630.6743</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>6091895031.0357</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>10322279061.4678</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>11015888196.5484</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>11570884116.7565</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>10913180367.195</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>8765457964.9645</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>8504096158.8808</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>8211259026.6831</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>7308619713.2113</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>8352538388.251</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>6333025513.2799</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3433,88 +3451,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>257328243</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>1315501462</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>1511373778</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>395985005</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>678680544</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>746852964</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>1682374880.8296</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>1828612094.6802</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>1722360492.9125</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>2052820904.886</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>2673368525.4409</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>1020734586.6304</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>936718114.1251</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>1261465628.7801</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>1361449328.264</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>77370557.0903</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>1142257912.731</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>1665810518.1036</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>4245570241.7497</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>3761084099.2761</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>3522637569.9642</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>2831000939.6954</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>1242290243.7502</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>463166061.7772</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3526,62 +3545,63 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="n">
         <v>7691886</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="1" t="n">
         <v>218594703.5625</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>3912092184.0428</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>5685520694.5724</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>6028533390.1495</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>7931174.4824</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>1819345.7709</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-173519.7795</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>371282.6702</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-67390.9</v>
       </c>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8" t="n">
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1" t="n">
         <v>-2164.04</v>
       </c>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3591,108 +3611,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>1719744234</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>-152232355</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>399074958</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>495604269</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>747310297</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>305673516.4902</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>258988295.08</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>210148992.52</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>2379565456.2726</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>874233663.9565</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>1110216.962</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="1" t="n">
         <v>563105</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="1" t="n">
         <v>4189074</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="1" t="n">
         <v>995980</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="1" t="n">
         <v>6030811.2188</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>3498178.89</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>-388944.2299</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>191325.7388</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3817,88 +3838,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>2693738210.72471</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>2724450049.19268</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>3000023474.47697</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>4143198841.52598</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>3490058760.36448</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>3814451227.33943</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>3430638280.01906</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>4358542027.71612</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>3814091001.61527</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>4370881941.82181</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>5545075531.37427</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>5675125852.9186</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>6013016875.67151</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>6123919730.90012</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>5814335329.95073</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>6112562827.69639</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>7320132503.6416</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>7564797721.26585</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>11633260193.9669</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>10783686190.5719</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>10706285884.2024</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>10952811792.5147</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>10200800420.8508</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>3971193335.33172</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3910,88 +3932,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>68843990.5514046</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>125872032.517836</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>50321207.1460649</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>269734946.851384</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>108740349.698953</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>283796125.217198</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>200812413.08004</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>212770446.443732</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>324199126.342796</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>27046464.4102072</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>44490623.302178</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>6889144.14062054</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>21295226.099734</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>65622243.2121495</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>64431470.3196153</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>106844006.319006</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="1" t="n">
         <v>187220026.79197</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="1" t="n">
         <v>94595305.3780997</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="1" t="n">
         <v>88596308.0125113</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>115758945.634835</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>106068269.044094</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>44833811.1232163</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>43179483.2424</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>41980119.7161753</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -4003,88 +4026,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>75319780.0403277</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>92665816.9196942</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>102468886.969675</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>265182645.921936</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>164418277.699747</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>202419301.834061</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>82767473.921588</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>34245341.6349717</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>40492587.1191558</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>42361653.6873718</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>54172563.0957148</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>84189670.2264038</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>37291747.5474339</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>16325255.5266306</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>21239020.7901574</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>6688374.08518014</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>15563358.4833443</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>17016375.2434537</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>3619577.55180544</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>-3325246.32298316</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>1235321.60958116</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>-798999.519778664</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>1198822.3338</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>1669296.69670654</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -4096,88 +4120,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>2612633008.71539</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>4255996530.10556</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>6887620085.08305</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>5247830151.73565</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>8562343502.85763</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>6552244097.50332</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>8264591978.65607</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>4435685840.70011</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>4608139533.86539</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>6326599102.32535</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>6654497531.65975</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>19606853157.6172</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>14112537440.3557</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>13205569643.3901</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>8825475044.42666</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>6225912304.38965</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>6680677355.43548</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>9420542977.4159</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>9170023385.53375</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>12668852123.9603</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>20519050386.9592</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>12336637871.6341</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>14543467142.6914</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>9258579553.69378</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -4189,88 +4214,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>6471531961.07118</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>10533527886.8491</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>6708462351.72944</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>8026468633.19345</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>7631697679.26986</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>7888795958.38384</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>8516791587.26614</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>6338221843.71206</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>3964225203.97104</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>5788764338.95493</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>7167904376.98535</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>9721214874.89366</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>8632148429.26113</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>7533657477.33749</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>12522973048.9392</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>13212980296.5266</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>13764608328.1938</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>12754494703.7243</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>10009377234.4412</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>9524375929.16234</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>9075336578.85297</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>7815016395.356</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>8352538388.251</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>6040429471.4889</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -4282,88 +4308,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>415772974.869403</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>2075173483.67944</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>2347111849.33793</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>603417130.971065</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>1009523279.98117</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>1078197796.266</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>2352186839.50353</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>2488406322.29265</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>2295933701.52282</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>2708914772.20302</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>3497374800.29646</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>1308972570.62682</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>1179609120.89267</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>1560015384.08775</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>1651708226.81886</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>92801926.4652425</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>1358818619.20589</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>1946872562.87157</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>4848065474.14234</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>4212320532.76958</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>3893327623.55344</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>3027154186.03531</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>1242290243.7502</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>441767039.132532</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4375,62 +4402,63 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="n">
         <v>11104427.4229181</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="1" t="n">
         <v>305624858.504391</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>5323641330.2113</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>7578888755.91932</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>7955288801.0959</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>10375782.2789978</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>2333097.89027099</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>-218513.458282658</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>459153.75270058</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-81758.5360188613</v>
       </c>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20" t="n">
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1" t="n">
         <v>-2391.76371203019</v>
       </c>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4440,108 +4468,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>21228143918.8223</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>18255763741.9323</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>16101818741.1213</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>17383554422.2538</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>13228605702.3603</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>16925701573.5089</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>13714338594.7575</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>14102066190.5562</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>15646035550.2611</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>13723041606.5727</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>2778642436.79107</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>-240143059.95053</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>619749777.540361</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>755220784.425894</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>1111608618.90147</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>441287010.62049</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>362100543.828991</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>285974309.768335</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>3171998282.88986</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>1153643983.75534</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>1452416.60055832</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="1" t="n">
         <v>722116.218101378</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="1" t="n">
         <v>5275300.88719347</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="1" t="n">
         <v>1231697.54830837</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="1" t="n">
         <v>7316570.87611551</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>4195882.15880565</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>-462684.176253351</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>223606.963332721</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4677,88 +4706,89 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>8265639486</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>11222966166</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>11120140626</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>10540513074</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>12818877326.5156</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>11598110708.5245</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>14102583252.3517</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>14500076462.1738</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>16553847794.1065</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>18661733716.402</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>13967338487.0003</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>24577714669.5493</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>19844126584.3259</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>19321922682.4328</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>19853932889.6631</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>17542827513.9945</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>20149476609.3658</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>21828433698.5253</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>23361267665.8085</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>25212313739.8772</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>32014124074.1493</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>24085635254.2797</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>25630831552.3427</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>17760662762.3544</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4767,88 +4797,89 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>128306121</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>146068198</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>199804095.9004</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>252967277.01</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>256300483.3297</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>329764593.6109</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>353801647.9729</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>347617661.2713</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>429847100.4329</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>450976954.2315</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>520575140.2767</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>601220689.2413</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>570171648.0302</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>603292186.9749</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>734616182.8559</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>756785456.2461</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>789486829.6154</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>805332404.5743</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>1053187865.5391</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>979219338.8192</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>696309278.4826</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>817030689.018</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>997392353.2473</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>108655578.0499</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4857,78 +4888,79 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>6338932</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>3668769</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>3036643</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>1170677</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>3702</v>
       </c>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4" t="n">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="n">
         <v>56409823.1518</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>250065008.9206</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>381304486.5243</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>480540808.8799</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>643651442.0328</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>718208530.6321</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>667404355.4719</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>629344893.2809</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>829836926.9361</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>701016324.3303</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>577597002.7029</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>570758528.3878</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>625095019.9544</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>142246961.3464</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4937,88 +4969,89 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>32523679</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>56035838</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>118921417</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>119266440</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>134696725</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>109713900.0935</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>133357334.7812</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>212214642.033</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>170544365.131</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>195375550.9643</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>131941268.3299</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>94382657.1387</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>152329909.3883</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>56836161.9164</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>57855391.4834</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>33431187.7537</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>18375603.5163</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>12853616.411</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>16425608.077</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>41579470.835</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>26540799.9291</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>24438506.002</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>13669433.5681</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>8297662.8575</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -5027,88 +5060,89 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>124083067</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>102877275</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>131319695</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>303568109.1104</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>341229471</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>496105422.2316</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>779178032.1475</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>609435905.6012</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>635615279.8952</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>599581960.0733</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>874308123.0461</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>904116064.0669</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>793595992.8994</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>719807686.7205</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>830181982.2714</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>537231108.3566</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>707789483.891</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>1130270922.0799</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>1700609509.1899</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>1383347471.8993</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>1561385244.7797</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>3919265108.5473</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>5235460904.853</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>2159652686.9528</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -5117,88 +5151,89 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>792136941</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>871079231</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>1120969379.0298</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>1464312729.9302</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>1289854915.3183</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>1508419219.6701</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>1450200011.2365</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>1582425417.3198</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>1563229550.5037</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>1593823433.7213</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>2011188756.3825</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>1961892673.1586</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>2081826812.5887</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>1867039154.4264</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>1706797661.9929</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>1888932509.5129</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>2320080315.9824</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>2801513021.4291</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>4348403730.0673</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>4988325311.376</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>5207346306.2631</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>2544016155.3789</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>1881025237.1541</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>533057615.5018</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -5207,172 +5242,174 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>6793537</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>1631816</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>1359533</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>-9159299</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>1859084</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>230117</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>83603</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="2" t="n">
         <v>724868.71</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>1403.64</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="2" t="n">
         <v>2900</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>428334.8573</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>179501.4579</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>162102.161</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>1839845.91</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>390822.77</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>792766.4127</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="2" t="n">
         <v>46025.9219</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="2" t="n">
         <v>168808.7998</v>
       </c>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5491,88 +5528,89 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>13355042098.0888</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>17703972567.6221</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>17269198532.8256</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>16062037899.8343</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>19067815040.1498</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>16743667106.5822</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>19717312180.0458</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>19731949737.8204</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>22066540191.072</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>24626135684.2953</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>18272459328.6626</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>31518040803.6684</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>24989708602.8736</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>23894821980.9196</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>24086760783.3636</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>21041701781.2872</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>23969616387.7724</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>25511412130.1742</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>26676500152.8106</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>28237163552.2732</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>35382996725.0986</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>25754470993.2726</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>25630831552.3427</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>16940091360.4308</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5581,88 +5619,89 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>207308055.269019</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>230419243.196887</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>310288935.70898</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>385481234.378905</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>381241670.885084</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>476066207.481538</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>494662390.433542</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>473044003.462838</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>572992964.275973</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>595111892.290808</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>681030826.815864</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>770995125.881019</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>718017156.227433</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>746072719.944755</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>891235220.869027</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>907724474.292567</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>939165657.547837</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>941211227.458212</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>1202647333.09453</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>1096701274.98268</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>769582477.507166</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>873640780.439397</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>997392353.2473</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>103635514.260602</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5671,78 +5710,79 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>10242002.9158434</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="2" t="n">
         <v>5787399.22870959</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="2" t="n">
         <v>4715802.8485453</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="2" t="n">
         <v>1783922.49129184</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="2" t="n">
         <v>5506.64847479447</v>
       </c>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16" t="n">
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2" t="n">
         <v>73796894.1067516</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>320679089.195143</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>480176739.788433</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>594269901.162164</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>780876937.494984</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>861453474.719599</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>793937564.053356</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>735530417.173004</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>947600328.239834</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>785120826.55943</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>638378011.146836</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>610305014.102321</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>625095019.9544</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>135674921.211795</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5751,88 +5791,89 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>52549485.4893465</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>88395253.4545771</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>184680898.295138</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>181742773.431364</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>200358594.079163</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>158388988.197896</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>186451528.370968</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>288785280.625819</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>227338328.486015</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>257818748.276966</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>172609224.124849</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>121034704.766175</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>191829054.856085</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>70287517.1064552</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>70190071.7824051</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>40098956.8156224</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>21859434.6502669</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>15022328.6816198</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>18756590.7229175</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>46567971.924285</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>29333710.1711035</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>26131791.3064215</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>13669433.5681</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>7914297.38658414</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5841,88 +5882,89 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>200484740.019421</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>162286549.517493</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>203935000.509148</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>462588722.150498</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>507571784.450858</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>716204927.541433</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>1089395909.15899</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>829330706.573607</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>847285192.803355</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>791211948.847142</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>1143794118.96892</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>1159422972.46285</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>999375433.667534</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>890163821.549787</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1007175501.43634</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>644380545.875641</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>841979309.98768</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>1320974638.40845</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>1941945551.9605</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>1549314720.444</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>1725691100.42488</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>4190821561.78925</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>5235460904.853</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>2059873232.95871</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5931,88 +5973,89 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>1279879459.10593</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>1374107573.8577</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>1740827153.78817</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>2231375873.2831</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>1918632523.53962</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>2177636505.29421</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>2027575078.50824</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>2153391320.37395</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>2083809645.53403</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>2103218957.6863</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>2631092873.38216</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>2515897598.9595</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>2621644504.59274</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>2308909364.74902</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>2070684293.0567</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>2265675502.90522</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>2759944401.58664</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>3274195220.08837</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>4965492216.82007</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>5586800129.59232</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>5755319648.10934</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>2720284916.23366</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>1881025237.1541</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>508429489.811272</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -6021,172 +6064,1835 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>10976521.8751187</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>2574152.43636107</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>2111308.30792139</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>-13957290.9441006</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>2765349.02029033</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>332209.490010597</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="2" t="n">
         <v>116888.262291483</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="2" t="n">
         <v>986413.622683368</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="2" t="n">
         <v>1871.07425772173</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="2" t="n">
         <v>3826.85738472886</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>560359.532086036</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>230189.598604935</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>204135.251308351</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>2275280.3235127</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>474145.582237901</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>950881.744972249</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="2" t="n">
         <v>54751.9775934914</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>197290.878602473</v>
       </c>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>21228143918.8223</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>18255763741.9323</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>16101818741.1213</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>17383554422.2538</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>13228605702.3603</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>16925701573.5089</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>13714338594.7575</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>14102066190.5562</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>15646035550.2611</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>13723041606.5727</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>8265639486</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>11222966166</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>11120140626</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>10540513074</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>12818877326.5156</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>11598110708.5245</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>14102583252.3517</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>14500076462.1738</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>16553847794.1065</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>18661733716.402</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>13967338487.0003</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>24577714669.5493</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>19844126584.3259</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>19321922682.4328</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>19853932889.6631</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>17542827513.9945</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>20149476609.3658</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>21828433698.5253</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>23361267665.8085</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>25212313739.8772</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>32014124074.1493</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>24085635254.2797</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>25630831552.3427</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>17760662762.3544</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>128306121</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>146068198</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>199804095.9004</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>252967277.01</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>256300483.3297</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>329764593.6109</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>353801647.9729</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>347617661.2713</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>429847100.4329</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>450976954.2315</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>520575140.2767</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>601220689.2413</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>570171648.0302</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>603292186.9749</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>734616182.8559</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>756785456.2461</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>789486829.6154</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>805332404.5743</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>1053187865.5391</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>979219338.8192</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>696309278.4826</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>817030689.018</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>997392353.2473</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>108655578.0499</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>6338932</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>3668769</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>3036643</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1170677</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>3702</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3" t="n">
+        <v>56409823.1518</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>250065008.9206</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>381304486.5243</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>480540808.8799</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>643651442.0328</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>718208530.6321</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>667404355.4719</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>629344893.2809</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>829836926.9361</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>701016324.3303</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>577597002.7029</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>570758528.3878</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>625095019.9544</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>142246961.3464</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>32523679</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>56035838</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>118921417</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>119266440</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>134696725</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>109713900.0935</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>133357334.7812</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>212214642.033</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>170544365.131</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>195375550.9643</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>131941268.3299</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>94382657.1387</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>152329909.3883</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>56836161.9164</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>57855391.4834</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>33431187.7537</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>18375603.5163</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>12853616.411</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>16425608.077</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>41579470.835</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>26540799.9291</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>24438506.002</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>13669433.5681</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>8297662.8575</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>124083067</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>102877275</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>131319695</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>303568109.1104</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>341229471</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>496105422.2316</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>779178032.1475</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>609435905.6012</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>635615279.8952</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>599581960.0733</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>874308123.0461</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>904116064.0669</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>793595992.8994</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>719807686.7205</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>830181982.2714</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>537231108.3566</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>707789483.891</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>1130270922.0799</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>1700609509.1899</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1383347471.8993</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1561385244.7797</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>3919265108.5473</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>5235460904.853</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>2159652686.9528</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>792136941</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>871079231</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1120969379.0298</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>1464312729.9302</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1289854915.3183</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>1508419219.6701</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>1450200011.2365</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>1582425417.3198</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>1563229550.5037</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>1593823433.7213</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>2011188756.3825</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>1961892673.1586</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>2081826812.5887</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>1867039154.4264</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>1706797661.9929</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>1888932509.5129</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>2320080315.9824</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>2801513021.4291</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>4348403730.0673</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>4988325311.376</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>5207346306.2631</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>2544016155.3789</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>1881025237.1541</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>533057615.5018</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>6793537</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>1631816</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>1359533</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>-9159299</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>1859084</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>230117</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>83603</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>724868.71</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>1403.64</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>428334.8573</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>179501.4579</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>162102.161</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>1839845.91</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>390822.77</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>792766.4127</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>46025.9219</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>168808.7998</v>
+      </c>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>10680657493</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>9512770712</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>8600082026</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>9502770472</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>7389026646</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>9654356740</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>7969628348</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>8340521642</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>9369233233</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>8320132027</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>13355042098.0888</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>17703972567.6221</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>17269198532.8256</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>16062037899.8343</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>19067815040.1498</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>16743667106.5822</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>19717312180.0458</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>19731949737.8204</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>22066540191.072</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>24626135684.2953</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>18272459328.6626</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>31518040803.6684</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>24989708602.8736</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>23894821980.9196</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>24086760783.3636</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>21041701781.2872</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>23969616387.7724</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>25511412130.1742</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>26676500152.8106</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>28237163552.2732</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>35382996725.0986</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>25754470993.2726</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>25630831552.3427</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>16940091360.4308</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>207308055.269019</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>230419243.196887</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>310288935.70898</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>385481234.378905</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>381241670.885084</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>476066207.481538</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>494662390.433542</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>473044003.462838</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>572992964.275973</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>595111892.290808</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>681030826.815864</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>770995125.881019</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>718017156.227433</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>746072719.944755</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>891235220.869027</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>907724474.292567</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>939165657.547837</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>941211227.458212</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>1202647333.09453</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>1096701274.98268</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>769582477.507166</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>873640780.439397</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>997392353.2473</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>103635514.260602</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="n">
+        <v>10242002.9158434</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>5787399.22870959</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>4715802.8485453</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>1783922.49129184</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>5506.64847479447</v>
+      </c>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3" t="n">
+        <v>73796894.1067516</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>320679089.195143</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>480176739.788433</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>594269901.162164</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>780876937.494984</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>861453474.719599</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>793937564.053356</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>735530417.173004</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>947600328.239834</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>785120826.55943</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>638378011.146836</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>610305014.102321</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>625095019.9544</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>135674921.211795</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>52549485.4893465</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>88395253.4545771</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>184680898.295138</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>181742773.431364</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>200358594.079163</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>158388988.197896</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>186451528.370968</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>288785280.625819</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>227338328.486015</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>257818748.276966</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>172609224.124849</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>121034704.766175</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>191829054.856085</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>70287517.1064552</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>70190071.7824051</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>40098956.8156224</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>21859434.6502669</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>15022328.6816198</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>18756590.7229175</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>46567971.924285</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>29333710.1711035</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>26131791.3064215</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>13669433.5681</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>7914297.38658414</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>200484740.019421</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>162286549.517493</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>203935000.509148</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>462588722.150498</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>507571784.450858</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>716204927.541433</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>1089395909.15899</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>829330706.573607</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>847285192.803355</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>791211948.847142</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>1143794118.96892</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>1159422972.46285</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>999375433.667534</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>890163821.549787</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>1007175501.43634</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>644380545.875641</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>841979309.98768</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>1320974638.40845</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>1941945551.9605</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>1549314720.444</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>1725691100.42488</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>4190821561.78925</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>5235460904.853</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>2059873232.95871</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>1279879459.10593</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>1374107573.8577</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>1740827153.78817</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>2231375873.2831</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>1918632523.53962</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>2177636505.29421</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>2027575078.50824</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>2153391320.37395</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>2083809645.53403</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>2103218957.6863</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>2631092873.38216</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>2515897598.9595</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>2621644504.59274</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>2308909364.74902</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>2070684293.0567</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>2265675502.90522</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>2759944401.58664</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>3274195220.08837</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>4965492216.82007</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>5586800129.59232</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>5755319648.10934</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>2720284916.23366</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>1881025237.1541</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>508429489.811272</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>10976521.8751187</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>2574152.43636107</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>2111308.30792139</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>-13957290.9441006</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>2765349.02029033</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>332209.490010597</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>116888.262291483</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>986413.622683368</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>1871.07425772173</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>3826.85738472886</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>560359.532086036</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>230189.598604935</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>204135.251308351</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>2275280.3235127</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>474145.582237901</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>950881.744972249</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>54751.9775934914</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>197290.878602473</v>
+      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>21228143918.8223</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>18255763741.9323</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>16101818741.1213</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>17383554422.2538</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>13228605702.3603</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>16925701573.5089</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>13714338594.7575</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>14102066190.5562</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>15646035550.2611</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>13723041606.5727</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -231,15 +233,92 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVN 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD(X)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDG 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTROYER DDG-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPD 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSN 774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRCRAFT CARRIERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPHIBIOUS ASSAULT
+SHIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBAT SHIPS AND
+LANDING VESSELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTROYERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINT-REP OF
+SHIPS-SML
+CRAFT-DOCKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINE LIFESAVING &amp;
+DIVING EQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-NUCLEAR SHIP
+REPAIR (EAST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-NUCLEAR SHIP
+REPAIR (WEST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUCLEAR REACTORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIP AND BOAT
+PROPULSION
+COMPONENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBMARINES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,11 +354,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7898,4 +7979,3546 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="n">
+        <v>168306228</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>609170639</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>654516219</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>831789115.6211</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2551440895.1563</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2490854652.1377</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>767227263.1692</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>817655058.2351</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1006989502.9744</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>640168664.9294</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1293837691.2202</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1404005908.234</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1165471109.1283</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>1233292361.7636</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>1494000025.9266</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>1873090114.598</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>2058614313.7305</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>1488032306.0787</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>1447916677.2671</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>1916942835.0782</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="n">
+        <v>1089800</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>185499760</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1483041760</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2405161321.7945</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>2286886347.8635</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1707481680.0137</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>468819761.4258</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>4290156702.3711</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>512418799.4375</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>703164296.0492</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>327626030.94</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>252006287.2086</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>704782225.7641</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>323385846.5538</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>372554547.9729</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>404519090.0352</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>297073821.4268</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>241754898.0356</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>157251771.4038</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>90204488.1685</v>
+      </c>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="n">
+        <v>20376460</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1224827</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>-26492</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>197023353</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>314254997.9006</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>435409420.8555</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>338422492.1084</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>328967009.6473</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>313576047.0245</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>703283178.8159</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2415498483.0455</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1011634819.587</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1726500687.7114</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1672151721.0201</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1414280797.5816</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1606933343.2715</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>2050710430.1875</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2076491465.1311</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>3149392381.0223</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>3826482425.6815</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>1730147315.375</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>2245320071.1841</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>322181271.8004</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>105041959</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>85892792</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>47894151</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>478760818</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="n">
+        <v>2591384</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>6249474</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>28164204</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>37644599.375</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>67272593.7559</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>886600388.3037</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>129234583.1241</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1903734510.3088</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1737958356.1516</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1840967614.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1659903287.31</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1641127325.4464</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1589903596.1289</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>1016839253.8222</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>3081050641.4419</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2036956556.9494</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2868031027.4206</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>558515197.0979</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>435069417.8358</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>144446370.3211</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="n">
+        <v>23740497</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>22067259</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>2556355074</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1325317784.9063</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1190987692.5</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>489834497.25</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>257657101.8755</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>1736821585.649</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1701228895.7251</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>1600609663.63</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>105729417.6094</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>152543994.5812</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>412315356.3418</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>1619292612.3359</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>1421990575.3915</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>192793496.3437</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>80995767.7725</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>39992566.8213</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>52581649.4336</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>7519409</v>
+      </c>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>1477027827</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1395202921</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1927491884</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>2713058186</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>2372162939</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>2306250314.3125</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2783345374.5837</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>3390107298.4368</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>2445708075.3767</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2022381510.2102</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>2026874374.101</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>1971399735.8904</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2936860148.6247</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>1788305593.0308</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>1700625496.05</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>450082871.9564</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1621625338.8895</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>1467887989.4611</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>818386205.897</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>14507310.5232</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>1964368141.207</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>755853059.2085</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>868305393.9962</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>833431989.7915</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="n">
+        <v>21923679</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>52808525</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>264510756.625</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>118828072.7608</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>528320531.721</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>3065727748.5034</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>2725073206.2548</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>3696675076.4201</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>3170239312.6382</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>3320477792.21</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>6080579078.82</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>4237183816.3412</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>4188587647.3904</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>3662263189.1562</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>4094100678.9788</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>2746126388.6599</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>9627898165.9981</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>5768512253.7366</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>5033945702.0625</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>3990432901.5771</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="M10"/>
+      <c r="N10" s="4" t="n">
+        <v>7773751977</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>10902855120</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>10718940526.9302</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>9480846496.0506</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>12055983827.1636</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>10546042991.9175</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>8613861072.4256</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>8805224272.1062</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>9953502347.6886</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>10525037991.9492</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>10484020464.2783</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>11557630111.6133</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>11746187700.7793</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>11431084214.8801</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>10986973650.0998</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>11926978071.5592</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>13363040606.8502</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>15834245681.82</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>17951157164.8781</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>22888416319.0053</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>19359839043.0697</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>21378336645.2601</v>
+      </c>
+      <c r="AJ10" s="4" t="n">
+        <v>24143083817.9365</v>
+      </c>
+      <c r="AK10" s="4" t="n">
+        <v>15355078130.1452</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="n">
+        <v>250352035.039063</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>879432059.828781</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>915101892.043372</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>1131912722.30306</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>3401110953.68146</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>3286946730.9722</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>1003707970.21553</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>1048546857.80484</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>1268101880.85371</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>791676715.493667</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>1569681892.95865</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>1684031470.79101</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>1386432806.09343</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>1441378257.02413</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>1706015807.44958</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>2097814284.70783</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>2275243993.94029</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>1591134485.73655</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>1447916677.2671</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>1828376969.56773</v>
+      </c>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="n">
+        <v>1621054.97240168</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>267797601.51005</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>2073492269.80017</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>3272984279.55213</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>3048455569.67788</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>2253203060.84471</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>613323005.746533</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>5501623556.8473</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>645288994.008523</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>869581456.958753</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>397475395.807514</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>302268328.080105</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>838401905.716678</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>377948767.302376</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>425424321.920477</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>453051307.515432</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>328335144.397866</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>258505513.481655</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>157251771.4038</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>86036894.6329077</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="n">
+        <v>32143399.840064</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>1902114.491422</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>-40369.5251886759</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>293068164.855847</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>453675706.644184</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>608761056.291528</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>460531061.463779</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>438518212.213074</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>413796831.458549</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>920054546.784739</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>3097593929.02999</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>1273951728.06284</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>2135109805.62546</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>2028651890.86394</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>1696355661.82096</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>1911591876.33861</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>2396714288.65254</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>2371169479.29814</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>3527241040.65678</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>4229146323.75847</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>1850025061.72206</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>2245320071.1841</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>307295974.927632</v>
+      </c>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>169719449.642921</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>135493915.853659</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>74377980.4588352</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>729554088.087048</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="n">
+        <v>3854630.13268687</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>9022082.55093925</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>39377353.2574531</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>51227408.676473</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>89675428.4765582</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>1169963187.33913</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>169068263.519899</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>2441316565.92158</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>2188610957.48412</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>2276667501.04309</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>2013792109.96382</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>1968446177.76794</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>1891333459.00587</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>1188404336.86955</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>3518287153.03569</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>2281340619.54346</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>3169836295.24466</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>597213371.833482</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>435069417.8358</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>137772713.927579</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="n">
+        <v>35313498.540225</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>31857502.3067473</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>3574128947.52433</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>1803514897.77524</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>1587605377.94602</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>646388538.998658</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>337074161.920184</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>2227270286.97258</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>2142357547.97786</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>1979424284.11389</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>128270766.496239</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>182968523.172411</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>490486235.146517</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>1892505974.69293</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>1623787387.927</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>215923914.966249</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>89519019.1430333</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>42763555.591197</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>52581649.4336</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>7172000.11851136</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>2386478244.42916</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>2200900713.26071</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>2993329053.53548</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>4134262070.74099</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>3528543336.03683</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>3329429119.77184</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>3891491982.25096</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>4613315453.41</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>3260167437.33401</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>2668746764.51276</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>2651613233.22545</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>2528089293.5549</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>3698387984.45743</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>2211542013.45627</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>2063196230.84716</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>539850805.750493</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>1929069327.77626</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>1715555773.59657</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>934524618.226185</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>16247826.5253099</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>2171080219.03805</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>808224299.797228</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>868305393.9962</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>794926081.232686</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4" t="n">
+        <v>32611019.3212409</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>76237275.6400521</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>369821689.404707</v>
+      </c>
+      <c r="U22" s="4" t="n">
+        <v>161703254.825917</v>
+      </c>
+      <c r="V22" s="4" t="n">
+        <v>704259601.271708</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>4045552715.14773</v>
+      </c>
+      <c r="X22" s="4" t="n">
+        <v>3565016296.78863</v>
+      </c>
+      <c r="Y22" s="4" t="n">
+        <v>4740552873.32577</v>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>3992282365.64356</v>
+      </c>
+      <c r="AA22" s="4" t="n">
+        <v>4106331809.75264</v>
+      </c>
+      <c r="AB22" s="4" t="n">
+        <v>7376949167.19082</v>
+      </c>
+      <c r="AC22" s="4" t="n">
+        <v>5082279819.76247</v>
+      </c>
+      <c r="AD22" s="4" t="n">
+        <v>4982702085.06772</v>
+      </c>
+      <c r="AE22" s="4" t="n">
+        <v>4280174511.74438</v>
+      </c>
+      <c r="AF22" s="4" t="n">
+        <v>4675100638.83428</v>
+      </c>
+      <c r="AG22" s="4" t="n">
+        <v>3075593171.33028</v>
+      </c>
+      <c r="AH22" s="4" t="n">
+        <v>10641049821.887</v>
+      </c>
+      <c r="AI22" s="4" t="n">
+        <v>6168198594.08934</v>
+      </c>
+      <c r="AJ22" s="4" t="n">
+        <v>5033945702.0625</v>
+      </c>
+      <c r="AK22" s="4" t="n">
+        <v>3806068434.76962</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="M23"/>
+      <c r="N23" s="4" t="n">
+        <v>12560284668.6914</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>17199004710.3594</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>16646148483.7978</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>14447277345.3225</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>17933026729.875</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>15224844596.3347</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>12043338784.2073</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v>11982298384.4727</v>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v>13268175612.645</v>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v>13888903228.9802</v>
+      </c>
+      <c r="X23" s="4" t="n">
+        <v>13715486147.3923</v>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v>14821307121.0748</v>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v>14791974168.7691</v>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <v>14136466999.3115</v>
+      </c>
+      <c r="AB23" s="4" t="n">
+        <v>13329379499.4571</v>
+      </c>
+      <c r="AC23" s="4" t="n">
+        <v>14305784830.4955</v>
+      </c>
+      <c r="AD23" s="4" t="n">
+        <v>15896539812.4307</v>
+      </c>
+      <c r="AE23" s="4" t="n">
+        <v>18505861342.98</v>
+      </c>
+      <c r="AF23" s="4" t="n">
+        <v>20498632766.9571</v>
+      </c>
+      <c r="AG23" s="4" t="n">
+        <v>25634456310.5305</v>
+      </c>
+      <c r="AH23" s="4" t="n">
+        <v>21397090855.0486</v>
+      </c>
+      <c r="AI23" s="4" t="n">
+        <v>22859590174.8921</v>
+      </c>
+      <c r="AJ23" s="4" t="n">
+        <v>24143083817.9365</v>
+      </c>
+      <c r="AK23" s="4" t="n">
+        <v>14645648636.6352</v>
+      </c>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>236031048</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>4036653514</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>619399425</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>42073921</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>506211043</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>805665474</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>1960642034</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>1146811935</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>2736080711.6011</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>2633709562.5286</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>2138004181.4523</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>2008286262.861</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>1465481792.8959</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>744343385.34</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>1199617768.69</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>1160567035.5253</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>629728691.25</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>346672073.3803</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>167224449.3125</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>27340188</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>45034823.4063</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>36354359.7969</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>70036501.125</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>6111804</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>1085679752</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>482944737</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>1041893262</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>717676811</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>1289849954</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>719493281</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>3283530742</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>2558642289.9063</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>2157786982.5</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>1501389384</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>267208724.5</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>1843218030.625</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>3852766590.4609</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>1665530494.59</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>140540939.08</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>166687719.8663</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>861262468</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>109635415.4219</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>39211623.3438</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>10944096</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>2716871.4219</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>22632439</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>-973045.9531</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="n">
+        <v>185965</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>16980</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>123229</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>53007878</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>77877489.38</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>134812065.8161</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>1131116249.7867</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>323742487.1949</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>2405125788.1859</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>2741337892.0989</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>6721858916.65</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>10219566930.42</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>8822111956.395</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>9938943123.8612</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>13317946229.8101</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>14467924228.5537</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>15168969466.6386</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>24066835420.3242</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>15819704301.7288</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>15909335236.8888</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>13657972905.1128</v>
+      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>1189569549</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>813477234</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>1405618159</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>1320567364</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>1724045610</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>1897778247</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>450603267.4063</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>1277829341.6563</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>1071278624.2969</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>637297593.939</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>181273596.9976</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>5839462007</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>1032156899.9375</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>463362600</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>-16199417.19</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>97476803.77</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>235074025.33</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>169793717.625</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>125674202.6951</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>45167308</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>71656528</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>2157784</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>-20036115.875</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>-402984</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>602163933</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>1842155074</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1470709043</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>240221298</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>489357549</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>511856377</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>362603014.8106</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>1127250359.2338</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>983648719.5714</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>788409220.1498</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>324299380.4726</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>348788516.6656</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>257673052.2817</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>201220003.93</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>176566709.98</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>135635171.8447</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>187376458.8038</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>387318464.1328</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>338614572.7675</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>540843653.1345</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>410361243.0523</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>394143533.6929</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>415429716.0781</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>207885870.9824</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>21418403</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>31054879</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>51280113</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>49740455</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>71831035</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>148217406</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>183313023.4316</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>270926690.529</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>211193748.0655</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>309643328.7118</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>733968398.6469</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>700148198.2618</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>979309620.2771</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>842367464.5034</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>823762347.3435</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>1033622161.2663</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>1194280668.2992</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>1731540139.5248</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>3316182275.5912</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>3899664765.5005</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>3817812205.3736</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>3421947710.6928</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>4144764422.1977</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>2423980982.3908</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>634348033</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>616906640</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>602488226</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>1081353465</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>812227386</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>657737102.6854</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>914049065.8473</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>941310944.5109</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>927513717.8748</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>961417748.5831</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>1201640294.1374</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>1384456111.1377</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>1351077536.0448</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>1419903149.7034</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>1577237698.4815</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>1321827989.0013</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>1574152037.7786</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>1450246460.7608</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>2316644350.6915</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>1608832975.6317</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>1843890788.525</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>1843569361.647</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>1672112727.1595</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>1459360912.3014</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>482218841</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>547576266</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>647735758</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>682224127</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>602382356.375</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>756329836.3019</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>596050956.3716</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>686789813.7897</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>607600772.2739</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>911272674.8262</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>919121832.1143</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>1200325135.9174</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>1340303073.7906</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>1106323464.9356</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>1354418441.9917</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>1460781667.5604</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>1172175037.418</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>1066772488.9373</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>1746187480.1071</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>1753122702.9697</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>2033087616.6515</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>1790048004.2467</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>1597905953.3138</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>1056899192.4422</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>750027402</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>372285256</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>218594372</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>680943286</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>477599459</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>155070606</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>859220907.0438</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>865854029.9539</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>1514798800.3875</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>1895340342.5674</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>1710142845.9383</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>2694383773.2332</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>2517605300.7244</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>2464465149.34</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>2104992374.22</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>2792672012.5006</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>2581067178.0723</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>3151560888.7541</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>2586697662.0045</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>3489323062.5131</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>3131610408.2982</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>3474392048.7558</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>3898703039.9926</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>2872461369.1517</v>
+      </c>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>3241769160</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>3590899388</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>5986056553.9302</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>5498145365.0506</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>6283546704.2886</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>6155650284.1433</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>5923255545.4254</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>6183080910.4817</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>6731646893.5564</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>6834872895.5357</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>5777988913.6845</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>5164896685.6193</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>4345133343.9944</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>3732630593.3085</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>4030285438.5028</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>3781567578.385</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>5455819942.2648</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>4520134234.0561</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>5153895419.7945</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>6364562330.0635</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>4384968209.9923</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>3697276523.68</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>6009592010.6785</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>882819464.4548</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>799381447</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>-163730449</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>322018341</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>495241183</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>662918485.5</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>254561498</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>519059687.7232</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>244405488.8304</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>369723021.1117</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>613004300.5116</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>766892525.0278</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>610584703.0686</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>500766683.6852</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>802752448.6</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>565019323.22</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>567665379.7937</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>546997271.0268</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>862655627.3651</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>959775282.2565</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>284350417.6854</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>203043760.2614</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>1347749661.3728</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>611215056.8809</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>93147879.0459</v>
+      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>313214195</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>234104754</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>329758136</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>1864265768</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>1922835145</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>1979860620</v>
+      </c>
+      <c r="T13" s="5" t="n">
+        <v>1713867759.43</v>
+      </c>
+      <c r="U13" s="5" t="n">
+        <v>1871715663.8371</v>
+      </c>
+      <c r="V13" s="5" t="n">
+        <v>1907001436.654</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <v>3284021214.2525</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>3217906752.878</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>4189896050.9578</v>
+      </c>
+      <c r="Z13" s="5" t="n">
+        <v>3439905749.7264</v>
+      </c>
+      <c r="AA13" s="5" t="n">
+        <v>2886520856.36</v>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>1651617818.33</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>137593597</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>275782321.66</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>93641625.332</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>91699758.5</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>112680691</v>
+      </c>
+      <c r="AH13" s="5" t="n">
+        <v>72284831</v>
+      </c>
+      <c r="AI13" s="5" t="n">
+        <v>111168513</v>
+      </c>
+      <c r="AJ13" s="5" t="n">
+        <v>75388998.6328</v>
+      </c>
+      <c r="AK13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="M14"/>
+      <c r="N14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>17</v>
+      </c>
+      <c r="U18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>381362456.93211</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>6367728639.63129</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>961906148.599726</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>64113853.7519198</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>752978462.41493</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>1163102753.10684</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>2741241825.41176</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>1560601112.63442</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>3647238741.07732</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>3475458927.10123</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>2796996327.28583</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>2575391944.66775</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>1845481221.44169</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>920506358.38353</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>1455374428.15436</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>1392039307.18894</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>749118969.701694</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>405163937.100276</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>190955521.397823</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>30620329.7353405</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>49773874.9749895</v>
+      </c>
+      <c r="AI19" s="5" t="n">
+        <v>38873265.9522397</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
+        <v>70036501.125</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <v>5829428.7506263</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>1754165399.73234</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>761834282.404576</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>1618024645.24798</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>1093623437.22607</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>1918625143.68121</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>1038699861.14481</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>4590818542.55284</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>3481843781.52747</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>2876364079.53806</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>1981242431.55652</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>349569859.371159</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>2363711267.72306</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>4851788966.44169</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>2059709860.45837</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>170504050.69374</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>199933180.055009</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>1024549241.02348</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>128133530.124972</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>44776203.5471131</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>12257114.9904025</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>3002770.03990328</v>
+      </c>
+      <c r="AI20" s="5" t="n">
+        <v>24200586.2655808</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
+        <v>-973045.9531</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="n">
+        <v>283380.596093617</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>25257.3990010833</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>177900.125781737</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>74112158.0227858</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>105977007.098032</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>179706609.94186</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>1492627783.95967</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>423528894.623313</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>3084292162.6036</v>
+      </c>
+      <c r="Z21" s="5" t="n">
+        <v>3452166806.86147</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>8312714259.03386</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>12398362849.8493</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>10581660722.5664</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>11823267601.3087</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>15565002037.6469</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>16521089027.1484</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>16988868065.3471</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>26599408338.9098</v>
+      </c>
+      <c r="AI21" s="5" t="n">
+        <v>16915813565.2091</v>
+      </c>
+      <c r="AJ21" s="5" t="n">
+        <v>15909335236.8888</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>13026952423.2681</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>1922023266.60966</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>1283241740.38333</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>2182876985.59863</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>2012331174.10317</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>2564482206.58634</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>2739736497.47335</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>630004101.646915</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>1738891819.56039</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>1428031302.02152</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>840981725.391515</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>237147143.787048</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>7488426173.16757</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>1299795183.84329</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>573026143.494639</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>-19653107.9687788</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>116918315.12823</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>279641715.719332</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>198441975.602603</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>143508817.04536</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>50586260.2048561</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>79197003.4752016</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>2307291.66372613</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>-20036115.875</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <v>-384365.486138363</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>972934361.43529</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>2905957517.20292</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>2283960904.97326</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>366058422.93777</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>727909238.473802</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>738943867.51888</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>506967887.550256</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>1533981388.88205</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>1311219256.95405</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>1040389533.2133</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>424257437.844103</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>447280426.513266</v>
+      </c>
+      <c r="Z23" s="5" t="n">
+        <v>324487674.676433</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>248842532.491798</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>214210460.42762</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>162687276.879003</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>222901166.352812</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>452668345.360277</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>386667873.99542</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>605731423.435879</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>453543894.732118</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>421452791.197444</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>415429716.0781</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>198281206.850513</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>34606357.3451662</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>48988361.7017778</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>79636263.7817895</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>75796412.162868</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>106847179.720599</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>213974755.702332</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>256296314.298742</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>368681631.031262</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>281524597.045628</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>408607192.797509</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>960197801.841877</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>897858070.944681</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>1233244604.57965</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>1041729694.17415</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>999387210.235586</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>1239775586.60627</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>1420704370.31393</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>2023692342.26553</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>3786786669.58781</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>4367527428.00871</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>4219563729.02466</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>3659046237.5234</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>4144764422.1977</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>2311989132.78638</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>1024935178.93007</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>973156121.991279</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>935643634.232211</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>1647807864.38092</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>1208171446.86742</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>949545263.688318</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>1277963792.63955</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>1280951882.78509</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>1236390414.35077</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>1268692624.47401</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>1572019137.5575</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>1775402830.91448</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>1701411940.81659</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>1755950147.91964</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>1913502344.99919</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>1585463365.50001</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>1872595562.31078</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>1694937697.39855</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>2645402820.57039</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>1801852869.59006</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>2037924935.27884</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>1971305848.79164</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>1672112727.1595</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>1391936073.16432</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>779135471.968562</v>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>863789041.912444</v>
+      </c>
+      <c r="P26" s="5" t="n">
+        <v>1005911505.79144</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>1039599278.24433</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>896031303.072798</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>1091879127.56403</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>833359574.745561</v>
+      </c>
+      <c r="U26" s="5" t="n">
+        <v>934595215.514729</v>
+      </c>
+      <c r="V26" s="5" t="n">
+        <v>809941412.309095</v>
+      </c>
+      <c r="W26" s="5" t="n">
+        <v>1202520884.53802</v>
+      </c>
+      <c r="X26" s="5" t="n">
+        <v>1202420655.2326</v>
+      </c>
+      <c r="Y26" s="5" t="n">
+        <v>1539276418.50222</v>
+      </c>
+      <c r="Z26" s="5" t="n">
+        <v>1687843660.50246</v>
+      </c>
+      <c r="AA26" s="5" t="n">
+        <v>1368155886.05915</v>
+      </c>
+      <c r="AB26" s="5" t="n">
+        <v>1643178366.42912</v>
+      </c>
+      <c r="AC26" s="5" t="n">
+        <v>1752131017.18393</v>
+      </c>
+      <c r="AD26" s="5" t="n">
+        <v>1394407732.31661</v>
+      </c>
+      <c r="AE26" s="5" t="n">
+        <v>1246762502.07773</v>
+      </c>
+      <c r="AF26" s="5" t="n">
+        <v>1993991561.00123</v>
+      </c>
+      <c r="AG26" s="5" t="n">
+        <v>1963453771.10954</v>
+      </c>
+      <c r="AH26" s="5" t="n">
+        <v>2247031101.49766</v>
+      </c>
+      <c r="AI26" s="5" t="n">
+        <v>1914076125.25999</v>
+      </c>
+      <c r="AJ26" s="5" t="n">
+        <v>1597905953.3138</v>
+      </c>
+      <c r="AK26" s="5" t="n">
+        <v>1008068736.97787</v>
+      </c>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>1211841811.5617</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <v>587271480.824863</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>339469592.623687</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>1037647483.62663</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>710419322.653976</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>223868410.134385</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>1201306636.70995</v>
+      </c>
+      <c r="U27" s="5" t="n">
+        <v>1178268834.92022</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>2019250691.79619</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>2501102478.1133</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <v>2237256269.52441</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>3455231653.84942</v>
+      </c>
+      <c r="Z27" s="5" t="n">
+        <v>3170420354.59732</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <v>3047727547.07272</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <v>2553773504.24307</v>
+      </c>
+      <c r="AC27" s="5" t="n">
+        <v>3349663651.03391</v>
+      </c>
+      <c r="AD27" s="5" t="n">
+        <v>3070411769.44053</v>
+      </c>
+      <c r="AE27" s="5" t="n">
+        <v>3683304528.24821</v>
+      </c>
+      <c r="AF27" s="5" t="n">
+        <v>2953779801.80125</v>
+      </c>
+      <c r="AG27" s="5" t="n">
+        <v>3907954938.98138</v>
+      </c>
+      <c r="AH27" s="5" t="n">
+        <v>3461152351.52016</v>
+      </c>
+      <c r="AI27" s="5" t="n">
+        <v>3715124317.63818</v>
+      </c>
+      <c r="AJ27" s="5" t="n">
+        <v>3898703039.9926</v>
+      </c>
+      <c r="AK27" s="5" t="n">
+        <v>2739748998.88745</v>
+      </c>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>5237823846.22696</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>5664561695.89444</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>9296141347.06558</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>8378284682.37248</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>9346645833.46048</v>
+      </c>
+      <c r="S28" s="5" t="n">
+        <v>8886633501.99609</v>
+      </c>
+      <c r="T28" s="5" t="n">
+        <v>8281509608.66438</v>
+      </c>
+      <c r="U28" s="5" t="n">
+        <v>8414041268.59419</v>
+      </c>
+      <c r="V28" s="5" t="n">
+        <v>8973391478.30344</v>
+      </c>
+      <c r="W28" s="5" t="n">
+        <v>9019339246.19445</v>
+      </c>
+      <c r="X28" s="5" t="n">
+        <v>7558925240.12556</v>
+      </c>
+      <c r="Y28" s="5" t="n">
+        <v>6623375145.8498</v>
+      </c>
+      <c r="Z28" s="5" t="n">
+        <v>5471826419.04812</v>
+      </c>
+      <c r="AA28" s="5" t="n">
+        <v>4616028384.62508</v>
+      </c>
+      <c r="AB28" s="5" t="n">
+        <v>4889536082.61833</v>
+      </c>
+      <c r="AC28" s="5" t="n">
+        <v>4535792031.62578</v>
+      </c>
+      <c r="AD28" s="5" t="n">
+        <v>6490188982.6786</v>
+      </c>
+      <c r="AE28" s="5" t="n">
+        <v>5282788903.74554</v>
+      </c>
+      <c r="AF28" s="5" t="n">
+        <v>5885292438.77227</v>
+      </c>
+      <c r="AG28" s="5" t="n">
+        <v>7128151319.50342</v>
+      </c>
+      <c r="AH28" s="5" t="n">
+        <v>4846402027.25715</v>
+      </c>
+      <c r="AI28" s="5" t="n">
+        <v>3953451921.77585</v>
+      </c>
+      <c r="AJ28" s="5" t="n">
+        <v>6009592010.6785</v>
+      </c>
+      <c r="AK28" s="5" t="n">
+        <v>842031774.530945</v>
+      </c>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>1291584625.14586</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>-258281040.386809</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <v>500083483.561166</v>
+      </c>
+      <c r="Q29" s="5" t="n">
+        <v>754667500.059948</v>
+      </c>
+      <c r="R29" s="5" t="n">
+        <v>986077543.784884</v>
+      </c>
+      <c r="S29" s="5" t="n">
+        <v>367498904.587291</v>
+      </c>
+      <c r="T29" s="5" t="n">
+        <v>725715404.034842</v>
+      </c>
+      <c r="U29" s="5" t="n">
+        <v>332591130.386763</v>
+      </c>
+      <c r="V29" s="5" t="n">
+        <v>492846618.284753</v>
+      </c>
+      <c r="W29" s="5" t="n">
+        <v>808924149.752884</v>
+      </c>
+      <c r="X29" s="5" t="n">
+        <v>1003270056.50132</v>
+      </c>
+      <c r="Y29" s="5" t="n">
+        <v>783003377.00864</v>
+      </c>
+      <c r="Z29" s="5" t="n">
+        <v>630615484.644451</v>
+      </c>
+      <c r="AA29" s="5" t="n">
+        <v>992739033.754853</v>
+      </c>
+      <c r="AB29" s="5" t="n">
+        <v>685480572.137114</v>
+      </c>
+      <c r="AC29" s="5" t="n">
+        <v>680884858.706588</v>
+      </c>
+      <c r="AD29" s="5" t="n">
+        <v>650702497.432436</v>
+      </c>
+      <c r="AE29" s="5" t="n">
+        <v>1008206247.87256</v>
+      </c>
+      <c r="AF29" s="5" t="n">
+        <v>1095978430.19677</v>
+      </c>
+      <c r="AG29" s="5" t="n">
+        <v>318465386.920849</v>
+      </c>
+      <c r="AH29" s="5" t="n">
+        <v>224410222.42998</v>
+      </c>
+      <c r="AI29" s="5" t="n">
+        <v>1441131993.96935</v>
+      </c>
+      <c r="AJ29" s="5" t="n">
+        <v>611215056.8809</v>
+      </c>
+      <c r="AK29" s="5" t="n">
+        <v>88844296.0818166</v>
+      </c>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="M30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" s="5" t="n">
+        <v>506069586.875761</v>
+      </c>
+      <c r="O30" s="5" t="n">
+        <v>369294897.753674</v>
+      </c>
+      <c r="P30" s="5" t="n">
+        <v>512103120.808006</v>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>2840839645.16315</v>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>2860177530.65788</v>
+      </c>
+      <c r="S30" s="5" t="n">
+        <v>2858235101.54515</v>
+      </c>
+      <c r="T30" s="5" t="n">
+        <v>2396218128.50222</v>
+      </c>
+      <c r="U30" s="5" t="n">
+        <v>2547062389.54467</v>
+      </c>
+      <c r="V30" s="5" t="n">
+        <v>2542062991.62296</v>
+      </c>
+      <c r="W30" s="5" t="n">
+        <v>4333614081.16152</v>
+      </c>
+      <c r="X30" s="5" t="n">
+        <v>4209754801.89856</v>
+      </c>
+      <c r="Y30" s="5" t="n">
+        <v>5373051012.78722</v>
+      </c>
+      <c r="Z30" s="5" t="n">
+        <v>4331873309.80393</v>
+      </c>
+      <c r="AA30" s="5" t="n">
+        <v>3569670738.2875</v>
+      </c>
+      <c r="AB30" s="5" t="n">
+        <v>2003740191.76664</v>
+      </c>
+      <c r="AC30" s="5" t="n">
+        <v>165036305.166828</v>
+      </c>
+      <c r="AD30" s="5" t="n">
+        <v>328067898.976932</v>
+      </c>
+      <c r="AE30" s="5" t="n">
+        <v>109441205.419398</v>
+      </c>
+      <c r="AF30" s="5" t="n">
+        <v>104713008.584643</v>
+      </c>
+      <c r="AG30" s="5" t="n">
+        <v>126199567.948326</v>
+      </c>
+      <c r="AH30" s="5" t="n">
+        <v>79891423.3175149</v>
+      </c>
+      <c r="AI30" s="5" t="n">
+        <v>118871111.89708</v>
+      </c>
+      <c r="AJ30" s="5" t="n">
+        <v>75388998.6328</v>
+      </c>
+      <c r="AK30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="M31"/>
+      <c r="N31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -812,14 +812,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -858,7 +858,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2310,11 +2310,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>39</v>
       </c>
@@ -2425,554 +2434,710 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>41</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="10" t="n">
         <v>17039000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="10" t="n">
         <v>7973000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="10" t="n">
         <v>7960480</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="10" t="n">
         <v>8852351</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="10" t="n">
         <v>10847718</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="10" t="n">
         <v>8960308</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="10" t="n">
         <v>4793648</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="10" t="n">
         <v>2219646</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="10" t="n">
         <v>7127453</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="10" t="n">
         <v>2075384</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="10" t="n">
         <v>4027864</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="10" t="n">
         <v>17858716</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="10" t="n">
         <v>16735278</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="10" t="n">
         <v>141113735</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="10" t="n">
         <v>62486459</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="10" t="n">
         <v>87201065</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="10" t="n">
         <v>41866388.6328</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="10" t="n">
         <v>7983287.8111</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="10" t="n">
         <v>19071299.4794</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="10" t="n">
         <v>16126534.987</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="10" t="n">
         <v>12870923.2601</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>13858081.4879</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="10" t="n">
         <v>15737768.1748</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="10" t="n">
         <v>11142288.0172</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="10" t="n">
         <v>12929291.4684</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="10" t="n">
         <v>16949457.2496</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="10" t="n">
         <v>27068447.0089</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="10" t="n">
         <v>21365372.295</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="10" t="n">
         <v>19979049.5988</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="10" t="n">
         <v>22462481.7777</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="10" t="n">
         <v>17992591.4095</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="10" t="n">
         <v>17490848.1269</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="10" t="n">
         <v>19298521.4379</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="10" t="n">
         <v>10974090.944</v>
       </c>
+      <c r="AW2" s="10"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="10" t="n">
         <v>96186000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="10" t="n">
         <v>68376000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="10" t="n">
         <v>175234855</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="10" t="n">
         <v>112857959</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="10" t="n">
         <v>81168656</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="10" t="n">
         <v>81192972</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="10" t="n">
         <v>99381537</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="10" t="n">
         <v>91740151</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="10" t="n">
         <v>108464442</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="10" t="n">
         <v>112139922</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="10" t="n">
         <v>65831080</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="10" t="n">
         <v>107493408</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="10" t="n">
         <v>140421826</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="10" t="n">
         <v>171196518</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="10" t="n">
         <v>143866947</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="10" t="n">
         <v>224996916.7793</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="10" t="n">
         <v>239646309.363</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="10" t="n">
         <v>218840887.4896</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="10" t="n">
         <v>335604048.2023</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="10" t="n">
         <v>395633871.5518</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="10" t="n">
         <v>343451927.834</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>209898600.843</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="10" t="n">
         <v>281926353.7913</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="10" t="n">
         <v>219716147.4594</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="10" t="n">
         <v>181749946.6075</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="10" t="n">
         <v>179222690.0634</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="10" t="n">
         <v>285322500.141</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="10" t="n">
         <v>234856888.1826</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="10" t="n">
         <v>264015390.0953</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="10" t="n">
         <v>259967124.5785</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="10" t="n">
         <v>313032177.0361</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="10" t="n">
         <v>320109645.855</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="10" t="n">
         <v>315960782.2024</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="10" t="n">
         <v>71474451.4268</v>
       </c>
+      <c r="AW3" s="10"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="10" t="n">
         <v>46812000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="10" t="n">
         <v>115552000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="10" t="n">
         <v>71009946</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="10" t="n">
         <v>62557418</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="10" t="n">
         <v>64797909</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="10" t="n">
         <v>67961207</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="10" t="n">
         <v>71446930</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="10" t="n">
         <v>58148939</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="10" t="n">
         <v>63720593</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="10" t="n">
         <v>52534494</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="10" t="n">
         <v>62388968</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="10" t="n">
         <v>76420916</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="10" t="n">
         <v>111124824</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="10" t="n">
         <v>125805033</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="10" t="n">
         <v>160196579</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="10" t="n">
         <v>213782631</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="10" t="n">
         <v>299197006</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="10" t="n">
         <v>363504319.1399</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="10" t="n">
         <v>380544997</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="10" t="n">
         <v>627653328.973</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="10" t="n">
         <v>1093652512.9593</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="10" t="n">
         <v>1210002344.4036</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="10" t="n">
         <v>1450553632.0546</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="10" t="n">
         <v>1451161320.0966</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="10" t="n">
         <v>1510630512.8317</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="10" t="n">
         <v>1774818399.3669</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="10" t="n">
         <v>2008136400.8011</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="10" t="n">
         <v>2606635882.7563</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="10" t="n">
         <v>4430399799.3103</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="10" t="n">
         <v>4875010583.8242</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="10" t="n">
         <v>4495864980.8677</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="10" t="n">
         <v>4060835660.2935</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="10" t="n">
         <v>4731771003.3504</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="10" t="n">
         <v>1733844054.2554</v>
       </c>
+      <c r="AW4" s="10"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="10" t="n">
         <v>10520620493</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="10" t="n">
         <v>9320688712</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="10" t="n">
         <v>8345021661</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="10" t="n">
         <v>9304538210</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="10" t="n">
         <v>7230097983</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="10" t="n">
         <v>9472779438</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="10" t="n">
         <v>7760321717</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="10" t="n">
         <v>8145222291</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="10" t="n">
         <v>9124159956</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="10" t="n">
         <v>8121958513</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="10" t="n">
         <v>9152428657</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="10" t="n">
         <v>12161819593</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="10" t="n">
         <v>12393898479.9302</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="10" t="n">
         <v>12213194832.0506</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="10" t="n">
         <v>14456188425.2134</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="10" t="n">
         <v>13481692285.8513</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="10" t="n">
         <v>16213340057.0253</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="10" t="n">
         <v>16605997092.7262</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="10" t="n">
         <v>18517404668.6622</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="10" t="n">
         <v>20343254096.865</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="10" t="n">
         <v>15965862658.6105</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>26807819291.9802</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="10" t="n">
         <v>21907505173.3287</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="10" t="n">
         <v>21272393865.2491</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="10" t="n">
         <v>21998976812.2415</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="10" t="n">
         <v>19395404717.8379</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="10" t="n">
         <v>22211811851.6049</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="10" t="n">
         <v>24211484181.6165</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="10" t="n">
         <v>26469275662.9309</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="10" t="n">
         <v>28046126802.8596</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="10" t="n">
         <v>35162970911.5986</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="10" t="n">
         <v>27525911700.4547</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="10" t="n">
         <v>29292274415.9427</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="10" t="n">
         <v>18898515826.5006</v>
       </c>
+      <c r="AW5" s="10"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>44</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6"/>
-      <c r="P6" t="n">
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="n">
         <v>181000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="10" t="n">
         <v>855084</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="10" t="n">
         <v>13964534</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="10" t="n">
         <v>2114380</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="10" t="n">
         <v>23462815</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="10" t="n">
         <v>33684516</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="10" t="n">
         <v>43190615</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="10" t="n">
         <v>65760789</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="10" t="n">
         <v>31423714</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="10" t="n">
         <v>71145194</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="10" t="n">
         <v>40734660</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="10" t="n">
         <v>33370981</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="10" t="n">
         <v>21328890</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="10" t="n">
         <v>20083296.9502</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="10" t="n">
         <v>34671062.5</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="10" t="n">
         <v>25154120.4687</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="10" t="n">
         <v>56169369.9423</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="10" t="n">
         <v>100460480.3654</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="10" t="n">
         <v>118826683.0156</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="10" t="n">
         <v>146351910.3807</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="10" t="n">
         <v>147992944.8186</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="10" t="n">
         <v>167794608.5684</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="10" t="n">
         <v>96864906.4386</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="10" t="n">
         <v>123139809.9204</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="10" t="n">
         <v>111813808.3908</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="10" t="n">
         <v>120320024.2088</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="10" t="n">
         <v>133575040.2499</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="10" t="n">
         <v>126061403.6826</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="10" t="n">
         <v>102234664.097</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="10" t="n">
         <v>93442045.3948</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="10" t="n">
         <v>36796386.8836</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="10" t="n">
         <v>24169778.1862</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="10" t="n">
         <v>-2235156.064</v>
       </c>
+      <c r="AW6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>256</v>
+      </c>
+      <c r="N7" t="s">
+        <v>257</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="10" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="10" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="10" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="10" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="10" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="10" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="10" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="10" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="10" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="10" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="10" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="10" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="10" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="10" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="10" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="10" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="10" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="10" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="10" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="10" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="10" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="10" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="10" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="10" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="10" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="10" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="10" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>39</v>
       </c>
@@ -3083,552 +3248,630 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>41</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="10" t="n">
         <v>33865550.3624072</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="10" t="n">
         <v>15300821.2560844</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="10" t="n">
         <v>14904300.4083925</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="10" t="n">
         <v>16193732.7463415</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="10" t="n">
         <v>19420715.4835583</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="10" t="n">
         <v>15708918.087351</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="10" t="n">
         <v>8249031.05959514</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="10" t="n">
         <v>3752954.09030286</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="10" t="n">
         <v>11902402.2828288</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="10" t="n">
         <v>3423092.43281137</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="10" t="n">
         <v>6507940.90118345</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="10" t="n">
         <v>28171716.2361936</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="10" t="n">
         <v>25989315.0639036</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="10" t="n">
         <v>215034519.083143</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="10" t="n">
         <v>92947316.0852668</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="10" t="n">
         <v>125888227.866828</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="10" t="n">
         <v>58534854.2003027</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="10" t="n">
         <v>10863793.3215122</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="10" t="n">
         <v>25422342.9919404</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="10" t="n">
         <v>21280672.2431342</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="10" t="n">
         <v>16838098.5404918</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="10" t="n">
         <v>17771366.6086841</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="10" t="n">
         <v>19818571.4587443</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="10" t="n">
         <v>13779321.7065914</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="10" t="n">
         <v>15685796.4831682</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="10" t="n">
         <v>20329985.2612843</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="10" t="n">
         <v>32200354.5598052</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="10" t="n">
         <v>24970221.2014037</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="10" t="n">
         <v>22814306.4537313</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="10" t="n">
         <v>25157420.2308796</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="10" t="n">
         <v>19885966.6266004</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="10" t="n">
         <v>18702746.926799</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="10" t="n">
         <v>19298521.4379</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="10" t="n">
         <v>10467070.158163</v>
       </c>
+      <c r="AW11" s="10"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>42</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="10" t="n">
         <v>191172711.259962</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="10" t="n">
         <v>131218983.344541</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="10" t="n">
         <v>328089879.120493</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="10" t="n">
         <v>206452684.303138</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="10" t="n">
         <v>145316588.646461</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="10" t="n">
         <v>142344855.37959</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="10" t="n">
         <v>171018269.481469</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="10" t="n">
         <v>155113281.550505</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="10" t="n">
         <v>181128857.961821</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="10" t="n">
         <v>184961105.228843</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="10" t="n">
         <v>106365254.164758</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="10" t="n">
         <v>169568393.799273</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="10" t="n">
         <v>218070299.02716</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="10" t="n">
         <v>260875817.062306</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="10" t="n">
         <v>213999109.743622</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="10" t="n">
         <v>324817857.773255</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="10" t="n">
         <v>335057840.819209</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="10" t="n">
         <v>297802387.717715</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="10" t="n">
         <v>447365489.283952</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="10" t="n">
         <v>522080828.619612</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="10" t="n">
         <v>449313331.135956</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="10" t="n">
         <v>269170374.664615</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="10" t="n">
         <v>355029857.261644</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="10" t="n">
         <v>271716139.028397</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="10" t="n">
         <v>220498755.11583</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="10" t="n">
         <v>214968219.561286</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="10" t="n">
         <v>339416800.136685</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="10" t="n">
         <v>274482857.945109</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="10" t="n">
         <v>301482209.569036</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="10" t="n">
         <v>291156705.83326</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="10" t="n">
         <v>345972810.915119</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="10" t="n">
         <v>342289273.328361</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="10" t="n">
         <v>315960782.2024</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="10" t="n">
         <v>68172215.9419103</v>
       </c>
+      <c r="AW12" s="10"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>43</v>
       </c>
       <c r="N13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="10" t="n">
         <v>93040327.6932335</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="10" t="n">
         <v>221753480.21862</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="10" t="n">
         <v>132950973.706074</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="10" t="n">
         <v>114437182.664037</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="10" t="n">
         <v>116007970.950065</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="10" t="n">
         <v>119147358.983698</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="10" t="n">
         <v>122947689.251009</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="10" t="n">
         <v>98317613.9198869</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="10" t="n">
         <v>106409418.846593</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="10" t="n">
         <v>86649231.5990556</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="10" t="n">
         <v>100803730.371687</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="10" t="n">
         <v>120552247.992632</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="10" t="n">
         <v>172573055.694494</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="10" t="n">
         <v>191706532.106134</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="10" t="n">
         <v>238289099.788666</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="10" t="n">
         <v>308628301.332078</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="10" t="n">
         <v>418317741.159463</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="10" t="n">
         <v>494662836.672644</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="10" t="n">
         <v>507272482.824295</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="10" t="n">
         <v>828255095.527578</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="10" t="n">
         <v>1430746529.22157</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="10" t="n">
         <v>1551686305.10212</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="10" t="n">
         <v>1826682188.49783</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="10" t="n">
         <v>1794606156.91371</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="10" t="n">
         <v>1832694610.02215</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="10" t="n">
         <v>2128801611.1216</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="10" t="n">
         <v>2388859031.66094</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="10" t="n">
         <v>3046437650.8512</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="10" t="n">
         <v>5059124471.07022</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="10" t="n">
         <v>5459890456.49474</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="10" t="n">
         <v>4968968556.69335</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="10" t="n">
         <v>4342201196.57805</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="10" t="n">
         <v>4731771003.3504</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="10" t="n">
         <v>1653737649.14236</v>
       </c>
+      <c r="AW13" s="10"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>45</v>
       </c>
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="10" t="n">
         <v>20910065329.5067</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="10" t="n">
         <v>17887143103.7144</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="10" t="n">
         <v>15624272625.531</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="10" t="n">
         <v>17020925300.0545</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="10" t="n">
         <v>12944075043.8103</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="10" t="n">
         <v>16607366203.381</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="10" t="n">
         <v>13354158435.4929</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="10" t="n">
         <v>13771856103.8267</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="10" t="n">
         <v>15236778452.161</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="10" t="n">
         <v>13396178598.9765</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="10" t="n">
         <v>14787854009.4834</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="10" t="n">
         <v>19184992386.3381</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="10" t="n">
         <v>19247300968.9437</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="10" t="n">
         <v>18610934486.1344</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="10" t="n">
         <v>21503281454.0905</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="10" t="n">
         <v>19462908515.0704</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="10" t="n">
         <v>22668434687.8293</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="10" t="n">
         <v>22597722214.4208</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="10" t="n">
         <v>24683992473.3906</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="10" t="n">
         <v>26845080058.6219</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="10" t="n">
         <v>20886984041.2329</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="10" t="n">
         <v>34377888817.6626</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="10" t="n">
         <v>27588121259.509</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="10" t="n">
         <v>26306909145.2411</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="10" t="n">
         <v>26689124764.3486</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="10" t="n">
         <v>23263771001.2569</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="10" t="n">
         <v>26422949820.5862</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="10" t="n">
         <v>28296540181.0823</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="10" t="n">
         <v>30225570220.2505</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="10" t="n">
         <v>31410963615.2733</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="10" t="n">
         <v>38863199309.4096</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="10" t="n">
         <v>29433115920.2777</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="10" t="n">
         <v>29292274415.9427</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="10" t="n">
         <v>18025373769.049</v>
       </c>
+      <c r="AW14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>44</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15"/>
-      <c r="P15" t="n">
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="n">
         <v>347353.398639316</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="10" t="n">
         <v>1600962.3553366</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="10" t="n">
         <v>25545522.485857</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="10" t="n">
         <v>3785383.46997275</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="10" t="n">
         <v>41134237.677284</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="10" t="n">
         <v>57965169.472483</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="10" t="n">
         <v>73026237.1688756</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="10" t="n">
         <v>109816419.008898</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="10" t="n">
         <v>51829578.335493</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="10" t="n">
         <v>114951427.842457</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="10" t="n">
         <v>64257994.9475553</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="10" t="n">
         <v>51823993.5542476</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="10" t="n">
         <v>32501780.239374</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="10" t="n">
         <v>29873489.0652791</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="10" t="n">
         <v>50053042.5446644</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="10" t="n">
         <v>35168850.7715869</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="10" t="n">
         <v>76436230.3466326</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="10" t="n">
         <v>133915404.754823</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="10" t="n">
         <v>156804403.241753</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="10" t="n">
         <v>191461625.462314</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="10" t="n">
         <v>189783620.493679</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="10" t="n">
         <v>211303750.529869</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="10" t="n">
         <v>119789822.865462</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="10" t="n">
         <v>149393027.615491</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="10" t="n">
         <v>134114800.4398</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="10" t="n">
         <v>143131500.632224</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="10" t="n">
         <v>156112341.782454</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="10" t="n">
         <v>143950966.304979</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="10" t="n">
         <v>114500277.94366</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="10" t="n">
         <v>103275028.813312</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="10" t="n">
         <v>39345920.0326685</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="10" t="n">
         <v>24169778.1862</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="10" t="n">
         <v>-2131888.23162823</v>
       </c>
+      <c r="AW15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3782,89 +4025,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>1667195712</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="2" t="n">
         <v>1727093205</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="2" t="n">
         <v>1931802616.9004</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="2" t="n">
         <v>2718922830.9402</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="2" t="n">
         <v>2346290595.815</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="2" t="n">
         <v>2642218538.2292</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="2" t="n">
         <v>2453725006.2732</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="2" t="n">
         <v>3202886359.6965</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="2" t="n">
         <v>2861249718.6648</v>
       </c>
-      <c r="AI2" s="10" t="n">
+      <c r="AI2" s="2" t="n">
         <v>3312262871.845</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>4238616460.4125</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="2" t="n">
         <v>4425453498.0671</v>
       </c>
-      <c r="AL2" s="10" t="n">
+      <c r="AL2" s="2" t="n">
         <v>4774888332.263</v>
       </c>
-      <c r="AM2" s="10" t="n">
+      <c r="AM2" s="2" t="n">
         <v>4951947482.5283</v>
       </c>
-      <c r="AN2" s="10" t="n">
+      <c r="AN2" s="2" t="n">
         <v>4792567355.8634</v>
       </c>
-      <c r="AO2" s="10" t="n">
+      <c r="AO2" s="2" t="n">
         <v>5096148423.2276</v>
       </c>
-      <c r="AP2" s="10" t="n">
+      <c r="AP2" s="2" t="n">
         <v>6153491832.0523</v>
       </c>
-      <c r="AQ2" s="10" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>6472698753.751</v>
       </c>
-      <c r="AR2" s="10" t="n">
+      <c r="AR2" s="2" t="n">
         <v>10187532234.7569</v>
       </c>
-      <c r="AS2" s="10" t="n">
+      <c r="AS2" s="2" t="n">
         <v>9628505320.8608</v>
       </c>
-      <c r="AT2" s="10" t="n">
+      <c r="AT2" s="2" t="n">
         <v>9686922996.7466</v>
       </c>
-      <c r="AU2" s="10" t="n">
+      <c r="AU2" s="2" t="n">
         <v>10243092545.4533</v>
       </c>
-      <c r="AV2" s="10" t="n">
+      <c r="AV2" s="2" t="n">
         <v>10200800420.8508</v>
       </c>
-      <c r="AW2" s="10" t="n">
+      <c r="AW2" s="2" t="n">
         <v>4163556387.7586</v>
       </c>
-      <c r="AX2" s="10"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3882,89 +4125,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>42608597</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="2" t="n">
         <v>79793253</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="2" t="n">
         <v>32403293</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="2" t="n">
         <v>177010212</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="2" t="n">
         <v>73103772</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="2" t="n">
         <v>196581720</v>
       </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AF3" s="2" t="n">
         <v>143628794.2143</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="2" t="n">
         <v>156354936.1983</v>
       </c>
-      <c r="AH3" s="10" t="n">
+      <c r="AH3" s="2" t="n">
         <v>243207269.7392</v>
       </c>
-      <c r="AI3" s="10" t="n">
+      <c r="AI3" s="2" t="n">
         <v>20495863.5518</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>34008317.3251</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="2" t="n">
         <v>5372142.8962</v>
       </c>
-      <c r="AL3" s="10" t="n">
+      <c r="AL3" s="2" t="n">
         <v>16910367.747</v>
       </c>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="2" t="n">
         <v>53063710.23</v>
       </c>
-      <c r="AN3" s="10" t="n">
+      <c r="AN3" s="2" t="n">
         <v>53108763.7401</v>
       </c>
-      <c r="AO3" s="10" t="n">
+      <c r="AO3" s="2" t="n">
         <v>89077679.8018</v>
       </c>
-      <c r="AP3" s="10" t="n">
+      <c r="AP3" s="2" t="n">
         <v>157381974.3137</v>
       </c>
-      <c r="AQ3" s="10" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>80938967.2787</v>
       </c>
-      <c r="AR3" s="10" t="n">
+      <c r="AR3" s="2" t="n">
         <v>77585967.1931</v>
       </c>
-      <c r="AS3" s="10" t="n">
+      <c r="AS3" s="2" t="n">
         <v>103358499.5228</v>
       </c>
-      <c r="AT3" s="10" t="n">
+      <c r="AT3" s="2" t="n">
         <v>95969336.6814</v>
       </c>
-      <c r="AU3" s="10" t="n">
+      <c r="AU3" s="2" t="n">
         <v>41928674.1341</v>
       </c>
-      <c r="AV3" s="10" t="n">
+      <c r="AV3" s="2" t="n">
         <v>43179483.2424</v>
       </c>
-      <c r="AW3" s="10" t="n">
+      <c r="AW3" s="2" t="n">
         <v>44013620.301</v>
       </c>
-      <c r="AX3" s="10"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3982,89 +4225,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>46616562</v>
       </c>
-      <c r="AA4" s="10" t="n">
+      <c r="AA4" s="2" t="n">
         <v>58743049</v>
       </c>
-      <c r="AB4" s="10" t="n">
+      <c r="AB4" s="2" t="n">
         <v>65982705.0298</v>
       </c>
-      <c r="AC4" s="10" t="n">
+      <c r="AC4" s="2" t="n">
         <v>174022821</v>
       </c>
-      <c r="AD4" s="10" t="n">
+      <c r="AD4" s="2" t="n">
         <v>110534832</v>
       </c>
-      <c r="AE4" s="10" t="n">
+      <c r="AE4" s="2" t="n">
         <v>140213100.1094</v>
       </c>
-      <c r="AF4" s="10" t="n">
+      <c r="AF4" s="2" t="n">
         <v>59198494.2424</v>
       </c>
-      <c r="AG4" s="10" t="n">
+      <c r="AG4" s="2" t="n">
         <v>25165281.6259</v>
       </c>
-      <c r="AH4" s="10" t="n">
+      <c r="AH4" s="2" t="n">
         <v>30376675.1904</v>
       </c>
-      <c r="AI4" s="10" t="n">
+      <c r="AI4" s="2" t="n">
         <v>32101743.8966</v>
       </c>
-      <c r="AJ4" s="10" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>41409123.5261</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="2" t="n">
         <v>65650961.8043</v>
       </c>
-      <c r="AL4" s="10" t="n">
+      <c r="AL4" s="2" t="n">
         <v>29613076.7526</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="2" t="n">
         <v>13200990.7966</v>
       </c>
-      <c r="AN4" s="10" t="n">
+      <c r="AN4" s="2" t="n">
         <v>17506633.5072</v>
       </c>
-      <c r="AO4" s="10" t="n">
+      <c r="AO4" s="2" t="n">
         <v>5576212.1403</v>
       </c>
-      <c r="AP4" s="10" t="n">
+      <c r="AP4" s="2" t="n">
         <v>13082959.8042</v>
       </c>
-      <c r="AQ4" s="10" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>14559790.6104</v>
       </c>
-      <c r="AR4" s="10" t="n">
+      <c r="AR4" s="2" t="n">
         <v>3169753.1363</v>
       </c>
-      <c r="AS4" s="10" t="n">
+      <c r="AS4" s="2" t="n">
         <v>-2969035.9445</v>
       </c>
-      <c r="AT4" s="10" t="n">
+      <c r="AT4" s="2" t="n">
         <v>1117704.6305</v>
       </c>
-      <c r="AU4" s="10" t="n">
+      <c r="AU4" s="2" t="n">
         <v>-747226.0256</v>
       </c>
-      <c r="AV4" s="10" t="n">
+      <c r="AV4" s="2" t="n">
         <v>1198822.3338</v>
       </c>
-      <c r="AW4" s="10" t="n">
+      <c r="AW4" s="2" t="n">
         <v>1750156.776</v>
       </c>
-      <c r="AX4" s="10"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4082,89 +4325,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>1616998464</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="2" t="n">
         <v>2697976676</v>
       </c>
-      <c r="AB5" s="10" t="n">
+      <c r="AB5" s="2" t="n">
         <v>4435139464</v>
       </c>
-      <c r="AC5" s="10" t="n">
+      <c r="AC5" s="2" t="n">
         <v>3443823422</v>
       </c>
-      <c r="AD5" s="10" t="n">
+      <c r="AD5" s="2" t="n">
         <v>5756277306</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="2" t="n">
         <v>4538650461</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="2" t="n">
         <v>5911155403</v>
       </c>
-      <c r="AG5" s="10" t="n">
+      <c r="AG5" s="2" t="n">
         <v>3259575698.6475</v>
       </c>
-      <c r="AH5" s="10" t="n">
+      <c r="AH5" s="2" t="n">
         <v>3456927991.2977</v>
       </c>
-      <c r="AI5" s="10" t="n">
+      <c r="AI5" s="2" t="n">
         <v>4794309155.5902</v>
       </c>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>5086650779.3947</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="2" t="n">
         <v>15289390780.2664</v>
       </c>
-      <c r="AL5" s="10" t="n">
+      <c r="AL5" s="2" t="n">
         <v>11206652460.1353</v>
       </c>
-      <c r="AM5" s="10" t="n">
+      <c r="AM5" s="2" t="n">
         <v>10678338421.22</v>
       </c>
-      <c r="AN5" s="10" t="n">
+      <c r="AN5" s="2" t="n">
         <v>7274551809.9082</v>
       </c>
-      <c r="AO5" s="10" t="n">
+      <c r="AO5" s="2" t="n">
         <v>5190649825.2102</v>
       </c>
-      <c r="AP5" s="10" t="n">
+      <c r="AP5" s="2" t="n">
         <v>5615949372.3369</v>
       </c>
-      <c r="AQ5" s="10" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>8060537642.4228</v>
       </c>
-      <c r="AR5" s="10" t="n">
+      <c r="AR5" s="2" t="n">
         <v>8030415143.8174</v>
       </c>
-      <c r="AS5" s="10" t="n">
+      <c r="AS5" s="2" t="n">
         <v>11311726614.541</v>
       </c>
-      <c r="AT5" s="10" t="n">
+      <c r="AT5" s="2" t="n">
         <v>18565398235.6409</v>
       </c>
-      <c r="AU5" s="10" t="n">
+      <c r="AU5" s="2" t="n">
         <v>11537249595.1452</v>
       </c>
-      <c r="AV5" s="10" t="n">
+      <c r="AV5" s="2" t="n">
         <v>14543467142.6914</v>
       </c>
-      <c r="AW5" s="10" t="n">
+      <c r="AW5" s="2" t="n">
         <v>9707061527.1701</v>
       </c>
-      <c r="AX5" s="10"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4182,89 +4425,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>4005329951</v>
       </c>
-      <c r="AA6" s="10" t="n">
+      <c r="AA6" s="2" t="n">
         <v>6677452003</v>
       </c>
-      <c r="AB6" s="10" t="n">
+      <c r="AB6" s="2" t="n">
         <v>4319774574</v>
       </c>
-      <c r="AC6" s="10" t="n">
+      <c r="AC6" s="2" t="n">
         <v>5267270448.1104</v>
       </c>
-      <c r="AD6" s="10" t="n">
+      <c r="AD6" s="2" t="n">
         <v>5130624360.3486</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="2" t="n">
         <v>5464461775.3018</v>
       </c>
-      <c r="AF6" s="10" t="n">
+      <c r="AF6" s="2" t="n">
         <v>6091538304.2878</v>
       </c>
-      <c r="AG6" s="10" t="n">
+      <c r="AG6" s="2" t="n">
         <v>4657659409.6979</v>
       </c>
-      <c r="AH6" s="10" t="n">
+      <c r="AH6" s="2" t="n">
         <v>2973877195.0597</v>
       </c>
-      <c r="AI6" s="10" t="n">
+      <c r="AI6" s="2" t="n">
         <v>4386736921.5168</v>
       </c>
-      <c r="AJ6" s="10" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>5479095335.5009</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="2" t="n">
         <v>7580586843.098</v>
       </c>
-      <c r="AL6" s="10" t="n">
+      <c r="AL6" s="2" t="n">
         <v>6854719630.6743</v>
       </c>
-      <c r="AM6" s="10" t="n">
+      <c r="AM6" s="2" t="n">
         <v>6091895031.0357</v>
       </c>
-      <c r="AN6" s="10" t="n">
+      <c r="AN6" s="2" t="n">
         <v>10322279061.4678</v>
       </c>
-      <c r="AO6" s="10" t="n">
+      <c r="AO6" s="2" t="n">
         <v>11015888196.5484</v>
       </c>
-      <c r="AP6" s="10" t="n">
+      <c r="AP6" s="2" t="n">
         <v>11570884116.7565</v>
       </c>
-      <c r="AQ6" s="10" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>10913180367.195</v>
       </c>
-      <c r="AR6" s="10" t="n">
+      <c r="AR6" s="2" t="n">
         <v>8765457964.9645</v>
       </c>
-      <c r="AS6" s="10" t="n">
+      <c r="AS6" s="2" t="n">
         <v>8504096158.8808</v>
       </c>
-      <c r="AT6" s="10" t="n">
+      <c r="AT6" s="2" t="n">
         <v>8211259026.6831</v>
       </c>
-      <c r="AU6" s="10" t="n">
+      <c r="AU6" s="2" t="n">
         <v>7308619713.2113</v>
       </c>
-      <c r="AV6" s="10" t="n">
+      <c r="AV6" s="2" t="n">
         <v>8352538388.251</v>
       </c>
-      <c r="AW6" s="10" t="n">
+      <c r="AW6" s="2" t="n">
         <v>6333025513.2799</v>
       </c>
-      <c r="AX6" s="10"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4282,89 +4525,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>257328243</v>
       </c>
-      <c r="AA7" s="10" t="n">
+      <c r="AA7" s="2" t="n">
         <v>1315501462</v>
       </c>
-      <c r="AB7" s="10" t="n">
+      <c r="AB7" s="2" t="n">
         <v>1511373778</v>
       </c>
-      <c r="AC7" s="10" t="n">
+      <c r="AC7" s="2" t="n">
         <v>395985005</v>
       </c>
-      <c r="AD7" s="10" t="n">
+      <c r="AD7" s="2" t="n">
         <v>678680544</v>
       </c>
-      <c r="AE7" s="10" t="n">
+      <c r="AE7" s="2" t="n">
         <v>746852964</v>
       </c>
-      <c r="AF7" s="10" t="n">
+      <c r="AF7" s="2" t="n">
         <v>1682374880.8296</v>
       </c>
-      <c r="AG7" s="10" t="n">
+      <c r="AG7" s="2" t="n">
         <v>1828612094.6802</v>
       </c>
-      <c r="AH7" s="10" t="n">
+      <c r="AH7" s="2" t="n">
         <v>1722360492.9125</v>
       </c>
-      <c r="AI7" s="10" t="n">
+      <c r="AI7" s="2" t="n">
         <v>2052820904.886</v>
       </c>
-      <c r="AJ7" s="10" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>2673368525.4409</v>
       </c>
-      <c r="AK7" s="10" t="n">
+      <c r="AK7" s="2" t="n">
         <v>1020734586.6304</v>
       </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AL7" s="2" t="n">
         <v>936718114.1251</v>
       </c>
-      <c r="AM7" s="10" t="n">
+      <c r="AM7" s="2" t="n">
         <v>1261465628.7801</v>
       </c>
-      <c r="AN7" s="10" t="n">
+      <c r="AN7" s="2" t="n">
         <v>1361449328.264</v>
       </c>
-      <c r="AO7" s="10" t="n">
+      <c r="AO7" s="2" t="n">
         <v>77370557.0903</v>
       </c>
-      <c r="AP7" s="10" t="n">
+      <c r="AP7" s="2" t="n">
         <v>1142257912.731</v>
       </c>
-      <c r="AQ7" s="10" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>1665810518.1036</v>
       </c>
-      <c r="AR7" s="10" t="n">
+      <c r="AR7" s="2" t="n">
         <v>4245570241.7497</v>
       </c>
-      <c r="AS7" s="10" t="n">
+      <c r="AS7" s="2" t="n">
         <v>3761084099.2761</v>
       </c>
-      <c r="AT7" s="10" t="n">
+      <c r="AT7" s="2" t="n">
         <v>3522637569.9642</v>
       </c>
-      <c r="AU7" s="10" t="n">
+      <c r="AU7" s="2" t="n">
         <v>2831000939.6954</v>
       </c>
-      <c r="AV7" s="10" t="n">
+      <c r="AV7" s="2" t="n">
         <v>1242290243.7502</v>
       </c>
-      <c r="AW7" s="10" t="n">
+      <c r="AW7" s="2" t="n">
         <v>463166061.7772</v>
       </c>
-      <c r="AX7" s="10"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4382,63 +4625,63 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2" t="n">
         <v>7691886</v>
       </c>
-      <c r="AF8" s="10" t="n">
+      <c r="AF8" s="2" t="n">
         <v>218594703.5625</v>
       </c>
-      <c r="AG8" s="10" t="n">
+      <c r="AG8" s="2" t="n">
         <v>3912092184.0428</v>
       </c>
-      <c r="AH8" s="10" t="n">
+      <c r="AH8" s="2" t="n">
         <v>5685520694.5724</v>
       </c>
-      <c r="AI8" s="10" t="n">
+      <c r="AI8" s="2" t="n">
         <v>6028533390.1495</v>
       </c>
-      <c r="AJ8" s="10" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>7931174.4824</v>
       </c>
-      <c r="AK8" s="10" t="n">
+      <c r="AK8" s="2" t="n">
         <v>1819345.7709</v>
       </c>
-      <c r="AL8" s="10" t="n">
+      <c r="AL8" s="2" t="n">
         <v>-173519.7795</v>
       </c>
-      <c r="AM8" s="10" t="n">
+      <c r="AM8" s="2" t="n">
         <v>371282.6702</v>
       </c>
-      <c r="AN8" s="10" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-67390.9</v>
       </c>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10" t="n">
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2" t="n">
         <v>-2164.04</v>
       </c>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4454,109 +4697,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="2" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="2" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="2" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="2" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="T9" s="2" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" s="10" t="n">
+      <c r="U9" s="2" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" s="10" t="n">
+      <c r="V9" s="2" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" s="10" t="n">
+      <c r="W9" s="2" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" s="10" t="n">
+      <c r="X9" s="2" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" s="10" t="n">
+      <c r="Y9" s="2" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" s="10" t="n">
+      <c r="Z9" s="2" t="n">
         <v>1719744234</v>
       </c>
-      <c r="AA9" s="10" t="n">
+      <c r="AA9" s="2" t="n">
         <v>-152232355</v>
       </c>
-      <c r="AB9" s="10" t="n">
+      <c r="AB9" s="2" t="n">
         <v>399074958</v>
       </c>
-      <c r="AC9" s="10" t="n">
+      <c r="AC9" s="2" t="n">
         <v>495604269</v>
       </c>
-      <c r="AD9" s="10" t="n">
+      <c r="AD9" s="2" t="n">
         <v>747310297</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="2" t="n">
         <v>305673516.4902</v>
       </c>
-      <c r="AF9" s="10" t="n">
+      <c r="AF9" s="2" t="n">
         <v>258988295.08</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AG9" s="2" t="n">
         <v>210148992.52</v>
       </c>
-      <c r="AH9" s="10" t="n">
+      <c r="AH9" s="2" t="n">
         <v>2379565456.2726</v>
       </c>
-      <c r="AI9" s="10" t="n">
+      <c r="AI9" s="2" t="n">
         <v>874233663.9565</v>
       </c>
-      <c r="AJ9" s="10" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>1110216.962</v>
       </c>
-      <c r="AK9" s="10" t="n">
+      <c r="AK9" s="2" t="n">
         <v>563105</v>
       </c>
-      <c r="AL9" s="10" t="n">
+      <c r="AL9" s="2" t="n">
         <v>4189074</v>
       </c>
-      <c r="AM9" s="10" t="n">
+      <c r="AM9" s="2" t="n">
         <v>995980</v>
       </c>
-      <c r="AN9" s="10" t="n">
+      <c r="AN9" s="2" t="n">
         <v>6030811.2188</v>
       </c>
-      <c r="AO9" s="10" t="n">
+      <c r="AO9" s="2" t="n">
         <v>3498178.89</v>
       </c>
-      <c r="AP9" s="10" t="n">
+      <c r="AP9" s="2" t="n">
         <v>-388944.2299</v>
       </c>
-      <c r="AQ9" s="10" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>191325.7388</v>
       </c>
-      <c r="AR9" s="10" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="10" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="10" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="10" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="10" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="10" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="10"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4571,107 +4814,107 @@
       <c r="O10" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="10" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="10" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="10" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="10" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="10" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="10" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="10" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="10" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="10" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="10" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="10" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="10" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="10" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="10" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="10" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="10" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="10" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="10" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="10" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="10" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="10" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4808,89 +5051,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>2693738210.72471</v>
       </c>
-      <c r="AA14" s="10" t="n">
+      <c r="AA14" s="2" t="n">
         <v>2724450049.19268</v>
       </c>
-      <c r="AB14" s="10" t="n">
+      <c r="AB14" s="2" t="n">
         <v>3000023474.47697</v>
       </c>
-      <c r="AC14" s="10" t="n">
+      <c r="AC14" s="2" t="n">
         <v>4143198841.52598</v>
       </c>
-      <c r="AD14" s="10" t="n">
+      <c r="AD14" s="2" t="n">
         <v>3490058760.36448</v>
       </c>
-      <c r="AE14" s="10" t="n">
+      <c r="AE14" s="2" t="n">
         <v>3814451227.33943</v>
       </c>
-      <c r="AF14" s="10" t="n">
+      <c r="AF14" s="2" t="n">
         <v>3430638280.01906</v>
       </c>
-      <c r="AG14" s="10" t="n">
+      <c r="AG14" s="2" t="n">
         <v>4358542027.71612</v>
       </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AH14" s="2" t="n">
         <v>3814091001.61527</v>
       </c>
-      <c r="AI14" s="10" t="n">
+      <c r="AI14" s="2" t="n">
         <v>4370881941.82181</v>
       </c>
-      <c r="AJ14" s="10" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>5545075531.37427</v>
       </c>
-      <c r="AK14" s="10" t="n">
+      <c r="AK14" s="2" t="n">
         <v>5675125852.9186</v>
       </c>
-      <c r="AL14" s="10" t="n">
+      <c r="AL14" s="2" t="n">
         <v>6013016875.67151</v>
       </c>
-      <c r="AM14" s="10" t="n">
+      <c r="AM14" s="2" t="n">
         <v>6123919730.90012</v>
       </c>
-      <c r="AN14" s="10" t="n">
+      <c r="AN14" s="2" t="n">
         <v>5814335329.95073</v>
       </c>
-      <c r="AO14" s="10" t="n">
+      <c r="AO14" s="2" t="n">
         <v>6112562827.69639</v>
       </c>
-      <c r="AP14" s="10" t="n">
+      <c r="AP14" s="2" t="n">
         <v>7320132503.6416</v>
       </c>
-      <c r="AQ14" s="10" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>7564797721.26585</v>
       </c>
-      <c r="AR14" s="10" t="n">
+      <c r="AR14" s="2" t="n">
         <v>11633260193.9669</v>
       </c>
-      <c r="AS14" s="10" t="n">
+      <c r="AS14" s="2" t="n">
         <v>10783686190.5719</v>
       </c>
-      <c r="AT14" s="10" t="n">
+      <c r="AT14" s="2" t="n">
         <v>10706285884.2024</v>
       </c>
-      <c r="AU14" s="10" t="n">
+      <c r="AU14" s="2" t="n">
         <v>10952811792.5147</v>
       </c>
-      <c r="AV14" s="10" t="n">
+      <c r="AV14" s="2" t="n">
         <v>10200800420.8508</v>
       </c>
-      <c r="AW14" s="10" t="n">
+      <c r="AW14" s="2" t="n">
         <v>3971193335.33172</v>
       </c>
-      <c r="AX14" s="10"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4908,89 +5151,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>68843990.5514046</v>
       </c>
-      <c r="AA15" s="10" t="n">
+      <c r="AA15" s="2" t="n">
         <v>125872032.517836</v>
       </c>
-      <c r="AB15" s="10" t="n">
+      <c r="AB15" s="2" t="n">
         <v>50321207.1460649</v>
       </c>
-      <c r="AC15" s="10" t="n">
+      <c r="AC15" s="2" t="n">
         <v>269734946.851384</v>
       </c>
-      <c r="AD15" s="10" t="n">
+      <c r="AD15" s="2" t="n">
         <v>108740349.698953</v>
       </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AE15" s="2" t="n">
         <v>283796125.217198</v>
       </c>
-      <c r="AF15" s="10" t="n">
+      <c r="AF15" s="2" t="n">
         <v>200812413.08004</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AG15" s="2" t="n">
         <v>212770446.443732</v>
       </c>
-      <c r="AH15" s="10" t="n">
+      <c r="AH15" s="2" t="n">
         <v>324199126.342796</v>
       </c>
-      <c r="AI15" s="10" t="n">
+      <c r="AI15" s="2" t="n">
         <v>27046464.4102072</v>
       </c>
-      <c r="AJ15" s="10" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>44490623.302178</v>
       </c>
-      <c r="AK15" s="10" t="n">
+      <c r="AK15" s="2" t="n">
         <v>6889144.14062054</v>
       </c>
-      <c r="AL15" s="10" t="n">
+      <c r="AL15" s="2" t="n">
         <v>21295226.099734</v>
       </c>
-      <c r="AM15" s="10" t="n">
+      <c r="AM15" s="2" t="n">
         <v>65622243.2121495</v>
       </c>
-      <c r="AN15" s="10" t="n">
+      <c r="AN15" s="2" t="n">
         <v>64431470.3196153</v>
       </c>
-      <c r="AO15" s="10" t="n">
+      <c r="AO15" s="2" t="n">
         <v>106844006.319006</v>
       </c>
-      <c r="AP15" s="10" t="n">
+      <c r="AP15" s="2" t="n">
         <v>187220026.79197</v>
       </c>
-      <c r="AQ15" s="10" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>94595305.3780997</v>
       </c>
-      <c r="AR15" s="10" t="n">
+      <c r="AR15" s="2" t="n">
         <v>88596308.0125113</v>
       </c>
-      <c r="AS15" s="10" t="n">
+      <c r="AS15" s="2" t="n">
         <v>115758945.634835</v>
       </c>
-      <c r="AT15" s="10" t="n">
+      <c r="AT15" s="2" t="n">
         <v>106068269.044094</v>
       </c>
-      <c r="AU15" s="10" t="n">
+      <c r="AU15" s="2" t="n">
         <v>44833811.1232163</v>
       </c>
-      <c r="AV15" s="10" t="n">
+      <c r="AV15" s="2" t="n">
         <v>43179483.2424</v>
       </c>
-      <c r="AW15" s="10" t="n">
+      <c r="AW15" s="2" t="n">
         <v>41980119.7161753</v>
       </c>
-      <c r="AX15" s="10"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5008,89 +5251,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>75319780.0403277</v>
       </c>
-      <c r="AA16" s="10" t="n">
+      <c r="AA16" s="2" t="n">
         <v>92665816.9196942</v>
       </c>
-      <c r="AB16" s="10" t="n">
+      <c r="AB16" s="2" t="n">
         <v>102468886.969675</v>
       </c>
-      <c r="AC16" s="10" t="n">
+      <c r="AC16" s="2" t="n">
         <v>265182645.921936</v>
       </c>
-      <c r="AD16" s="10" t="n">
+      <c r="AD16" s="2" t="n">
         <v>164418277.699747</v>
       </c>
-      <c r="AE16" s="10" t="n">
+      <c r="AE16" s="2" t="n">
         <v>202419301.834061</v>
       </c>
-      <c r="AF16" s="10" t="n">
+      <c r="AF16" s="2" t="n">
         <v>82767473.921588</v>
       </c>
-      <c r="AG16" s="10" t="n">
+      <c r="AG16" s="2" t="n">
         <v>34245341.6349717</v>
       </c>
-      <c r="AH16" s="10" t="n">
+      <c r="AH16" s="2" t="n">
         <v>40492587.1191558</v>
       </c>
-      <c r="AI16" s="10" t="n">
+      <c r="AI16" s="2" t="n">
         <v>42361653.6873718</v>
       </c>
-      <c r="AJ16" s="10" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>54172563.0957148</v>
       </c>
-      <c r="AK16" s="10" t="n">
+      <c r="AK16" s="2" t="n">
         <v>84189670.2264038</v>
       </c>
-      <c r="AL16" s="10" t="n">
+      <c r="AL16" s="2" t="n">
         <v>37291747.5474339</v>
       </c>
-      <c r="AM16" s="10" t="n">
+      <c r="AM16" s="2" t="n">
         <v>16325255.5266306</v>
       </c>
-      <c r="AN16" s="10" t="n">
+      <c r="AN16" s="2" t="n">
         <v>21239020.7901574</v>
       </c>
-      <c r="AO16" s="10" t="n">
+      <c r="AO16" s="2" t="n">
         <v>6688374.08518014</v>
       </c>
-      <c r="AP16" s="10" t="n">
+      <c r="AP16" s="2" t="n">
         <v>15563358.4833443</v>
       </c>
-      <c r="AQ16" s="10" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>17016375.2434537</v>
       </c>
-      <c r="AR16" s="10" t="n">
+      <c r="AR16" s="2" t="n">
         <v>3619577.55180544</v>
       </c>
-      <c r="AS16" s="10" t="n">
+      <c r="AS16" s="2" t="n">
         <v>-3325246.32298316</v>
       </c>
-      <c r="AT16" s="10" t="n">
+      <c r="AT16" s="2" t="n">
         <v>1235321.60958116</v>
       </c>
-      <c r="AU16" s="10" t="n">
+      <c r="AU16" s="2" t="n">
         <v>-798999.519778664</v>
       </c>
-      <c r="AV16" s="10" t="n">
+      <c r="AV16" s="2" t="n">
         <v>1198822.3338</v>
       </c>
-      <c r="AW16" s="10" t="n">
+      <c r="AW16" s="2" t="n">
         <v>1669296.69670654</v>
       </c>
-      <c r="AX16" s="10"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5108,89 +5351,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>2612633008.71539</v>
       </c>
-      <c r="AA17" s="10" t="n">
+      <c r="AA17" s="2" t="n">
         <v>4255996530.10556</v>
       </c>
-      <c r="AB17" s="10" t="n">
+      <c r="AB17" s="2" t="n">
         <v>6887620085.08305</v>
       </c>
-      <c r="AC17" s="10" t="n">
+      <c r="AC17" s="2" t="n">
         <v>5247830151.73565</v>
       </c>
-      <c r="AD17" s="10" t="n">
+      <c r="AD17" s="2" t="n">
         <v>8562343502.85763</v>
       </c>
-      <c r="AE17" s="10" t="n">
+      <c r="AE17" s="2" t="n">
         <v>6552244097.50332</v>
       </c>
-      <c r="AF17" s="10" t="n">
+      <c r="AF17" s="2" t="n">
         <v>8264591978.65607</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AG17" s="2" t="n">
         <v>4435685840.70011</v>
       </c>
-      <c r="AH17" s="10" t="n">
+      <c r="AH17" s="2" t="n">
         <v>4608139533.86539</v>
       </c>
-      <c r="AI17" s="10" t="n">
+      <c r="AI17" s="2" t="n">
         <v>6326599102.32535</v>
       </c>
-      <c r="AJ17" s="10" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>6654497531.65975</v>
       </c>
-      <c r="AK17" s="10" t="n">
+      <c r="AK17" s="2" t="n">
         <v>19606853157.6172</v>
       </c>
-      <c r="AL17" s="10" t="n">
+      <c r="AL17" s="2" t="n">
         <v>14112537440.3557</v>
       </c>
-      <c r="AM17" s="10" t="n">
+      <c r="AM17" s="2" t="n">
         <v>13205569643.3901</v>
       </c>
-      <c r="AN17" s="10" t="n">
+      <c r="AN17" s="2" t="n">
         <v>8825475044.42666</v>
       </c>
-      <c r="AO17" s="10" t="n">
+      <c r="AO17" s="2" t="n">
         <v>6225912304.38965</v>
       </c>
-      <c r="AP17" s="10" t="n">
+      <c r="AP17" s="2" t="n">
         <v>6680677355.43548</v>
       </c>
-      <c r="AQ17" s="10" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>9420542977.4159</v>
       </c>
-      <c r="AR17" s="10" t="n">
+      <c r="AR17" s="2" t="n">
         <v>9170023385.53375</v>
       </c>
-      <c r="AS17" s="10" t="n">
+      <c r="AS17" s="2" t="n">
         <v>12668852123.9603</v>
       </c>
-      <c r="AT17" s="10" t="n">
+      <c r="AT17" s="2" t="n">
         <v>20519050386.9592</v>
       </c>
-      <c r="AU17" s="10" t="n">
+      <c r="AU17" s="2" t="n">
         <v>12336637871.6341</v>
       </c>
-      <c r="AV17" s="10" t="n">
+      <c r="AV17" s="2" t="n">
         <v>14543467142.6914</v>
       </c>
-      <c r="AW17" s="10" t="n">
+      <c r="AW17" s="2" t="n">
         <v>9258579553.69378</v>
       </c>
-      <c r="AX17" s="10"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5208,89 +5451,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>6471531961.07118</v>
       </c>
-      <c r="AA18" s="10" t="n">
+      <c r="AA18" s="2" t="n">
         <v>10533527886.8491</v>
       </c>
-      <c r="AB18" s="10" t="n">
+      <c r="AB18" s="2" t="n">
         <v>6708462351.72944</v>
       </c>
-      <c r="AC18" s="10" t="n">
+      <c r="AC18" s="2" t="n">
         <v>8026468633.19345</v>
       </c>
-      <c r="AD18" s="10" t="n">
+      <c r="AD18" s="2" t="n">
         <v>7631697679.26986</v>
       </c>
-      <c r="AE18" s="10" t="n">
+      <c r="AE18" s="2" t="n">
         <v>7888795958.38384</v>
       </c>
-      <c r="AF18" s="10" t="n">
+      <c r="AF18" s="2" t="n">
         <v>8516791587.26614</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AG18" s="2" t="n">
         <v>6338221843.71206</v>
       </c>
-      <c r="AH18" s="10" t="n">
+      <c r="AH18" s="2" t="n">
         <v>3964225203.97104</v>
       </c>
-      <c r="AI18" s="10" t="n">
+      <c r="AI18" s="2" t="n">
         <v>5788764338.95493</v>
       </c>
-      <c r="AJ18" s="10" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>7167904376.98535</v>
       </c>
-      <c r="AK18" s="10" t="n">
+      <c r="AK18" s="2" t="n">
         <v>9721214874.89366</v>
       </c>
-      <c r="AL18" s="10" t="n">
+      <c r="AL18" s="2" t="n">
         <v>8632148429.26113</v>
       </c>
-      <c r="AM18" s="10" t="n">
+      <c r="AM18" s="2" t="n">
         <v>7533657477.33749</v>
       </c>
-      <c r="AN18" s="10" t="n">
+      <c r="AN18" s="2" t="n">
         <v>12522973048.9392</v>
       </c>
-      <c r="AO18" s="10" t="n">
+      <c r="AO18" s="2" t="n">
         <v>13212980296.5266</v>
       </c>
-      <c r="AP18" s="10" t="n">
+      <c r="AP18" s="2" t="n">
         <v>13764608328.1938</v>
       </c>
-      <c r="AQ18" s="10" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>12754494703.7243</v>
       </c>
-      <c r="AR18" s="10" t="n">
+      <c r="AR18" s="2" t="n">
         <v>10009377234.4412</v>
       </c>
-      <c r="AS18" s="10" t="n">
+      <c r="AS18" s="2" t="n">
         <v>9524375929.16234</v>
       </c>
-      <c r="AT18" s="10" t="n">
+      <c r="AT18" s="2" t="n">
         <v>9075336578.85297</v>
       </c>
-      <c r="AU18" s="10" t="n">
+      <c r="AU18" s="2" t="n">
         <v>7815016395.356</v>
       </c>
-      <c r="AV18" s="10" t="n">
+      <c r="AV18" s="2" t="n">
         <v>8352538388.251</v>
       </c>
-      <c r="AW18" s="10" t="n">
+      <c r="AW18" s="2" t="n">
         <v>6040429471.4889</v>
       </c>
-      <c r="AX18" s="10"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5308,89 +5551,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>415772974.869403</v>
       </c>
-      <c r="AA19" s="10" t="n">
+      <c r="AA19" s="2" t="n">
         <v>2075173483.67944</v>
       </c>
-      <c r="AB19" s="10" t="n">
+      <c r="AB19" s="2" t="n">
         <v>2347111849.33793</v>
       </c>
-      <c r="AC19" s="10" t="n">
+      <c r="AC19" s="2" t="n">
         <v>603417130.971065</v>
       </c>
-      <c r="AD19" s="10" t="n">
+      <c r="AD19" s="2" t="n">
         <v>1009523279.98117</v>
       </c>
-      <c r="AE19" s="10" t="n">
+      <c r="AE19" s="2" t="n">
         <v>1078197796.266</v>
       </c>
-      <c r="AF19" s="10" t="n">
+      <c r="AF19" s="2" t="n">
         <v>2352186839.50353</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AG19" s="2" t="n">
         <v>2488406322.29265</v>
       </c>
-      <c r="AH19" s="10" t="n">
+      <c r="AH19" s="2" t="n">
         <v>2295933701.52282</v>
       </c>
-      <c r="AI19" s="10" t="n">
+      <c r="AI19" s="2" t="n">
         <v>2708914772.20302</v>
       </c>
-      <c r="AJ19" s="10" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>3497374800.29646</v>
       </c>
-      <c r="AK19" s="10" t="n">
+      <c r="AK19" s="2" t="n">
         <v>1308972570.62682</v>
       </c>
-      <c r="AL19" s="10" t="n">
+      <c r="AL19" s="2" t="n">
         <v>1179609120.89267</v>
       </c>
-      <c r="AM19" s="10" t="n">
+      <c r="AM19" s="2" t="n">
         <v>1560015384.08775</v>
       </c>
-      <c r="AN19" s="10" t="n">
+      <c r="AN19" s="2" t="n">
         <v>1651708226.81886</v>
       </c>
-      <c r="AO19" s="10" t="n">
+      <c r="AO19" s="2" t="n">
         <v>92801926.4652425</v>
       </c>
-      <c r="AP19" s="10" t="n">
+      <c r="AP19" s="2" t="n">
         <v>1358818619.20589</v>
       </c>
-      <c r="AQ19" s="10" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>1946872562.87157</v>
       </c>
-      <c r="AR19" s="10" t="n">
+      <c r="AR19" s="2" t="n">
         <v>4848065474.14234</v>
       </c>
-      <c r="AS19" s="10" t="n">
+      <c r="AS19" s="2" t="n">
         <v>4212320532.76958</v>
       </c>
-      <c r="AT19" s="10" t="n">
+      <c r="AT19" s="2" t="n">
         <v>3893327623.55344</v>
       </c>
-      <c r="AU19" s="10" t="n">
+      <c r="AU19" s="2" t="n">
         <v>3027154186.03531</v>
       </c>
-      <c r="AV19" s="10" t="n">
+      <c r="AV19" s="2" t="n">
         <v>1242290243.7502</v>
       </c>
-      <c r="AW19" s="10" t="n">
+      <c r="AW19" s="2" t="n">
         <v>441767039.132532</v>
       </c>
-      <c r="AX19" s="10"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5408,63 +5651,63 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2" t="n">
         <v>11104427.4229181</v>
       </c>
-      <c r="AF20" s="10" t="n">
+      <c r="AF20" s="2" t="n">
         <v>305624858.504391</v>
       </c>
-      <c r="AG20" s="10" t="n">
+      <c r="AG20" s="2" t="n">
         <v>5323641330.2113</v>
       </c>
-      <c r="AH20" s="10" t="n">
+      <c r="AH20" s="2" t="n">
         <v>7578888755.91932</v>
       </c>
-      <c r="AI20" s="10" t="n">
+      <c r="AI20" s="2" t="n">
         <v>7955288801.0959</v>
       </c>
-      <c r="AJ20" s="10" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>10375782.2789978</v>
       </c>
-      <c r="AK20" s="10" t="n">
+      <c r="AK20" s="2" t="n">
         <v>2333097.89027099</v>
       </c>
-      <c r="AL20" s="10" t="n">
+      <c r="AL20" s="2" t="n">
         <v>-218513.458282658</v>
       </c>
-      <c r="AM20" s="10" t="n">
+      <c r="AM20" s="2" t="n">
         <v>459153.75270058</v>
       </c>
-      <c r="AN20" s="10" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-81758.5360188613</v>
       </c>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10" t="n">
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2" t="n">
         <v>-2391.76371203019</v>
       </c>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5480,109 +5723,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="2" t="n">
         <v>21228143918.8223</v>
       </c>
-      <c r="Q21" s="10" t="n">
+      <c r="Q21" s="2" t="n">
         <v>18255763741.9323</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="2" t="n">
         <v>16101818741.1213</v>
       </c>
-      <c r="S21" s="10" t="n">
+      <c r="S21" s="2" t="n">
         <v>17383554422.2538</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="T21" s="2" t="n">
         <v>13228605702.3603</v>
       </c>
-      <c r="U21" s="10" t="n">
+      <c r="U21" s="2" t="n">
         <v>16925701573.5089</v>
       </c>
-      <c r="V21" s="10" t="n">
+      <c r="V21" s="2" t="n">
         <v>13714338594.7575</v>
       </c>
-      <c r="W21" s="10" t="n">
+      <c r="W21" s="2" t="n">
         <v>14102066190.5562</v>
       </c>
-      <c r="X21" s="10" t="n">
+      <c r="X21" s="2" t="n">
         <v>15646035550.2611</v>
       </c>
-      <c r="Y21" s="10" t="n">
+      <c r="Y21" s="2" t="n">
         <v>13723041606.5727</v>
       </c>
-      <c r="Z21" s="10" t="n">
+      <c r="Z21" s="2" t="n">
         <v>2778642436.79107</v>
       </c>
-      <c r="AA21" s="10" t="n">
+      <c r="AA21" s="2" t="n">
         <v>-240143059.95053</v>
       </c>
-      <c r="AB21" s="10" t="n">
+      <c r="AB21" s="2" t="n">
         <v>619749777.540361</v>
       </c>
-      <c r="AC21" s="10" t="n">
+      <c r="AC21" s="2" t="n">
         <v>755220784.425894</v>
       </c>
-      <c r="AD21" s="10" t="n">
+      <c r="AD21" s="2" t="n">
         <v>1111608618.90147</v>
       </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AE21" s="2" t="n">
         <v>441287010.62049</v>
       </c>
-      <c r="AF21" s="10" t="n">
+      <c r="AF21" s="2" t="n">
         <v>362100543.828991</v>
       </c>
-      <c r="AG21" s="10" t="n">
+      <c r="AG21" s="2" t="n">
         <v>285974309.768335</v>
       </c>
-      <c r="AH21" s="10" t="n">
+      <c r="AH21" s="2" t="n">
         <v>3171998282.88986</v>
       </c>
-      <c r="AI21" s="10" t="n">
+      <c r="AI21" s="2" t="n">
         <v>1153643983.75534</v>
       </c>
-      <c r="AJ21" s="10" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>1452416.60055832</v>
       </c>
-      <c r="AK21" s="10" t="n">
+      <c r="AK21" s="2" t="n">
         <v>722116.218101378</v>
       </c>
-      <c r="AL21" s="10" t="n">
+      <c r="AL21" s="2" t="n">
         <v>5275300.88719347</v>
       </c>
-      <c r="AM21" s="10" t="n">
+      <c r="AM21" s="2" t="n">
         <v>1231697.54830837</v>
       </c>
-      <c r="AN21" s="10" t="n">
+      <c r="AN21" s="2" t="n">
         <v>7316570.87611551</v>
       </c>
-      <c r="AO21" s="10" t="n">
+      <c r="AO21" s="2" t="n">
         <v>4195882.15880565</v>
       </c>
-      <c r="AP21" s="10" t="n">
+      <c r="AP21" s="2" t="n">
         <v>-462684.176253351</v>
       </c>
-      <c r="AQ21" s="10" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>223606.963332721</v>
       </c>
-      <c r="AR21" s="10" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="10" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="10" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="10" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="10" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="10" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="10"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5591,41 +5834,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -805,6 +806,21 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
 </sst>
 </file>
 
@@ -813,14 +829,14 @@
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -860,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -868,7 +884,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2308,6 +2324,1488 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>1407676000</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>2245486290</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>763573559</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>734996632</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>941061864</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>1176359374</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>2289854016</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>2726006781</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>3842262769</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>3251936789</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>2655875201</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>3383373287</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>8575025257.9004</v>
+      </c>
+      <c r="Y2" s="11" t="n">
+        <v>7387264141</v>
+      </c>
+      <c r="Z2" s="11" t="n">
+        <v>9169925094.2097</v>
+      </c>
+      <c r="AA2" s="11" t="n">
+        <v>9550018116.9512</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>11145014148.3016</v>
+      </c>
+      <c r="AC2" s="11" t="n">
+        <v>11366460258.6291</v>
+      </c>
+      <c r="AD2" s="11" t="n">
+        <v>12363772567.6992</v>
+      </c>
+      <c r="AE2" s="11" t="n">
+        <v>13549240183.023</v>
+      </c>
+      <c r="AF2" s="11" t="n">
+        <v>9208945488.0464</v>
+      </c>
+      <c r="AG2" s="11" t="n">
+        <v>17384493122.8107</v>
+      </c>
+      <c r="AH2" s="11" t="n">
+        <v>8264856632.9164</v>
+      </c>
+      <c r="AI2" s="11" t="n">
+        <v>7658302984.7878</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
+        <v>10412155499.7798</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>8328296397.5314</v>
+      </c>
+      <c r="AL2" s="11" t="n">
+        <v>10007661570.5311</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>9355114750.7082</v>
+      </c>
+      <c r="AN2" s="11" t="n">
+        <v>9934911309.1396</v>
+      </c>
+      <c r="AO2" s="11" t="n">
+        <v>11017495303.3075</v>
+      </c>
+      <c r="AP2" s="11" t="n">
+        <v>18129386075.1032</v>
+      </c>
+      <c r="AQ2" s="11" t="n">
+        <v>11312134287.1664</v>
+      </c>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>3556445000</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>3842230355</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>4266713610</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>3731336093</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>3276553686</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>2411400931</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>2715703119</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>2133825457</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>1964664471</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>2341353224</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>4142653942</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>1379977296</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>1668957967</v>
+      </c>
+      <c r="Y3" s="11" t="n">
+        <v>2525761066.9302</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>3164823182.4331</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>1946677148.1692</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>2983463467.5208</v>
+      </c>
+      <c r="AC3" s="11" t="n">
+        <v>2973338363.6457</v>
+      </c>
+      <c r="AD3" s="11" t="n">
+        <v>4052424010.417</v>
+      </c>
+      <c r="AE3" s="11" t="n">
+        <v>3896638167.6265</v>
+      </c>
+      <c r="AF3" s="11" t="n">
+        <v>3970546133.8752</v>
+      </c>
+      <c r="AG3" s="11" t="n">
+        <v>5350431003.1249</v>
+      </c>
+      <c r="AH3" s="11" t="n">
+        <v>10550824240.3543</v>
+      </c>
+      <c r="AI3" s="11" t="n">
+        <v>10697619654.4128</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>8685521266.8287</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>8261467951.7692</v>
+      </c>
+      <c r="AL3" s="11" t="n">
+        <v>9141552886.6565</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>12094140393.7318</v>
+      </c>
+      <c r="AN3" s="11" t="n">
+        <v>12578079791.4533</v>
+      </c>
+      <c r="AO3" s="11" t="n">
+        <v>12482137378.7566</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>13590860765.5053</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>12199697717.228</v>
+      </c>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>4058511493</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>2099496793</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>2207714938</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>3907960996</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <v>2257824099</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>5069532434</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>2080828491</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>2570677803</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>2795834673</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>1896577093</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>1534784898</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>6613957942</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>1331016236</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>1227305336.1204</v>
+      </c>
+      <c r="Z4" s="11" t="n">
+        <v>1162528793.4705</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>1266483894.5463</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>1041309573.7655</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>1098599121.3678</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>1196982392.763</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>1782050422.9729</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>1701954769.4829</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>2963086089.2128</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>2334351315.7299</v>
+      </c>
+      <c r="AI4" s="11" t="n">
+        <v>2294030107.5602</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>2207917952.1899</v>
+      </c>
+      <c r="AK4" s="11" t="n">
+        <v>2243779677.7068</v>
+      </c>
+      <c r="AL4" s="11" t="n">
+        <v>2586379834.222</v>
+      </c>
+      <c r="AM4" s="11" t="n">
+        <v>2344626827.8604</v>
+      </c>
+      <c r="AN4" s="11" t="n">
+        <v>3391578662.979</v>
+      </c>
+      <c r="AO4" s="11" t="n">
+        <v>3808479464.4878</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>2272295087.4311</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>2666805207.3796</v>
+      </c>
+      <c r="AR4" s="11" t="n">
+        <v>27697720072.2665</v>
+      </c>
+      <c r="AS4" s="11" t="n">
+        <v>18326606472.8893</v>
+      </c>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>1598684000</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>1220900028</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>1194221481</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>1024033084</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>849244434</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>946913848</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>845752188</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>900843876</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>756713733</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>830027295</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>1022507722</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>1026768444</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>1117853591.0298</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>1532294300</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>1345297631.0503</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>1274081432.4639</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>1647369538.2082</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>1768073610.3824</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>1717103087.9883</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>2244513279.023</v>
+      </c>
+      <c r="AF5" s="11" t="n">
+        <v>2671939066.2854</v>
+      </c>
+      <c r="AG5" s="11" t="n">
+        <v>2684042432.5112</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>2672165534.8493</v>
+      </c>
+      <c r="AI5" s="11" t="n">
+        <v>2399241975.2401</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>2520496498.6004</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>2643873470.7977</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>2915252643.9704</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>3412588067.2946</v>
+      </c>
+      <c r="AN5" s="11" t="n">
+        <v>5404819681.5133</v>
+      </c>
+      <c r="AO5" s="11" t="n">
+        <v>5997455412.5285</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>6090229133.5035</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>5779257817.0507</v>
+      </c>
+      <c r="AR5" s="11" t="n">
+        <v>6685754428.8531</v>
+      </c>
+      <c r="AS5" s="11" t="n">
+        <v>2385966794.1735</v>
+      </c>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>59341000</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>104657246</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>167858438</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>104443667</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>64342563</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>50150153</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>37490534</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>9167725</v>
+      </c>
+      <c r="T6" s="11" t="n">
+        <v>9757587</v>
+      </c>
+      <c r="U6" s="11" t="n">
+        <v>237626</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="n">
+        <v>250324</v>
+      </c>
+      <c r="X6" s="11" t="n">
+        <v>2698337</v>
+      </c>
+      <c r="Y6" s="11" t="n">
+        <v>14164</v>
+      </c>
+      <c r="Z6" s="11" t="n">
+        <v>247006</v>
+      </c>
+      <c r="AA6" s="11" t="n">
+        <v>5083369</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>2047153.6937</v>
+      </c>
+      <c r="AC6" s="11" t="n">
+        <v>46023603.0841</v>
+      </c>
+      <c r="AD6" s="11" t="n">
+        <v>22803434.8418</v>
+      </c>
+      <c r="AE6" s="11" t="n">
+        <v>29052462.747</v>
+      </c>
+      <c r="AF6" s="11" t="n">
+        <v>8804475.3547</v>
+      </c>
+      <c r="AG6" s="11" t="n">
+        <v>7518615.8737</v>
+      </c>
+      <c r="AH6" s="11" t="n">
+        <v>1319812.0679</v>
+      </c>
+      <c r="AI6" s="11" t="n">
+        <v>2083805.26</v>
+      </c>
+      <c r="AJ6" s="11" t="n">
+        <v>1335155.6707</v>
+      </c>
+      <c r="AK6" s="11" t="n">
+        <v>791575.1035</v>
+      </c>
+      <c r="AL6" s="11" t="n">
+        <v>1812288.3847</v>
+      </c>
+      <c r="AM6" s="11" t="n">
+        <v>1447325.5053</v>
+      </c>
+      <c r="AN6" s="11" t="n">
+        <v>341860.5327</v>
+      </c>
+      <c r="AO6" s="11" t="n">
+        <v>234098.0566</v>
+      </c>
+      <c r="AP6" s="11" t="n">
+        <v>531644.7636</v>
+      </c>
+      <c r="AQ6" s="11" t="n">
+        <v>3249212.789</v>
+      </c>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="11" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>2797800485.47168</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>4309266820.05243</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>1429628578.58338</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>1344539888.67693</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>1684787041.2165</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>2062354669.89008</v>
+      </c>
+      <c r="R11" s="11" t="n">
+        <v>3940438868.25288</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>4609103568.293</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>6416339350.53292</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>5363672561.03295</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>4291177370.69244</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>5337194015.65496</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>13316721306.2433</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>11256996293.8057</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>13640074023.2332</v>
+      </c>
+      <c r="AA11" s="11" t="n">
+        <v>13786928598.1667</v>
+      </c>
+      <c r="AB11" s="11" t="n">
+        <v>15582231941.5448</v>
+      </c>
+      <c r="AC11" s="11" t="n">
+        <v>15467671712.3034</v>
+      </c>
+      <c r="AD11" s="11" t="n">
+        <v>16481103829.8624</v>
+      </c>
+      <c r="AE11" s="11" t="n">
+        <v>17879658569.6091</v>
+      </c>
+      <c r="AF11" s="11" t="n">
+        <v>12047397723.3967</v>
+      </c>
+      <c r="AG11" s="11" t="n">
+        <v>22293576557.5754</v>
+      </c>
+      <c r="AH11" s="11" t="n">
+        <v>10407933955.8458</v>
+      </c>
+      <c r="AI11" s="11" t="n">
+        <v>9470785568.55136</v>
+      </c>
+      <c r="AJ11" s="11" t="n">
+        <v>12632011005.384</v>
+      </c>
+      <c r="AK11" s="11" t="n">
+        <v>9989354851.90335</v>
+      </c>
+      <c r="AL11" s="11" t="n">
+        <v>11905014380.0153</v>
+      </c>
+      <c r="AM11" s="11" t="n">
+        <v>10933546182.3132</v>
+      </c>
+      <c r="AN11" s="11" t="n">
+        <v>11344789454.3975</v>
+      </c>
+      <c r="AO11" s="11" t="n">
+        <v>12339320382.3193</v>
+      </c>
+      <c r="AP11" s="11" t="n">
+        <v>20037156307.5624</v>
+      </c>
+      <c r="AQ11" s="11" t="n">
+        <v>12095924865.3848</v>
+      </c>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>7068546702.19093</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>7373545702.56573</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>7988510918.94169</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>6825786672.58223</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>5866027942.68897</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>4227589018.2392</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>4673250805.49727</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>3607849619.64228</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>3280867216.46893</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>3861776183.88352</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>6693410459.88411</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>2176882637.88403</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>2591834711.84494</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>3848851540.54113</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>4707609062.81454</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>2810329626.27087</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>4171284048.76177</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>4046169225.24797</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>5401945119.30745</v>
+      </c>
+      <c r="AE12" s="11" t="n">
+        <v>5142027085.30958</v>
+      </c>
+      <c r="AF12" s="11" t="n">
+        <v>5194378500.33767</v>
+      </c>
+      <c r="AG12" s="11" t="n">
+        <v>6861301180.3996</v>
+      </c>
+      <c r="AH12" s="11" t="n">
+        <v>13286652963.3431</v>
+      </c>
+      <c r="AI12" s="11" t="n">
+        <v>13229414145.9423</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>10537261015.0124</v>
+      </c>
+      <c r="AK12" s="11" t="n">
+        <v>9909197635.22243</v>
+      </c>
+      <c r="AL12" s="11" t="n">
+        <v>10874700128.9274</v>
+      </c>
+      <c r="AM12" s="11" t="n">
+        <v>14134710909.9048</v>
+      </c>
+      <c r="AN12" s="11" t="n">
+        <v>14363053935.205</v>
+      </c>
+      <c r="AO12" s="11" t="n">
+        <v>13979683034.3429</v>
+      </c>
+      <c r="AP12" s="11" t="n">
+        <v>15021038240.6011</v>
+      </c>
+      <c r="AQ12" s="11" t="n">
+        <v>13044985430.8581</v>
+      </c>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>8066419705.53436</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>4029101361.7729</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>4133475198.98897</v>
+      </c>
+      <c r="O13" s="11" t="n">
+        <v>7148889142.82211</v>
+      </c>
+      <c r="P13" s="11" t="n">
+        <v>4042192048.00496</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>8887737982.542</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>3580742443.32281</v>
+      </c>
+      <c r="S13" s="11" t="n">
+        <v>4346474967.4586</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>4668869650.11586</v>
+      </c>
+      <c r="U13" s="11" t="n">
+        <v>3128172278.13826</v>
+      </c>
+      <c r="V13" s="11" t="n">
+        <v>2479798079.63051</v>
+      </c>
+      <c r="W13" s="11" t="n">
+        <v>10433367457.1085</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>2067022747.55012</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>1870214920.75754</v>
+      </c>
+      <c r="Z13" s="11" t="n">
+        <v>1729237549.2893</v>
+      </c>
+      <c r="AA13" s="11" t="n">
+        <v>1828365434.60006</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>1455891135.30537</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>1494992298.9298</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>1595596407.94293</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>2351604421.07346</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>2226544400.96401</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>3799810906.76011</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>2939648611.33778</v>
+      </c>
+      <c r="AI13" s="11" t="n">
+        <v>2836955821.63043</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>2678642656.80987</v>
+      </c>
+      <c r="AK13" s="11" t="n">
+        <v>2691296075.47905</v>
+      </c>
+      <c r="AL13" s="11" t="n">
+        <v>3076731652.2036</v>
+      </c>
+      <c r="AM13" s="11" t="n">
+        <v>2740221406.77234</v>
+      </c>
+      <c r="AN13" s="11" t="n">
+        <v>3872882671.24511</v>
+      </c>
+      <c r="AO13" s="11" t="n">
+        <v>4265402161.56852</v>
+      </c>
+      <c r="AP13" s="11" t="n">
+        <v>2511410571.49691</v>
+      </c>
+      <c r="AQ13" s="11" t="n">
+        <v>2851581726.33052</v>
+      </c>
+      <c r="AR13" s="11" t="n">
+        <v>27697720072.2665</v>
+      </c>
+      <c r="AS13" s="11" t="n">
+        <v>17479887554.3906</v>
+      </c>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>3177434914.93483</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>2343004276.93169</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>2235924932.53917</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>1873278418.99941</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>1520405907.37236</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>1660098299.52389</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>1455391815.90566</v>
+      </c>
+      <c r="S14" s="11" t="n">
+        <v>1523137342.24218</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>1263664771.00686</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>1369028648.4532</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>1652096452.55642</v>
+      </c>
+      <c r="W14" s="11" t="n">
+        <v>1619703748.27877</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>1735988441.45819</v>
+      </c>
+      <c r="Y14" s="11" t="n">
+        <v>2334968795.87477</v>
+      </c>
+      <c r="Z14" s="11" t="n">
+        <v>2001102417.11717</v>
+      </c>
+      <c r="AA14" s="11" t="n">
+        <v>1839333655.9698</v>
+      </c>
+      <c r="AB14" s="11" t="n">
+        <v>2303244652.38185</v>
+      </c>
+      <c r="AC14" s="11" t="n">
+        <v>2406024527.10114</v>
+      </c>
+      <c r="AD14" s="11" t="n">
+        <v>2288925497.8409</v>
+      </c>
+      <c r="AE14" s="11" t="n">
+        <v>2961873178.25902</v>
+      </c>
+      <c r="AF14" s="11" t="n">
+        <v>3495504742.21022</v>
+      </c>
+      <c r="AG14" s="11" t="n">
+        <v>3441970095.43266</v>
+      </c>
+      <c r="AH14" s="11" t="n">
+        <v>3365058057.39367</v>
+      </c>
+      <c r="AI14" s="11" t="n">
+        <v>2967068072.35261</v>
+      </c>
+      <c r="AJ14" s="11" t="n">
+        <v>3057862467.577</v>
+      </c>
+      <c r="AK14" s="11" t="n">
+        <v>3171187602.20397</v>
+      </c>
+      <c r="AL14" s="11" t="n">
+        <v>3467955466.2442</v>
+      </c>
+      <c r="AM14" s="11" t="n">
+        <v>3988373229.96514</v>
+      </c>
+      <c r="AN14" s="11" t="n">
+        <v>6171825738.32786</v>
+      </c>
+      <c r="AO14" s="11" t="n">
+        <v>6717000713.55126</v>
+      </c>
+      <c r="AP14" s="11" t="n">
+        <v>6731108962.61748</v>
+      </c>
+      <c r="AQ14" s="11" t="n">
+        <v>6179688691.64158</v>
+      </c>
+      <c r="AR14" s="11" t="n">
+        <v>6685754428.8531</v>
+      </c>
+      <c r="AS14" s="11" t="n">
+        <v>2275731261.66917</v>
+      </c>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>117942110.69051</v>
+      </c>
+      <c r="M15" s="11" t="n">
+        <v>200845580.609563</v>
+      </c>
+      <c r="N15" s="11" t="n">
+        <v>314279112.068058</v>
+      </c>
+      <c r="O15" s="11" t="n">
+        <v>191060299.173167</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>115192763.077536</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>87921603.3137609</v>
+      </c>
+      <c r="R15" s="11" t="n">
+        <v>64514661.7788389</v>
+      </c>
+      <c r="S15" s="11" t="n">
+        <v>15500692.9201872</v>
+      </c>
+      <c r="T15" s="11" t="n">
+        <v>16294562.1365306</v>
+      </c>
+      <c r="U15" s="11" t="n">
+        <v>391935.064758732</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11" t="n">
+        <v>394880.387543478</v>
+      </c>
+      <c r="X15" s="11" t="n">
+        <v>4190425.18693675</v>
+      </c>
+      <c r="Y15" s="11" t="n">
+        <v>21583.6461864867</v>
+      </c>
+      <c r="Z15" s="11" t="n">
+        <v>367416.319061341</v>
+      </c>
+      <c r="AA15" s="11" t="n">
+        <v>7338629.57984712</v>
+      </c>
+      <c r="AB15" s="11" t="n">
+        <v>2862196.78600271</v>
+      </c>
+      <c r="AC15" s="11" t="n">
+        <v>62629698.896961</v>
+      </c>
+      <c r="AD15" s="11" t="n">
+        <v>30397338.29196</v>
+      </c>
+      <c r="AE15" s="11" t="n">
+        <v>38337804.00273</v>
+      </c>
+      <c r="AF15" s="11" t="n">
+        <v>11518258.6846236</v>
+      </c>
+      <c r="AG15" s="11" t="n">
+        <v>9641744.36396983</v>
+      </c>
+      <c r="AH15" s="11" t="n">
+        <v>1662039.33678935</v>
+      </c>
+      <c r="AI15" s="11" t="n">
+        <v>2576977.27855387</v>
+      </c>
+      <c r="AJ15" s="11" t="n">
+        <v>1619808.80198533</v>
+      </c>
+      <c r="AK15" s="11" t="n">
+        <v>949452.832050674</v>
+      </c>
+      <c r="AL15" s="11" t="n">
+        <v>2155880.18524924</v>
+      </c>
+      <c r="AM15" s="11" t="n">
+        <v>1691523.90694507</v>
+      </c>
+      <c r="AN15" s="11" t="n">
+        <v>390374.472964023</v>
+      </c>
+      <c r="AO15" s="11" t="n">
+        <v>262183.993888206</v>
+      </c>
+      <c r="AP15" s="11" t="n">
+        <v>587590.180065687</v>
+      </c>
+      <c r="AQ15" s="11" t="n">
+        <v>3474342.92854707</v>
+      </c>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -4027,89 +5525,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>1667195712</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="3" t="n">
         <v>1727093205</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="3" t="n">
         <v>1931802616.9004</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="3" t="n">
         <v>2718922830.9402</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="3" t="n">
         <v>2346290595.815</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="3" t="n">
         <v>2642218538.2292</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="3" t="n">
         <v>2453725006.2732</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="3" t="n">
         <v>3202886359.6965</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="3" t="n">
         <v>2861249718.6648</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="3" t="n">
         <v>3312262871.845</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>4238616460.4125</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="3" t="n">
         <v>4425453498.0671</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="3" t="n">
         <v>4774888332.263</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="3" t="n">
         <v>4951947482.5283</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="3" t="n">
         <v>4792567355.8634</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="3" t="n">
         <v>5096148423.2276</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="3" t="n">
         <v>6153491832.0523</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>6472698753.751</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="3" t="n">
         <v>10187532234.7569</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="3" t="n">
         <v>9628505320.8608</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="3" t="n">
         <v>9686922996.7466</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="3" t="n">
         <v>10243092545.4533</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="3" t="n">
         <v>10200800420.8508</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="3" t="n">
         <v>4163556387.7586</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4127,89 +5625,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>42608597</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="3" t="n">
         <v>79793253</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="3" t="n">
         <v>32403293</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="3" t="n">
         <v>177010212</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="3" t="n">
         <v>73103772</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="3" t="n">
         <v>196581720</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="3" t="n">
         <v>143628794.2143</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="3" t="n">
         <v>156354936.1983</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="3" t="n">
         <v>243207269.7392</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="3" t="n">
         <v>20495863.5518</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>34008317.3251</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="3" t="n">
         <v>5372142.8962</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="3" t="n">
         <v>16910367.747</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="3" t="n">
         <v>53063710.23</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="3" t="n">
         <v>53108763.7401</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="3" t="n">
         <v>89077679.8018</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="3" t="n">
         <v>157381974.3137</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>80938967.2787</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="3" t="n">
         <v>77585967.1931</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="3" t="n">
         <v>103358499.5228</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="3" t="n">
         <v>95969336.6814</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="3" t="n">
         <v>41928674.1341</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="3" t="n">
         <v>43179483.2424</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="3" t="n">
         <v>44013620.301</v>
       </c>
-      <c r="AX3" s="11"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4227,89 +5725,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>46616562</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="3" t="n">
         <v>58743049</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="3" t="n">
         <v>65982705.0298</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="3" t="n">
         <v>174022821</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="3" t="n">
         <v>110534832</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="3" t="n">
         <v>140213100.1094</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="3" t="n">
         <v>59198494.2424</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="3" t="n">
         <v>25165281.6259</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="3" t="n">
         <v>30376675.1904</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="3" t="n">
         <v>32101743.8966</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>41409123.5261</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="3" t="n">
         <v>65650961.8043</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="3" t="n">
         <v>29613076.7526</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="3" t="n">
         <v>13200990.7966</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="3" t="n">
         <v>17506633.5072</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="3" t="n">
         <v>5576212.1403</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="3" t="n">
         <v>13082959.8042</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>14559790.6104</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="3" t="n">
         <v>3169753.1363</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="3" t="n">
         <v>-2969035.9445</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="3" t="n">
         <v>1117704.6305</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-747226.0256</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="3" t="n">
         <v>1198822.3338</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="3" t="n">
         <v>1750156.776</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4327,89 +5825,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>1616998464</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="3" t="n">
         <v>2697976676</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="3" t="n">
         <v>4435139464</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="3" t="n">
         <v>3443823422</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="3" t="n">
         <v>5756277306</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="3" t="n">
         <v>4538650461</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="3" t="n">
         <v>5911155403</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="3" t="n">
         <v>3259575698.6475</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="3" t="n">
         <v>3456927991.2977</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="3" t="n">
         <v>4794309155.5902</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>5086650779.3947</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="3" t="n">
         <v>15289390780.2664</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="3" t="n">
         <v>11206652460.1353</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="3" t="n">
         <v>10678338421.22</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="3" t="n">
         <v>7274551809.9082</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="3" t="n">
         <v>5190649825.2102</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="3" t="n">
         <v>5615949372.3369</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>8060537642.4228</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="3" t="n">
         <v>8030415143.8174</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="3" t="n">
         <v>11311726614.541</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="3" t="n">
         <v>18565398235.6409</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="3" t="n">
         <v>11537249595.1452</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="3" t="n">
         <v>14543467142.6914</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="3" t="n">
         <v>9707061527.1701</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4427,89 +5925,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>4005329951</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="3" t="n">
         <v>6677452003</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="3" t="n">
         <v>4319774574</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="3" t="n">
         <v>5267270448.1104</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="3" t="n">
         <v>5130624360.3486</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="3" t="n">
         <v>5464461775.3018</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="3" t="n">
         <v>6091538304.2878</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4657659409.6979</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="3" t="n">
         <v>2973877195.0597</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="3" t="n">
         <v>4386736921.5168</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>5479095335.5009</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="3" t="n">
         <v>7580586843.098</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="3" t="n">
         <v>6854719630.6743</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="3" t="n">
         <v>6091895031.0357</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="3" t="n">
         <v>10322279061.4678</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="3" t="n">
         <v>11015888196.5484</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="3" t="n">
         <v>11570884116.7565</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>10913180367.195</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="3" t="n">
         <v>8765457964.9645</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="3" t="n">
         <v>8504096158.8808</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="3" t="n">
         <v>8211259026.6831</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="3" t="n">
         <v>7308619713.2113</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="3" t="n">
         <v>8352538388.251</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="3" t="n">
         <v>6333025513.2799</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4527,89 +6025,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>257328243</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="3" t="n">
         <v>1315501462</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="3" t="n">
         <v>1511373778</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="3" t="n">
         <v>395985005</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="3" t="n">
         <v>678680544</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="3" t="n">
         <v>746852964</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1682374880.8296</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1828612094.6802</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1722360492.9125</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="3" t="n">
         <v>2052820904.886</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>2673368525.4409</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="3" t="n">
         <v>1020734586.6304</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="3" t="n">
         <v>936718114.1251</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="3" t="n">
         <v>1261465628.7801</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="3" t="n">
         <v>1361449328.264</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="3" t="n">
         <v>77370557.0903</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1142257912.731</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>1665810518.1036</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="3" t="n">
         <v>4245570241.7497</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="3" t="n">
         <v>3761084099.2761</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="3" t="n">
         <v>3522637569.9642</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="3" t="n">
         <v>2831000939.6954</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1242290243.7502</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="3" t="n">
         <v>463166061.7772</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4627,63 +6125,63 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="n">
         <v>7691886</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="3" t="n">
         <v>218594703.5625</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="3" t="n">
         <v>3912092184.0428</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="3" t="n">
         <v>5685520694.5724</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="3" t="n">
         <v>6028533390.1495</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>7931174.4824</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="3" t="n">
         <v>1819345.7709</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-173519.7795</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="3" t="n">
         <v>371282.6702</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-67390.9</v>
       </c>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11" t="n">
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="n">
         <v>-2164.04</v>
       </c>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4699,109 +6197,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="3" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="3" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="3" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="3" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="3" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="3" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="3" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="3" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="3" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="3" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="3" t="n">
         <v>1719744234</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="3" t="n">
         <v>-152232355</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="3" t="n">
         <v>399074958</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="3" t="n">
         <v>495604269</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="3" t="n">
         <v>747310297</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="3" t="n">
         <v>305673516.4902</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="3" t="n">
         <v>258988295.08</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="3" t="n">
         <v>210148992.52</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="3" t="n">
         <v>2379565456.2726</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="3" t="n">
         <v>874233663.9565</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>1110216.962</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="3" t="n">
         <v>563105</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="3" t="n">
         <v>4189074</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="3" t="n">
         <v>995980</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="3" t="n">
         <v>6030811.2188</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="3" t="n">
         <v>3498178.89</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="3" t="n">
         <v>-388944.2299</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>191325.7388</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="11"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4816,107 +6314,107 @@
       <c r="O10" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5053,89 +6551,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>2693738210.72471</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="3" t="n">
         <v>2724450049.19268</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="3" t="n">
         <v>3000023474.47697</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="3" t="n">
         <v>4143198841.52598</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="3" t="n">
         <v>3490058760.36448</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="3" t="n">
         <v>3814451227.33943</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="3" t="n">
         <v>3430638280.01906</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="3" t="n">
         <v>4358542027.71612</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="3" t="n">
         <v>3814091001.61527</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="3" t="n">
         <v>4370881941.82181</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>5545075531.37427</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="3" t="n">
         <v>5675125852.9186</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="3" t="n">
         <v>6013016875.67151</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="3" t="n">
         <v>6123919730.90012</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="3" t="n">
         <v>5814335329.95073</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="3" t="n">
         <v>6112562827.69639</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="3" t="n">
         <v>7320132503.6416</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>7564797721.26585</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="3" t="n">
         <v>11633260193.9669</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="3" t="n">
         <v>10783686190.5719</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="3" t="n">
         <v>10706285884.2024</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="3" t="n">
         <v>10952811792.5147</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="3" t="n">
         <v>10200800420.8508</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="3" t="n">
         <v>3971193335.33172</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5153,89 +6651,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>68843990.5514046</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="3" t="n">
         <v>125872032.517836</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="3" t="n">
         <v>50321207.1460649</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="3" t="n">
         <v>269734946.851384</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="3" t="n">
         <v>108740349.698953</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="3" t="n">
         <v>283796125.217198</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="3" t="n">
         <v>200812413.08004</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="3" t="n">
         <v>212770446.443732</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="3" t="n">
         <v>324199126.342796</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="3" t="n">
         <v>27046464.4102072</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>44490623.302178</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="3" t="n">
         <v>6889144.14062054</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="3" t="n">
         <v>21295226.099734</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="3" t="n">
         <v>65622243.2121495</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="3" t="n">
         <v>64431470.3196153</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="3" t="n">
         <v>106844006.319006</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="3" t="n">
         <v>187220026.79197</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>94595305.3780997</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="3" t="n">
         <v>88596308.0125113</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="3" t="n">
         <v>115758945.634835</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="3" t="n">
         <v>106068269.044094</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="3" t="n">
         <v>44833811.1232163</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="3" t="n">
         <v>43179483.2424</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="3" t="n">
         <v>41980119.7161753</v>
       </c>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5253,89 +6751,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>75319780.0403277</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="3" t="n">
         <v>92665816.9196942</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="3" t="n">
         <v>102468886.969675</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="3" t="n">
         <v>265182645.921936</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="3" t="n">
         <v>164418277.699747</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="3" t="n">
         <v>202419301.834061</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="3" t="n">
         <v>82767473.921588</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="3" t="n">
         <v>34245341.6349717</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="3" t="n">
         <v>40492587.1191558</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="3" t="n">
         <v>42361653.6873718</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>54172563.0957148</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="3" t="n">
         <v>84189670.2264038</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="3" t="n">
         <v>37291747.5474339</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="3" t="n">
         <v>16325255.5266306</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="3" t="n">
         <v>21239020.7901574</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="3" t="n">
         <v>6688374.08518014</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="3" t="n">
         <v>15563358.4833443</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>17016375.2434537</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="3" t="n">
         <v>3619577.55180544</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="3" t="n">
         <v>-3325246.32298316</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="3" t="n">
         <v>1235321.60958116</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-798999.519778664</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="3" t="n">
         <v>1198822.3338</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="3" t="n">
         <v>1669296.69670654</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5353,89 +6851,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>2612633008.71539</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="3" t="n">
         <v>4255996530.10556</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="3" t="n">
         <v>6887620085.08305</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="3" t="n">
         <v>5247830151.73565</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="3" t="n">
         <v>8562343502.85763</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="3" t="n">
         <v>6552244097.50332</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="3" t="n">
         <v>8264591978.65607</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="3" t="n">
         <v>4435685840.70011</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="3" t="n">
         <v>4608139533.86539</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="3" t="n">
         <v>6326599102.32535</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>6654497531.65975</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="3" t="n">
         <v>19606853157.6172</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="3" t="n">
         <v>14112537440.3557</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="3" t="n">
         <v>13205569643.3901</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="3" t="n">
         <v>8825475044.42666</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="3" t="n">
         <v>6225912304.38965</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="3" t="n">
         <v>6680677355.43548</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>9420542977.4159</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="3" t="n">
         <v>9170023385.53375</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="3" t="n">
         <v>12668852123.9603</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="3" t="n">
         <v>20519050386.9592</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="3" t="n">
         <v>12336637871.6341</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="3" t="n">
         <v>14543467142.6914</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="3" t="n">
         <v>9258579553.69378</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5453,89 +6951,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>6471531961.07118</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="3" t="n">
         <v>10533527886.8491</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="3" t="n">
         <v>6708462351.72944</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="3" t="n">
         <v>8026468633.19345</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="3" t="n">
         <v>7631697679.26986</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="3" t="n">
         <v>7888795958.38384</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="3" t="n">
         <v>8516791587.26614</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6338221843.71206</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="3" t="n">
         <v>3964225203.97104</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="3" t="n">
         <v>5788764338.95493</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>7167904376.98535</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="3" t="n">
         <v>9721214874.89366</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="3" t="n">
         <v>8632148429.26113</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="3" t="n">
         <v>7533657477.33749</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="3" t="n">
         <v>12522973048.9392</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="3" t="n">
         <v>13212980296.5266</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="3" t="n">
         <v>13764608328.1938</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>12754494703.7243</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="3" t="n">
         <v>10009377234.4412</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="3" t="n">
         <v>9524375929.16234</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="3" t="n">
         <v>9075336578.85297</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="3" t="n">
         <v>7815016395.356</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="3" t="n">
         <v>8352538388.251</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="3" t="n">
         <v>6040429471.4889</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5553,89 +7051,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>415772974.869403</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="3" t="n">
         <v>2075173483.67944</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="3" t="n">
         <v>2347111849.33793</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="3" t="n">
         <v>603417130.971065</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="3" t="n">
         <v>1009523279.98117</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="3" t="n">
         <v>1078197796.266</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="3" t="n">
         <v>2352186839.50353</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="3" t="n">
         <v>2488406322.29265</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="3" t="n">
         <v>2295933701.52282</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2708914772.20302</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>3497374800.29646</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="3" t="n">
         <v>1308972570.62682</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="3" t="n">
         <v>1179609120.89267</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="3" t="n">
         <v>1560015384.08775</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="3" t="n">
         <v>1651708226.81886</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="3" t="n">
         <v>92801926.4652425</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1358818619.20589</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>1946872562.87157</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="3" t="n">
         <v>4848065474.14234</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="3" t="n">
         <v>4212320532.76958</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="3" t="n">
         <v>3893327623.55344</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="3" t="n">
         <v>3027154186.03531</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1242290243.7502</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="3" t="n">
         <v>441767039.132532</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5653,63 +7151,63 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3" t="n">
         <v>11104427.4229181</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="3" t="n">
         <v>305624858.504391</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="3" t="n">
         <v>5323641330.2113</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="3" t="n">
         <v>7578888755.91932</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="3" t="n">
         <v>7955288801.0959</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>10375782.2789978</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="3" t="n">
         <v>2333097.89027099</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-218513.458282658</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="3" t="n">
         <v>459153.75270058</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-81758.5360188613</v>
       </c>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11" t="n">
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3" t="n">
         <v>-2391.76371203019</v>
       </c>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5725,109 +7223,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="3" t="n">
         <v>21228143918.8223</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="3" t="n">
         <v>18255763741.9323</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="3" t="n">
         <v>16101818741.1213</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="3" t="n">
         <v>17383554422.2538</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="3" t="n">
         <v>13228605702.3603</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="3" t="n">
         <v>16925701573.5089</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="3" t="n">
         <v>13714338594.7575</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="3" t="n">
         <v>14102066190.5562</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="3" t="n">
         <v>15646035550.2611</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="3" t="n">
         <v>13723041606.5727</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="3" t="n">
         <v>2778642436.79107</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="3" t="n">
         <v>-240143059.95053</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="3" t="n">
         <v>619749777.540361</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="3" t="n">
         <v>755220784.425894</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="3" t="n">
         <v>1111608618.90147</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="3" t="n">
         <v>441287010.62049</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="3" t="n">
         <v>362100543.828991</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="3" t="n">
         <v>285974309.768335</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="3" t="n">
         <v>3171998282.88986</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="3" t="n">
         <v>1153643983.75534</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>1452416.60055832</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="3" t="n">
         <v>722116.218101378</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="3" t="n">
         <v>5275300.88719347</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="3" t="n">
         <v>1231697.54830837</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="3" t="n">
         <v>7316570.87611551</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="3" t="n">
         <v>4195882.15880565</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="3" t="n">
         <v>-462684.176253351</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>223606.963332721</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="11"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5836,41 +7334,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -826,7 +826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -837,6 +837,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -872,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -885,6 +886,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2452,106 +2454,106 @@
       <c r="K2" t="s">
         <v>259</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="12" t="n">
         <v>1407676000</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="12" t="n">
         <v>2245486290</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>763573559</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="12" t="n">
         <v>734996632</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="12" t="n">
         <v>941061864</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>1176359374</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="12" t="n">
         <v>2289854016</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="12" t="n">
         <v>2726006781</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="12" t="n">
         <v>3842262769</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="12" t="n">
         <v>3251936789</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="12" t="n">
         <v>2655875201</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="12" t="n">
         <v>3383373287</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="12" t="n">
         <v>8575025257.9004</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="12" t="n">
         <v>7387264141</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="12" t="n">
         <v>9169925094.2097</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="12" t="n">
         <v>9550018116.9512</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="12" t="n">
         <v>11145014148.3016</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="12" t="n">
         <v>11366460258.6291</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="12" t="n">
         <v>12363772567.6992</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="12" t="n">
         <v>13549240183.023</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="12" t="n">
         <v>9208945488.0464</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="12" t="n">
         <v>17384493122.8107</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="12" t="n">
         <v>8264856632.9164</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="12" t="n">
         <v>7658302984.7878</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>10412155499.7798</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="12" t="n">
         <v>8328296397.5314</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="12" t="n">
         <v>10007661570.5311</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="12" t="n">
         <v>9355114750.7082</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="12" t="n">
         <v>9934911309.1396</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="12" t="n">
         <v>11017495303.3075</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="12" t="n">
         <v>18129386075.1032</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>11312134287.1664</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2560,106 +2562,106 @@
       <c r="K3" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>3556445000</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="12" t="n">
         <v>3842230355</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="12" t="n">
         <v>4266713610</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="12" t="n">
         <v>3731336093</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="12" t="n">
         <v>3276553686</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>2411400931</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <v>2715703119</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>2133825457</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <v>1964664471</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="12" t="n">
         <v>2341353224</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="12" t="n">
         <v>4142653942</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="12" t="n">
         <v>1379977296</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="12" t="n">
         <v>1668957967</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="12" t="n">
         <v>2525761066.9302</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="12" t="n">
         <v>3164823182.4331</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>1946677148.1692</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="12" t="n">
         <v>2983463467.5208</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="12" t="n">
         <v>2973338363.6457</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="12" t="n">
         <v>4052424010.417</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="12" t="n">
         <v>3896638167.6265</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="12" t="n">
         <v>3970546133.8752</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="12" t="n">
         <v>5350431003.1249</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="12" t="n">
         <v>10550824240.3543</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="12" t="n">
         <v>10697619654.4128</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>8685521266.8287</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="12" t="n">
         <v>8261467951.7692</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="12" t="n">
         <v>9141552886.6565</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="12" t="n">
         <v>12094140393.7318</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="12" t="n">
         <v>12578079791.4533</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="12" t="n">
         <v>12482137378.7566</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="12" t="n">
         <v>13590860765.5053</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>12199697717.228</v>
       </c>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2668,110 +2670,110 @@
       <c r="K4" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12" t="n">
         <v>4058511493</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="12" t="n">
         <v>2099496793</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12" t="n">
         <v>2207714938</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="12" t="n">
         <v>3907960996</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12" t="n">
         <v>2257824099</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="12" t="n">
         <v>5069532434</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12" t="n">
         <v>2080828491</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="12" t="n">
         <v>2570677803</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>2795834673</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="12" t="n">
         <v>1896577093</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="12" t="n">
         <v>1534784898</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="12" t="n">
         <v>6613957942</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="12" t="n">
         <v>1331016236</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="12" t="n">
         <v>1227305336.1204</v>
       </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Z4" s="12" t="n">
         <v>1162528793.4705</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="12" t="n">
         <v>1266483894.5463</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="12" t="n">
         <v>1041309573.7655</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="12" t="n">
         <v>1098599121.3678</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="12" t="n">
         <v>1196982392.763</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="12" t="n">
         <v>1782050422.9729</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="12" t="n">
         <v>1701954769.4829</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="12" t="n">
         <v>2963086089.2128</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="12" t="n">
         <v>2334351315.7299</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="12" t="n">
         <v>2294030107.5602</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>2207917952.1899</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="12" t="n">
         <v>2243779677.7068</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="12" t="n">
         <v>2586379834.222</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="12" t="n">
         <v>2344626827.8604</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="12" t="n">
         <v>3391578662.979</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="12" t="n">
         <v>3808479464.4878</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="12" t="n">
         <v>2272295087.4311</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>2666805207.3796</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="12" t="n">
         <v>27697720072.2665</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="12" t="n">
         <v>18326606472.8893</v>
       </c>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2780,110 +2782,110 @@
       <c r="K5" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <v>1598684000</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="12" t="n">
         <v>1220900028</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="12" t="n">
         <v>1194221481</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="12" t="n">
         <v>1024033084</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="12" t="n">
         <v>849244434</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="12" t="n">
         <v>946913848</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="12" t="n">
         <v>845752188</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="12" t="n">
         <v>900843876</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <v>756713733</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="12" t="n">
         <v>830027295</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="12" t="n">
         <v>1022507722</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="12" t="n">
         <v>1026768444</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="12" t="n">
         <v>1117853591.0298</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="12" t="n">
         <v>1532294300</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="12" t="n">
         <v>1345297631.0503</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="12" t="n">
         <v>1274081432.4639</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="12" t="n">
         <v>1647369538.2082</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="12" t="n">
         <v>1768073610.3824</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="12" t="n">
         <v>1717103087.9883</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="12" t="n">
         <v>2244513279.023</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="12" t="n">
         <v>2671939066.2854</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="12" t="n">
         <v>2684042432.5112</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="12" t="n">
         <v>2672165534.8493</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="12" t="n">
         <v>2399241975.2401</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>2520496498.6004</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="12" t="n">
         <v>2643873470.7977</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="12" t="n">
         <v>2915252643.9704</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="12" t="n">
         <v>3412588067.2946</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="12" t="n">
         <v>5404819681.5133</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="12" t="n">
         <v>5997455412.5285</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="12" t="n">
         <v>6090229133.5035</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>5779257817.0507</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="12" t="n">
         <v>6685754428.8531</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="12" t="n">
         <v>2385966794.1735</v>
       </c>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2892,104 +2894,104 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <v>59341000</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="12" t="n">
         <v>104657246</v>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="12" t="n">
         <v>167858438</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="12" t="n">
         <v>104443667</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="12" t="n">
         <v>64342563</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="12" t="n">
         <v>50150153</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="12" t="n">
         <v>37490534</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="12" t="n">
         <v>9167725</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="12" t="n">
         <v>9757587</v>
       </c>
-      <c r="U6" s="11" t="n">
+      <c r="U6" s="12" t="n">
         <v>237626</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11" t="n">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
         <v>250324</v>
       </c>
-      <c r="X6" s="11" t="n">
+      <c r="X6" s="12" t="n">
         <v>2698337</v>
       </c>
-      <c r="Y6" s="11" t="n">
+      <c r="Y6" s="12" t="n">
         <v>14164</v>
       </c>
-      <c r="Z6" s="11" t="n">
+      <c r="Z6" s="12" t="n">
         <v>247006</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="12" t="n">
         <v>5083369</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="12" t="n">
         <v>2047153.6937</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="12" t="n">
         <v>46023603.0841</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="12" t="n">
         <v>22803434.8418</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="12" t="n">
         <v>29052462.747</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="12" t="n">
         <v>8804475.3547</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="12" t="n">
         <v>7518615.8737</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="12" t="n">
         <v>1319812.0679</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="12" t="n">
         <v>2083805.26</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>1335155.6707</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="12" t="n">
         <v>791575.1035</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="12" t="n">
         <v>1812288.3847</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="12" t="n">
         <v>1447325.5053</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="12" t="n">
         <v>341860.5327</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="12" t="n">
         <v>234098.0566</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="12" t="n">
         <v>531644.7636</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>3249212.789</v>
       </c>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2998,110 +3000,110 @@
       <c r="K7" t="s">
         <v>256</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="11" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="11" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="11" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="11" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="11" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="11" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="11" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="11" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="11" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="11" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="11" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="11" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="11" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="11" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="11" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="11" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="11" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3220,106 +3222,106 @@
       <c r="K11" t="s">
         <v>259</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>2797800485.47168</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="12" t="n">
         <v>4309266820.05243</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="12" t="n">
         <v>1429628578.58338</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="12" t="n">
         <v>1344539888.67693</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="12" t="n">
         <v>1684787041.2165</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="12" t="n">
         <v>2062354669.89008</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="12" t="n">
         <v>3940438868.25288</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="12" t="n">
         <v>4609103568.293</v>
       </c>
-      <c r="T11" s="11" t="n">
+      <c r="T11" s="12" t="n">
         <v>6416339350.53292</v>
       </c>
-      <c r="U11" s="11" t="n">
+      <c r="U11" s="12" t="n">
         <v>5363672561.03295</v>
       </c>
-      <c r="V11" s="11" t="n">
+      <c r="V11" s="12" t="n">
         <v>4291177370.69244</v>
       </c>
-      <c r="W11" s="11" t="n">
+      <c r="W11" s="12" t="n">
         <v>5337194015.65496</v>
       </c>
-      <c r="X11" s="11" t="n">
+      <c r="X11" s="12" t="n">
         <v>13316721306.2433</v>
       </c>
-      <c r="Y11" s="11" t="n">
+      <c r="Y11" s="12" t="n">
         <v>11256996293.8057</v>
       </c>
-      <c r="Z11" s="11" t="n">
+      <c r="Z11" s="12" t="n">
         <v>13640074023.2332</v>
       </c>
-      <c r="AA11" s="11" t="n">
+      <c r="AA11" s="12" t="n">
         <v>13786928598.1667</v>
       </c>
-      <c r="AB11" s="11" t="n">
+      <c r="AB11" s="12" t="n">
         <v>15582231941.5448</v>
       </c>
-      <c r="AC11" s="11" t="n">
+      <c r="AC11" s="12" t="n">
         <v>15467671712.3034</v>
       </c>
-      <c r="AD11" s="11" t="n">
+      <c r="AD11" s="12" t="n">
         <v>16481103829.8624</v>
       </c>
-      <c r="AE11" s="11" t="n">
+      <c r="AE11" s="12" t="n">
         <v>17879658569.6091</v>
       </c>
-      <c r="AF11" s="11" t="n">
+      <c r="AF11" s="12" t="n">
         <v>12047397723.3967</v>
       </c>
-      <c r="AG11" s="11" t="n">
+      <c r="AG11" s="12" t="n">
         <v>22293576557.5754</v>
       </c>
-      <c r="AH11" s="11" t="n">
+      <c r="AH11" s="12" t="n">
         <v>10407933955.8458</v>
       </c>
-      <c r="AI11" s="11" t="n">
+      <c r="AI11" s="12" t="n">
         <v>9470785568.55136</v>
       </c>
-      <c r="AJ11" s="11" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>12632011005.384</v>
       </c>
-      <c r="AK11" s="11" t="n">
+      <c r="AK11" s="12" t="n">
         <v>9989354851.90335</v>
       </c>
-      <c r="AL11" s="11" t="n">
+      <c r="AL11" s="12" t="n">
         <v>11905014380.0153</v>
       </c>
-      <c r="AM11" s="11" t="n">
+      <c r="AM11" s="12" t="n">
         <v>10933546182.3132</v>
       </c>
-      <c r="AN11" s="11" t="n">
+      <c r="AN11" s="12" t="n">
         <v>11344789454.3975</v>
       </c>
-      <c r="AO11" s="11" t="n">
+      <c r="AO11" s="12" t="n">
         <v>12339320382.3193</v>
       </c>
-      <c r="AP11" s="11" t="n">
+      <c r="AP11" s="12" t="n">
         <v>20037156307.5624</v>
       </c>
-      <c r="AQ11" s="11" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>12095924865.3848</v>
       </c>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3328,106 +3330,106 @@
       <c r="K12" t="s">
         <v>260</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>7068546702.19093</v>
       </c>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="12" t="n">
         <v>7373545702.56573</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="12" t="n">
         <v>7988510918.94169</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="12" t="n">
         <v>6825786672.58223</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="12" t="n">
         <v>5866027942.68897</v>
       </c>
-      <c r="Q12" s="11" t="n">
+      <c r="Q12" s="12" t="n">
         <v>4227589018.2392</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="12" t="n">
         <v>4673250805.49727</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="12" t="n">
         <v>3607849619.64228</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="12" t="n">
         <v>3280867216.46893</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="12" t="n">
         <v>3861776183.88352</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="12" t="n">
         <v>6693410459.88411</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="12" t="n">
         <v>2176882637.88403</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="12" t="n">
         <v>2591834711.84494</v>
       </c>
-      <c r="Y12" s="11" t="n">
+      <c r="Y12" s="12" t="n">
         <v>3848851540.54113</v>
       </c>
-      <c r="Z12" s="11" t="n">
+      <c r="Z12" s="12" t="n">
         <v>4707609062.81454</v>
       </c>
-      <c r="AA12" s="11" t="n">
+      <c r="AA12" s="12" t="n">
         <v>2810329626.27087</v>
       </c>
-      <c r="AB12" s="11" t="n">
+      <c r="AB12" s="12" t="n">
         <v>4171284048.76177</v>
       </c>
-      <c r="AC12" s="11" t="n">
+      <c r="AC12" s="12" t="n">
         <v>4046169225.24797</v>
       </c>
-      <c r="AD12" s="11" t="n">
+      <c r="AD12" s="12" t="n">
         <v>5401945119.30745</v>
       </c>
-      <c r="AE12" s="11" t="n">
+      <c r="AE12" s="12" t="n">
         <v>5142027085.30958</v>
       </c>
-      <c r="AF12" s="11" t="n">
+      <c r="AF12" s="12" t="n">
         <v>5194378500.33767</v>
       </c>
-      <c r="AG12" s="11" t="n">
+      <c r="AG12" s="12" t="n">
         <v>6861301180.3996</v>
       </c>
-      <c r="AH12" s="11" t="n">
+      <c r="AH12" s="12" t="n">
         <v>13286652963.3431</v>
       </c>
-      <c r="AI12" s="11" t="n">
+      <c r="AI12" s="12" t="n">
         <v>13229414145.9423</v>
       </c>
-      <c r="AJ12" s="11" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>10537261015.0124</v>
       </c>
-      <c r="AK12" s="11" t="n">
+      <c r="AK12" s="12" t="n">
         <v>9909197635.22243</v>
       </c>
-      <c r="AL12" s="11" t="n">
+      <c r="AL12" s="12" t="n">
         <v>10874700128.9274</v>
       </c>
-      <c r="AM12" s="11" t="n">
+      <c r="AM12" s="12" t="n">
         <v>14134710909.9048</v>
       </c>
-      <c r="AN12" s="11" t="n">
+      <c r="AN12" s="12" t="n">
         <v>14363053935.205</v>
       </c>
-      <c r="AO12" s="11" t="n">
+      <c r="AO12" s="12" t="n">
         <v>13979683034.3429</v>
       </c>
-      <c r="AP12" s="11" t="n">
+      <c r="AP12" s="12" t="n">
         <v>15021038240.6011</v>
       </c>
-      <c r="AQ12" s="11" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>13044985430.8581</v>
       </c>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3436,110 +3438,110 @@
       <c r="K13" t="s">
         <v>261</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>8066419705.53436</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="12" t="n">
         <v>4029101361.7729</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="12" t="n">
         <v>4133475198.98897</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="12" t="n">
         <v>7148889142.82211</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="12" t="n">
         <v>4042192048.00496</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="Q13" s="12" t="n">
         <v>8887737982.542</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="12" t="n">
         <v>3580742443.32281</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="12" t="n">
         <v>4346474967.4586</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="12" t="n">
         <v>4668869650.11586</v>
       </c>
-      <c r="U13" s="11" t="n">
+      <c r="U13" s="12" t="n">
         <v>3128172278.13826</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="12" t="n">
         <v>2479798079.63051</v>
       </c>
-      <c r="W13" s="11" t="n">
+      <c r="W13" s="12" t="n">
         <v>10433367457.1085</v>
       </c>
-      <c r="X13" s="11" t="n">
+      <c r="X13" s="12" t="n">
         <v>2067022747.55012</v>
       </c>
-      <c r="Y13" s="11" t="n">
+      <c r="Y13" s="12" t="n">
         <v>1870214920.75754</v>
       </c>
-      <c r="Z13" s="11" t="n">
+      <c r="Z13" s="12" t="n">
         <v>1729237549.2893</v>
       </c>
-      <c r="AA13" s="11" t="n">
+      <c r="AA13" s="12" t="n">
         <v>1828365434.60006</v>
       </c>
-      <c r="AB13" s="11" t="n">
+      <c r="AB13" s="12" t="n">
         <v>1455891135.30537</v>
       </c>
-      <c r="AC13" s="11" t="n">
+      <c r="AC13" s="12" t="n">
         <v>1494992298.9298</v>
       </c>
-      <c r="AD13" s="11" t="n">
+      <c r="AD13" s="12" t="n">
         <v>1595596407.94293</v>
       </c>
-      <c r="AE13" s="11" t="n">
+      <c r="AE13" s="12" t="n">
         <v>2351604421.07346</v>
       </c>
-      <c r="AF13" s="11" t="n">
+      <c r="AF13" s="12" t="n">
         <v>2226544400.96401</v>
       </c>
-      <c r="AG13" s="11" t="n">
+      <c r="AG13" s="12" t="n">
         <v>3799810906.76011</v>
       </c>
-      <c r="AH13" s="11" t="n">
+      <c r="AH13" s="12" t="n">
         <v>2939648611.33778</v>
       </c>
-      <c r="AI13" s="11" t="n">
+      <c r="AI13" s="12" t="n">
         <v>2836955821.63043</v>
       </c>
-      <c r="AJ13" s="11" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>2678642656.80987</v>
       </c>
-      <c r="AK13" s="11" t="n">
+      <c r="AK13" s="12" t="n">
         <v>2691296075.47905</v>
       </c>
-      <c r="AL13" s="11" t="n">
+      <c r="AL13" s="12" t="n">
         <v>3076731652.2036</v>
       </c>
-      <c r="AM13" s="11" t="n">
+      <c r="AM13" s="12" t="n">
         <v>2740221406.77234</v>
       </c>
-      <c r="AN13" s="11" t="n">
+      <c r="AN13" s="12" t="n">
         <v>3872882671.24511</v>
       </c>
-      <c r="AO13" s="11" t="n">
+      <c r="AO13" s="12" t="n">
         <v>4265402161.56852</v>
       </c>
-      <c r="AP13" s="11" t="n">
+      <c r="AP13" s="12" t="n">
         <v>2511410571.49691</v>
       </c>
-      <c r="AQ13" s="11" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>2851581726.33052</v>
       </c>
-      <c r="AR13" s="11" t="n">
+      <c r="AR13" s="12" t="n">
         <v>27697720072.2665</v>
       </c>
-      <c r="AS13" s="11" t="n">
+      <c r="AS13" s="12" t="n">
         <v>17479887554.3906</v>
       </c>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3548,110 +3550,110 @@
       <c r="K14" t="s">
         <v>262</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>3177434914.93483</v>
       </c>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="12" t="n">
         <v>2343004276.93169</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="12" t="n">
         <v>2235924932.53917</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="12" t="n">
         <v>1873278418.99941</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="12" t="n">
         <v>1520405907.37236</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="12" t="n">
         <v>1660098299.52389</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="12" t="n">
         <v>1455391815.90566</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="12" t="n">
         <v>1523137342.24218</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="12" t="n">
         <v>1263664771.00686</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="12" t="n">
         <v>1369028648.4532</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="12" t="n">
         <v>1652096452.55642</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="12" t="n">
         <v>1619703748.27877</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="12" t="n">
         <v>1735988441.45819</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="12" t="n">
         <v>2334968795.87477</v>
       </c>
-      <c r="Z14" s="11" t="n">
+      <c r="Z14" s="12" t="n">
         <v>2001102417.11717</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="12" t="n">
         <v>1839333655.9698</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="12" t="n">
         <v>2303244652.38185</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="12" t="n">
         <v>2406024527.10114</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="12" t="n">
         <v>2288925497.8409</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="12" t="n">
         <v>2961873178.25902</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="12" t="n">
         <v>3495504742.21022</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="12" t="n">
         <v>3441970095.43266</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="12" t="n">
         <v>3365058057.39367</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="12" t="n">
         <v>2967068072.35261</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>3057862467.577</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="12" t="n">
         <v>3171187602.20397</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="12" t="n">
         <v>3467955466.2442</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="12" t="n">
         <v>3988373229.96514</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="12" t="n">
         <v>6171825738.32786</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="12" t="n">
         <v>6717000713.55126</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="12" t="n">
         <v>6731108962.61748</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>6179688691.64158</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="12" t="n">
         <v>6685754428.8531</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="12" t="n">
         <v>2275731261.66917</v>
       </c>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3660,145 +3662,145 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>117942110.69051</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="12" t="n">
         <v>200845580.609563</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="12" t="n">
         <v>314279112.068058</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="12" t="n">
         <v>191060299.173167</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="12" t="n">
         <v>115192763.077536</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="12" t="n">
         <v>87921603.3137609</v>
       </c>
-      <c r="R15" s="11" t="n">
+      <c r="R15" s="12" t="n">
         <v>64514661.7788389</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="12" t="n">
         <v>15500692.9201872</v>
       </c>
-      <c r="T15" s="11" t="n">
+      <c r="T15" s="12" t="n">
         <v>16294562.1365306</v>
       </c>
-      <c r="U15" s="11" t="n">
+      <c r="U15" s="12" t="n">
         <v>391935.064758732</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11" t="n">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12" t="n">
         <v>394880.387543478</v>
       </c>
-      <c r="X15" s="11" t="n">
+      <c r="X15" s="12" t="n">
         <v>4190425.18693675</v>
       </c>
-      <c r="Y15" s="11" t="n">
+      <c r="Y15" s="12" t="n">
         <v>21583.6461864867</v>
       </c>
-      <c r="Z15" s="11" t="n">
+      <c r="Z15" s="12" t="n">
         <v>367416.319061341</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="12" t="n">
         <v>7338629.57984712</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="12" t="n">
         <v>2862196.78600271</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="12" t="n">
         <v>62629698.896961</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="12" t="n">
         <v>30397338.29196</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="12" t="n">
         <v>38337804.00273</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="12" t="n">
         <v>11518258.6846236</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="12" t="n">
         <v>9641744.36396983</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="12" t="n">
         <v>1662039.33678935</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="12" t="n">
         <v>2576977.27855387</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>1619808.80198533</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="12" t="n">
         <v>949452.832050674</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="12" t="n">
         <v>2155880.18524924</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="12" t="n">
         <v>1691523.90694507</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="12" t="n">
         <v>390374.472964023</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="12" t="n">
         <v>262183.993888206</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="12" t="n">
         <v>587590.180065687</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>3474342.92854707</v>
       </c>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -836,8 +836,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -885,8 +885,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,8 +2550,12 @@
       <c r="AQ2" s="12" t="n">
         <v>11312134287.1664</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
+      <c r="AR2" s="12" t="n">
+        <v>13063009663.6514</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>8826172530.7096</v>
+      </c>
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
@@ -2596,31 +2600,31 @@
         <v>4142653942</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>1379977296</v>
+        <v>1375899536</v>
       </c>
       <c r="X3" s="12" t="n">
-        <v>1668957967</v>
+        <v>1663874803</v>
       </c>
       <c r="Y3" s="12" t="n">
-        <v>2525761066.9302</v>
+        <v>2523112891.9302</v>
       </c>
       <c r="Z3" s="12" t="n">
-        <v>3164823182.4331</v>
+        <v>3160491169.4331</v>
       </c>
       <c r="AA3" s="12" t="n">
-        <v>1946677148.1692</v>
+        <v>1939587849.0891</v>
       </c>
       <c r="AB3" s="12" t="n">
-        <v>2983463467.5208</v>
+        <v>2973069479.5677</v>
       </c>
       <c r="AC3" s="12" t="n">
-        <v>2973338363.6457</v>
+        <v>2957402532.8626</v>
       </c>
       <c r="AD3" s="12" t="n">
-        <v>4052424010.417</v>
+        <v>4030948902.5163</v>
       </c>
       <c r="AE3" s="12" t="n">
-        <v>3896638167.6265</v>
+        <v>3869618023.6785</v>
       </c>
       <c r="AF3" s="12" t="n">
         <v>3970546133.8752</v>
@@ -2658,8 +2662,12 @@
       <c r="AQ3" s="12" t="n">
         <v>12199697717.228</v>
       </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
+      <c r="AR3" s="12" t="n">
+        <v>11099113658.7153</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>8071517178.1405</v>
+      </c>
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
@@ -2704,31 +2712,31 @@
         <v>1534784898</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>6613957942</v>
+        <v>6618035702</v>
       </c>
       <c r="X4" s="12" t="n">
-        <v>1331016236</v>
+        <v>1336099400</v>
       </c>
       <c r="Y4" s="12" t="n">
-        <v>1227305336.1204</v>
+        <v>1229953511.1204</v>
       </c>
       <c r="Z4" s="12" t="n">
-        <v>1162528793.4705</v>
+        <v>1166860806.4705</v>
       </c>
       <c r="AA4" s="12" t="n">
-        <v>1266483894.5463</v>
+        <v>1273573193.6264</v>
       </c>
       <c r="AB4" s="12" t="n">
-        <v>1041309573.7655</v>
+        <v>1051703561.7186</v>
       </c>
       <c r="AC4" s="12" t="n">
-        <v>1098599121.3678</v>
+        <v>1114534952.1509</v>
       </c>
       <c r="AD4" s="12" t="n">
-        <v>1196982392.763</v>
+        <v>1218457500.6637</v>
       </c>
       <c r="AE4" s="12" t="n">
-        <v>1782050422.9729</v>
+        <v>1809070566.9209</v>
       </c>
       <c r="AF4" s="12" t="n">
         <v>1701954769.4829</v>
@@ -2767,10 +2775,10 @@
         <v>2666805207.3796</v>
       </c>
       <c r="AR4" s="12" t="n">
-        <v>27697720072.2665</v>
+        <v>3606889529.0882</v>
       </c>
       <c r="AS4" s="12" t="n">
-        <v>18326606472.8893</v>
+        <v>1429961404.9097</v>
       </c>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
@@ -2879,10 +2887,10 @@
         <v>5779257817.0507</v>
       </c>
       <c r="AR5" s="12" t="n">
-        <v>6685754428.8531</v>
+        <v>6612770123.0285</v>
       </c>
       <c r="AS5" s="12" t="n">
-        <v>2385966794.1735</v>
+        <v>2384672316.0205</v>
       </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
@@ -2988,8 +2996,12 @@
       <c r="AQ6" s="12" t="n">
         <v>3249212.789</v>
       </c>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
+      <c r="AR6" s="12" t="n">
+        <v>1691526.6362</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>249837.2825</v>
+      </c>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
@@ -3318,8 +3330,12 @@
       <c r="AQ11" s="12" t="n">
         <v>12095924865.3848</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AR11" s="12" t="n">
+        <v>13063009663.6514</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>8418389056.40735</v>
+      </c>
       <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
     </row>
@@ -3364,31 +3380,31 @@
         <v>6693410459.88411</v>
       </c>
       <c r="W12" s="12" t="n">
-        <v>2176882637.88403</v>
+        <v>2170450064.70243</v>
       </c>
       <c r="X12" s="12" t="n">
-        <v>2591834711.84494</v>
+        <v>2583940731.7917</v>
       </c>
       <c r="Y12" s="12" t="n">
-        <v>3848851540.54113</v>
+        <v>3844816149.95655</v>
       </c>
       <c r="Z12" s="12" t="n">
-        <v>4707609062.81454</v>
+        <v>4701165283.02544</v>
       </c>
       <c r="AA12" s="12" t="n">
-        <v>2810329626.27087</v>
+        <v>2800095126.29072</v>
       </c>
       <c r="AB12" s="12" t="n">
-        <v>4171284048.76177</v>
+        <v>4156751852.66693</v>
       </c>
       <c r="AC12" s="12" t="n">
-        <v>4046169225.24797</v>
+        <v>4024483476.70293</v>
       </c>
       <c r="AD12" s="12" t="n">
-        <v>5401945119.30745</v>
+        <v>5373318461.77789</v>
       </c>
       <c r="AE12" s="12" t="n">
-        <v>5142027085.30958</v>
+        <v>5106371141.37722</v>
       </c>
       <c r="AF12" s="12" t="n">
         <v>5194378500.33767</v>
@@ -3426,8 +3442,12 @@
       <c r="AQ12" s="12" t="n">
         <v>13044985430.8581</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AR12" s="12" t="n">
+        <v>11099113658.7153</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>7698600004.09475</v>
+      </c>
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
     </row>
@@ -3472,31 +3492,31 @@
         <v>2479798079.63051</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>10433367457.1085</v>
+        <v>10439800030.2901</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>2067022747.55012</v>
+        <v>2074916727.60336</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>1870214920.75754</v>
+        <v>1874250311.34212</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>1729237549.2893</v>
+        <v>1735681329.0784</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>1828365434.60006</v>
+        <v>1838599934.58021</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>1455891135.30537</v>
+        <v>1470423331.4002</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>1494992298.9298</v>
+        <v>1516678047.47484</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>1595596407.94293</v>
+        <v>1624223065.47249</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>2351604421.07346</v>
+        <v>2387260365.00582</v>
       </c>
       <c r="AF13" s="12" t="n">
         <v>2226544400.96401</v>
@@ -3526,7 +3546,7 @@
         <v>3872882671.24511</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>4265402161.56852</v>
+        <v>4265402161.56851</v>
       </c>
       <c r="AP13" s="12" t="n">
         <v>2511410571.49691</v>
@@ -3535,10 +3555,10 @@
         <v>2851581726.33052</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>27697720072.2665</v>
+        <v>3606889529.0882</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>17479887554.3906</v>
+        <v>1363894870.65792</v>
       </c>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
@@ -3647,10 +3667,10 @@
         <v>6179688691.64158</v>
       </c>
       <c r="AR14" s="12" t="n">
-        <v>6685754428.8531</v>
+        <v>6612770123.0285</v>
       </c>
       <c r="AS14" s="12" t="n">
-        <v>2275731261.66917</v>
+        <v>2274496590.50462</v>
       </c>
       <c r="AT14" s="12"/>
       <c r="AU14" s="12"/>
@@ -3756,8 +3776,12 @@
       <c r="AQ15" s="12" t="n">
         <v>3474342.92854707</v>
       </c>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
+      <c r="AR15" s="12" t="n">
+        <v>1691526.6362</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>238294.395171024</v>
+      </c>
       <c r="AT15" s="12"/>
       <c r="AU15" s="12"/>
     </row>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -821,6 +821,9 @@
   <si>
     <t xml:space="preserve">Small</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -836,8 +839,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -885,8 +888,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2454,110 +2457,110 @@
       <c r="K2" t="s">
         <v>259</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="11" t="n">
         <v>1407676000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="11" t="n">
         <v>2245486290</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="11" t="n">
         <v>763573559</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="11" t="n">
         <v>734996632</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="11" t="n">
         <v>941061864</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="11" t="n">
         <v>1176359374</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="11" t="n">
         <v>2289854016</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="11" t="n">
         <v>2726006781</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="11" t="n">
         <v>3842262769</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="11" t="n">
         <v>3251936789</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="11" t="n">
         <v>2655875201</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="11" t="n">
         <v>3383373287</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="11" t="n">
         <v>8575025257.9004</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="11" t="n">
         <v>7387264141</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="11" t="n">
         <v>9169925094.2097</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="11" t="n">
         <v>9550018116.9512</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="11" t="n">
         <v>11145014148.3016</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="11" t="n">
         <v>11366460258.6291</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="11" t="n">
         <v>12363772567.6992</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="11" t="n">
         <v>13549240183.023</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="11" t="n">
         <v>9208945488.0464</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="11" t="n">
         <v>17384493122.8107</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="11" t="n">
         <v>8264856632.9164</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="11" t="n">
         <v>7658302984.7878</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>10412155499.7798</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="11" t="n">
         <v>8328296397.5314</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="11" t="n">
         <v>10007661570.5311</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="11" t="n">
         <v>9355114750.7082</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="11" t="n">
         <v>9934911309.1396</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="11" t="n">
         <v>11017495303.3075</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="11" t="n">
         <v>18129386075.1032</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>11312134287.1664</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="11" t="n">
         <v>13063009663.6514</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="11" t="n">
         <v>8826172530.7096</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2566,110 +2569,110 @@
       <c r="K3" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="11" t="n">
         <v>3556445000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="11" t="n">
         <v>3842230355</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="11" t="n">
         <v>4266713610</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="11" t="n">
         <v>3731336093</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="11" t="n">
         <v>3276553686</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="11" t="n">
         <v>2411400931</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="11" t="n">
         <v>2715703119</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="11" t="n">
         <v>2133825457</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="11" t="n">
         <v>1964664471</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="11" t="n">
         <v>2341353224</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="11" t="n">
         <v>4142653942</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="11" t="n">
         <v>1375899536</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="11" t="n">
         <v>1663874803</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="11" t="n">
         <v>2523112891.9302</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="11" t="n">
         <v>3160491169.4331</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="11" t="n">
         <v>1939587849.0891</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="11" t="n">
         <v>2973069479.5677</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="11" t="n">
         <v>2957402532.8626</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="11" t="n">
         <v>4030948902.5163</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="11" t="n">
         <v>3869618023.6785</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="11" t="n">
         <v>3970546133.8752</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="11" t="n">
         <v>5350431003.1249</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="11" t="n">
         <v>10550824240.3543</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="11" t="n">
         <v>10697619654.4128</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>8685521266.8287</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="11" t="n">
         <v>8261467951.7692</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="11" t="n">
         <v>9141552886.6565</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="11" t="n">
         <v>12094140393.7318</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="11" t="n">
         <v>12578079791.4533</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="11" t="n">
         <v>12482137378.7566</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="11" t="n">
         <v>13590860765.5053</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>12199697717.228</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="11" t="n">
         <v>11099113658.7153</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="11" t="n">
         <v>8071517178.1405</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2678,110 +2681,110 @@
       <c r="K4" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="11" t="n">
         <v>4058511493</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="11" t="n">
         <v>2099496793</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="11" t="n">
         <v>2207714938</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="11" t="n">
         <v>3907960996</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="11" t="n">
         <v>2257824099</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="11" t="n">
         <v>5069532434</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="11" t="n">
         <v>2080828491</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="11" t="n">
         <v>2570677803</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="11" t="n">
         <v>2795834673</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="11" t="n">
         <v>1896577093</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="11" t="n">
         <v>1534784898</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="11" t="n">
         <v>6618035702</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="11" t="n">
         <v>1336099400</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="11" t="n">
         <v>1229953511.1204</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="11" t="n">
         <v>1166860806.4705</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="11" t="n">
         <v>1273573193.6264</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="11" t="n">
         <v>1051703561.7186</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="11" t="n">
         <v>1114534952.1509</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="11" t="n">
         <v>1218457500.6637</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="11" t="n">
         <v>1809070566.9209</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="11" t="n">
         <v>1701954769.4829</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="11" t="n">
         <v>2963086089.2128</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="11" t="n">
         <v>2334351315.7299</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="11" t="n">
         <v>2294030107.5602</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>2207917952.1899</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="11" t="n">
         <v>2243779677.7068</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="11" t="n">
         <v>2586379834.222</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="11" t="n">
         <v>2344626827.8604</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="11" t="n">
         <v>3391578662.979</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="11" t="n">
         <v>3808479464.4878</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="11" t="n">
         <v>2272295087.4311</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>2666805207.3796</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="11" t="n">
         <v>3606889529.0882</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="11" t="n">
         <v>1429961404.9097</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2790,110 +2793,110 @@
       <c r="K5" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="11" t="n">
         <v>1598684000</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="11" t="n">
         <v>1220900028</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="11" t="n">
         <v>1194221481</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="11" t="n">
         <v>1024033084</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="11" t="n">
         <v>849244434</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="11" t="n">
         <v>946913848</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="11" t="n">
         <v>845752188</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="11" t="n">
         <v>900843876</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="11" t="n">
         <v>756713733</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="11" t="n">
         <v>830027295</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="11" t="n">
         <v>1022507722</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="11" t="n">
         <v>1026768444</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="11" t="n">
         <v>1117853591.0298</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="11" t="n">
         <v>1532294300</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="11" t="n">
         <v>1345297631.0503</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="11" t="n">
         <v>1274081432.4639</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="11" t="n">
         <v>1647369538.2082</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="11" t="n">
         <v>1768073610.3824</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="11" t="n">
         <v>1717103087.9883</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="11" t="n">
         <v>2244513279.023</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="11" t="n">
         <v>2671939066.2854</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="11" t="n">
         <v>2684042432.5112</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="11" t="n">
         <v>2672165534.8493</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="11" t="n">
         <v>2399241975.2401</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>2520496498.6004</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="11" t="n">
         <v>2643873470.7977</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="11" t="n">
         <v>2915252643.9704</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="11" t="n">
         <v>3412588067.2946</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="11" t="n">
         <v>5404819681.5133</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="11" t="n">
         <v>5997455412.5285</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="11" t="n">
         <v>6090229133.5035</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>5779257817.0507</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="11" t="n">
         <v>6612770123.0285</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="11" t="n">
         <v>2384672316.0205</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2902,108 +2905,108 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="11" t="n">
         <v>59341000</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="11" t="n">
         <v>104657246</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="11" t="n">
         <v>167858438</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="11" t="n">
         <v>104443667</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <v>64342563</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="11" t="n">
         <v>50150153</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="11" t="n">
         <v>37490534</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="11" t="n">
         <v>9167725</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="11" t="n">
         <v>9757587</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="11" t="n">
         <v>237626</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="n">
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="n">
         <v>250324</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="11" t="n">
         <v>2698337</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="11" t="n">
         <v>14164</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="11" t="n">
         <v>247006</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="11" t="n">
         <v>5083369</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="11" t="n">
         <v>2047153.6937</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="11" t="n">
         <v>46023603.0841</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="11" t="n">
         <v>22803434.8418</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="11" t="n">
         <v>29052462.747</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="11" t="n">
         <v>8804475.3547</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="11" t="n">
         <v>7518615.8737</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="11" t="n">
         <v>1319812.0679</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="11" t="n">
         <v>2083805.26</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>1335155.6707</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="11" t="n">
         <v>791575.1035</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="11" t="n">
         <v>1812288.3847</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="11" t="n">
         <v>1447325.5053</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="11" t="n">
         <v>341860.5327</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="11" t="n">
         <v>234098.0566</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="11" t="n">
         <v>531644.7636</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="11" t="n">
         <v>3249212.789</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="11" t="n">
         <v>1691526.6362</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="11" t="n">
         <v>249837.2825</v>
       </c>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3012,110 +3015,110 @@
       <c r="K7" t="s">
         <v>256</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="11" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="11" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="11" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="11" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="11" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="11" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="11" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="11" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="11" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="11" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="11" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="11" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="11" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="11" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="11" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="11" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="11" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="11" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="11" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="11" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="11" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="11" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="11" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="11" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="11" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="11" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="11" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="11" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3234,110 +3237,110 @@
       <c r="K11" t="s">
         <v>259</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="11" t="n">
         <v>2797800485.47168</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="11" t="n">
         <v>4309266820.05243</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="11" t="n">
         <v>1429628578.58338</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="11" t="n">
         <v>1344539888.67693</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="11" t="n">
         <v>1684787041.2165</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="11" t="n">
         <v>2062354669.89008</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="11" t="n">
         <v>3940438868.25288</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="11" t="n">
         <v>4609103568.293</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="11" t="n">
         <v>6416339350.53292</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="11" t="n">
         <v>5363672561.03295</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="11" t="n">
         <v>4291177370.69244</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="11" t="n">
         <v>5337194015.65496</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="11" t="n">
         <v>13316721306.2433</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="11" t="n">
         <v>11256996293.8057</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="11" t="n">
         <v>13640074023.2332</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="11" t="n">
         <v>13786928598.1667</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="11" t="n">
         <v>15582231941.5448</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="11" t="n">
         <v>15467671712.3034</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="11" t="n">
         <v>16481103829.8624</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="11" t="n">
         <v>17879658569.6091</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="11" t="n">
         <v>12047397723.3967</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="11" t="n">
         <v>22293576557.5754</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="11" t="n">
         <v>10407933955.8458</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="11" t="n">
         <v>9470785568.55136</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>12632011005.384</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="11" t="n">
         <v>9989354851.90335</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="11" t="n">
         <v>11905014380.0153</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="11" t="n">
         <v>10933546182.3132</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="11" t="n">
         <v>11344789454.3975</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="11" t="n">
         <v>12339320382.3193</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="11" t="n">
         <v>20037156307.5624</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>12095924865.3848</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="11" t="n">
         <v>13063009663.6514</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="11" t="n">
         <v>8418389056.40735</v>
       </c>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3346,110 +3349,110 @@
       <c r="K12" t="s">
         <v>260</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="11" t="n">
         <v>7068546702.19093</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="11" t="n">
         <v>7373545702.56573</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="11" t="n">
         <v>7988510918.94169</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="11" t="n">
         <v>6825786672.58223</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="11" t="n">
         <v>5866027942.68897</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>4227589018.2392</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="11" t="n">
         <v>4673250805.49727</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="11" t="n">
         <v>3607849619.64228</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="11" t="n">
         <v>3280867216.46893</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="11" t="n">
         <v>3861776183.88352</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="11" t="n">
         <v>6693410459.88411</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="11" t="n">
         <v>2170450064.70243</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="11" t="n">
         <v>2583940731.7917</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>3844816149.95655</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>4701165283.02544</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>2800095126.29072</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>4156751852.66693</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>4024483476.70293</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>5373318461.77789</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>5106371141.37722</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>5194378500.33767</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>6861301180.3996</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>13286652963.3431</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>13229414145.9423</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>10537261015.0124</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>9909197635.22243</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>10874700128.9274</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>14134710909.9048</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>14363053935.205</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>13979683034.3429</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>15021038240.6011</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>13044985430.8581</v>
       </c>
-      <c r="AR12" s="12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>11099113658.7153</v>
       </c>
-      <c r="AS12" s="12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>7698600004.09475</v>
       </c>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3458,110 +3461,110 @@
       <c r="K13" t="s">
         <v>261</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="11" t="n">
         <v>8066419705.53436</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="11" t="n">
         <v>4029101361.7729</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="11" t="n">
         <v>4133475198.98897</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="11" t="n">
         <v>7148889142.82211</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="11" t="n">
         <v>4042192048.00496</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="11" t="n">
         <v>8887737982.542</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="11" t="n">
         <v>3580742443.32281</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="11" t="n">
         <v>4346474967.4586</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="11" t="n">
         <v>4668869650.11586</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="11" t="n">
         <v>3128172278.13826</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="11" t="n">
         <v>2479798079.63051</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="11" t="n">
         <v>10439800030.2901</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="11" t="n">
         <v>2074916727.60336</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="11" t="n">
         <v>1874250311.34212</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="11" t="n">
         <v>1735681329.0784</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="11" t="n">
         <v>1838599934.58021</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="11" t="n">
         <v>1470423331.4002</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="11" t="n">
         <v>1516678047.47484</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="11" t="n">
         <v>1624223065.47249</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="11" t="n">
         <v>2387260365.00582</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="11" t="n">
         <v>2226544400.96401</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="11" t="n">
         <v>3799810906.76011</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="11" t="n">
         <v>2939648611.33778</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="11" t="n">
         <v>2836955821.63043</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>2678642656.80987</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="11" t="n">
         <v>2691296075.47905</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="11" t="n">
         <v>3076731652.2036</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="11" t="n">
         <v>2740221406.77234</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="11" t="n">
         <v>3872882671.24511</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="11" t="n">
         <v>4265402161.56851</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="11" t="n">
         <v>2511410571.49691</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>2851581726.33052</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="11" t="n">
         <v>3606889529.0882</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="11" t="n">
         <v>1363894870.65792</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3570,110 +3573,110 @@
       <c r="K14" t="s">
         <v>262</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="11" t="n">
         <v>3177434914.93483</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="11" t="n">
         <v>2343004276.93169</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="11" t="n">
         <v>2235924932.53917</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="11" t="n">
         <v>1873278418.99941</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="11" t="n">
         <v>1520405907.37236</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="11" t="n">
         <v>1660098299.52389</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="11" t="n">
         <v>1455391815.90566</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="11" t="n">
         <v>1523137342.24218</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="11" t="n">
         <v>1263664771.00686</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="11" t="n">
         <v>1369028648.4532</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="11" t="n">
         <v>1652096452.55642</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="11" t="n">
         <v>1619703748.27877</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="11" t="n">
         <v>1735988441.45819</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="11" t="n">
         <v>2334968795.87477</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="11" t="n">
         <v>2001102417.11717</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="11" t="n">
         <v>1839333655.9698</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="11" t="n">
         <v>2303244652.38185</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="11" t="n">
         <v>2406024527.10114</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="11" t="n">
         <v>2288925497.8409</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="11" t="n">
         <v>2961873178.25902</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="11" t="n">
         <v>3495504742.21022</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="11" t="n">
         <v>3441970095.43266</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="11" t="n">
         <v>3365058057.39367</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="11" t="n">
         <v>2967068072.35261</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>3057862467.577</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="11" t="n">
         <v>3171187602.20397</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="11" t="n">
         <v>3467955466.2442</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="11" t="n">
         <v>3988373229.96514</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="11" t="n">
         <v>6171825738.32786</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="11" t="n">
         <v>6717000713.55126</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="11" t="n">
         <v>6731108962.61748</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>6179688691.64158</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="11" t="n">
         <v>6612770123.0285</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="11" t="n">
         <v>2274496590.50462</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3682,149 +3685,149 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="11" t="n">
         <v>117942110.69051</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="11" t="n">
         <v>200845580.609563</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="11" t="n">
         <v>314279112.068058</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="11" t="n">
         <v>191060299.173167</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="11" t="n">
         <v>115192763.077536</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="11" t="n">
         <v>87921603.3137609</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="11" t="n">
         <v>64514661.7788389</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="11" t="n">
         <v>15500692.9201872</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="11" t="n">
         <v>16294562.1365306</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="11" t="n">
         <v>391935.064758732</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12" t="n">
+      <c r="V15" s="11"/>
+      <c r="W15" s="11" t="n">
         <v>394880.387543478</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="11" t="n">
         <v>4190425.18693675</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="11" t="n">
         <v>21583.6461864867</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="11" t="n">
         <v>367416.319061341</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="11" t="n">
         <v>7338629.57984712</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="11" t="n">
         <v>2862196.78600271</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="11" t="n">
         <v>62629698.896961</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="11" t="n">
         <v>30397338.29196</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="11" t="n">
         <v>38337804.00273</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="11" t="n">
         <v>11518258.6846236</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="11" t="n">
         <v>9641744.36396983</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="11" t="n">
         <v>1662039.33678935</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="11" t="n">
         <v>2576977.27855387</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="11" t="n">
         <v>1619808.80198533</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="11" t="n">
         <v>949452.832050674</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="11" t="n">
         <v>2155880.18524924</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="11" t="n">
         <v>1691523.90694507</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="11" t="n">
         <v>390374.472964023</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="11" t="n">
         <v>262183.993888206</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="11" t="n">
         <v>587590.180065687</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="11" t="n">
         <v>3474342.92854707</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="11" t="n">
         <v>1691526.6362</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="11" t="n">
         <v>238294.395171024</v>
       </c>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5546,94 +5549,94 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="n">
         <v>1667195712</v>
       </c>
-      <c r="AA2" s="3" t="n">
-        <v>1727093205</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1931802616.9004</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>2718922830.9402</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>2346290595.815</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>2642218538.2292</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>2453725006.2732</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>3202886359.6965</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>2861249718.6648</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>3312262871.845</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AA2" s="12" t="n">
+        <v>1572119200</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>2086776604.9004</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>2718922825.9402</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>2346290592.8694</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>2642218528.2236</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>2453724999.2805</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>3202886354.6452</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>2861249723.354</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>3312262884.2355</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
         <v>4238616460.4125</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="12" t="n">
         <v>4425453498.0671</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="12" t="n">
         <v>4774888332.263</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="12" t="n">
         <v>4951947482.5283</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="12" t="n">
         <v>4792567355.8634</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AO2" s="12" t="n">
         <v>5096148423.2276</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AP2" s="12" t="n">
         <v>6153491832.0523</v>
       </c>
-      <c r="AQ2" s="3" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>6472698753.751</v>
       </c>
-      <c r="AR2" s="3" t="n">
-        <v>10187532234.7569</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>9628505320.8608</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>9686922996.7466</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>10243092545.4533</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>10200800420.8508</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>4163556387.7586</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AR2" s="12" t="n">
+        <v>10188416282.5705</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>9628719922.0376</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>9686923191.692</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>10243079211.1694</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>10199925090.6668</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>11440838221.0279</v>
+      </c>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5651,89 +5654,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12" t="n">
         <v>42608597</v>
       </c>
-      <c r="AA3" s="3" t="n">
-        <v>79793253</v>
-      </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AA3" s="12" t="n">
+        <v>79793254</v>
+      </c>
+      <c r="AB3" s="12" t="n">
         <v>32403293</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="12" t="n">
         <v>177010212</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="12" t="n">
         <v>73103772</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="12" t="n">
         <v>196581720</v>
       </c>
-      <c r="AF3" s="3" t="n">
-        <v>143628794.2143</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>156354936.1983</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>243207269.7392</v>
-      </c>
-      <c r="AI3" s="3" t="n">
+      <c r="AF3" s="12" t="n">
+        <v>143628794.21</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>156354933.1983</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>243207270.7395</v>
+      </c>
+      <c r="AI3" s="12" t="n">
         <v>20495863.5518</v>
       </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>34008317.3251</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="12" t="n">
         <v>5372142.8962</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="12" t="n">
         <v>16910367.747</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="12" t="n">
         <v>53063710.23</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="12" t="n">
         <v>53108763.7401</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="12" t="n">
         <v>89077679.8018</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="12" t="n">
         <v>157381974.3137</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>80938967.2787</v>
       </c>
-      <c r="AR3" s="3" t="n">
+      <c r="AR3" s="12" t="n">
         <v>77585967.1931</v>
       </c>
-      <c r="AS3" s="3" t="n">
+      <c r="AS3" s="12" t="n">
         <v>103358499.5228</v>
       </c>
-      <c r="AT3" s="3" t="n">
-        <v>95969336.6814</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>41928674.1341</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>43179483.2424</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>44013620.301</v>
-      </c>
-      <c r="AX3" s="3"/>
+      <c r="AT3" s="12" t="n">
+        <v>95969336.6816</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>41928674.1291</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>43179483.2368</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>70431677.8448</v>
+      </c>
+      <c r="AX3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5751,89 +5754,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="n">
         <v>46616562</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="12" t="n">
         <v>58743049</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="12" t="n">
         <v>65982705.0298</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="12" t="n">
         <v>174022821</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="12" t="n">
         <v>110534832</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="12" t="n">
         <v>140213100.1094</v>
       </c>
-      <c r="AF4" s="3" t="n">
-        <v>59198494.2424</v>
-      </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AF4" s="12" t="n">
+        <v>59198494.2425</v>
+      </c>
+      <c r="AG4" s="12" t="n">
         <v>25165281.6259</v>
       </c>
-      <c r="AH4" s="3" t="n">
-        <v>30376675.1904</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>32101743.8966</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AH4" s="12" t="n">
+        <v>30376675.1304</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>32101743.8946</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
         <v>41409123.5261</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="12" t="n">
         <v>65650961.8043</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="12" t="n">
         <v>29613076.7526</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="12" t="n">
         <v>13200990.7966</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="12" t="n">
         <v>17506633.5072</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="12" t="n">
         <v>5576212.1403</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="12" t="n">
         <v>13082959.8042</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>14559790.6104</v>
       </c>
-      <c r="AR4" s="3" t="n">
+      <c r="AR4" s="12" t="n">
         <v>3169753.1363</v>
       </c>
-      <c r="AS4" s="3" t="n">
+      <c r="AS4" s="12" t="n">
         <v>-2969035.9445</v>
       </c>
-      <c r="AT4" s="3" t="n">
+      <c r="AT4" s="12" t="n">
         <v>1117704.6305</v>
       </c>
-      <c r="AU4" s="3" t="n">
+      <c r="AU4" s="12" t="n">
         <v>-747226.0256</v>
       </c>
-      <c r="AV4" s="3" t="n">
-        <v>1198822.3338</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>1750156.776</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AV4" s="12" t="n">
+        <v>1198822.3339</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>2905045.7204</v>
+      </c>
+      <c r="AX4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5851,89 +5854,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="n">
         <v>1616998464</v>
       </c>
-      <c r="AA5" s="3" t="n">
-        <v>2697976676</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>4435139464</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>3443823422</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>5756277306</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>4538650461</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>5911155403</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>3259575698.6475</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>3456927991.2977</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>4794309155.5902</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AA5" s="12" t="n">
+        <v>2697976663</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>4435139448</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>3443823452</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>5756277311</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>4538650462</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>5911155459</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>3259575704.61</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>3456928050.8257</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>4794309221.59</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
         <v>5086650779.3947</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="12" t="n">
         <v>15289390780.2664</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="12" t="n">
         <v>11206652460.1353</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="12" t="n">
         <v>10678338421.22</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="12" t="n">
         <v>7274551809.9082</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="12" t="n">
         <v>5190649825.2102</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="12" t="n">
         <v>5615949372.3369</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>8060537642.4228</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>8030415143.8174</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>11311726614.541</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>18565398235.6409</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>11537249595.1452</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>14543467142.6914</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>9707061527.1701</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AR5" s="12" t="n">
+        <v>10726923898.8154</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>13462761909.4059</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>19720359224.2609</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>12736423770.1615</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>15612966018.898</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>17528180041.2796</v>
+      </c>
+      <c r="AX5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5951,89 +5954,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="n">
         <v>4005329951</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>6677452003</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>4319774574</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>5267270448.1104</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>5130624360.3486</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>5464461775.3018</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>6091538304.2878</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>4657659409.6979</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>2973877195.0597</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>4386736921.5168</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AA6" s="12" t="n">
+        <v>6677452016</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>4319774557</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>5267270468.1104</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>5130624406.3486</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>5462556047.3018</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>6091538284.8327</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>4657659438.9289</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>2973877189.0205</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>4386736949.9321</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
         <v>5479095335.5009</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="12" t="n">
         <v>7580586843.098</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="12" t="n">
         <v>6854719630.6743</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="12" t="n">
         <v>6091895031.0357</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="12" t="n">
         <v>10322279061.4678</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="12" t="n">
         <v>11015888196.5484</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="12" t="n">
         <v>11570884116.7565</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>10913180367.195</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>8765457964.9645</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>8504096158.8808</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>8211259026.6831</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>7308619713.2113</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>8352538388.251</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>6333025513.2799</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="12" t="n">
+        <v>6074035740.262</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>6400522803.6655</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>7056305133.2614</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>6109320634.3225</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>7286909659.2551</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>6848820333.0683</v>
+      </c>
+      <c r="AX6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6051,89 +6054,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12" t="n">
         <v>257328243</v>
       </c>
-      <c r="AA7" s="3" t="n">
-        <v>1315501462</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>1511373778</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>395985005</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>678680544</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>746852964</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>1682374880.8296</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>1828612094.6802</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>1722360492.9125</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>2052820904.886</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AA7" s="12" t="n">
+        <v>1470475460</v>
+      </c>
+      <c r="AB7" s="12" t="n">
+        <v>1356399766</v>
+      </c>
+      <c r="AC7" s="12" t="n">
+        <v>395984997</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>678680532</v>
+      </c>
+      <c r="AE7" s="12" t="n">
+        <v>746852966</v>
+      </c>
+      <c r="AF7" s="12" t="n">
+        <v>1682374888.83</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <v>1828612103.7904</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>1722360493.6623</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>2052820904.8849</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
         <v>2673368525.4409</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="12" t="n">
         <v>1020734586.6304</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="12" t="n">
         <v>936718114.1251</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="12" t="n">
         <v>1261465628.7801</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="12" t="n">
         <v>1361449328.264</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="12" t="n">
         <v>77370557.0903</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="12" t="n">
         <v>1142257912.731</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="12" t="n">
         <v>1665810518.1036</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>4245570241.7497</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>3761084099.2761</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>3522637569.9642</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>2831000939.6954</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>1242290243.7502</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>463166061.7772</v>
-      </c>
-      <c r="AX7" s="3"/>
+      <c r="AR7" s="12" t="n">
+        <v>4239599519.7901</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>3713743320.2584</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>3522630491.776</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>2830869196.9417</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>1236349426.1606</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>4189786665.016</v>
+      </c>
+      <c r="AX7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6151,63 +6154,63 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12" t="n">
         <v>7691886</v>
       </c>
-      <c r="AF8" s="3" t="n">
-        <v>218594703.5625</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>3912092184.0428</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>5685520694.5724</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>6028533390.1495</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AF8" s="12" t="n">
+        <v>218594699.58</v>
+      </c>
+      <c r="AG8" s="12" t="n">
+        <v>3912092207.03</v>
+      </c>
+      <c r="AH8" s="12" t="n">
+        <v>5685520688.6132</v>
+      </c>
+      <c r="AI8" s="12" t="n">
+        <v>6028533334.2041</v>
+      </c>
+      <c r="AJ8" s="12" t="n">
         <v>7931174.4824</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="12" t="n">
         <v>1819345.7709</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="12" t="n">
         <v>-173519.7795</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="12" t="n">
         <v>371282.6702</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="12" t="n">
         <v>-67390.9</v>
       </c>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3" t="n">
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12" t="n">
         <v>-2164.04</v>
       </c>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6223,109 +6226,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="12" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="12" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="12" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="12" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="12" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="12" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="12" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="12" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="12" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="12" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="12" t="n">
         <v>1719744234</v>
       </c>
-      <c r="AA9" s="3" t="n">
-        <v>-152232355</v>
-      </c>
-      <c r="AB9" s="3" t="n">
-        <v>399074958</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>495604269</v>
-      </c>
-      <c r="AD9" s="3" t="n">
-        <v>747310297</v>
-      </c>
-      <c r="AE9" s="3" t="n">
-        <v>305673516.4902</v>
-      </c>
-      <c r="AF9" s="3" t="n">
-        <v>258988295.08</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>210148992.52</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>2379565456.2726</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>874233663.9565</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AA9" s="12" t="n">
+        <v>-152232354</v>
+      </c>
+      <c r="AB9" s="12" t="n">
+        <v>399074964</v>
+      </c>
+      <c r="AC9" s="12" t="n">
+        <v>495604277</v>
+      </c>
+      <c r="AD9" s="12" t="n">
+        <v>747310269</v>
+      </c>
+      <c r="AE9" s="12" t="n">
+        <v>305673522.4902</v>
+      </c>
+      <c r="AF9" s="12" t="n">
+        <v>258988298.08</v>
+      </c>
+      <c r="AG9" s="12" t="n">
+        <v>210148994.58</v>
+      </c>
+      <c r="AH9" s="12" t="n">
+        <v>2379565457.94</v>
+      </c>
+      <c r="AI9" s="12" t="n">
+        <v>874233650.9562</v>
+      </c>
+      <c r="AJ9" s="12" t="n">
         <v>1110216.962</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="12" t="n">
         <v>563105</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="12" t="n">
         <v>4189074</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="12" t="n">
         <v>995980</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="12" t="n">
         <v>6030811.2188</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="12" t="n">
         <v>3498178.89</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="12" t="n">
         <v>-388944.2299</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="12" t="n">
         <v>191325.7388</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3" t="n">
+      <c r="AW9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6340,107 +6343,107 @@
       <c r="O10" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="12" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="12" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="12" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="12" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="12" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="12" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="12" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="12" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="12" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="12" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="12" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="12" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="12" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="12" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="12" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="12" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="12" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="12" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="12" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="12" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="12" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="12" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="12" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="12" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="12" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="12" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="12" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="12" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="12" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="12" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="12" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="12" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="12" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6572,94 +6575,94 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12" t="n">
         <v>2693738210.72471</v>
       </c>
-      <c r="AA14" s="3" t="n">
-        <v>2724450049.19268</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>3000023474.47697</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>4143198841.52598</v>
-      </c>
-      <c r="AD14" s="3" t="n">
-        <v>3490058760.36448</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>3814451227.33943</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>3430638280.01906</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>4358542027.71612</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>3814091001.61527</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>4370881941.82181</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AA14" s="12" t="n">
+        <v>2479982099.04181</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>3240692783.99436</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>4143198833.90679</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>3490058755.98296</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>3814451212.8948</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>3430638270.24233</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>4358542020.84223</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>3814091007.86604</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>4370881958.17239</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
         <v>5545075531.37427</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="12" t="n">
         <v>5675125852.9186</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="12" t="n">
         <v>6013016875.67151</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="12" t="n">
         <v>6123919730.90012</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="12" t="n">
         <v>5814335329.95073</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="12" t="n">
         <v>6112562827.69639</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="12" t="n">
         <v>7320132503.6416</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>7564797721.26585</v>
       </c>
-      <c r="AR14" s="3" t="n">
-        <v>11633260193.9669</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>10783686190.5719</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>10706285884.2024</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>10952811792.5147</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>10200800420.8508</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>3971193335.33172</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AR14" s="12" t="n">
+        <v>11634269698.3299</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>10783926538.5459</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>10706286099.662</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>10952797534.3304</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>10199925090.6668</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>10912252954.5981</v>
+      </c>
+      <c r="AX14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6677,89 +6680,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12" t="n">
         <v>68843990.5514046</v>
       </c>
-      <c r="AA15" s="3" t="n">
-        <v>125872032.517836</v>
-      </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AA15" s="12" t="n">
+        <v>125872034.095313</v>
+      </c>
+      <c r="AB15" s="12" t="n">
         <v>50321207.1460649</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="12" t="n">
         <v>269734946.851384</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="12" t="n">
         <v>108740349.698953</v>
       </c>
-      <c r="AE15" s="3" t="n">
+      <c r="AE15" s="12" t="n">
         <v>283796125.217198</v>
       </c>
-      <c r="AF15" s="3" t="n">
-        <v>200812413.08004</v>
-      </c>
-      <c r="AG15" s="3" t="n">
-        <v>212770446.443732</v>
-      </c>
-      <c r="AH15" s="3" t="n">
-        <v>324199126.342796</v>
-      </c>
-      <c r="AI15" s="3" t="n">
+      <c r="AF15" s="12" t="n">
+        <v>200812413.074028</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>212770442.361281</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>324199127.676212</v>
+      </c>
+      <c r="AI15" s="12" t="n">
         <v>27046464.4102072</v>
       </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>44490623.302178</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="12" t="n">
         <v>6889144.14062054</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="12" t="n">
         <v>21295226.099734</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="12" t="n">
         <v>65622243.2121495</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="12" t="n">
         <v>64431470.3196153</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="12" t="n">
         <v>106844006.319006</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="12" t="n">
         <v>187220026.79197</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>94595305.3780997</v>
       </c>
-      <c r="AR15" s="3" t="n">
+      <c r="AR15" s="12" t="n">
         <v>88596308.0125113</v>
       </c>
-      <c r="AS15" s="3" t="n">
+      <c r="AS15" s="12" t="n">
         <v>115758945.634835</v>
       </c>
-      <c r="AT15" s="3" t="n">
-        <v>106068269.044094</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>44833811.1232163</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>43179483.2424</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>41980119.7161753</v>
-      </c>
-      <c r="AX15" s="3"/>
+      <c r="AT15" s="12" t="n">
+        <v>106068269.044315</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>44833811.1178699</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>43179483.2368</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>67177620.1892807</v>
+      </c>
+      <c r="AX15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6777,89 +6780,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12" t="n">
         <v>75319780.0403277</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="12" t="n">
         <v>92665816.9196942</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="12" t="n">
         <v>102468886.969675</v>
       </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AC16" s="12" t="n">
         <v>265182645.921936</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="12" t="n">
         <v>164418277.699747</v>
       </c>
-      <c r="AE16" s="3" t="n">
+      <c r="AE16" s="12" t="n">
         <v>202419301.834061</v>
       </c>
-      <c r="AF16" s="3" t="n">
-        <v>82767473.921588</v>
-      </c>
-      <c r="AG16" s="3" t="n">
+      <c r="AF16" s="12" t="n">
+        <v>82767473.9217279</v>
+      </c>
+      <c r="AG16" s="12" t="n">
         <v>34245341.6349717</v>
       </c>
-      <c r="AH16" s="3" t="n">
-        <v>40492587.1191558</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>42361653.6873718</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AH16" s="12" t="n">
+        <v>40492587.0391748</v>
+      </c>
+      <c r="AI16" s="12" t="n">
+        <v>42361653.6847326</v>
+      </c>
+      <c r="AJ16" s="12" t="n">
         <v>54172563.0957148</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="12" t="n">
         <v>84189670.2264038</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="12" t="n">
         <v>37291747.5474339</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="12" t="n">
         <v>16325255.5266306</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="12" t="n">
         <v>21239020.7901574</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="12" t="n">
         <v>6688374.08518014</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="12" t="n">
         <v>15563358.4833443</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="12" t="n">
         <v>17016375.2434537</v>
       </c>
-      <c r="AR16" s="3" t="n">
+      <c r="AR16" s="12" t="n">
         <v>3619577.55180544</v>
       </c>
-      <c r="AS16" s="3" t="n">
+      <c r="AS16" s="12" t="n">
         <v>-3325246.32298316</v>
       </c>
-      <c r="AT16" s="3" t="n">
+      <c r="AT16" s="12" t="n">
         <v>1235321.60958116</v>
       </c>
-      <c r="AU16" s="3" t="n">
+      <c r="AU16" s="12" t="n">
         <v>-798999.519778664</v>
       </c>
-      <c r="AV16" s="3" t="n">
-        <v>1198822.3338</v>
-      </c>
-      <c r="AW16" s="3" t="n">
-        <v>1669296.69670654</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AV16" s="12" t="n">
+        <v>1198822.3339</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>2770827.90030303</v>
+      </c>
+      <c r="AX16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6877,89 +6880,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12" t="n">
         <v>2612633008.71539</v>
       </c>
-      <c r="AA17" s="3" t="n">
-        <v>4255996530.10556</v>
-      </c>
-      <c r="AB17" s="3" t="n">
-        <v>6887620085.08305</v>
-      </c>
-      <c r="AC17" s="3" t="n">
-        <v>5247830151.73565</v>
-      </c>
-      <c r="AD17" s="3" t="n">
-        <v>8562343502.85763</v>
-      </c>
-      <c r="AE17" s="3" t="n">
-        <v>6552244097.50332</v>
-      </c>
-      <c r="AF17" s="3" t="n">
-        <v>8264591978.65607</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>4435685840.70011</v>
-      </c>
-      <c r="AH17" s="3" t="n">
-        <v>4608139533.86539</v>
-      </c>
-      <c r="AI17" s="3" t="n">
-        <v>6326599102.32535</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AA17" s="12" t="n">
+        <v>4255996509.59836</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>6887620060.2356</v>
+      </c>
+      <c r="AC17" s="12" t="n">
+        <v>5247830197.4508</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>8562343510.29503</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>6552244098.94698</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>8264592056.95162</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>4435685848.81398</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>4608139613.21716</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>6326599189.41909</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
         <v>6654497531.65975</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="12" t="n">
         <v>19606853157.6172</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="12" t="n">
         <v>14112537440.3557</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="12" t="n">
         <v>13205569643.3901</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="12" t="n">
         <v>8825475044.42666</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="12" t="n">
         <v>6225912304.38965</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="12" t="n">
         <v>6680677355.43548</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="12" t="n">
         <v>9420542977.4159</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>9170023385.53375</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>12668852123.9603</v>
-      </c>
-      <c r="AT17" s="3" t="n">
-        <v>20519050386.9592</v>
-      </c>
-      <c r="AU17" s="3" t="n">
-        <v>12336637871.6341</v>
-      </c>
-      <c r="AV17" s="3" t="n">
-        <v>14543467142.6914</v>
-      </c>
-      <c r="AW17" s="3" t="n">
-        <v>9258579553.69378</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AR17" s="12" t="n">
+        <v>12249197737.0199</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>15077958089.1833</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>21795548871.9188</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>13618899941.1326</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>15612966018.898</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>16718349717.823</v>
+      </c>
+      <c r="AX17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6977,89 +6980,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12" t="n">
         <v>6471531961.07118</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>10533527886.8491</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>6708462351.72944</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>8026468633.19345</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>7631697679.26986</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>7888795958.38384</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>8516791587.26614</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>6338221843.71206</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>3964225203.97104</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>5788764338.95493</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AA18" s="12" t="n">
+        <v>10533527907.3563</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>6708462325.32902</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>8026468663.67022</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>7631697747.6939</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>7886044745.18804</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>8516791560.06529</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>6338221883.4901</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>3964225195.92069</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>5788764376.45193</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
         <v>7167904376.98535</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="12" t="n">
         <v>9721214874.89366</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="12" t="n">
         <v>8632148429.26113</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="12" t="n">
         <v>7533657477.33749</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="12" t="n">
         <v>12522973048.9392</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="12" t="n">
         <v>13212980296.5266</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="12" t="n">
         <v>13764608328.1938</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="12" t="n">
         <v>12754494703.7243</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>10009377234.4412</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>9524375929.16234</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>9075336578.85297</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>7815016395.356</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>8352538388.251</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>6040429471.4889</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="12" t="n">
+        <v>6936011250.38385</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>7168426154.45087</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>7798845935.7253</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>6532620767.69608</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>7286909659.2551</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>6532393734.72421</v>
+      </c>
+      <c r="AX18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7077,89 +7080,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12" t="n">
         <v>415772974.869403</v>
       </c>
-      <c r="AA19" s="3" t="n">
-        <v>2075173483.67944</v>
-      </c>
-      <c r="AB19" s="3" t="n">
-        <v>2347111849.33793</v>
-      </c>
-      <c r="AC19" s="3" t="n">
-        <v>603417130.971065</v>
-      </c>
-      <c r="AD19" s="3" t="n">
-        <v>1009523279.98117</v>
-      </c>
-      <c r="AE19" s="3" t="n">
-        <v>1078197796.266</v>
-      </c>
-      <c r="AF19" s="3" t="n">
-        <v>2352186839.50353</v>
-      </c>
-      <c r="AG19" s="3" t="n">
-        <v>2488406322.29265</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>2295933701.52282</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>2708914772.20302</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AA19" s="12" t="n">
+        <v>2319641422.78796</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>2106442502.54935</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>603417118.780358</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>1009523262.13142</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>1078197799.15331</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>2352186850.68917</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>2488406334.68997</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>2295933702.52232</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>2708914772.20157</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
         <v>3497374800.29646</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="12" t="n">
         <v>1308972570.62682</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="12" t="n">
         <v>1179609120.89267</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="12" t="n">
         <v>1560015384.08775</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="12" t="n">
         <v>1651708226.81886</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="12" t="n">
         <v>92801926.4652425</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="12" t="n">
         <v>1358818619.20589</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="12" t="n">
         <v>1946872562.87157</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>4848065474.14234</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>4212320532.76958</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>3893327623.55344</v>
-      </c>
-      <c r="AU19" s="3" t="n">
-        <v>3027154186.03531</v>
-      </c>
-      <c r="AV19" s="3" t="n">
-        <v>1242290243.7502</v>
-      </c>
-      <c r="AW19" s="3" t="n">
-        <v>441767039.132532</v>
-      </c>
-      <c r="AX19" s="3"/>
+      <c r="AR19" s="12" t="n">
+        <v>4841247438.08598</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>4159300039.14862</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>3893319800.52166</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>3027013315.14306</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>1236349426.1606</v>
+      </c>
+      <c r="AW19" s="12" t="n">
+        <v>3996211731.27197</v>
+      </c>
+      <c r="AX19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7177,63 +7180,63 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3" t="n">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12" t="n">
         <v>11104427.4229181</v>
       </c>
-      <c r="AF20" s="3" t="n">
-        <v>305624858.504391</v>
-      </c>
-      <c r="AG20" s="3" t="n">
-        <v>5323641330.2113</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>7578888755.91932</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>7955288801.0959</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AF20" s="12" t="n">
+        <v>305624852.936319</v>
+      </c>
+      <c r="AG20" s="12" t="n">
+        <v>5323641361.49267</v>
+      </c>
+      <c r="AH20" s="12" t="n">
+        <v>7578888747.97561</v>
+      </c>
+      <c r="AI20" s="12" t="n">
+        <v>7955288727.27001</v>
+      </c>
+      <c r="AJ20" s="12" t="n">
         <v>10375782.2789978</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="12" t="n">
         <v>2333097.89027099</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="12" t="n">
         <v>-218513.458282658</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="12" t="n">
         <v>459153.75270058</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="12" t="n">
         <v>-81758.5360188613</v>
       </c>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3" t="n">
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12" t="n">
         <v>-2391.76371203019</v>
       </c>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7249,109 +7252,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="12" t="n">
         <v>21228143918.8223</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="12" t="n">
         <v>18255763741.9323</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="12" t="n">
         <v>16101818741.1213</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="12" t="n">
         <v>17383554422.2538</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="12" t="n">
         <v>13228605702.3603</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="12" t="n">
         <v>16925701573.5089</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="12" t="n">
         <v>13714338594.7575</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="12" t="n">
         <v>14102066190.5562</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="12" t="n">
         <v>15646035550.2611</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="12" t="n">
         <v>13723041606.5727</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="12" t="n">
         <v>2778642436.79107</v>
       </c>
-      <c r="AA21" s="3" t="n">
-        <v>-240143059.95053</v>
-      </c>
-      <c r="AB21" s="3" t="n">
-        <v>619749777.540361</v>
-      </c>
-      <c r="AC21" s="3" t="n">
-        <v>755220784.425894</v>
-      </c>
-      <c r="AD21" s="3" t="n">
-        <v>1111608618.90147</v>
-      </c>
-      <c r="AE21" s="3" t="n">
-        <v>441287010.62049</v>
-      </c>
-      <c r="AF21" s="3" t="n">
-        <v>362100543.828991</v>
-      </c>
-      <c r="AG21" s="3" t="n">
-        <v>285974309.768335</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>3171998282.88986</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>1153643983.75534</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AA21" s="12" t="n">
+        <v>-240143058.373052</v>
+      </c>
+      <c r="AB21" s="12" t="n">
+        <v>619749786.858156</v>
+      </c>
+      <c r="AC21" s="12" t="n">
+        <v>755220796.616601</v>
+      </c>
+      <c r="AD21" s="12" t="n">
+        <v>1111608577.25205</v>
+      </c>
+      <c r="AE21" s="12" t="n">
+        <v>441287019.282418</v>
+      </c>
+      <c r="AF21" s="12" t="n">
+        <v>362100548.023396</v>
+      </c>
+      <c r="AG21" s="12" t="n">
+        <v>285974312.571618</v>
+      </c>
+      <c r="AH21" s="12" t="n">
+        <v>3171998285.11253</v>
+      </c>
+      <c r="AI21" s="12" t="n">
+        <v>1153643966.60007</v>
+      </c>
+      <c r="AJ21" s="12" t="n">
         <v>1452416.60055832</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="12" t="n">
         <v>722116.218101378</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="12" t="n">
         <v>5275300.88719347</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="12" t="n">
         <v>1231697.54830837</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="12" t="n">
         <v>7316570.87611551</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="12" t="n">
         <v>4195882.15880565</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="12" t="n">
         <v>-462684.176253351</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="12" t="n">
         <v>223606.963332721</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3" t="n">
+      <c r="AW21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7360,41 +7363,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -830,9 +830,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -840,7 +840,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -878,9 +878,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -889,7 +889,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,110 +1303,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="12" t="n">
         <v>6546714000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="12" t="n">
         <v>6476365096</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="12" t="n">
         <v>5042860266</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="12" t="n">
         <v>6618143070</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="12" t="n">
         <v>4406458273</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="12" t="n">
         <v>6404497166</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="12" t="n">
         <v>4969921341</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="12" t="n">
         <v>5075056453</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="12" t="n">
         <v>5006150547</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="12" t="n">
         <v>5177192817</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="12" t="n">
         <v>5618916525</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>6760293113</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>7001486959.9004</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>7557297490.9402</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>10006134216.3902</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>8816045738.4136</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>10959037862.9909</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>10779960218.0535</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>13082411588.0628</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>15825782495.7671</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="Y2" s="12" t="n">
+        <v>6760293102</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>7001486958.9004</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>7557297526.9402</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>10006134216.3896</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>8814140001.413</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>10959037896.0552</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>10779960255.4146</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>13082411620.942</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>15825782527.1521</v>
+      </c>
+      <c r="AH2" s="12" t="n">
         <v>12806472617.7794</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="12" t="n">
         <v>23500087784.7764</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>19697880253.9823</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="12" t="n">
         <v>18936235987.4811</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="12" t="n">
         <v>19508793986.1486</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="12" t="n">
         <v>17513429163.4978</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="12" t="n">
         <v>20462857906.4086</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="12" t="n">
         <v>22571867090.797</v>
       </c>
-      <c r="AP2" s="1" t="n">
-        <v>25017366826.2245</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>27624087271.0338</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>34535374650.1302</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>26998423739.1919</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>29945482694.5708</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>18032656539.4142</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AP2" s="12" t="n">
+        <v>25017366681.3924</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>27623976817.2194</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>34535374667.1391</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>26998255013.5146</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>29943453489.1408</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>35154646443.8665</v>
+      </c>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1415,110 +1415,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="12" t="n">
         <v>643253000</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="12" t="n">
         <v>638521944</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="12" t="n">
         <v>611055856</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="12" t="n">
         <v>766672701</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="12" t="n">
         <v>908887027</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="12" t="n">
         <v>995780647</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="12" t="n">
         <v>1195348447</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="12" t="n">
         <v>1026658808</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="12" t="n">
         <v>1432211747</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="12" t="n">
         <v>1042775605</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="12" t="n">
         <v>1008444053</v>
       </c>
-      <c r="Y3" s="1" t="n">
-        <v>1906171373</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>2001092082</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>1824674467</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>1458086696</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>2415231885</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>2934614924.2199</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>2738545970.8382</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>2624182661.8596</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>2027703781.3958</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="Y3" s="12" t="n">
+        <v>1906171377</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>2001092067</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>1824674470</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>1458086705</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>2415231888</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>2934614924.6974</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>2738545986.0921</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>2624182658.4692</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>2027703771.8648</v>
+      </c>
+      <c r="AH3" s="12" t="n">
         <v>1249340329.182</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="12" t="n">
         <v>708613223.2008</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>399368151.3318</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK3" s="12" t="n">
         <v>351902001.8156</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="12" t="n">
         <v>206081249.1376</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="12" t="n">
         <v>197969732.0624</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN3" s="12" t="n">
         <v>299137709.4819</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AO3" s="12" t="n">
         <v>639313462.3683</v>
       </c>
-      <c r="AP3" s="1" t="n">
-        <v>726449256.5936</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>698110092.3275</v>
-      </c>
-      <c r="AR3" s="1" t="n">
+      <c r="AP3" s="12" t="n">
+        <v>726449256.5917</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>698556302.1684</v>
+      </c>
+      <c r="AR3" s="12" t="n">
         <v>434951067.4227</v>
       </c>
-      <c r="AS3" s="1" t="n">
+      <c r="AS3" s="12" t="n">
         <v>83819183.1375</v>
       </c>
-      <c r="AT3" s="1" t="n">
-        <v>51726646.0337</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>21011961.9712</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AT3" s="12" t="n">
+        <v>51726646.0201</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>45510561.4512</v>
+      </c>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1527,110 +1527,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="12" t="n">
         <v>3490690493</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="12" t="n">
         <v>2397883672</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="12" t="n">
         <v>2946165904</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="12" t="n">
         <v>2117954701</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="12" t="n">
         <v>2073681346</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="12" t="n">
         <v>2254078927</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="12" t="n">
         <v>1804358560</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="12" t="n">
         <v>2238806381</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="12" t="n">
         <v>2930870939</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="12" t="n">
         <v>2100163605</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="12" t="n">
         <v>2728461185</v>
       </c>
-      <c r="Y4" s="1" t="n">
-        <v>3737862807</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>3692972347.0298</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>3290667050.1104</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>3378600794.7734</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>2811066337.717</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>2925551094.279</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>3733988768.2174</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>3646491243.7869</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>3648008238.2295</v>
-      </c>
-      <c r="AH4" s="1" t="n">
+      <c r="Y4" s="12" t="n">
+        <v>3737862809</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>3692972312.0298</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>3290667056.1104</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>3378600793.8284</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>2811066342.712</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>2925551097.3031</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>3733988776.902</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>3646491269.8744</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>3648008254.2323</v>
+      </c>
+      <c r="AH4" s="12" t="n">
         <v>3506376986.0832</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="12" t="n">
         <v>4180870255.5561</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>3726269130.6037</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK4" s="12" t="n">
         <v>3763140537.9642</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AL4" s="12" t="n">
         <v>4112551137.7833</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="12" t="n">
         <v>3766810177.3484</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="AN4" s="12" t="n">
         <v>3890663607.8742</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="AO4" s="12" t="n">
         <v>3996736811.935</v>
       </c>
-      <c r="AP4" s="1" t="n">
-        <v>5565915222.7998</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>4983604293.7757</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>5112976988.7538</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>4878901319.2843</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>4386265160.5151</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>2658904765.6774</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AP4" s="12" t="n">
+        <v>5565915223.7833</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>4983604299.5579</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>5112977183.7006</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>4878800064.0465</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>4385348365.3903</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>4880804978.6393</v>
+      </c>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1639,44 +1639,44 @@
       <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="n">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1685,110 +1685,110 @@
       <c r="M6" t="s">
         <v>256</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="N6" s="12" t="str">
         <f>Sum(N2:N5)</f>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="12" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="12" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="12" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="R6" s="12" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="1" t="str">
+      <c r="S6" s="12" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="1" t="str">
+      <c r="T6" s="12" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="U6" s="12" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="V6" s="12" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="W6" s="12" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="1" t="str">
+      <c r="X6" s="12" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="1" t="str">
+      <c r="Y6" s="12" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="1" t="str">
+      <c r="Z6" s="12" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="1" t="str">
+      <c r="AA6" s="12" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="1" t="str">
+      <c r="AB6" s="12" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="1" t="str">
+      <c r="AC6" s="12" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="1" t="str">
+      <c r="AD6" s="12" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="1" t="str">
+      <c r="AE6" s="12" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="1" t="str">
+      <c r="AF6" s="12" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="AG6" s="12" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="1" t="str">
+      <c r="AH6" s="12" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AI6" s="12" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="1" t="str">
+      <c r="AJ6" s="12" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="1" t="str">
+      <c r="AK6" s="12" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="1" t="str">
+      <c r="AL6" s="12" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="1" t="str">
+      <c r="AM6" s="12" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="1" t="str">
+      <c r="AN6" s="12" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="1" t="str">
+      <c r="AO6" s="12" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="1" t="str">
+      <c r="AP6" s="12" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="1" t="str">
+      <c r="AQ6" s="12" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="1" t="str">
+      <c r="AR6" s="12" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="1" t="str">
+      <c r="AS6" s="12" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="1" t="str">
+      <c r="AT6" s="12" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="1" t="str">
+      <c r="AU6" s="12" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1907,110 +1907,110 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="12" t="n">
         <v>13011800732.1601</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="12" t="n">
         <v>12428659817.2632</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="12" t="n">
         <v>9441679939.15068</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="12" t="n">
         <v>12106664111.334</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="12" t="n">
         <v>7888900910.78183</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="12" t="n">
         <v>11228154363.8193</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="12" t="n">
         <v>8552366695.60504</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="12" t="n">
         <v>8580852024.96446</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="V10" s="12" t="n">
         <v>8359959399.07253</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="W10" s="12" t="n">
         <v>8539147239.77736</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="X10" s="12" t="n">
         <v>9078652276.58707</v>
       </c>
-      <c r="Y10" s="1" t="n">
-        <v>10664207844.1098</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>10873070080.8594</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>11516099630.7877</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>14883917806.9352</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>12727325919.7212</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>15322212028.1758</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>14669552519.48</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>17439060978.1317</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>20883797452.7721</v>
-      </c>
-      <c r="AH10" s="1" t="n">
+      <c r="Y10" s="12" t="n">
+        <v>10664207826.7576</v>
+      </c>
+      <c r="Z10" s="12" t="n">
+        <v>10873070079.3064</v>
+      </c>
+      <c r="AA10" s="12" t="n">
+        <v>11516099685.6459</v>
+      </c>
+      <c r="AB10" s="12" t="n">
+        <v>14883917806.9343</v>
+      </c>
+      <c r="AC10" s="12" t="n">
+        <v>12724574693.5316</v>
+      </c>
+      <c r="AD10" s="12" t="n">
+        <v>15322212074.4041</v>
+      </c>
+      <c r="AE10" s="12" t="n">
+        <v>14669552570.3217</v>
+      </c>
+      <c r="AF10" s="12" t="n">
+        <v>17439061021.9602</v>
+      </c>
+      <c r="AG10" s="12" t="n">
+        <v>20883797494.1879</v>
+      </c>
+      <c r="AH10" s="12" t="n">
         <v>16753782423.8884</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AI10" s="12" t="n">
         <v>30136110523.2472</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AJ10" s="12" t="n">
         <v>24805540599.107</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AK10" s="12" t="n">
         <v>23417855217.9453</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AL10" s="12" t="n">
         <v>23668038797.5391</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AM10" s="12" t="n">
         <v>21006440001.3079</v>
       </c>
-      <c r="AN10" s="1" t="n">
+      <c r="AN10" s="12" t="n">
         <v>24342411652.823</v>
       </c>
-      <c r="AO10" s="1" t="n">
+      <c r="AO10" s="12" t="n">
         <v>26380280502.6612</v>
       </c>
-      <c r="AP10" s="1" t="n">
-        <v>28567618825.7312</v>
-      </c>
-      <c r="AQ10" s="1" t="n">
-        <v>30938289849.246</v>
-      </c>
-      <c r="AR10" s="1" t="n">
-        <v>38169560576.3058</v>
-      </c>
-      <c r="AS10" s="1" t="n">
-        <v>28869079586.8275</v>
-      </c>
-      <c r="AT10" s="1" t="n">
-        <v>29945482694.5708</v>
-      </c>
-      <c r="AU10" s="1" t="n">
-        <v>17199518584.207</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AP10" s="12" t="n">
+        <v>28567618660.3458</v>
+      </c>
+      <c r="AQ10" s="12" t="n">
+        <v>30938166143.7244</v>
+      </c>
+      <c r="AR10" s="12" t="n">
+        <v>38169560595.1045</v>
+      </c>
+      <c r="AS10" s="12" t="n">
+        <v>28868899170.5538</v>
+      </c>
+      <c r="AT10" s="12" t="n">
+        <v>29943453489.1408</v>
+      </c>
+      <c r="AU10" s="12" t="n">
+        <v>33530444807.7815</v>
+      </c>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2019,110 +2019,110 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="12" t="n">
         <v>1278485642.77654</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="12" t="n">
         <v>1225374405.27173</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="12" t="n">
         <v>1144071719.8123</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="12" t="n">
         <v>1402485376.36045</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="12" t="n">
         <v>1627184294.25102</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="12" t="n">
         <v>1745769968.69888</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="12" t="n">
         <v>2056985925.19555</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="12" t="n">
         <v>1735863904.79791</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="V11" s="12" t="n">
         <v>2391704353.15211</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="W11" s="12" t="n">
         <v>1719931001.97159</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="X11" s="12" t="n">
         <v>1629373359.94311</v>
       </c>
-      <c r="Y11" s="1" t="n">
-        <v>3006941765.45007</v>
-      </c>
-      <c r="Z11" s="1" t="n">
-        <v>3107627646.8775</v>
-      </c>
-      <c r="AA11" s="1" t="n">
-        <v>2780508902.94014</v>
-      </c>
-      <c r="AB11" s="1" t="n">
-        <v>2168873819.73164</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>3486760877.17632</v>
-      </c>
-      <c r="AD11" s="1" t="n">
-        <v>4102987201.25734</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <v>3726659758.81267</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>3498076875.95479</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>2675770065.47488</v>
-      </c>
-      <c r="AH11" s="1" t="n">
+      <c r="Y11" s="12" t="n">
+        <v>3006941771.75998</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>3107627623.58301</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>2780508907.51166</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>2168873833.11895</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>3486760881.50729</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>4102987201.92495</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>3726659779.57044</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>3498076871.43534</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>2675770052.89771</v>
+      </c>
+      <c r="AH11" s="12" t="n">
         <v>1634421645.46117</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="12" t="n">
         <v>908713474.102324</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>502924312.876178</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AK11" s="12" t="n">
         <v>435186281.73365</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AL11" s="12" t="n">
         <v>250017453.846564</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="12" t="n">
         <v>237454313.47685</v>
       </c>
-      <c r="AN11" s="1" t="n">
+      <c r="AN11" s="12" t="n">
         <v>355851235.364855</v>
       </c>
-      <c r="AO11" s="1" t="n">
+      <c r="AO11" s="12" t="n">
         <v>747180922.099244</v>
       </c>
-      <c r="AP11" s="1" t="n">
-        <v>829540758.735946</v>
-      </c>
-      <c r="AQ11" s="1" t="n">
-        <v>781865919.087209</v>
-      </c>
-      <c r="AR11" s="1" t="n">
+      <c r="AP11" s="12" t="n">
+        <v>829540758.733777</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>782365662.997511</v>
+      </c>
+      <c r="AR11" s="12" t="n">
         <v>480721326.579181</v>
       </c>
-      <c r="AS11" s="1" t="n">
+      <c r="AS11" s="12" t="n">
         <v>89626812.7456164</v>
       </c>
-      <c r="AT11" s="1" t="n">
-        <v>51726646.0337</v>
-      </c>
-      <c r="AU11" s="1" t="n">
-        <v>20041175.2768871</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AT11" s="12" t="n">
+        <v>51726646.0201</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>43407899.7593461</v>
+      </c>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2131,110 +2131,110 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="12" t="n">
         <v>6937857543.88565</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="12" t="n">
         <v>4601729519.39737</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="12" t="n">
         <v>5516067082.15828</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="12" t="n">
         <v>3874404934.55937</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="R12" s="12" t="n">
         <v>3712520497.32747</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="12" t="n">
         <v>3951777240.99071</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="T12" s="12" t="n">
         <v>3104985973.95686</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="U12" s="12" t="n">
         <v>3785350260.79388</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="V12" s="12" t="n">
         <v>4894371798.03646</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="W12" s="12" t="n">
         <v>3463963364.82374</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="X12" s="12" t="n">
         <v>4408456726.2333</v>
       </c>
-      <c r="Y12" s="1" t="n">
-        <v>5896393129.75389</v>
-      </c>
-      <c r="Z12" s="1" t="n">
-        <v>5735059904.54661</v>
-      </c>
-      <c r="AA12" s="1" t="n">
-        <v>5014444600.89754</v>
-      </c>
-      <c r="AB12" s="1" t="n">
-        <v>5025598842.10652</v>
-      </c>
-      <c r="AC12" s="1" t="n">
-        <v>4058209147.68975</v>
-      </c>
-      <c r="AD12" s="1" t="n">
-        <v>4090314745.3467</v>
-      </c>
-      <c r="AE12" s="1" t="n">
-        <v>5081275184.18657</v>
-      </c>
-      <c r="AF12" s="1" t="n">
-        <v>4860830339.15916</v>
-      </c>
-      <c r="AG12" s="1" t="n">
-        <v>4813933540.00699</v>
-      </c>
-      <c r="AH12" s="1" t="n">
+      <c r="Y12" s="12" t="n">
+        <v>5896393132.90885</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>5735059850.19281</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>5014444610.04057</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>5025598840.70086</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>4058209154.9008</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>4090314749.5748</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>5081275196.00472</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>4860830373.93421</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>4813933561.12438</v>
+      </c>
+      <c r="AH12" s="12" t="n">
         <v>4587139556.24369</v>
       </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AI12" s="12" t="n">
         <v>5361476487.18216</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>4692490715.27391</v>
       </c>
-      <c r="AK12" s="1" t="n">
+      <c r="AK12" s="12" t="n">
         <v>4653759086.07636</v>
       </c>
-      <c r="AL12" s="1" t="n">
+      <c r="AL12" s="12" t="n">
         <v>4989340702.19963</v>
       </c>
-      <c r="AM12" s="1" t="n">
+      <c r="AM12" s="12" t="n">
         <v>4518091302.85607</v>
       </c>
-      <c r="AN12" s="1" t="n">
+      <c r="AN12" s="12" t="n">
         <v>4628294619.38796</v>
       </c>
-      <c r="AO12" s="1" t="n">
+      <c r="AO12" s="12" t="n">
         <v>4671081828.10207</v>
       </c>
-      <c r="AP12" s="1" t="n">
-        <v>6355782589.1813</v>
-      </c>
-      <c r="AQ12" s="1" t="n">
-        <v>5581512707.44264</v>
-      </c>
-      <c r="AR12" s="1" t="n">
-        <v>5651019769.57299</v>
-      </c>
-      <c r="AS12" s="1" t="n">
-        <v>5216948657.57048</v>
-      </c>
-      <c r="AT12" s="1" t="n">
-        <v>4386265160.5151</v>
-      </c>
-      <c r="AU12" s="1" t="n">
-        <v>2536059056.57595</v>
-      </c>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="AP12" s="12" t="n">
+        <v>6355782590.30437</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>5581512713.91856</v>
+      </c>
+      <c r="AR12" s="12" t="n">
+        <v>5651019985.0342</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>5216840386.60078</v>
+      </c>
+      <c r="AT12" s="12" t="n">
+        <v>4385348365.3903</v>
+      </c>
+      <c r="AU12" s="12" t="n">
+        <v>4655303878.966</v>
+      </c>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2243,85 +2243,85 @@
       <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="n">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5554,89 +5554,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>1667195712</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>1572119200</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>2086776604.9004</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>2718922825.9402</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>2346290592.8694</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>2642218528.2236</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>2453724999.2805</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>3202886354.6452</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>2861249723.354</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>3312262884.2355</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>4238616460.4125</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>4425453498.0671</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>4774888332.263</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>4951947482.5283</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>4792567355.8634</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>5096148423.2276</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>6153491832.0523</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>6472698753.751</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>10188416282.5705</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>9628719922.0376</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>9686923191.692</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>10243079211.1694</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>10199925090.6668</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>11440838221.0279</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5654,89 +5654,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>42608597</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>79793254</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>32403293</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>177010212</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>73103772</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>196581720</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>143628794.21</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>156354933.1983</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>243207270.7395</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>20495863.5518</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>34008317.3251</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>5372142.8962</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>16910367.747</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>53063710.23</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="3" t="n">
         <v>53108763.7401</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="3" t="n">
         <v>89077679.8018</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="3" t="n">
         <v>157381974.3137</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>80938967.2787</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="3" t="n">
         <v>77585967.1931</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="3" t="n">
         <v>103358499.5228</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="3" t="n">
         <v>95969336.6816</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="3" t="n">
         <v>41928674.1291</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="3" t="n">
         <v>43179483.2368</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="3" t="n">
         <v>70431677.8448</v>
       </c>
-      <c r="AX3" s="12"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5754,89 +5754,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>46616562</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>58743049</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>65982705.0298</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>174022821</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>110534832</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>140213100.1094</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>59198494.2425</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>25165281.6259</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>30376675.1304</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>32101743.8946</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>41409123.5261</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>65650961.8043</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>29613076.7526</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>13200990.7966</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>17506633.5072</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>5576212.1403</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>13082959.8042</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>14559790.6104</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>3169753.1363</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>-2969035.9445</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>1117704.6305</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-747226.0256</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>1198822.3339</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>2905045.7204</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5854,89 +5854,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>1616998464</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>2697976663</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>4435139448</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>3443823452</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>5756277311</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>4538650462</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>5911155459</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>3259575704.61</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>3456928050.8257</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>4794309221.59</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>5086650779.3947</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>15289390780.2664</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>11206652460.1353</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>10678338421.22</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>7274551809.9082</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>5190649825.2102</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>5615949372.3369</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>8060537642.4228</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>10726923898.8154</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>13462761909.4059</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>19720359224.2609</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>12736423770.1615</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>15612966018.898</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>17528180041.2796</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5954,89 +5954,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>4005329951</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>6677452016</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>4319774557</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>5267270468.1104</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>5130624406.3486</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>5462556047.3018</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>6091538284.8327</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4657659438.9289</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>2973877189.0205</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>4386736949.9321</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>5479095335.5009</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>7580586843.098</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>6854719630.6743</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>6091895031.0357</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>10322279061.4678</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>11015888196.5484</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>11570884116.7565</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>10913180367.195</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>6074035740.262</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>6400522803.6655</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>7056305133.2614</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>6109320634.3225</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>7286909659.2551</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>6848820333.0683</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6054,89 +6054,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>257328243</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>1470475460</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>1356399766</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>395984997</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>678680532</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>746852966</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1682374888.83</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1828612103.7904</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1722360493.6623</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>2052820904.8849</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>2673368525.4409</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>1020734586.6304</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>936718114.1251</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>1261465628.7801</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>1361449328.264</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>77370557.0903</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1142257912.731</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>1665810518.1036</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>4239599519.7901</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>3713743320.2584</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>3522630491.776</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>2830869196.9417</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1236349426.1606</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>4189786665.016</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6154,63 +6154,63 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="n">
         <v>7691886</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>218594699.58</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>3912092207.03</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>5685520688.6132</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>6028533334.2041</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>7931174.4824</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>1819345.7709</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-173519.7795</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>371282.6702</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-67390.9</v>
       </c>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12" t="n">
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="n">
         <v>-2164.04</v>
       </c>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6226,109 +6226,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>1719744234</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>-152232354</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>399074964</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>495604277</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>747310269</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>305673522.4902</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>258988298.08</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>210148994.58</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>2379565457.94</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>874233650.9562</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>1110216.962</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>563105</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>4189074</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>995980</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>6030811.2188</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>3498178.89</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>-388944.2299</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>191325.7388</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6343,107 +6343,107 @@
       <c r="O10" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6580,89 +6580,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>2693738210.72471</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>2479982099.04181</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>3240692783.99436</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>4143198833.90679</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>3490058755.98296</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>3814451212.8948</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>3430638270.24233</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>4358542020.84223</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>3814091007.86604</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>4370881958.17239</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>5545075531.37427</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>5675125852.9186</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>6013016875.67151</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>6123919730.90012</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>5814335329.95073</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>6112562827.69639</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>7320132503.6416</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>7564797721.26585</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>11634269698.3299</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>10783926538.5459</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>10706286099.662</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>10952797534.3304</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>10199925090.6668</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>10912252954.5981</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6680,89 +6680,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>68843990.5514046</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>125872034.095313</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>50321207.1460649</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>269734946.851384</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>108740349.698953</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>283796125.217198</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>200812413.074028</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>212770442.361281</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>324199127.676212</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>27046464.4102072</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>44490623.302178</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>6889144.14062054</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>21295226.099734</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>65622243.2121495</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="3" t="n">
         <v>64431470.3196153</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="3" t="n">
         <v>106844006.319006</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="3" t="n">
         <v>187220026.79197</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>94595305.3780997</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="3" t="n">
         <v>88596308.0125113</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="3" t="n">
         <v>115758945.634835</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="3" t="n">
         <v>106068269.044315</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="3" t="n">
         <v>44833811.1178699</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="3" t="n">
         <v>43179483.2368</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="3" t="n">
         <v>67177620.1892807</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6780,89 +6780,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>75319780.0403277</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>92665816.9196942</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>102468886.969675</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>265182645.921936</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>164418277.699747</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>202419301.834061</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>82767473.9217279</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>34245341.6349717</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>40492587.0391748</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>42361653.6847326</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>54172563.0957148</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>84189670.2264038</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>37291747.5474339</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>16325255.5266306</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>21239020.7901574</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>6688374.08518014</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>15563358.4833443</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>17016375.2434537</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>3619577.55180544</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>-3325246.32298316</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>1235321.60958116</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-798999.519778664</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>1198822.3339</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>2770827.90030303</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6880,89 +6880,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>2612633008.71539</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>4255996509.59836</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>6887620060.2356</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>5247830197.4508</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>8562343510.29503</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>6552244098.94698</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>8264592056.95162</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>4435685848.81398</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>4608139613.21716</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>6326599189.41909</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>6654497531.65975</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>19606853157.6172</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>14112537440.3557</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>13205569643.3901</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>8825475044.42666</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>6225912304.38965</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>6680677355.43548</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>9420542977.4159</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>12249197737.0199</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>15077958089.1833</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>21795548871.9188</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>13618899941.1326</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>15612966018.898</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>16718349717.823</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6980,89 +6980,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>6471531961.07118</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>10533527907.3563</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>6708462325.32902</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>8026468663.67022</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>7631697747.6939</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>7886044745.18804</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>8516791560.06529</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6338221883.4901</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>3964225195.92069</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>5788764376.45193</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>7167904376.98535</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>9721214874.89366</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>8632148429.26113</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>7533657477.33749</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>12522973048.9392</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>13212980296.5266</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>13764608328.1938</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>12754494703.7243</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>6936011250.38385</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>7168426154.45087</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>7798845935.7253</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>6532620767.69608</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>7286909659.2551</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>6532393734.72421</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7080,89 +7080,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>415772974.869403</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>2319641422.78796</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>2106442502.54935</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>603417118.780358</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>1009523262.13142</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>1078197799.15331</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>2352186850.68917</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>2488406334.68997</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>2295933702.52232</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2708914772.20157</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>3497374800.29646</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>1308972570.62682</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>1179609120.89267</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>1560015384.08775</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>1651708226.81886</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>92801926.4652425</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1358818619.20589</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>1946872562.87157</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>4841247438.08598</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>4159300039.14862</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>3893319800.52166</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>3027013315.14306</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1236349426.1606</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>3996211731.27197</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7180,63 +7180,63 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3" t="n">
         <v>11104427.4229181</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>305624852.936319</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>5323641361.49267</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>7578888747.97561</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>7955288727.27001</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>10375782.2789978</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>2333097.89027099</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-218513.458282658</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>459153.75270058</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-81758.5360188613</v>
       </c>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12" t="n">
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3" t="n">
         <v>-2391.76371203019</v>
       </c>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7252,109 +7252,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>21228143918.8223</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>18255763741.9323</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>16101818741.1213</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>17383554422.2538</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>13228605702.3603</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>16925701573.5089</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>13714338594.7575</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>14102066190.5562</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>15646035550.2611</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>13723041606.5727</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>2778642436.79107</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>-240143058.373052</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>619749786.858156</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>755220796.616601</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>1111608577.25205</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>441287019.282418</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>362100548.023396</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>285974312.571618</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>3171998285.11253</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>1153643966.60007</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>1452416.60055832</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>722116.218101378</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>5275300.88719347</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>1231697.54830837</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>7316570.87611551</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>4195882.15880565</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>-462684.176253351</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>223606.963332721</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7363,41 +7363,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -824,23 +824,29 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -878,18 +884,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,110 +1309,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="1" t="n">
         <v>6546714000</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="1" t="n">
         <v>6476365096</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="1" t="n">
         <v>5042860266</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="1" t="n">
         <v>6618143070</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="1" t="n">
         <v>4406458273</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="1" t="n">
         <v>6404497166</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="1" t="n">
         <v>4969921341</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="1" t="n">
         <v>5075056453</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="1" t="n">
         <v>5006150547</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="1" t="n">
         <v>5177192817</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="1" t="n">
         <v>5618916525</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="1" t="n">
         <v>6760293102</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="1" t="n">
         <v>7001486958.9004</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="1" t="n">
         <v>7557297526.9402</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="1" t="n">
         <v>10006134216.3896</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="1" t="n">
         <v>8814140001.413</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="1" t="n">
         <v>10959037896.0552</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="1" t="n">
         <v>10779960255.4146</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="1" t="n">
         <v>13082411620.942</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="1" t="n">
         <v>15825782527.1521</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="1" t="n">
         <v>12806472617.7794</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="1" t="n">
         <v>23500087784.7764</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>19697880253.9823</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="1" t="n">
         <v>18936235987.4811</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="1" t="n">
         <v>19508793986.1486</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="1" t="n">
         <v>17513429163.4978</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="1" t="n">
         <v>20462857906.4086</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="1" t="n">
         <v>22571867090.797</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="1" t="n">
         <v>25017366681.3924</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>27623976817.2194</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="1" t="n">
         <v>34535374667.1391</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="1" t="n">
         <v>26998255013.5146</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="1" t="n">
         <v>29943453489.1408</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="1" t="n">
         <v>35154646443.8665</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1415,110 +1421,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="1" t="n">
         <v>643253000</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="1" t="n">
         <v>638521944</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="1" t="n">
         <v>611055856</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="1" t="n">
         <v>766672701</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="1" t="n">
         <v>908887027</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="1" t="n">
         <v>995780647</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="1" t="n">
         <v>1195348447</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="1" t="n">
         <v>1026658808</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="1" t="n">
         <v>1432211747</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="1" t="n">
         <v>1042775605</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="1" t="n">
         <v>1008444053</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="1" t="n">
         <v>1906171377</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="1" t="n">
         <v>2001092067</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="1" t="n">
         <v>1824674470</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="1" t="n">
         <v>1458086705</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="1" t="n">
         <v>2415231888</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="1" t="n">
         <v>2934614924.6974</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="1" t="n">
         <v>2738545986.0921</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="1" t="n">
         <v>2624182658.4692</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="1" t="n">
         <v>2027703771.8648</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="1" t="n">
         <v>1249340329.182</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="1" t="n">
         <v>708613223.2008</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>399368151.3318</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="1" t="n">
         <v>351902001.8156</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="1" t="n">
         <v>206081249.1376</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="1" t="n">
         <v>197969732.0624</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="1" t="n">
         <v>299137709.4819</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="1" t="n">
         <v>639313462.3683</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="1" t="n">
         <v>726449256.5917</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>698556302.1684</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="1" t="n">
         <v>434951067.4227</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="1" t="n">
         <v>83819183.1375</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="1" t="n">
         <v>51726646.0201</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="1" t="n">
         <v>45510561.4512</v>
       </c>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1527,110 +1533,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="1" t="n">
         <v>3490690493</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="1" t="n">
         <v>2397883672</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="1" t="n">
         <v>2946165904</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="1" t="n">
         <v>2117954701</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="1" t="n">
         <v>2073681346</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="1" t="n">
         <v>2254078927</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="1" t="n">
         <v>1804358560</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="1" t="n">
         <v>2238806381</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="1" t="n">
         <v>2930870939</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="1" t="n">
         <v>2100163605</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="1" t="n">
         <v>2728461185</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="1" t="n">
         <v>3737862809</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="1" t="n">
         <v>3692972312.0298</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="1" t="n">
         <v>3290667056.1104</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="1" t="n">
         <v>3378600793.8284</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="1" t="n">
         <v>2811066342.712</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="1" t="n">
         <v>2925551097.3031</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="1" t="n">
         <v>3733988776.902</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="1" t="n">
         <v>3646491269.8744</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="1" t="n">
         <v>3648008254.2323</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="1" t="n">
         <v>3506376986.0832</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="1" t="n">
         <v>4180870255.5561</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>3726269130.6037</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="1" t="n">
         <v>3763140537.9642</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="1" t="n">
         <v>4112551137.7833</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="1" t="n">
         <v>3766810177.3484</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="1" t="n">
         <v>3890663607.8742</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="1" t="n">
         <v>3996736811.935</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="1" t="n">
         <v>5565915223.7833</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>4983604299.5579</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="1" t="n">
         <v>5112977183.7006</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="1" t="n">
         <v>4878800064.0465</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="1" t="n">
         <v>4385348365.3903</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="1" t="n">
         <v>4880804978.6393</v>
       </c>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1639,44 +1645,44 @@
       <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="n">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1685,110 +1691,110 @@
       <c r="M6" t="s">
         <v>256</v>
       </c>
-      <c r="N6" s="12" t="str">
+      <c r="N6" s="1" t="str">
         <f>Sum(N2:N5)</f>
       </c>
-      <c r="O6" s="12" t="str">
+      <c r="O6" s="1" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="12" t="str">
+      <c r="P6" s="1" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="12" t="str">
+      <c r="Q6" s="1" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="12" t="str">
+      <c r="R6" s="1" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="12" t="str">
+      <c r="S6" s="1" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="12" t="str">
+      <c r="T6" s="1" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="12" t="str">
+      <c r="U6" s="1" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="12" t="str">
+      <c r="V6" s="1" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="12" t="str">
+      <c r="W6" s="1" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="12" t="str">
+      <c r="X6" s="1" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="12" t="str">
+      <c r="Y6" s="1" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="12" t="str">
+      <c r="Z6" s="1" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="12" t="str">
+      <c r="AA6" s="1" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="12" t="str">
+      <c r="AB6" s="1" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="12" t="str">
+      <c r="AC6" s="1" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="12" t="str">
+      <c r="AD6" s="1" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="12" t="str">
+      <c r="AE6" s="1" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="12" t="str">
+      <c r="AF6" s="1" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="12" t="str">
+      <c r="AG6" s="1" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="12" t="str">
+      <c r="AH6" s="1" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="12" t="str">
+      <c r="AI6" s="1" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="12" t="str">
+      <c r="AJ6" s="1" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="12" t="str">
+      <c r="AK6" s="1" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="12" t="str">
+      <c r="AL6" s="1" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="12" t="str">
+      <c r="AM6" s="1" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="12" t="str">
+      <c r="AN6" s="1" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="12" t="str">
+      <c r="AO6" s="1" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="12" t="str">
+      <c r="AP6" s="1" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="12" t="str">
+      <c r="AQ6" s="1" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="12" t="str">
+      <c r="AR6" s="1" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="12" t="str">
+      <c r="AS6" s="1" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="12" t="str">
+      <c r="AT6" s="1" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="12" t="str">
+      <c r="AU6" s="1" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1907,110 +1913,110 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="1" t="n">
         <v>13011800732.1601</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="1" t="n">
         <v>12428659817.2632</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="1" t="n">
         <v>9441679939.15068</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="1" t="n">
         <v>12106664111.334</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="1" t="n">
         <v>7888900910.78183</v>
       </c>
-      <c r="S10" s="12" t="n">
+      <c r="S10" s="1" t="n">
         <v>11228154363.8193</v>
       </c>
-      <c r="T10" s="12" t="n">
+      <c r="T10" s="1" t="n">
         <v>8552366695.60504</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="1" t="n">
         <v>8580852024.96446</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="1" t="n">
         <v>8359959399.07253</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="1" t="n">
         <v>8539147239.77736</v>
       </c>
-      <c r="X10" s="12" t="n">
+      <c r="X10" s="1" t="n">
         <v>9078652276.58707</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="1" t="n">
         <v>10664207826.7576</v>
       </c>
-      <c r="Z10" s="12" t="n">
+      <c r="Z10" s="1" t="n">
         <v>10873070079.3064</v>
       </c>
-      <c r="AA10" s="12" t="n">
+      <c r="AA10" s="1" t="n">
         <v>11516099685.6459</v>
       </c>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="1" t="n">
         <v>14883917806.9343</v>
       </c>
-      <c r="AC10" s="12" t="n">
+      <c r="AC10" s="1" t="n">
         <v>12724574693.5316</v>
       </c>
-      <c r="AD10" s="12" t="n">
+      <c r="AD10" s="1" t="n">
         <v>15322212074.4041</v>
       </c>
-      <c r="AE10" s="12" t="n">
+      <c r="AE10" s="1" t="n">
         <v>14669552570.3217</v>
       </c>
-      <c r="AF10" s="12" t="n">
+      <c r="AF10" s="1" t="n">
         <v>17439061021.9602</v>
       </c>
-      <c r="AG10" s="12" t="n">
+      <c r="AG10" s="1" t="n">
         <v>20883797494.1879</v>
       </c>
-      <c r="AH10" s="12" t="n">
+      <c r="AH10" s="1" t="n">
         <v>16753782423.8884</v>
       </c>
-      <c r="AI10" s="12" t="n">
+      <c r="AI10" s="1" t="n">
         <v>30136110523.2472</v>
       </c>
-      <c r="AJ10" s="12" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>24805540599.107</v>
       </c>
-      <c r="AK10" s="12" t="n">
+      <c r="AK10" s="1" t="n">
         <v>23417855217.9453</v>
       </c>
-      <c r="AL10" s="12" t="n">
+      <c r="AL10" s="1" t="n">
         <v>23668038797.5391</v>
       </c>
-      <c r="AM10" s="12" t="n">
+      <c r="AM10" s="1" t="n">
         <v>21006440001.3079</v>
       </c>
-      <c r="AN10" s="12" t="n">
+      <c r="AN10" s="1" t="n">
         <v>24342411652.823</v>
       </c>
-      <c r="AO10" s="12" t="n">
+      <c r="AO10" s="1" t="n">
         <v>26380280502.6612</v>
       </c>
-      <c r="AP10" s="12" t="n">
+      <c r="AP10" s="1" t="n">
         <v>28567618660.3458</v>
       </c>
-      <c r="AQ10" s="12" t="n">
+      <c r="AQ10" s="1" t="n">
         <v>30938166143.7244</v>
       </c>
-      <c r="AR10" s="12" t="n">
+      <c r="AR10" s="1" t="n">
         <v>38169560595.1045</v>
       </c>
-      <c r="AS10" s="12" t="n">
+      <c r="AS10" s="1" t="n">
         <v>28868899170.5538</v>
       </c>
-      <c r="AT10" s="12" t="n">
+      <c r="AT10" s="1" t="n">
         <v>29943453489.1408</v>
       </c>
-      <c r="AU10" s="12" t="n">
+      <c r="AU10" s="1" t="n">
         <v>33530444807.7815</v>
       </c>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2019,110 +2025,110 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="1" t="n">
         <v>1278485642.77654</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="1" t="n">
         <v>1225374405.27173</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="1" t="n">
         <v>1144071719.8123</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="1" t="n">
         <v>1402485376.36045</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="1" t="n">
         <v>1627184294.25102</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="1" t="n">
         <v>1745769968.69888</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="1" t="n">
         <v>2056985925.19555</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="1" t="n">
         <v>1735863904.79791</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="1" t="n">
         <v>2391704353.15211</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="1" t="n">
         <v>1719931001.97159</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="1" t="n">
         <v>1629373359.94311</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="1" t="n">
         <v>3006941771.75998</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="1" t="n">
         <v>3107627623.58301</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="1" t="n">
         <v>2780508907.51166</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="1" t="n">
         <v>2168873833.11895</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="1" t="n">
         <v>3486760881.50729</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="1" t="n">
         <v>4102987201.92495</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="1" t="n">
         <v>3726659779.57044</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="1" t="n">
         <v>3498076871.43534</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="1" t="n">
         <v>2675770052.89771</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="1" t="n">
         <v>1634421645.46117</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="1" t="n">
         <v>908713474.102324</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>502924312.876178</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="1" t="n">
         <v>435186281.73365</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="1" t="n">
         <v>250017453.846564</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="1" t="n">
         <v>237454313.47685</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="1" t="n">
         <v>355851235.364855</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="1" t="n">
         <v>747180922.099244</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="1" t="n">
         <v>829540758.733777</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="1" t="n">
         <v>782365662.997511</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="1" t="n">
         <v>480721326.579181</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="1" t="n">
         <v>89626812.7456164</v>
       </c>
-      <c r="AT11" s="12" t="n">
+      <c r="AT11" s="1" t="n">
         <v>51726646.0201</v>
       </c>
-      <c r="AU11" s="12" t="n">
+      <c r="AU11" s="1" t="n">
         <v>43407899.7593461</v>
       </c>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2131,110 +2137,110 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="1" t="n">
         <v>6937857543.88565</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="1" t="n">
         <v>4601729519.39737</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="1" t="n">
         <v>5516067082.15828</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="1" t="n">
         <v>3874404934.55937</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="1" t="n">
         <v>3712520497.32747</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="1" t="n">
         <v>3951777240.99071</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="1" t="n">
         <v>3104985973.95686</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="1" t="n">
         <v>3785350260.79388</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="1" t="n">
         <v>4894371798.03646</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="1" t="n">
         <v>3463963364.82374</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="1" t="n">
         <v>4408456726.2333</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="1" t="n">
         <v>5896393132.90885</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="1" t="n">
         <v>5735059850.19281</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="1" t="n">
         <v>5014444610.04057</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="1" t="n">
         <v>5025598840.70086</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="1" t="n">
         <v>4058209154.9008</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="1" t="n">
         <v>4090314749.5748</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="1" t="n">
         <v>5081275196.00472</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="1" t="n">
         <v>4860830373.93421</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="1" t="n">
         <v>4813933561.12438</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="1" t="n">
         <v>4587139556.24369</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="1" t="n">
         <v>5361476487.18216</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="1" t="n">
         <v>4692490715.27391</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="1" t="n">
         <v>4653759086.07636</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="1" t="n">
         <v>4989340702.19963</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="1" t="n">
         <v>4518091302.85607</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="1" t="n">
         <v>4628294619.38796</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="1" t="n">
         <v>4671081828.10207</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="1" t="n">
         <v>6355782590.30437</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="1" t="n">
         <v>5581512713.91856</v>
       </c>
-      <c r="AR12" s="12" t="n">
+      <c r="AR12" s="1" t="n">
         <v>5651019985.0342</v>
       </c>
-      <c r="AS12" s="12" t="n">
+      <c r="AS12" s="1" t="n">
         <v>5216840386.60078</v>
       </c>
-      <c r="AT12" s="12" t="n">
+      <c r="AT12" s="1" t="n">
         <v>4385348365.3903</v>
       </c>
-      <c r="AU12" s="12" t="n">
+      <c r="AU12" s="1" t="n">
         <v>4655303878.966</v>
       </c>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2243,85 +2249,85 @@
       <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12" t="n">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="12"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7417,6 +7423,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>60</v>
       </c>
@@ -7525,720 +7537,997 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
+      <c r="P2" s="12" t="n">
+        <v>1814000</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>2669000</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>4531000</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>15427000</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>8327000</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>14324000</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>15491076</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>2189057809</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>1961624443</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>2040376342</v>
+      </c>
+      <c r="Z2" s="12" t="n">
         <v>8265639486</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>11222966166</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>11120140626</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>10540513074</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>12818877326.5156</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>11598110708.5245</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>14102583252.3517</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>14500076462.1738</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>16553847794.1065</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>18661733716.402</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>13967338487.0003</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>24577714669.5493</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>19844126584.3259</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>19321922682.4328</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>19853932889.6631</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>17542827513.9945</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>20149476609.3658</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>21828433698.5253</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>23361267665.8085</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>25212313739.8772</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>32014124074.1493</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>24085635254.2797</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>25630831552.3427</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>17760662762.3544</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="AA2" s="12" t="n">
+        <v>11222966161</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>11120140580</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>10540513121</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>12818877334.57</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>11596204979.52</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>14102583285</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>14500076521.68</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>16553847850.7</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>18661425686</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>13967338496.9877</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>24577714675.5281</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>19845707086.3542</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>19392720607.4728</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>19853932891.6631</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>17542640484.7404</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>20148799632.3527</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>21828882456.4197</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>23361268259.13</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>25213168052.63</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>32015942869.09</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>24116859427.32</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>25626396771.61</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>30353777996.72</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>28804314039.95</v>
+      </c>
+      <c r="AY2" s="12" t="n">
+        <v>17326927524.12</v>
+      </c>
+      <c r="AZ2" s="12"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
+      <c r="P3" s="12" t="n">
+        <v>8295000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>3455000</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>5567000</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>26764000</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>10741000</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>157000</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>687000</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>32335956</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>67289485</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>69585164</v>
+      </c>
+      <c r="Z3" s="12" t="n">
         <v>128306121</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="12" t="n">
         <v>146068198</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>199804095.9004</v>
-      </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AB3" s="12" t="n">
+        <v>199804095.9</v>
+      </c>
+      <c r="AC3" s="12" t="n">
         <v>252967277.01</v>
       </c>
-      <c r="AD3" s="4" t="n">
-        <v>256300483.3297</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>329764593.6109</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>353801647.9729</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>347617661.2713</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>429847100.4329</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>450976954.2315</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
-        <v>520575140.2767</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>601220689.2413</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>570171648.0302</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>603292186.9749</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>734616182.8559</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>756785456.2461</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>789486829.6154</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>805332404.5743</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>1053187865.5391</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>979219338.8192</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>696309278.4826</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>817030689.018</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>997392353.2473</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>108655578.0499</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="AD3" s="12" t="n">
+        <v>256300483.33</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>329764593.61</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>353801648.01</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>347617661.27</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>429847400.27</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>450976954.13</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>518817833.1562</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>600293030.6082</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>567779250.3213</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>607299008.0947</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>734309615.4967</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>759040129.0227</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>789281333.2861</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>805554446.8029</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>1053406503.77</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>979068512.48</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>696370586.42</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>817588060.57</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>998032260.47</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>282258818.31</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>260140021.68</v>
+      </c>
+      <c r="AY3" s="12" t="n">
+        <v>106362638.29</v>
+      </c>
+      <c r="AZ3" s="12"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="n">
+      <c r="P4" s="12" t="n">
+        <v>902000</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>125000</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>806000</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12" t="n">
+        <v>90000</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>20107275</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>12071642</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>6411174</v>
+      </c>
+      <c r="Z4" s="12" t="n">
         <v>6338932</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="12" t="n">
         <v>3668769</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="12" t="n">
         <v>3036643</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="12" t="n">
         <v>1170677</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="12" t="n">
         <v>3702</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4" t="n">
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12" t="n">
         <v>56409823.1518</v>
       </c>
-      <c r="AK4" s="4" t="n">
+      <c r="AK4" s="12" t="n">
         <v>250065008.9206</v>
       </c>
-      <c r="AL4" s="4" t="n">
-        <v>381304486.5243</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>480540808.8799</v>
-      </c>
-      <c r="AN4" s="4" t="n">
-        <v>643651442.0328</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>718208530.6321</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>667404355.4719</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>629344893.2809</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>829836926.9361</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>701016324.3303</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>577597002.7029</v>
-      </c>
-      <c r="AU4" s="4" t="n">
-        <v>570758528.3878</v>
-      </c>
-      <c r="AV4" s="4" t="n">
-        <v>625095019.9544</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>142246961.3464</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AL4" s="12" t="n">
+        <v>381304486.5259</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>485048310.6497</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>643784577.0028</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>721638605.4281</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>682863278.2314</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>671340743.4822</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>913401495.7336</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>776702118.5728</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>784756524.9483</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>735989386.4552</v>
+      </c>
+      <c r="AV4" s="12" t="n">
+        <v>928439837.9877</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>1212720063.0024</v>
+      </c>
+      <c r="AX4" s="12" t="n">
+        <v>1088446255.878</v>
+      </c>
+      <c r="AY4" s="12" t="n">
+        <v>378794645.47</v>
+      </c>
+      <c r="AZ4" s="12"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>65</v>
       </c>
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
-        <v>32523679</v>
-      </c>
-      <c r="AA5" s="4" t="n">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="n">
+        <v>406000</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>102000</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>256000</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>996702</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>1339877</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>3057742</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>32951027</v>
+      </c>
+      <c r="AA5" s="12" t="n">
         <v>56035838</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>118921417</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>119266440</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>134696725</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>109713900.0935</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>133357334.7812</v>
-      </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AB5" s="12" t="n">
+        <v>118925328</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>119321926</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>134804712</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>109775836.0935</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>133366884.7812</v>
+      </c>
+      <c r="AG5" s="12" t="n">
         <v>212214642.033</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="12" t="n">
         <v>170544365.131</v>
       </c>
-      <c r="AI5" s="4" t="n">
-        <v>195375550.9643</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
-        <v>131941268.3299</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>94382657.1387</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>152329909.3883</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>56836161.9164</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>57855391.4834</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>33431187.7537</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>18375603.5163</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>12853616.411</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>16425608.077</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>41579470.835</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>26540799.9291</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>24438506.002</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>13669433.5681</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>8297662.8575</v>
-      </c>
-      <c r="AX5" s="4"/>
+      <c r="AI5" s="12" t="n">
+        <v>195375550.9657</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>132369603.1856</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>94562158.5968</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>152492011.5009</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>59656161.8556</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>58246214.2534</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>34223954.225</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>18421629.4286</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>13022425.15</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>16425608.0416</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>41579470.8422</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>26540799.9307</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>24438825.2104</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>13677340.1858</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>18435455.3499</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>17452208.89</v>
+      </c>
+      <c r="AY5" s="12" t="n">
+        <v>11545168.22</v>
+      </c>
+      <c r="AZ5" s="12"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>65</v>
       </c>
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
+        <v>8827164</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>5281910</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>19569845</v>
+      </c>
+      <c r="Z6" s="12" t="n">
         <v>124083067</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="12" t="n">
         <v>102877275</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="12" t="n">
         <v>131319695</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="12" t="n">
         <v>303568109.1104</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="12" t="n">
         <v>341229471</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="12" t="n">
         <v>496105422.2316</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="12" t="n">
         <v>779178032.1475</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="12" t="n">
         <v>609435905.6012</v>
       </c>
-      <c r="AH6" s="4" t="n">
-        <v>635615279.8952</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>599581960.0733</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>874308123.0461</v>
-      </c>
-      <c r="AK6" s="4" t="n">
-        <v>904116064.0669</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>793595992.8994</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>719807686.7205</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>830181982.2714</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>537231108.3566</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>707789483.891</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>1130270922.0799</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>1700609509.1899</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>1383347471.8993</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>1561385244.7797</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>3919265108.5473</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>5235460904.853</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>2159652686.9528</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="AH6" s="12" t="n">
+        <v>635615279.8954</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>599379421.0735</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>874308123.0407</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>904116064.0393</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>793595993.9639</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>724599028.7005</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>830065216.9256</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>537515375.4024</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>708363482.1655</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>1130972206.0579</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>1701928911.7988</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>1384055518.5279</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>1588908324.1799</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>3962560249.4637</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>5289073717.3362</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>7107391310.3156</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>7714037639.0704</v>
+      </c>
+      <c r="AY6" s="12" t="n">
+        <v>2910628897.93</v>
+      </c>
+      <c r="AZ6" s="12"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
+      <c r="P7" s="12" t="n">
+        <v>43000</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>104000</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>68000</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>1732000</v>
+      </c>
+      <c r="T7" s="12" t="n">
+        <v>209000</v>
+      </c>
+      <c r="U7" s="12" t="n">
+        <v>563000</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12" t="n">
+        <v>97180962</v>
+      </c>
+      <c r="X7" s="12" t="n">
+        <v>170998360</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <v>211400903</v>
+      </c>
+      <c r="Z7" s="12" t="n">
         <v>792136941</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="12" t="n">
         <v>871079231</v>
       </c>
-      <c r="AB7" s="4" t="n">
-        <v>1120969379.0298</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1464312729.9302</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1289854915.3183</v>
-      </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AB7" s="12" t="n">
+        <v>1121078883.0298</v>
+      </c>
+      <c r="AC7" s="12" t="n">
+        <v>1464312699.9302</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>1289828353.3183</v>
+      </c>
+      <c r="AE7" s="12" t="n">
         <v>1508419219.6701</v>
       </c>
-      <c r="AF7" s="4" t="n">
-        <v>1450200011.2365</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>1582425417.3198</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1563229550.5037</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>1593823433.7213</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>2011188756.3825</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>1961892673.1586</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>2081826812.5887</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>1867039154.4264</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>1706797661.9929</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>1888932509.5129</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>2320080315.9824</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>2801513021.4291</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>4348403730.0673</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>4988325311.376</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>5207346306.2631</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>2544016155.3789</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>1881025237.1541</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>533057615.5018</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="AF7" s="12" t="n">
+        <v>1450220312.2365</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <v>1584090169.3198</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>1563834499.5037</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>1595201595.4811</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
+        <v>2011188756.3735</v>
+      </c>
+      <c r="AK7" s="12" t="n">
+        <v>1961892829.5621</v>
+      </c>
+      <c r="AL7" s="12" t="n">
+        <v>2081913822.1831</v>
+      </c>
+      <c r="AM7" s="12" t="n">
+        <v>1879187246.8164</v>
+      </c>
+      <c r="AN7" s="12" t="n">
+        <v>1706797661.8882</v>
+      </c>
+      <c r="AO7" s="12" t="n">
+        <v>1889047176.4959</v>
+      </c>
+      <c r="AP7" s="12" t="n">
+        <v>2320088753.0641</v>
+      </c>
+      <c r="AQ7" s="12" t="n">
+        <v>2810266733.4823</v>
+      </c>
+      <c r="AR7" s="12" t="n">
+        <v>4354202895.1859</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>5004511960.9469</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>5218636779.7144</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>2569243888.9792</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>1882537557.2822</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>1507213903.7002</v>
+      </c>
+      <c r="AX7" s="12" t="n">
+        <v>1766134062.2725</v>
+      </c>
+      <c r="AY7" s="12" t="n">
+        <v>824415378.56</v>
+      </c>
+      <c r="AZ7" s="12"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>65</v>
       </c>
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>6793537</v>
-      </c>
-      <c r="AA8" s="4" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>4020064</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <v>5577975</v>
+      </c>
+      <c r="Y8" s="12" t="n">
+        <v>6055737</v>
+      </c>
+      <c r="Z8" s="12" t="n">
+        <v>6366189</v>
+      </c>
+      <c r="AA8" s="12" t="n">
         <v>1631816</v>
       </c>
-      <c r="AB8" s="4" t="n">
-        <v>1359533</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>-9159299</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1859084</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>230117</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>83603</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>724868.71</v>
-      </c>
-      <c r="AH8" s="4" t="n">
+      <c r="AB8" s="12" t="n">
+        <v>1246118</v>
+      </c>
+      <c r="AC8" s="12" t="n">
+        <v>-9214755</v>
+      </c>
+      <c r="AD8" s="12" t="n">
+        <v>1777659</v>
+      </c>
+      <c r="AE8" s="12" t="n">
+        <v>168181</v>
+      </c>
+      <c r="AF8" s="12" t="n">
+        <v>53752</v>
+      </c>
+      <c r="AG8" s="12" t="n">
+        <v>41329.71</v>
+      </c>
+      <c r="AH8" s="12" t="n">
         <v>1403.64</v>
       </c>
-      <c r="AI8" s="4" t="n">
+      <c r="AI8" s="12" t="n">
         <v>2900</v>
       </c>
-      <c r="AJ8" s="4" t="n">
-        <v>428334.8573</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>179501.4579</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>162102.161</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>1839845.91</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>390822.77</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>792766.4127</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>46025.9219</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>168808.7998</v>
-      </c>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="12" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="12" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="12" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="12" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="12" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="12" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="12" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="12" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="12" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="12" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4" t="n">
+      <c r="AV9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4" t="n">
+      <c r="AW9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="4" t="n">
+      <c r="AX9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" s="4" t="n">
+      <c r="AY9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>256</v>
+      </c>
+      <c r="O10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="12" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="12" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="12" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="12" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="12" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="12" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="12" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="12" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="12" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="12" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="12" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="12" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="12" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="12" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="12" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="12" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="12" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="12" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="12" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="12" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="12" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="12" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="12" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="12" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="12" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="12" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="12" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="12" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="12" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="12" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="12" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="12" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="12"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>60</v>
       </c>
@@ -8347,718 +8636,911 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>62</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>13355042098.0888</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>17703972567.6221</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>17269198532.8256</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>16062037899.8343</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>19067815040.1498</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>16743667106.5822</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>19717312180.0458</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>19731949737.8204</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>22066540191.072</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>24626135684.2953</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>18272459328.6626</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>31518040803.6684</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>24989708602.8736</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>23894821980.9196</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>24086760783.3636</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>21041701781.2872</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>23969616387.7724</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>25511412130.1742</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>26676500152.8106</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>28237163552.2732</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>35382996725.0986</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>25754470993.2726</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>25630831552.3427</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>16940091360.4308</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="12" t="n">
+        <v>3751863.43412346</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>5329704.40037609</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>8826989.6279112</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>29364944.4825621</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>15511626.5909658</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>26128671.2691617</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>27735342.4286405</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>3850962485.18336</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>3408134015.79185</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>3501599043.2046</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>13895973166.5763</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>18421238113.4809</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>17969758552.0684</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>16712305960.0911</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>19840247956.1153</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>17417850899.6554</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>20516056976.6489</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>20529161927.9193</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>22960211411.3976</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>25621417525.4146</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>19011964871.7927</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>32796257459.1343</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>26009936278.2859</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>24963296464.6699</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>25099105096.642</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>21949878269.1339</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>25010819322.4858</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>26646516819.6703</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>27897769667.5692</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>29562687786.4713</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>37054955394.4276</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>26983914118.136</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>26798717158.8197</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>30353777996.72</v>
+      </c>
+      <c r="AX14" s="12" t="n">
+        <v>28055075529.5196</v>
+      </c>
+      <c r="AY14" s="12" t="n">
+        <v>16513882284.1058</v>
+      </c>
+      <c r="AZ14" s="12"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>62</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>207308055.269019</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>230419243.196887</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>310288935.70898</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>385481234.378905</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>381241670.885084</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>476066207.481538</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>494662390.433542</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>473044003.462838</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>572992964.275973</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>595111892.290808</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>681030826.815864</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>770995125.881019</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>718017156.227433</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>746072719.944755</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>891235220.869027</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>907724474.292567</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>939165657.547837</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>941211227.458212</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>1202647333.09453</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>1096701274.98268</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>769582477.507166</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>873640780.439397</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>997392353.2473</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>103635514.260602</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="12" t="n">
+        <v>17156398.6692691</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>6899261.41000351</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>10845255.188387</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>50944666.7616058</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>20008452.1692763</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>286386.581210443</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>1230010.11992169</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>56885000.0062011</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>116909015.664022</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>119418824.198284</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>215704836.575967</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>239754537.041688</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>322876436.247115</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>401087355.307154</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>396685685.323314</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>495316401.670075</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>514701074.428396</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>492155972.180318</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>596198978.862882</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>619173959.724465</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>706200857.160621</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>801025035.999508</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>744135850.475406</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>781746176.239249</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>928305455.316897</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>949733789.957589</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>979739397.960566</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>983340313.4012</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>1257966463.22956</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>1147967470.63255</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>805972859.312449</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>914784368.044304</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>1043688837.80584</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>282258818.31</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>253373433.797486</v>
+      </c>
+      <c r="AY15" s="12" t="n">
+        <v>101371699.379644</v>
+      </c>
+      <c r="AZ15" s="12"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>65</v>
       </c>
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
-        <v>10242002.9158434</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>5787399.22870959</v>
-      </c>
-      <c r="AB16" s="4" t="n">
-        <v>4715802.8485453</v>
-      </c>
-      <c r="AC16" s="4" t="n">
-        <v>1783922.49129184</v>
-      </c>
-      <c r="AD16" s="4" t="n">
-        <v>5506.64847479447</v>
-      </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4" t="n">
-        <v>73796894.1067516</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>320679089.195143</v>
-      </c>
-      <c r="AL16" s="4" t="n">
-        <v>480176739.788433</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>594269901.162164</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>780876937.494984</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>861453474.719599</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>793937564.053356</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>735530417.173004</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>947600328.239834</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>785120826.55943</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>638378011.146836</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>610305014.102321</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>625095019.9544</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>135674921.211795</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="12" t="n">
+        <v>1865590.30737561</v>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <v>249611.483719375</v>
+      </c>
+      <c r="R16" s="12" t="n">
+        <v>1570195.02098796</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12" t="n">
+        <v>161136.696932972</v>
+      </c>
+      <c r="W16" s="12" t="n">
+        <v>35372460.8760504</v>
+      </c>
+      <c r="X16" s="12" t="n">
+        <v>20973318.248289</v>
+      </c>
+      <c r="Y16" s="12" t="n">
+        <v>11002558.8329519</v>
+      </c>
+      <c r="Z16" s="12" t="n">
+        <v>10656843.8081467</v>
+      </c>
+      <c r="AA16" s="12" t="n">
+        <v>6021872.14706308</v>
+      </c>
+      <c r="AB16" s="12" t="n">
+        <v>4907108.96379951</v>
+      </c>
+      <c r="AC16" s="12" t="n">
+        <v>1856144.19144952</v>
+      </c>
+      <c r="AD16" s="12" t="n">
+        <v>5729.72156738424</v>
+      </c>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12" t="n">
+        <v>76783531.5523679</v>
+      </c>
+      <c r="AK16" s="12" t="n">
+        <v>333684255.121027</v>
+      </c>
+      <c r="AL16" s="12" t="n">
+        <v>499740591.454288</v>
+      </c>
+      <c r="AM16" s="12" t="n">
+        <v>624378859.65159</v>
+      </c>
+      <c r="AN16" s="12" t="n">
+        <v>813864781.651175</v>
+      </c>
+      <c r="AO16" s="12" t="n">
+        <v>902935881.131052</v>
+      </c>
+      <c r="AP16" s="12" t="n">
+        <v>847642062.328237</v>
+      </c>
+      <c r="AQ16" s="12" t="n">
+        <v>819505645.726149</v>
+      </c>
+      <c r="AR16" s="12" t="n">
+        <v>1090774022.16938</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>910690881.309674</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>908269924.96666</v>
+      </c>
+      <c r="AU16" s="12" t="n">
+        <v>823485099.949171</v>
+      </c>
+      <c r="AV16" s="12" t="n">
+        <v>970912798.976755</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>1212720063.0024</v>
+      </c>
+      <c r="AX16" s="12" t="n">
+        <v>1060134321.41198</v>
+      </c>
+      <c r="AY16" s="12" t="n">
+        <v>361020162.197444</v>
+      </c>
+      <c r="AZ16" s="12"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>65</v>
       </c>
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>52549485.4893465</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>88395253.4545771</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>184680898.295138</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>181742773.431364</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>200358594.079163</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>158388988.197896</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>186451528.370968</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>288785280.625819</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>227338328.486015</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>257818748.276966</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>172609224.124849</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>121034704.766175</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>191829054.856085</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>70287517.1064552</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>70190071.7824051</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>40098956.8156224</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>21859434.6502669</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>15022328.6816198</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>18756590.7229175</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>46567971.924285</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>29333710.1711035</v>
-      </c>
-      <c r="AU17" s="4" t="n">
-        <v>26131791.3064215</v>
-      </c>
-      <c r="AV17" s="4" t="n">
-        <v>13669433.5681</v>
-      </c>
-      <c r="AW17" s="4" t="n">
-        <v>7914297.38658414</v>
-      </c>
-      <c r="AX17" s="4"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12" t="n">
+        <v>756301.236451557</v>
+      </c>
+      <c r="U17" s="12" t="n">
+        <v>186060.071869205</v>
+      </c>
+      <c r="V17" s="12" t="n">
+        <v>458344.382387122</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <v>1753385.40404312</v>
+      </c>
+      <c r="X17" s="12" t="n">
+        <v>2327907.56506552</v>
+      </c>
+      <c r="Y17" s="12" t="n">
+        <v>5247554.69918427</v>
+      </c>
+      <c r="Z17" s="12" t="n">
+        <v>55396389.8109373</v>
+      </c>
+      <c r="AA17" s="12" t="n">
+        <v>91976532.7524134</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>192179173.861266</v>
+      </c>
+      <c r="AC17" s="12" t="n">
+        <v>189188563.418833</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>208642211.16462</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>164886628.758156</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>194018539.133858</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>300452810.939105</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>236545286.252874</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>268243094.058216</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
+        <v>180177937.722388</v>
+      </c>
+      <c r="AK17" s="12" t="n">
+        <v>126182801.785069</v>
+      </c>
+      <c r="AL17" s="12" t="n">
+        <v>199857202.609489</v>
+      </c>
+      <c r="AM17" s="12" t="n">
+        <v>76792446.2218993</v>
+      </c>
+      <c r="AN17" s="12" t="n">
+        <v>73634169.1595771</v>
+      </c>
+      <c r="AO17" s="12" t="n">
+        <v>42822038.6651945</v>
+      </c>
+      <c r="AP17" s="12" t="n">
+        <v>22866873.1473559</v>
+      </c>
+      <c r="AQ17" s="12" t="n">
+        <v>15896474.3836587</v>
+      </c>
+      <c r="AR17" s="12" t="n">
+        <v>19615280.5023863</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>48752338.9472046</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>30718075.7282651</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>27344155.7601206</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>14303031.9241086</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>18435455.3499</v>
+      </c>
+      <c r="AX17" s="12" t="n">
+        <v>16998253.7298692</v>
+      </c>
+      <c r="AY17" s="12" t="n">
+        <v>11003425.0832917</v>
+      </c>
+      <c r="AZ17" s="12"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>65</v>
       </c>
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>200484740.019421</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>162286549.517493</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>203935000.509148</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>462588722.150498</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>507571784.450858</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>716204927.541433</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>1089395909.15899</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>829330706.573607</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>847285192.803355</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>791211948.847142</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>1143794118.96892</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>1159422972.46285</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>999375433.667534</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>890163821.549787</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>1007175501.43634</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>644380545.875641</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>841979309.98768</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>1320974638.40845</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>1941945551.9605</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>1549314720.444</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>1725691100.42488</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>4190821561.78925</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>5235460904.853</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>2059873232.95871</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12" t="n">
+        <v>15528633.9514669</v>
+      </c>
+      <c r="X18" s="12" t="n">
+        <v>9176811.19012807</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <v>33584858.3994522</v>
+      </c>
+      <c r="Z18" s="12" t="n">
+        <v>208605150.56082</v>
+      </c>
+      <c r="AA18" s="12" t="n">
+        <v>168861489.204758</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>212208037.776557</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>481316522.349532</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>528133403.407838</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>745165361.443818</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>1133527140.34273</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>862837404.483269</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>881599331.728541</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>822924821.600654</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
+        <v>1190084662.58319</v>
+      </c>
+      <c r="AK18" s="12" t="n">
+        <v>1206443463.13842</v>
+      </c>
+      <c r="AL18" s="12" t="n">
+        <v>1040093010.73968</v>
+      </c>
+      <c r="AM18" s="12" t="n">
+        <v>932740729.760848</v>
+      </c>
+      <c r="AN18" s="12" t="n">
+        <v>1049358544.24243</v>
+      </c>
+      <c r="AO18" s="12" t="n">
+        <v>672555369.765082</v>
+      </c>
+      <c r="AP18" s="12" t="n">
+        <v>879295610.178216</v>
+      </c>
+      <c r="AQ18" s="12" t="n">
+        <v>1380577772.20009</v>
+      </c>
+      <c r="AR18" s="12" t="n">
+        <v>2032424791.55144</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>1622818722.66008</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>1838987760.53739</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>4433636385.43835</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>5531030829.12015</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>7107391310.3156</v>
+      </c>
+      <c r="AX18" s="12" t="n">
+        <v>7513385262.41302</v>
+      </c>
+      <c r="AY18" s="12" t="n">
+        <v>2774051136.66127</v>
+      </c>
+      <c r="AZ18" s="12"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>65</v>
       </c>
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>1279879459.10593</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>1374107573.8577</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>1740827153.78817</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>2231375873.2831</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>1918632523.53962</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>2177636505.29421</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>2027575078.50824</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>2153391320.37395</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>2083809645.53403</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>2103218957.6863</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>2631092873.38216</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>2515897598.9595</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>2621644504.59274</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>2308909364.74902</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>2070684293.0567</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>2265675502.90522</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>2759944401.58664</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>3274195220.08837</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>4965492216.82007</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>5586800129.59232</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>5755319648.10934</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>2720284916.23366</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>1881025237.1541</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>508429489.811272</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="12" t="n">
+        <v>88936.1233006111</v>
+      </c>
+      <c r="Q19" s="12" t="n">
+        <v>207676.75445452</v>
+      </c>
+      <c r="R19" s="12" t="n">
+        <v>132473.029065981</v>
+      </c>
+      <c r="S19" s="12" t="n">
+        <v>3296822.70329925</v>
+      </c>
+      <c r="T19" s="12" t="n">
+        <v>389327.483789102</v>
+      </c>
+      <c r="U19" s="12" t="n">
+        <v>1026978.63198395</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12" t="n">
+        <v>170959504.768396</v>
+      </c>
+      <c r="X19" s="12" t="n">
+        <v>297093222.629986</v>
+      </c>
+      <c r="Y19" s="12" t="n">
+        <v>362796403.996625</v>
+      </c>
+      <c r="Z19" s="12" t="n">
+        <v>1331719547.53579</v>
+      </c>
+      <c r="AA19" s="12" t="n">
+        <v>1429778696.62659</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>1811624295.65869</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>2321712575.23741</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>1996314785.04364</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>2265691328.22245</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>2109741311.45063</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>2242749791.40754</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>2169040759.88133</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>2190150249.11472</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
+        <v>2737575952.28065</v>
+      </c>
+      <c r="AK19" s="12" t="n">
+        <v>2617930234.56383</v>
+      </c>
+      <c r="AL19" s="12" t="n">
+        <v>2728572260.80388</v>
+      </c>
+      <c r="AM19" s="12" t="n">
+        <v>2418985417.48846</v>
+      </c>
+      <c r="AN19" s="12" t="n">
+        <v>2157713241.4114</v>
+      </c>
+      <c r="AO19" s="12" t="n">
+        <v>2363632521.84323</v>
+      </c>
+      <c r="AP19" s="12" t="n">
+        <v>2879939335.03829</v>
+      </c>
+      <c r="AQ19" s="12" t="n">
+        <v>3430492602.22084</v>
+      </c>
+      <c r="AR19" s="12" t="n">
+        <v>5199741217.31536</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>5867839547.8232</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>6040001816.6803</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>2874680123.98928</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>1968657239.95779</v>
+      </c>
+      <c r="AW19" s="12" t="n">
+        <v>1507213903.7002</v>
+      </c>
+      <c r="AX19" s="12" t="n">
+        <v>1720194566.81351</v>
+      </c>
+      <c r="AY19" s="12" t="n">
+        <v>785730678.205614</v>
+      </c>
+      <c r="AZ19" s="12"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>65</v>
       </c>
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>10976521.8751187</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>2574152.43636107</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>2111308.30792139</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>-13957290.9441006</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>2765349.02029033</v>
-      </c>
-      <c r="AE20" s="4" t="n">
-        <v>332209.490010597</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>116888.262291483</v>
-      </c>
-      <c r="AG20" s="4" t="n">
-        <v>986413.622683368</v>
-      </c>
-      <c r="AH20" s="4" t="n">
-        <v>1871.07425772173</v>
-      </c>
-      <c r="AI20" s="4" t="n">
-        <v>3826.85738472886</v>
-      </c>
-      <c r="AJ20" s="4" t="n">
-        <v>560359.532086036</v>
-      </c>
-      <c r="AK20" s="4" t="n">
-        <v>230189.598604935</v>
-      </c>
-      <c r="AL20" s="4" t="n">
-        <v>204135.251308351</v>
-      </c>
-      <c r="AM20" s="4" t="n">
-        <v>2275280.3235127</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>474145.582237901</v>
-      </c>
-      <c r="AO20" s="4" t="n">
-        <v>950881.744972249</v>
-      </c>
-      <c r="AP20" s="4" t="n">
-        <v>54751.9775934914</v>
-      </c>
-      <c r="AQ20" s="4" t="n">
-        <v>197290.878602473</v>
-      </c>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12" t="n">
+        <v>7072045.1458101</v>
+      </c>
+      <c r="X20" s="12" t="n">
+        <v>9691195.68456384</v>
+      </c>
+      <c r="Y20" s="12" t="n">
+        <v>10392574.3739577</v>
+      </c>
+      <c r="Z20" s="12" t="n">
+        <v>10702667.5512754</v>
+      </c>
+      <c r="AA20" s="12" t="n">
+        <v>2678442.63826147</v>
+      </c>
+      <c r="AB20" s="12" t="n">
+        <v>2013683.1388319</v>
+      </c>
+      <c r="AC20" s="12" t="n">
+        <v>-14610275.90777</v>
+      </c>
+      <c r="AD20" s="12" t="n">
+        <v>2751348.22035514</v>
+      </c>
+      <c r="AE20" s="12" t="n">
+        <v>252612.95288661</v>
+      </c>
+      <c r="AF20" s="12" t="n">
+        <v>78196.9567080513</v>
+      </c>
+      <c r="AG20" s="12" t="n">
+        <v>58514.4711309179</v>
+      </c>
+      <c r="AH20" s="12" t="n">
+        <v>1946.85075253554</v>
+      </c>
+      <c r="AI20" s="12" t="n">
+        <v>3981.58812053918</v>
+      </c>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>21228143918.8223</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>18255763741.9323</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>16101818741.1213</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>17383554422.2538</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>13228605702.3603</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>16925701573.5089</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>13714338594.7575</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>14102066190.5562</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>15646035550.2611</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>13723041606.5727</v>
-      </c>
-      <c r="Z21" s="4" t="n">
+      <c r="P21" s="12" t="n">
+        <v>22090610970.4429</v>
+      </c>
+      <c r="Q21" s="12" t="n">
+        <v>18995974493.6362</v>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>16754101708.8253</v>
+      </c>
+      <c r="S21" s="12" t="n">
+        <v>18088307988.644</v>
+      </c>
+      <c r="T21" s="12" t="n">
+        <v>13764359577.6929</v>
+      </c>
+      <c r="U21" s="12" t="n">
+        <v>17610689302.8955</v>
+      </c>
+      <c r="V21" s="12" t="n">
+        <v>14268884308.6678</v>
+      </c>
+      <c r="W21" s="12" t="n">
+        <v>14672538942.6214</v>
+      </c>
+      <c r="X21" s="12" t="n">
+        <v>16278142636.9465</v>
+      </c>
+      <c r="Y21" s="12" t="n">
+        <v>14278623872.1636</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="4" t="n">
+      <c r="AV21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4" t="n">
+      <c r="AW21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="4" t="n">
+      <c r="AX21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AF21" s="4" t="n">
+      <c r="AY21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9078,6 +9560,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>60</v>
       </c>
@@ -9186,115 +9674,179 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>1814000</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>2669000</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>4531000</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>15427000</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>8327000</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>14324000</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>15491076</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>2189057809</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>1961624443</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>2040376342</v>
+      </c>
       <c r="Y2" s="5" t="n">
         <v>8265639486</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>11222966166</v>
+        <v>11222966161</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>11120140626</v>
+        <v>11120140580</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>10540513074</v>
+        <v>10540513121</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>12818877326.5156</v>
+        <v>12818877334.57</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>11598110708.5245</v>
+        <v>11596204979.52</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>14102583252.3517</v>
+        <v>14102583285</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>14500076462.1738</v>
+        <v>14500076521.68</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>16553847794.1065</v>
+        <v>16553847850.7</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>18661733716.402</v>
+        <v>18661425686</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>13967338487.0003</v>
+        <v>13967338496.9877</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>24577714669.5493</v>
+        <v>24577714675.5281</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>19844126584.3259</v>
+        <v>19845707086.3542</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>19321922682.4328</v>
+        <v>19392720607.4728</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>19853932889.6631</v>
+        <v>19853932891.6631</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>17542827513.9945</v>
+        <v>17542640484.7404</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>20149476609.3658</v>
+        <v>20148799632.3527</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>21828433698.5253</v>
+        <v>21828882456.4197</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>23361267665.8085</v>
+        <v>23361268259.13</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>25212313739.8772</v>
+        <v>25213168052.63</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>32014124074.1493</v>
+        <v>32015942869.09</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>24085635254.2797</v>
+        <v>24116859427.32</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>25630831552.3427</v>
+        <v>25626396771.61</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>17760662762.3544</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>30353777996.72</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>28804314039.95</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>17326927524.12</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>8295000</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>3455000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>5567000</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>26764000</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>10741000</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>157000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>687000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>32335956</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>67289485</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>69585164</v>
+      </c>
       <c r="Y3" s="5" t="n">
         <v>128306121</v>
       </c>
@@ -9302,90 +9854,116 @@
         <v>146068198</v>
       </c>
       <c r="AA3" s="5" t="n">
-        <v>199804095.9004</v>
+        <v>199804095.9</v>
       </c>
       <c r="AB3" s="5" t="n">
         <v>252967277.01</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>256300483.3297</v>
+        <v>256300483.33</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>329764593.6109</v>
+        <v>329764593.61</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>353801647.9729</v>
+        <v>353801648.01</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>347617661.2713</v>
+        <v>347617661.27</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>429847100.4329</v>
+        <v>429847400.27</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>450976954.2315</v>
+        <v>450976954.13</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>520575140.2767</v>
+        <v>518817833.1562</v>
       </c>
       <c r="AJ3" s="5" t="n">
-        <v>601220689.2413</v>
+        <v>600293030.6082</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>570171648.0302</v>
+        <v>567779250.3213</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>603292186.9749</v>
+        <v>607299008.0947</v>
       </c>
       <c r="AM3" s="5" t="n">
-        <v>734616182.8559</v>
+        <v>734309615.4967</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>756785456.2461</v>
+        <v>759040129.0227</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>789486829.6154</v>
+        <v>789281333.2861</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>805332404.5743</v>
+        <v>805554446.8029</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>1053187865.5391</v>
+        <v>1053406503.77</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>979219338.8192</v>
+        <v>979068512.48</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>696309278.4826</v>
+        <v>696370586.42</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>817030689.018</v>
+        <v>817588060.57</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>997392353.2473</v>
+        <v>998032260.47</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>108655578.0499</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>282258818.31</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>260140021.68</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>106362638.29</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>65</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="O4" s="5" t="n">
+        <v>902000</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>125000</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>806000</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="U4" s="5" t="n">
+        <v>90000</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>20107275</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>12071642</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>6411174</v>
+      </c>
       <c r="Y4" s="5" t="n">
         <v>6338932</v>
       </c>
@@ -9413,44 +9991,56 @@
         <v>250065008.9206</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>381304486.5243</v>
+        <v>381304486.5259</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>480540808.8799</v>
+        <v>485048310.6497</v>
       </c>
       <c r="AM4" s="5" t="n">
-        <v>643651442.0328</v>
+        <v>643784577.0028</v>
       </c>
       <c r="AN4" s="5" t="n">
-        <v>718208530.6321</v>
+        <v>721638605.4281</v>
       </c>
       <c r="AO4" s="5" t="n">
-        <v>667404355.4719</v>
+        <v>682863278.2314</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>629344893.2809</v>
+        <v>671340743.4822</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>829836926.9361</v>
+        <v>913401495.7336</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>701016324.3303</v>
+        <v>776702118.5728</v>
       </c>
       <c r="AS4" s="5" t="n">
-        <v>577597002.7029</v>
+        <v>784756524.9483</v>
       </c>
       <c r="AT4" s="5" t="n">
-        <v>570758528.3878</v>
+        <v>735989386.4552</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>625095019.9544</v>
+        <v>928439837.9877</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>142246961.3464</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>1212720063.0024</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>1088446255.878</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>378794645.47</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>65</v>
       </c>
@@ -9461,32 +10051,44 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="S5" s="5" t="n">
+        <v>406000</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>102000</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>256000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>996702</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>1339877</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>3057742</v>
+      </c>
       <c r="Y5" s="5" t="n">
-        <v>32523679</v>
+        <v>32951027</v>
       </c>
       <c r="Z5" s="5" t="n">
         <v>56035838</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>118921417</v>
+        <v>118925328</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>119266440</v>
+        <v>119321926</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>134696725</v>
+        <v>134804712</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>109713900.0935</v>
+        <v>109775836.0935</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>133357334.7812</v>
+        <v>133366884.7812</v>
       </c>
       <c r="AF5" s="5" t="n">
         <v>212214642.033</v>
@@ -9495,53 +10097,65 @@
         <v>170544365.131</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>195375550.9643</v>
+        <v>195375550.9657</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>131941268.3299</v>
+        <v>132369603.1856</v>
       </c>
       <c r="AJ5" s="5" t="n">
-        <v>94382657.1387</v>
+        <v>94562158.5968</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>152329909.3883</v>
+        <v>152492011.5009</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>56836161.9164</v>
+        <v>59656161.8556</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>57855391.4834</v>
+        <v>58246214.2534</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>33431187.7537</v>
+        <v>34223954.225</v>
       </c>
       <c r="AO5" s="5" t="n">
-        <v>18375603.5163</v>
+        <v>18421629.4286</v>
       </c>
       <c r="AP5" s="5" t="n">
-        <v>12853616.411</v>
+        <v>13022425.15</v>
       </c>
       <c r="AQ5" s="5" t="n">
-        <v>16425608.077</v>
+        <v>16425608.0416</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>41579470.835</v>
+        <v>41579470.8422</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>26540799.9291</v>
+        <v>26540799.9307</v>
       </c>
       <c r="AT5" s="5" t="n">
-        <v>24438506.002</v>
+        <v>24438825.2104</v>
       </c>
       <c r="AU5" s="5" t="n">
-        <v>13669433.5681</v>
+        <v>13677340.1858</v>
       </c>
       <c r="AV5" s="5" t="n">
-        <v>8297662.8575</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <v>18435455.3499</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>17452208.89</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>11545168.22</v>
+      </c>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
@@ -9555,9 +10169,15 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>8827164</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>5281910</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>19569845</v>
+      </c>
       <c r="Y6" s="5" t="n">
         <v>124083067</v>
       </c>
@@ -9583,72 +10203,102 @@
         <v>609435905.6012</v>
       </c>
       <c r="AG6" s="5" t="n">
-        <v>635615279.8952</v>
+        <v>635615279.8954</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>599581960.0733</v>
+        <v>599379421.0735</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>874308123.0461</v>
+        <v>874308123.0407</v>
       </c>
       <c r="AJ6" s="5" t="n">
-        <v>904116064.0669</v>
+        <v>904116064.0393</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>793595992.8994</v>
+        <v>793595993.9639</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>719807686.7205</v>
+        <v>724599028.7005</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>830181982.2714</v>
+        <v>830065216.9256</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>537231108.3566</v>
+        <v>537515375.4024</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>707789483.891</v>
+        <v>708363482.1655</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>1130270922.0799</v>
+        <v>1130972206.0579</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>1700609509.1899</v>
+        <v>1701928911.7988</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>1383347471.8993</v>
+        <v>1384055518.5279</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>1561385244.7797</v>
+        <v>1588908324.1799</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>3919265108.5473</v>
+        <v>3962560249.4637</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>5235460904.853</v>
+        <v>5289073717.3362</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>2159652686.9528</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>7107391310.3156</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>7714037639.0704</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>2910628897.93</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>65</v>
       </c>
       <c r="N7" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="O7" s="5" t="n">
+        <v>43000</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>104000</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>68000</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>1732000</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>209000</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>563000</v>
+      </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="V7" s="5" t="n">
+        <v>97180962</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>170998360</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>211400903</v>
+      </c>
       <c r="Y7" s="5" t="n">
         <v>792136941</v>
       </c>
@@ -9656,74 +10306,86 @@
         <v>871079231</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>1120969379.0298</v>
+        <v>1121078883.0298</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>1464312729.9302</v>
+        <v>1464312699.9302</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>1289854915.3183</v>
+        <v>1289828353.3183</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>1508419219.6701</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>1450200011.2365</v>
+        <v>1450220312.2365</v>
       </c>
       <c r="AF7" s="5" t="n">
-        <v>1582425417.3198</v>
+        <v>1584090169.3198</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>1563229550.5037</v>
+        <v>1563834499.5037</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>1593823433.7213</v>
+        <v>1595201595.4811</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>2011188756.3825</v>
+        <v>2011188756.3735</v>
       </c>
       <c r="AJ7" s="5" t="n">
-        <v>1961892673.1586</v>
+        <v>1961892829.5621</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>2081826812.5887</v>
+        <v>2081913822.1831</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>1867039154.4264</v>
+        <v>1879187246.8164</v>
       </c>
       <c r="AM7" s="5" t="n">
-        <v>1706797661.9929</v>
+        <v>1706797661.8882</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>1888932509.5129</v>
+        <v>1889047176.4959</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>2320080315.9824</v>
+        <v>2320088753.0641</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>2801513021.4291</v>
+        <v>2810266733.4823</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>4348403730.0673</v>
+        <v>4354202895.1859</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>4988325311.376</v>
+        <v>5004511960.9469</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>5207346306.2631</v>
+        <v>5218636779.7144</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>2544016155.3789</v>
+        <v>2569243888.9792</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>1881025237.1541</v>
+        <v>1882537557.2822</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>533057615.5018</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>1507213903.7002</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>1766134062.2725</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>824415378.56</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>65</v>
       </c>
@@ -9736,33 +10398,41 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>4020064</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>5577975</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>6055737</v>
+      </c>
       <c r="Y8" s="5" t="n">
-        <v>6793537</v>
+        <v>6366189</v>
       </c>
       <c r="Z8" s="5" t="n">
         <v>1631816</v>
       </c>
       <c r="AA8" s="5" t="n">
-        <v>1359533</v>
+        <v>1246118</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>-9159299</v>
+        <v>-9214755</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>1859084</v>
+        <v>1777659</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>230117</v>
+        <v>168181</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>83603</v>
+        <v>53752</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>724868.71</v>
+        <v>41329.71</v>
       </c>
       <c r="AG8" s="5" t="n">
         <v>1403.64</v>
@@ -9770,30 +10440,14 @@
       <c r="AH8" s="5" t="n">
         <v>2900</v>
       </c>
-      <c r="AI8" s="5" t="n">
-        <v>428334.8573</v>
-      </c>
-      <c r="AJ8" s="5" t="n">
-        <v>179501.4579</v>
-      </c>
-      <c r="AK8" s="5" t="n">
-        <v>162102.161</v>
-      </c>
-      <c r="AL8" s="5" t="n">
-        <v>1839845.91</v>
-      </c>
-      <c r="AM8" s="5" t="n">
-        <v>390822.77</v>
-      </c>
-      <c r="AN8" s="5" t="n">
-        <v>792766.4127</v>
-      </c>
-      <c r="AO8" s="5" t="n">
-        <v>46025.9219</v>
-      </c>
-      <c r="AP8" s="5" t="n">
-        <v>168808.7998</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
@@ -9801,8 +10455,16 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
@@ -9835,71 +10497,174 @@
       <c r="X9" s="5" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Y9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5" t="n">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="5" t="n">
+      <c r="AU9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
       <c r="AV9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="5"/>
+      <c r="AW9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>60</v>
       </c>
@@ -10008,220 +10773,310 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>62</v>
       </c>
       <c r="N14" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="O14" s="5" t="n">
+        <v>3751863.43412346</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>5329704.40037609</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>8826989.6279112</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>29364944.4825621</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>15511626.5909658</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>26128671.2691617</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>27735342.4286405</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>3850962485.18336</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>3408134015.79185</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>3501599043.2046</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>13355042098.0888</v>
+        <v>13895973166.5763</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>17703972567.6221</v>
+        <v>18421238113.4809</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>17269198532.8256</v>
+        <v>17969758552.0684</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>16062037899.8343</v>
+        <v>16712305960.0911</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>19067815040.1498</v>
+        <v>19840247956.1153</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>16743667106.5822</v>
+        <v>17417850899.6554</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>19717312180.0458</v>
+        <v>20516056976.6489</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>19731949737.8204</v>
+        <v>20529161927.9193</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>22066540191.072</v>
+        <v>22960211411.3976</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>24626135684.2953</v>
+        <v>25621417525.4146</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>18272459328.6626</v>
+        <v>19011964871.7927</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>31518040803.6684</v>
+        <v>32796257459.1343</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>24989708602.8736</v>
+        <v>26009936278.2859</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>23894821980.9196</v>
+        <v>24963296464.6699</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>24086760783.3636</v>
+        <v>25099105096.642</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>21041701781.2872</v>
+        <v>21949878269.1339</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>23969616387.7724</v>
+        <v>25010819322.4858</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>25511412130.1742</v>
+        <v>26646516819.6703</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>26676500152.8106</v>
+        <v>27897769667.5692</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>28237163552.2732</v>
+        <v>29562687786.4713</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>35382996725.0986</v>
+        <v>37054955394.4276</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>25754470993.2726</v>
+        <v>26983914118.136</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>25630831552.3427</v>
+        <v>26798717158.8197</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>16940091360.4308</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>30353777996.72</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>28055075529.5196</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>16513882284.1058</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>62</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="O15" s="5" t="n">
+        <v>17156398.6692691</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>6899261.41000351</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>10845255.188387</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>50944666.7616058</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>20008452.1692763</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>286386.581210443</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>1230010.11992169</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>56885000.0062011</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>116909015.664022</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>119418824.198284</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>207308055.269019</v>
+        <v>215704836.575967</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>230419243.196887</v>
+        <v>239754537.041688</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>310288935.70898</v>
+        <v>322876436.247115</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>385481234.378905</v>
+        <v>401087355.307154</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>381241670.885084</v>
+        <v>396685685.323314</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>476066207.481538</v>
+        <v>495316401.670075</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>494662390.433542</v>
+        <v>514701074.428396</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>473044003.462838</v>
+        <v>492155972.180318</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>572992964.275973</v>
+        <v>596198978.862882</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>595111892.290808</v>
+        <v>619173959.724465</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>681030826.815864</v>
+        <v>706200857.160621</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>770995125.881019</v>
+        <v>801025035.999508</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>718017156.227433</v>
+        <v>744135850.475406</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>746072719.944755</v>
+        <v>781746176.239249</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>891235220.869027</v>
+        <v>928305455.316897</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>907724474.292567</v>
+        <v>949733789.957589</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>939165657.547837</v>
+        <v>979739397.960566</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>941211227.458212</v>
+        <v>983340313.4012</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>1202647333.09453</v>
+        <v>1257966463.22956</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>1096701274.98268</v>
+        <v>1147967470.63255</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>769582477.507166</v>
+        <v>805972859.312449</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>873640780.439397</v>
+        <v>914784368.044304</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>997392353.2473</v>
+        <v>1043688837.80584</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>103635514.260602</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>282258818.31</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>253373433.797486</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>101371699.379644</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>65</v>
       </c>
       <c r="N16" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="O16" s="5" t="n">
+        <v>1865590.30737561</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>249611.483719375</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>1570195.02098796</v>
+      </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="U16" s="5" t="n">
+        <v>161136.696932972</v>
+      </c>
+      <c r="V16" s="5" t="n">
+        <v>35372460.8760504</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>20973318.248289</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>11002558.8329519</v>
+      </c>
       <c r="Y16" s="5" t="n">
-        <v>10242002.9158434</v>
+        <v>10656843.8081467</v>
       </c>
       <c r="Z16" s="5" t="n">
-        <v>5787399.22870959</v>
+        <v>6021872.14706308</v>
       </c>
       <c r="AA16" s="5" t="n">
-        <v>4715802.8485453</v>
+        <v>4907108.96379951</v>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>1783922.49129184</v>
+        <v>1856144.19144952</v>
       </c>
       <c r="AC16" s="5" t="n">
-        <v>5506.64847479447</v>
+        <v>5729.72156738424</v>
       </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
@@ -10229,50 +11084,62 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5" t="n">
-        <v>73796894.1067516</v>
+        <v>76783531.5523679</v>
       </c>
       <c r="AJ16" s="5" t="n">
-        <v>320679089.195143</v>
+        <v>333684255.121027</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>480176739.788433</v>
+        <v>499740591.454288</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>594269901.162164</v>
+        <v>624378859.65159</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>780876937.494984</v>
+        <v>813864781.651175</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>861453474.719599</v>
+        <v>902935881.131052</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>793937564.053356</v>
+        <v>847642062.328237</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>735530417.173004</v>
+        <v>819505645.726149</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>947600328.239834</v>
+        <v>1090774022.16938</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>785120826.55943</v>
+        <v>910690881.309674</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>638378011.146836</v>
+        <v>908269924.96666</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>610305014.102321</v>
+        <v>823485099.949171</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>625095019.9544</v>
+        <v>970912798.976755</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>135674921.211795</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>1212720063.0024</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>1060134321.41198</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>361020162.197444</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>65</v>
       </c>
@@ -10283,87 +11150,111 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="S17" s="5" t="n">
+        <v>756301.236451557</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>186060.071869205</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>458344.382387122</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>1753385.40404312</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>2327907.56506552</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>5247554.69918427</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>52549485.4893465</v>
+        <v>55396389.8109373</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>88395253.4545771</v>
+        <v>91976532.7524134</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>184680898.295138</v>
+        <v>192179173.861266</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>181742773.431364</v>
+        <v>189188563.418833</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>200358594.079163</v>
+        <v>208642211.16462</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>158388988.197896</v>
+        <v>164886628.758156</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>186451528.370968</v>
+        <v>194018539.133858</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>288785280.625819</v>
+        <v>300452810.939105</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>227338328.486015</v>
+        <v>236545286.252874</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>257818748.276966</v>
+        <v>268243094.058216</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>172609224.124849</v>
+        <v>180177937.722388</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>121034704.766175</v>
+        <v>126182801.785069</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>191829054.856085</v>
+        <v>199857202.609489</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>70287517.1064552</v>
+        <v>76792446.2218993</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>70190071.7824051</v>
+        <v>73634169.1595771</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>40098956.8156224</v>
+        <v>42822038.6651945</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>21859434.6502669</v>
+        <v>22866873.1473559</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>15022328.6816198</v>
+        <v>15896474.3836587</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>18756590.7229175</v>
+        <v>19615280.5023863</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>46567971.924285</v>
+        <v>48752338.9472046</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>29333710.1711035</v>
+        <v>30718075.7282651</v>
       </c>
       <c r="AT17" s="5" t="n">
-        <v>26131791.3064215</v>
+        <v>27344155.7601206</v>
       </c>
       <c r="AU17" s="5" t="n">
-        <v>13669433.5681</v>
+        <v>14303031.9241086</v>
       </c>
       <c r="AV17" s="5" t="n">
-        <v>7914297.38658414</v>
-      </c>
-      <c r="AW17" s="5"/>
+        <v>18435455.3499</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>16998253.7298692</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>11003425.0832917</v>
+      </c>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>65</v>
       </c>
@@ -10377,175 +11268,223 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="5" t="n">
+        <v>15528633.9514669</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>9176811.19012807</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>33584858.3994522</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>200484740.019421</v>
+        <v>208605150.56082</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>162286549.517493</v>
+        <v>168861489.204758</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>203935000.509148</v>
+        <v>212208037.776557</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>462588722.150498</v>
+        <v>481316522.349532</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>507571784.450858</v>
+        <v>528133403.407838</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>716204927.541433</v>
+        <v>745165361.443818</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>1089395909.15899</v>
+        <v>1133527140.34273</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>829330706.573607</v>
+        <v>862837404.483269</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>847285192.803355</v>
+        <v>881599331.728541</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>791211948.847142</v>
+        <v>822924821.600654</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>1143794118.96892</v>
+        <v>1190084662.58319</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>1159422972.46285</v>
+        <v>1206443463.13842</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>999375433.667534</v>
+        <v>1040093010.73968</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>890163821.549787</v>
+        <v>932740729.760848</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>1007175501.43634</v>
+        <v>1049358544.24243</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>644380545.875641</v>
+        <v>672555369.765082</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>841979309.98768</v>
+        <v>879295610.178216</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>1320974638.40845</v>
+        <v>1380577772.20009</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>1941945551.9605</v>
+        <v>2032424791.55144</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>1549314720.444</v>
+        <v>1622818722.66008</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>1725691100.42488</v>
+        <v>1838987760.53739</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>4190821561.78925</v>
+        <v>4433636385.43835</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>5235460904.853</v>
+        <v>5531030829.12015</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>2059873232.95871</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>7107391310.3156</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>7513385262.41302</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>2774051136.66127</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>65</v>
       </c>
       <c r="N19" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="O19" s="5" t="n">
+        <v>88936.1233006111</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>207676.75445452</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>132473.029065981</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>3296822.70329925</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>389327.483789102</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>1026978.63198395</v>
+      </c>
       <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="V19" s="5" t="n">
+        <v>170959504.768396</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>297093222.629986</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>362796403.996625</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>1279879459.10593</v>
+        <v>1331719547.53579</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>1374107573.8577</v>
+        <v>1429778696.62659</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>1740827153.78817</v>
+        <v>1811624295.65869</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>2231375873.2831</v>
+        <v>2321712575.23741</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>1918632523.53962</v>
+        <v>1996314785.04364</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>2177636505.29421</v>
+        <v>2265691328.22245</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>2027575078.50824</v>
+        <v>2109741311.45063</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>2153391320.37395</v>
+        <v>2242749791.40754</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>2083809645.53403</v>
+        <v>2169040759.88133</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>2103218957.6863</v>
+        <v>2190150249.11472</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>2631092873.38216</v>
+        <v>2737575952.28065</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>2515897598.9595</v>
+        <v>2617930234.56383</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>2621644504.59274</v>
+        <v>2728572260.80388</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>2308909364.74902</v>
+        <v>2418985417.48846</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>2070684293.0567</v>
+        <v>2157713241.4114</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>2265675502.90522</v>
+        <v>2363632521.84323</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>2759944401.58664</v>
+        <v>2879939335.03829</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>3274195220.08837</v>
+        <v>3430492602.22084</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>4965492216.82007</v>
+        <v>5199741217.31536</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>5586800129.59232</v>
+        <v>5867839547.8232</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>5755319648.10934</v>
+        <v>6040001816.6803</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>2720284916.23366</v>
+        <v>2874680123.98928</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>1881025237.1541</v>
+        <v>1968657239.95779</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>508429489.811272</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>1507213903.7002</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>1720194566.81351</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>785730678.205614</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>65</v>
       </c>
@@ -10558,64 +11497,56 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="U20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>7072045.1458101</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>9691195.68456384</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>10392574.3739577</v>
+      </c>
       <c r="Y20" s="5" t="n">
-        <v>10976521.8751187</v>
+        <v>10702667.5512754</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>2574152.43636107</v>
+        <v>2678442.63826147</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>2111308.30792139</v>
+        <v>2013683.1388319</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>-13957290.9441006</v>
+        <v>-14610275.90777</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>2765349.02029033</v>
+        <v>2751348.22035514</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>332209.490010597</v>
+        <v>252612.95288661</v>
       </c>
       <c r="AE20" s="5" t="n">
-        <v>116888.262291483</v>
+        <v>78196.9567080513</v>
       </c>
       <c r="AF20" s="5" t="n">
-        <v>986413.622683368</v>
+        <v>58514.4711309179</v>
       </c>
       <c r="AG20" s="5" t="n">
-        <v>1871.07425772173</v>
+        <v>1946.85075253554</v>
       </c>
       <c r="AH20" s="5" t="n">
-        <v>3826.85738472886</v>
-      </c>
-      <c r="AI20" s="5" t="n">
-        <v>560359.532086036</v>
-      </c>
-      <c r="AJ20" s="5" t="n">
-        <v>230189.598604935</v>
-      </c>
-      <c r="AK20" s="5" t="n">
-        <v>204135.251308351</v>
-      </c>
-      <c r="AL20" s="5" t="n">
-        <v>2275280.3235127</v>
-      </c>
-      <c r="AM20" s="5" t="n">
-        <v>474145.582237901</v>
-      </c>
-      <c r="AN20" s="5" t="n">
-        <v>950881.744972249</v>
-      </c>
-      <c r="AO20" s="5" t="n">
-        <v>54751.9775934914</v>
-      </c>
-      <c r="AP20" s="5" t="n">
-        <v>197290.878602473</v>
-      </c>
+        <v>3981.58812053918</v>
+      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -10623,103 +11554,130 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>21228143918.8223</v>
+        <v>22090610970.4429</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>18255763741.9323</v>
+        <v>18995974493.6362</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>16101818741.1213</v>
+        <v>16754101708.8253</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>17383554422.2538</v>
+        <v>18088307988.644</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13228605702.3603</v>
+        <v>13764359577.6929</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16925701573.5089</v>
+        <v>17610689302.8955</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>13714338594.7575</v>
+        <v>14268884308.6678</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>14102066190.5562</v>
+        <v>14672538942.6214</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>15646035550.2611</v>
+        <v>16278142636.9465</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>13723041606.5727</v>
-      </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>14278623872.1636</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="5" t="n">
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="5" t="n">
+      <c r="AU21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
       <c r="AV21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="5"/>
+      <c r="AW21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -839,14 +839,14 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -887,15 +887,15 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -836,17 +836,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -884,18 +884,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,6 +1301,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1310,34 +1316,34 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>6546714000</v>
+        <v>6548442000</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>6476365096</v>
+        <v>6477374096</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>5042860266</v>
+        <v>5044777266</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>6618143070</v>
+        <v>6620308070</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>4406458273</v>
+        <v>4408971273</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>6404497166</v>
+        <v>6405663166</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>4969921341</v>
+        <v>4971117417</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>5075056453</v>
+        <v>7123804614</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>5006150547</v>
+        <v>6859916601</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>5177192817</v>
+        <v>6668557799</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>5618916525</v>
@@ -1346,73 +1352,79 @@
         <v>6760293102</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>7001486958.9004</v>
+        <v>7001486964.9</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>7557297526.9402</v>
+        <v>7557297528.9402</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>10006134216.3896</v>
+        <v>10006134216.3899</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>8814140001.413</v>
+        <v>8814140001.4132</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>10959037896.0552</v>
+        <v>10959037892.1937</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>10779960255.4146</v>
+        <v>10779960253.6293</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>13082411620.942</v>
+        <v>13082411921.6588</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>15825782527.1521</v>
+        <v>15825271920.6361</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>12806472617.7794</v>
+        <v>12804722501.7932</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>23500087784.7764</v>
+        <v>23499160290.5518</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>19697880253.9823</v>
+        <v>19697155373.8633</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>18936235987.4811</v>
+        <v>18946716262.2499</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>19508793986.1486</v>
+        <v>19508620555.7663</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>17513429163.4978</v>
+        <v>17486891458.2435</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>20462857906.4086</v>
+        <v>20426138946.52</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>22571867090.797</v>
+        <v>22540810797.0451</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>25017366681.3924</v>
+        <v>25018500917.2119</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>27623976817.2194</v>
+        <v>27625374875.4535</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>34535374667.1391</v>
+        <v>34536586712.0485</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>26998255013.5146</v>
+        <v>27040797617.55</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>29943453489.1408</v>
+        <v>29919144138.5537</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>35154646443.8665</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>35145203311.6536</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>33905377482.71</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>18557850748.33</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1422,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>643253000</v>
+        <v>643508000</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>638521944</v>
@@ -1431,25 +1443,25 @@
         <v>611055856</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>766672701</v>
+        <v>779850701</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>908887027</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>995780647</v>
+        <v>995830647</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>1195348447</v>
+        <v>1195418447</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1026658808</v>
+        <v>1077564921</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>1432211747</v>
+        <v>1467552889</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1042775605</v>
+        <v>1509982725</v>
       </c>
       <c r="X3" s="1" t="n">
         <v>1008444053</v>
@@ -1473,58 +1485,64 @@
         <v>2934614924.6974</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>2738545986.0921</v>
+        <v>2739527199.0921</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>2624182658.4692</v>
+        <v>2624787607.4692</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>2027703771.8648</v>
+        <v>2027703771.8663</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>1249340329.182</v>
+        <v>1249340325.182</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>708613223.2008</v>
+        <v>708613221.1979</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>399368151.3318</v>
+        <v>399368151.3268</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>351902001.8156</v>
+        <v>353948001.8156</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>206081249.1376</v>
+        <v>206081249.1587</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>197969732.0624</v>
+        <v>198192456.99</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>299137709.4819</v>
+        <v>299137710.4555</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>639313462.3683</v>
+        <v>647167934.8093</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>726449256.5917</v>
+        <v>731763165.7931</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>698556302.1684</v>
+        <v>713989943.3935</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>434951067.4227</v>
+        <v>446835589.1455</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>83819183.1375</v>
+        <v>83811091.9157</v>
       </c>
       <c r="AT3" s="1" t="n">
-        <v>51726646.0201</v>
+        <v>51731596.2024</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>45510561.4512</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>45510561.39</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>30638701.41</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>9041415.49</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1534,34 +1552,34 @@
         <v>37</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>3490690493</v>
+        <v>3499761493</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>2397883672</v>
+        <v>2403227672</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>2946165904</v>
+        <v>2955220904</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>2117954701</v>
+        <v>2146534701</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>2073681346</v>
+        <v>2090851346</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>2254078927</v>
+        <v>2268008927</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>1804358560</v>
+        <v>1819616560</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>2238806381</v>
+        <v>2491678039</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>2930870939</v>
+        <v>3265947435</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>2100163605</v>
+        <v>2498048410</v>
       </c>
       <c r="X4" s="1" t="n">
         <v>2728461185</v>
@@ -1570,7 +1588,7 @@
         <v>3737862809</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>3692972312.0298</v>
+        <v>3692972311.0298</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>3290667056.1104</v>
@@ -1582,61 +1600,67 @@
         <v>2811066342.712</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>2925551097.3031</v>
+        <v>2925551097.2841</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>3733988776.902</v>
+        <v>3733988776.8926</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>3646491269.8744</v>
+        <v>3646491270.0121</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>3648008254.2323</v>
+        <v>3649386415.1479</v>
       </c>
       <c r="AH4" s="1" t="n">
-        <v>3506376986.0832</v>
+        <v>3506369808.9203</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>4180870255.5561</v>
+        <v>4180870255.5054</v>
       </c>
       <c r="AJ4" s="1" t="n">
-        <v>3726269130.6037</v>
+        <v>3726269125.6592</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>3763140537.9642</v>
+        <v>3847846099.5242</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>4112551137.7833</v>
+        <v>4112434372.3048</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>3766810177.3484</v>
+        <v>3799021810.081</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>3890663607.8742</v>
+        <v>3942541451.5529</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>3996736811.935</v>
+        <v>4072060279.5406</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>5565915223.7833</v>
+        <v>5650369590.6549</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>4983604299.5579</v>
+        <v>5059720815.1528</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>5112977183.7006</v>
+        <v>5347733583.0893</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>4878800064.0465</v>
+        <v>5102071128.5328</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>4385348365.3903</v>
+        <v>4767281750.1158</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>4880804978.6393</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+        <v>5291083674.3545</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>5714508043.6209</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>2991782088.77</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1683,6 +1707,8 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1793,8 +1819,16 @@
       <c r="AU6" s="1" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="1" t="str">
+        <f>Sum(AV2:AV5)</f>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <f>Sum(AW2:AW5)</f>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f>Sum(AX2:AX5)</f>
+      </c>
+      <c r="AY6" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1905,6 +1939,12 @@
       <c r="AU9" t="s">
         <v>34</v>
       </c>
+      <c r="AV9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1914,109 +1954,115 @@
         <v>35</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>13011800732.1601</v>
+        <v>13544024305.5558</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>12428659817.2632</v>
+        <v>12934615669.664</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>9441679939.15068</v>
+        <v>9827895961.62088</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>12106664111.334</v>
+        <v>12601606205.5492</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>7888900910.78183</v>
+        <v>8213079865.14605</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>11228154363.8193</v>
+        <v>11684687735.6459</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>8552366695.60504</v>
+        <v>8900327118.23722</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>8580852024.96446</v>
+        <v>12532105916.7561</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>8359959399.07253</v>
+        <v>11918446059.7402</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>8539147239.77736</v>
+        <v>11444268945.8183</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>9078652276.58707</v>
+        <v>9446372950.19719</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>10664207826.7576</v>
+        <v>11096261644.4144</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>10873070079.3064</v>
+        <v>11314158248.2321</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>11516099685.6459</v>
+        <v>11982326390.1129</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>14883917806.9343</v>
+        <v>15486861973.4713</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <v>12724574693.5316</v>
+        <v>13239105088.6424</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>15322212074.4041</v>
+        <v>15942912107.787</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>14669552570.3217</v>
+        <v>15262233222.8664</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>17439061021.9602</v>
+        <v>18145324652.0913</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>20883797494.1879</v>
+        <v>21727487821.8989</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>16753782423.8884</v>
+        <v>17429443300.8585</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>30136110523.2472</v>
+        <v>31357045239.4327</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>24805540599.107</v>
+        <v>25815243261.8514</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>23417855217.9453</v>
+        <v>24389176983.4641</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>23668038797.5391</v>
+        <v>24662565361.3092</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>21006440001.3079</v>
+        <v>21880123414.0256</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>24342411652.823</v>
+        <v>25355082186.9853</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>26380280502.6612</v>
+        <v>27515567745.2387</v>
       </c>
       <c r="AP10" s="1" t="n">
-        <v>28567618660.3458</v>
+        <v>29876818684.4253</v>
       </c>
       <c r="AQ10" s="1" t="n">
-        <v>30938166143.7244</v>
+        <v>32391024036.429</v>
       </c>
       <c r="AR10" s="1" t="n">
-        <v>38169560595.1045</v>
+        <v>39972325204.4619</v>
       </c>
       <c r="AS10" s="1" t="n">
-        <v>28868899170.5538</v>
+        <v>30255455226.1181</v>
       </c>
       <c r="AT10" s="1" t="n">
-        <v>29943453489.1408</v>
+        <v>31287843099.7884</v>
       </c>
       <c r="AU10" s="1" t="n">
-        <v>33530444807.7815</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+        <v>35145203311.6536</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>33023453529.0448</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>17687045916.093</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2026,109 +2072,115 @@
         <v>36</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>1278485642.77654</v>
+        <v>1330955972.85883</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>1225374405.27173</v>
+        <v>1275059278.63375</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>1144071719.8123</v>
+        <v>1190417943.71803</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>1402485376.36045</v>
+        <v>1484428115.61238</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>1627184294.25102</v>
+        <v>1693084685.50463</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>1745769968.69888</v>
+        <v>1816512958.33703</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>2056985925.19555</v>
+        <v>2140286444.47026</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>1735863904.79791</v>
+        <v>1895638419.89911</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>2391704353.15211</v>
+        <v>2549732156.33738</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>1719931001.97159</v>
+        <v>2591362169.9479</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>1629373359.94311</v>
+        <v>1695369308.59574</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>3006941771.75998</v>
+        <v>3128766167.25806</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>3107627623.58301</v>
+        <v>3233694846.36943</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>2780508907.51166</v>
+        <v>2893077184.20771</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>2168873833.11895</v>
+        <v>2256734424.8392</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>3486760881.50729</v>
+        <v>3627751405.53083</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>4102987201.92495</v>
+        <v>4269198471.15203</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>3726659779.57044</v>
+        <v>3878613839.86578</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>3498076871.43534</v>
+        <v>3640584287.17291</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>2675770052.89771</v>
+        <v>2783959051.73632</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>1634421645.46117</v>
+        <v>1700568392.49631</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>908713474.102324</v>
+        <v>945566418.528434</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>502924312.876178</v>
+        <v>523414969.413175</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>435186281.73365</v>
+        <v>455619873.108241</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>250017453.846564</v>
+        <v>260525456.558456</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>237454313.47685</v>
+        <v>247984350.393271</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>355851235.364855</v>
+        <v>371321337.511904</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>747180922.099244</v>
+        <v>789997898.173471</v>
       </c>
       <c r="AP11" s="1" t="n">
-        <v>829540758.733777</v>
+        <v>873863525.90377</v>
       </c>
       <c r="AQ11" s="1" t="n">
-        <v>782365662.997511</v>
+        <v>837160238.458041</v>
       </c>
       <c r="AR11" s="1" t="n">
-        <v>480721326.579181</v>
+        <v>517163367.39265</v>
       </c>
       <c r="AS11" s="1" t="n">
-        <v>89626812.7456164</v>
+        <v>93774702.0177314</v>
       </c>
       <c r="AT11" s="1" t="n">
-        <v>51726646.0201</v>
+        <v>54098140.5680191</v>
       </c>
       <c r="AU11" s="1" t="n">
-        <v>43407899.7593461</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+        <v>45510561.39</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>29841748.0448161</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>8617157.93961188</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2138,109 +2190,115 @@
         <v>37</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>6937857543.88565</v>
+        <v>7238493480.5623</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>4601729519.39737</v>
+        <v>4798985799.38703</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>5516067082.15828</v>
+        <v>5757162716.35276</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>3874404934.55937</v>
+        <v>4085880101.42983</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>3712520497.32747</v>
+        <v>3894860734.52267</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>3951777240.99071</v>
+        <v>4137116705.46685</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>3104985973.95686</v>
+        <v>3257855579.5882</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>3785350260.79388</v>
+        <v>4383328121.30145</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>4894371798.03646</v>
+        <v>5674269907.64289</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>3463963364.82374</v>
+        <v>4287034574.10249</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>4408456726.2333</v>
+        <v>4587016343.62631</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>5896393132.90885</v>
+        <v>6135281872.21928</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5735059850.19281</v>
+        <v>5967714193.11316</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>5014444610.04057</v>
+        <v>5217453270.36716</v>
       </c>
       <c r="AB12" s="1" t="n">
-        <v>5025598840.70086</v>
+        <v>5229184720.68615</v>
       </c>
       <c r="AC12" s="1" t="n">
-        <v>4058209154.9008</v>
+        <v>4222306738.52956</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>4090314749.5748</v>
+        <v>4256012660.02226</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>5081275196.00472</v>
+        <v>5286569358.66846</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>4860830373.93421</v>
+        <v>5057688775.70983</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>4813933561.12438</v>
+        <v>5010466757.86549</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>4587139556.24369</v>
+        <v>4772776119.73706</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>5361476487.18216</v>
+        <v>5578911591.78109</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>4692490715.27391</v>
+        <v>4883676963.10411</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>4653759086.07636</v>
+        <v>4953143237.45955</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>4989340702.19963</v>
+        <v>5198890470.55577</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>4518091302.85607</v>
+        <v>4753450106.07715</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>4628294619.38796</v>
+        <v>4893899076.64124</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>4671081828.10207</v>
+        <v>4970763984.19009</v>
       </c>
       <c r="AP12" s="1" t="n">
-        <v>6355782590.30437</v>
+        <v>6747609232.00829</v>
       </c>
       <c r="AQ12" s="1" t="n">
-        <v>5581512713.91856</v>
+        <v>5932572472.95704</v>
       </c>
       <c r="AR12" s="1" t="n">
-        <v>5651019985.0342</v>
+        <v>6189417259.79813</v>
       </c>
       <c r="AS12" s="1" t="n">
-        <v>5216840386.60078</v>
+        <v>5708614323.18135</v>
       </c>
       <c r="AT12" s="1" t="n">
-        <v>4385348365.3903</v>
+        <v>4985368656.24788</v>
       </c>
       <c r="AU12" s="1" t="n">
-        <v>4655303878.966</v>
-      </c>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+        <v>5291083674.3545</v>
+      </c>
+      <c r="AV12" s="1" t="n">
+        <v>5565866090.59584</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>2851396311.60043</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2287,6 +2345,8 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2328,6 +2388,8 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3967,6 +4029,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -3981,109 +4049,115 @@
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>17039000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>7973000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>7960480</v>
-      </c>
-      <c r="R2" s="2" t="n">
+      <c r="O2" s="12" t="n">
+        <v>17828000</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>8164000</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>8028480</v>
+      </c>
+      <c r="R2" s="12" t="n">
         <v>8852351</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="12" t="n">
         <v>10847718</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="12" t="n">
         <v>8960308</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="12" t="n">
         <v>4793648</v>
       </c>
-      <c r="V2" s="2" t="n">
-        <v>2219646</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>7127453</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>2075384</v>
-      </c>
-      <c r="Y2" s="2" t="n">
+      <c r="V2" s="12" t="n">
+        <v>2306089</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>7701599</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>3025558</v>
+      </c>
+      <c r="Y2" s="12" t="n">
         <v>4027864</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="12" t="n">
         <v>17858716</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="12" t="n">
         <v>16735278</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="12" t="n">
         <v>141113735</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="12" t="n">
         <v>62486459</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="12" t="n">
         <v>87201065</v>
       </c>
-      <c r="AE2" s="2" t="n">
-        <v>41866388.6328</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>7983287.8111</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>19071299.4794</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>16126534.987</v>
-      </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AE2" s="12" t="n">
+        <v>41866388.63</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>7983287.809</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>19071299.4846</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>16126535.0308</v>
+      </c>
+      <c r="AI2" s="12" t="n">
         <v>12870923.2601</v>
       </c>
-      <c r="AJ2" s="2" t="n">
-        <v>13858081.4879</v>
-      </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AJ2" s="12" t="n">
+        <v>13858081.4868</v>
+      </c>
+      <c r="AK2" s="12" t="n">
         <v>15737768.1748</v>
       </c>
-      <c r="AL2" s="2" t="n">
-        <v>11142288.0172</v>
-      </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AL2" s="12" t="n">
+        <v>11142180.3772</v>
+      </c>
+      <c r="AM2" s="12" t="n">
         <v>12929291.4684</v>
       </c>
-      <c r="AN2" s="2" t="n">
-        <v>16949457.2496</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>27068447.0089</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>21365372.295</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>19979049.5988</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>22462481.7777</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>17992591.4095</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>17490848.1269</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>19298521.4379</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>10974090.944</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="AN2" s="12" t="n">
+        <v>16943747.3337</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>26690886.2672</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>21273496.7347</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>19979049.5782</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>23093847.7484</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>18575963.4375</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>17490848.1324</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>18381735.499</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>83984992.019</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>94133040.52</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>38356750.77</v>
+      </c>
+      <c r="AY2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4098,109 +4172,115 @@
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>96186000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>68376000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>175234855</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>112857959</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>81168656</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>81192972</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>99381537</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>91740151</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>108464442</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>112139922</v>
-      </c>
-      <c r="Y3" s="2" t="n">
+      <c r="O3" s="12" t="n">
+        <v>104426000</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>70978000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>177184855</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>113353959</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>82447656</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>84166972</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>100032537</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>113002458</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>137461486</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>158850646</v>
+      </c>
+      <c r="Y3" s="12" t="n">
         <v>65831080</v>
       </c>
-      <c r="Z3" s="2" t="n">
+      <c r="Z3" s="12" t="n">
         <v>107493408</v>
       </c>
-      <c r="AA3" s="2" t="n">
+      <c r="AA3" s="12" t="n">
         <v>140421826</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="12" t="n">
         <v>171196518</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AC3" s="12" t="n">
         <v>143866947</v>
       </c>
-      <c r="AD3" s="2" t="n">
-        <v>224996916.7793</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>239646309.363</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>218840887.4896</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>335604048.2023</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>395633871.5518</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>343451927.834</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
+      <c r="AD3" s="12" t="n">
+        <v>223091196.7793</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>239646309.2816</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>218840886.5495</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>335604048.1476</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>395633867.7776</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>343451927.8346</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
         <v>209898600.843</v>
       </c>
-      <c r="AK3" s="2" t="n">
-        <v>281926353.7913</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>219716147.4594</v>
-      </c>
-      <c r="AM3" s="2" t="n">
+      <c r="AK3" s="12" t="n">
+        <v>281926353.8444</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>220104794.2794</v>
+      </c>
+      <c r="AM3" s="12" t="n">
         <v>181749946.6075</v>
       </c>
-      <c r="AN3" s="2" t="n">
-        <v>179222690.0634</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>285322500.141</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>234856888.1826</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>264015390.0953</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>259967124.5785</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>313032177.0361</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>320109645.855</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>315960782.2024</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>71474451.4268</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="AN3" s="12" t="n">
+        <v>179503548.9968</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>300940645.3871</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>274189056.41</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>347847182.6919</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>335660976.3571</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>520191696.7569</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>484256352.9265</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>619184301.4783</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>953837882.5366</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>898634833.77</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>419587228.99</v>
+      </c>
+      <c r="AY3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4215,109 +4295,115 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>46812000</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>115552000</v>
-      </c>
-      <c r="Q4" s="2" t="n">
+      <c r="O4" s="12" t="n">
+        <v>46936000</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>115595000</v>
+      </c>
+      <c r="Q4" s="12" t="n">
         <v>71009946</v>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>62557418</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>64797909</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>67961207</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>71446930</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>58148939</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>63720593</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>52534494</v>
-      </c>
-      <c r="Y4" s="2" t="n">
+      <c r="R4" s="12" t="n">
+        <v>62645418</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>65129909</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>68374207</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>71701930</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>58439785</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>79801236</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>70471696</v>
+      </c>
+      <c r="Y4" s="12" t="n">
         <v>62388968</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="12" t="n">
         <v>76420916</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="12" t="n">
         <v>111124824</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="12" t="n">
         <v>125805033</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="12" t="n">
         <v>160196579</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AD4" s="12" t="n">
         <v>213782631</v>
       </c>
-      <c r="AE4" s="2" t="n">
+      <c r="AE4" s="12" t="n">
         <v>299197006</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" s="12" t="n">
         <v>363504319.1399</v>
       </c>
-      <c r="AG4" s="2" t="n">
+      <c r="AG4" s="12" t="n">
         <v>380544997</v>
       </c>
-      <c r="AH4" s="2" t="n">
-        <v>627653328.973</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>1093652512.9593</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>1210002344.4036</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>1450553632.0546</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>1451161320.0966</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>1510630512.8317</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>1774818399.3669</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>2008136400.8011</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>2606635882.7563</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>4430399799.3103</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>4875010583.8242</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>4495864980.8677</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>4060835660.2935</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>4731771003.3504</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>1733844054.2554</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AH4" s="12" t="n">
+        <v>627653328.869</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>1091902382.9893</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>1209071842.1571</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>1448155298.9258</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>1459873431.0666</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>1510300316.4786</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>1776621425.6406</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>2007131448.2606</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>2607598291.0049</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>4431070388.7343</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>4875853469.5004</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>4494851002.1243</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>4058865645.1578</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>4732538296.37</v>
+      </c>
+      <c r="AV4" s="12" t="n">
+        <v>6034833690.7299</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>6691575277.28</v>
+      </c>
+      <c r="AX4" s="12" t="n">
+        <v>2440201133.43</v>
+      </c>
+      <c r="AY4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4332,109 +4418,115 @@
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>10520620493</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>9320688712</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>8345021661</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>9304538210</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>7230097983</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>9472779438</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>7760321717</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>8145222291</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>9124159956</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>8121958513</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="O5" s="12" t="n">
+        <v>10522521493</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>9324205712</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>8353975661</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>9347877210</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>7248169983</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>9484538438</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>7775939793</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>10476108627</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>11302605837</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>10411264984</v>
+      </c>
+      <c r="Y5" s="12" t="n">
         <v>9152428657</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>12161819593</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>12393898479.9302</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>12213194832.0506</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>14456188425.2134</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>13481692285.8513</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>16213340057.0253</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>16605997092.7262</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>18517404668.6622</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>20343254096.865</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>15965862658.6105</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>26807819291.9802</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>21907505173.3287</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>21272393865.2491</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>21998976812.2415</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>19395404717.8379</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>22211811851.6049</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>24211484181.6165</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>26469275662.9309</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>28046126802.8596</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>35162970911.5986</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>27525911700.4547</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>29292274415.9427</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>18898515826.5006</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="Z5" s="12" t="n">
+        <v>12161819588</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>12393898433.9298</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>12213194879.0506</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>14456188433.2681</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>13481692276.8459</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>16213340089.7949</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>16605997153.1747</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>18517405025.1443</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>20342946070.0927</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>15965855491.4292</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>26807822297.9515</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>21909093110.3329</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>21353594262.5979</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>21998883677.7849</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>19398395703.9341</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>22212282767.1485</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>24220953441.582</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>26475612129.6516</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>28061539305.4378</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>35204095176.5566</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>27627379656.385</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>29345132771.6431</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>33367224686.0951</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>31905821912.5409</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>18656916360.35</v>
+      </c>
+      <c r="AY5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4449,107 +4541,113 @@
       <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="n">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="n">
         <v>181000</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="12" t="n">
         <v>855084</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="12" t="n">
         <v>13964534</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="12" t="n">
         <v>2114380</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="12" t="n">
         <v>23462815</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="12" t="n">
         <v>33684516</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="12" t="n">
         <v>43190615</v>
       </c>
-      <c r="W6" s="2" t="n">
-        <v>65760789</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>31423714</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="W6" s="12" t="n">
+        <v>65846767</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>32976050</v>
+      </c>
+      <c r="Y6" s="12" t="n">
         <v>71145194</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="12" t="n">
         <v>40734660</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AA6" s="12" t="n">
         <v>33370981</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="12" t="n">
         <v>21328890</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AC6" s="12" t="n">
         <v>20083296.9502</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" s="12" t="n">
         <v>34671062.5</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AE6" s="12" t="n">
         <v>25154120.4687</v>
       </c>
-      <c r="AF6" s="2" t="n">
-        <v>56169369.9423</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>100460480.3654</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>118826683.0156</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>146351910.3807</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>147992944.8186</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>167794608.5684</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>96864906.4386</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>123139809.9204</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>111813808.3908</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>120320024.2088</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>133575040.2499</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>126061403.6826</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>102234664.097</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>93442045.3948</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>36796386.8836</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>24169778.1862</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>-2235156.064</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="AF6" s="12" t="n">
+        <v>57150582.9409</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>101065429.3636</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>120002305.8802</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>146351910.3823</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>147992944.8167</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>167880119.5714</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>103795695.2686</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>123272944.8904</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>112641299.4093</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>120772361.465</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>136024725.6634</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>126124923.0039</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>102938034.9561</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>93442045.408</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>38687335.3968</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>22920379.8815</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>41916296.0175</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>60359163.63</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>3612779.05</v>
+      </c>
+      <c r="AY6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4564,107 +4662,115 @@
       <c r="N7" t="s">
         <v>257</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="2" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="2" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="2" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="2" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="2" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="2" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="2" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="2" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="2" t="str">
+      <c r="AT7" s="12" t="str">
         <f>Sum(AT2:AT6)</f>
       </c>
-      <c r="AU7" s="2" t="str">
+      <c r="AU7" s="12" t="str">
         <f>Sum(AU2:AU6)</f>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AV7" s="12" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="12" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="12" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4781,6 +4887,12 @@
       <c r="AV10" t="s">
         <v>34</v>
       </c>
+      <c r="AW10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4795,109 +4907,115 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>33865550.3624072</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>15300821.2560844</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>14904300.4083925</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>16193732.7463415</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>19420715.4835583</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>15708918.087351</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>8249031.05959514</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>3752954.09030286</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>11902402.2828288</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>3423092.43281137</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>6507940.90118345</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>28171716.2361936</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>25989315.0639036</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>215034519.083143</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>92947316.0852668</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>125888227.866828</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>58534854.2003027</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>10863793.3215122</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>25422342.9919404</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>21280672.2431342</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>16838098.5404918</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>17771366.6086841</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>19818571.4587443</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>13779321.7065914</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>15685796.4831682</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>20329985.2612843</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>32200354.5598052</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>24970221.2014037</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>22814306.4537313</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>25157420.2308796</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>19885966.6266004</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>18702746.926799</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>19298521.4379</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>10467070.158163</v>
-      </c>
-      <c r="AW11" s="2"/>
+      <c r="O11" s="12" t="n">
+        <v>36873330.3768208</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>16302625.2246798</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>15640545.0646419</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>16850249.2808163</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>20207247.6258074</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>16344662.2593158</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>8582584.49977055</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>4056842.25879391</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>13380788.3672912</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>5192322.01426888</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>6771537.78088438</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>29313075.9834456</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>27043624.3857038</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>223740143.142811</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>96712590.9783283</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>130978639.23099</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>60906090.5496086</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>11302713.3272781</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>26451920.5447438</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>22141110.4496869</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>17519553.9895689</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>18492085.7911697</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>20626039.959566</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>14342781.3790959</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>16345056.0229684</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>21200525.1844036</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>33131548.5868478</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>25968557.4690369</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>23858761.3106895</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>27077763.8632777</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>21499647.8285709</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>19570190.9396786</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>19222637.3030978</v>
+      </c>
+      <c r="AV11" s="12" t="n">
+        <v>83984992.019</v>
+      </c>
+      <c r="AW11" s="12" t="n">
+        <v>91684514.9635964</v>
+      </c>
+      <c r="AX11" s="12" t="n">
+        <v>36556906.3606234</v>
+      </c>
+      <c r="AY11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4912,109 +5030,115 @@
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>191172711.259962</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>131218983.344541</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>328089879.120493</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>206452684.303138</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>145316588.646461</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>142344855.37959</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>171018269.481469</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>155113281.550505</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>181128857.961821</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>184961105.228843</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>106365254.164758</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>169568393.799273</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>218070299.02716</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>260875817.062306</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>213999109.743622</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>324817857.773255</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>335057840.819209</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>297802387.717715</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>447365489.283952</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>522080828.619612</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>449313331.135956</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>269170374.664615</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>355029857.261644</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>271716139.028397</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>220498755.11583</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>214968219.561286</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>339416800.136685</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>274482857.945109</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>301482209.569036</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>291156705.83326</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>345972810.915119</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>342289273.328361</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>315960782.2024</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>68172215.9419103</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="12" t="n">
+        <v>215982409.576503</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>141735391.13147</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>345179624.212745</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>215766689.110885</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>153584394.520524</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>153530518.228759</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>179099028.866726</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>198792478.070874</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>238826125.953762</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>272612095.423929</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>110673460.021595</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>176438352.926578</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>226916763.372479</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>271437315.743013</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>222668165.602276</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>335089730.596361</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>348630973.212858</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>309834226.716451</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>465483310.314703</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>543190037.250434</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>467497511.322513</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>280086600.582655</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>369494846.757281</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>283330087.825561</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>229766114.154956</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>224600227.815452</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>373559330.873655</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>334702581.223983</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>415395280.539143</v>
+      </c>
+      <c r="AR12" s="12" t="n">
+        <v>393565799.642223</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>602065046.114521</v>
+      </c>
+      <c r="AT12" s="12" t="n">
+        <v>541825600.38177</v>
+      </c>
+      <c r="AU12" s="12" t="n">
+        <v>647509874.774167</v>
+      </c>
+      <c r="AV12" s="12" t="n">
+        <v>953837882.5366</v>
+      </c>
+      <c r="AW12" s="12" t="n">
+        <v>875260146.792871</v>
+      </c>
+      <c r="AX12" s="12" t="n">
+        <v>399898602.785141</v>
+      </c>
+      <c r="AY12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5029,109 +5153,115 @@
       <c r="N13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>93040327.6932335</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>221753480.21862</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>132950973.706074</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>114437182.664037</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>116007970.950065</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>119147358.983698</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>122947689.251009</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>98317613.9198869</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>106409418.846593</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>86649231.5990556</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>100803730.371687</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>120552247.992632</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>172573055.694494</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>191706532.106134</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>238289099.788666</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>308628301.332078</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>418317741.159463</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>494662836.672644</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>507272482.824295</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>828255095.527578</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>1430746529.22157</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>1551686305.10212</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>1826682188.49783</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>1794606156.91371</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>1832694610.02215</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>2128801611.1216</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>2388859031.66094</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>3046437650.8512</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>5059124471.07022</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>5459890456.49474</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>4968968556.69335</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>4342201196.57805</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>4731771003.3504</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>1653737649.14236</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="12" t="n">
+        <v>97076881.0055229</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>230830715.684329</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>138336803.535761</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>119244131.824522</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>121324706.174082</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>124722645.768823</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>128375690.710213</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>102806521.943789</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>138646981.018391</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>120940249.211439</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>104886672.917056</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>125436348.135695</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>179573832.008255</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>199467727.868631</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>247942137.687054</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>321107983.022924</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>435263717.17072</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>514648251.542913</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>527816472.730249</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>861743806.221269</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>1486268107.07683</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>1613373413.49545</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>1897963467.9795</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>1879223343.55538</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>1909303641.63292</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>2222962048.22004</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>2491463656.63985</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>3183095234.44115</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>5291535532.85294</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>5716986199.85154</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>5202298869.32729</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>4541390736.05578</v>
+      </c>
+      <c r="AU13" s="12" t="n">
+        <v>4949035807.80444</v>
+      </c>
+      <c r="AV13" s="12" t="n">
+        <v>6034833690.7299</v>
+      </c>
+      <c r="AW13" s="12" t="n">
+        <v>6517518506.26199</v>
+      </c>
+      <c r="AX13" s="12" t="n">
+        <v>2325697629.36381</v>
+      </c>
+      <c r="AY13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -5146,109 +5276,115 @@
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>20910065329.5067</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>17887143103.7144</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>15624272625.531</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>17020925300.0545</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>12944075043.8103</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>16607366203.381</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>13354158435.4929</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>13771856103.8267</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>15236778452.161</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>13396178598.9765</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14787854009.4834</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>19184992386.3381</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>19247300968.9437</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>18610934486.1344</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>21503281454.0905</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>19462908515.0704</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>22668434687.8293</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>22597722214.4208</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>24683992473.3906</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>26845080058.6219</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>20886984041.2329</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>34377888817.6626</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>27588121259.509</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>26306909145.2411</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>26689124764.3486</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>23263771001.2569</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>26422949820.5862</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>28296540181.0823</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>30225570220.2505</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>31410963615.2733</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>38863199309.4096</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>29433115920.2777</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>29292274415.9427</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>18025373769.049</v>
-      </c>
-      <c r="AW14" s="2"/>
+      <c r="O14" s="12" t="n">
+        <v>21763541138.0181</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>18619430578.2159</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>16274653831.7081</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>17793472178.7423</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>13501970246.6846</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>17300920621.7698</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>13922102819.9298</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>18429436238.4665</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>19637191796.6395</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>17867329058.9075</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>15386819524.6226</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>19962260538.7757</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>20028106728.8969</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>19364394050.4433</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>22374374567.333</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>20249909894.4747</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>23586728923.4745</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>23510717617.4124</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>25683668111.6295</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>27930080141.1897</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>21732292363.118</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>35772090839.5828</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>28714225864.3241</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>27487432782.2831</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>27810726290.3754</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>24271854894.8331</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>27572232647.4019</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>29566517871.8189</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>31616884871.4906</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>32902431124.9898</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>40744893311.5105</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>30911771170.0272</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>30687572667.5119</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>33367224686.0951</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>31075909058.145</v>
+      </c>
+      <c r="AX14" s="12" t="n">
+        <v>17781462993.3863</v>
+      </c>
+      <c r="AY14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5263,107 +5399,113 @@
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="n">
-        <v>347353.398639316</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>1600962.3553366</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>25545522.485857</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>3785383.46997275</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>41134237.677284</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>57965169.472483</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>73026237.1688756</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>109816419.008898</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>51829578.335493</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>114951427.842457</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>64257994.9475553</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>51823993.5542476</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>32501780.239374</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>29873489.0652791</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>50053042.5446644</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>35168850.7715869</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>76436230.3466326</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>133915404.754823</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>156804403.241753</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>191461625.462314</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>189783620.493679</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>211303750.529869</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>119789822.865462</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>149393027.615491</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>134114800.4398</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>143131500.632224</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>156112341.782454</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>143950966.304979</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>114500277.94366</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>103275028.813312</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>39345920.0326685</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>24169778.1862</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>-2131888.23162823</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12" t="n">
+        <v>361437.428425654</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>1665817.17038023</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>26581173.6329067</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>3938690.16829666</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>42798951.4230771</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>60309018.2891762</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>75980377.2167067</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>114402431.741426</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>56591964.3115853</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>119607407.077138</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>66861368.0703486</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>53926339.0513416</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>33817607.4899958</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>31083657.3959328</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>52076985.3779036</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>36593534.5535057</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>80913612.4015973</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>140177899.754818</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>164758536.389625</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>199210277.584961</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>197480310.290064</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>220024975.348223</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>133611098.988769</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>155840186.237152</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>140940174.44306</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>149915417.63614</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>166045382.64921</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>150616996.14393</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>120695859.497221</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>108148956.871747</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>43286553.9127447</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>23968909.2107361</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>41916296.0175</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>58789141.5219836</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>3443253.7371171</v>
+      </c>
+      <c r="AY15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5372,41 +5514,43 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5543,6 +5687,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -5555,94 +5705,112 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>7357000</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>902000</v>
+      </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="V2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>583746992</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>837286703</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>62165647</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>1667195712</v>
+        <v>1616998464</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>1572119200</v>
+        <v>2697976663</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>2086776604.9004</v>
+        <v>4435139448</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2718922825.9402</v>
+        <v>3443823451</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>2346290592.8694</v>
+        <v>5756277311</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>2642218528.2236</v>
+        <v>4538650462</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>2453724999.2805</v>
+        <v>5911155456</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>3202886354.6452</v>
+        <v>3259575704.61</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>2861249723.354</v>
+        <v>3456928050.8257</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>3312262884.2355</v>
+        <v>4794309221.59</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>4238616460.4125</v>
+        <v>5086650778.3821</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>4425453498.0671</v>
+        <v>15270438050.1276</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>4774888332.263</v>
+        <v>11187822075.1437</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>4951947482.5283</v>
+        <v>10667978249.56</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>4792567355.8634</v>
+        <v>10958532260.9282</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>5096148423.2276</v>
+        <v>8964240522.9323</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>6153491832.0523</v>
+        <v>9001562044.2521</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>6472698753.751</v>
+        <v>10940631653.3326</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>10188416282.5705</v>
+        <v>10728972065.393</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>9628719922.0376</v>
+        <v>13463133081.1146</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>9686923191.692</v>
+        <v>20266957387.4188</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>10243079211.1694</v>
+        <v>12787560373.1325</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>10199925090.6668</v>
+        <v>15650335649.7806</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>11440838221.0279</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>17591415150.9776</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>11879662017.28</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>8553514437.19</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5654,11 +5822,9 @@
       <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -5670,79 +5836,55 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
-        <v>42608597</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>79793254</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>32403293</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>177010212</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>73103772</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
       <c r="AE3" s="3" t="n">
-        <v>196581720</v>
+        <v>7691886</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>143628794.21</v>
+        <v>218594699.58</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>156354933.1983</v>
+        <v>3912092207.03</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>243207270.7395</v>
+        <v>5685520687.6235</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>20495863.5518</v>
+        <v>6028533334.204</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>34008317.3251</v>
+        <v>7931174.4824</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>5372142.8962</v>
+        <v>1819345.7709</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>16910367.747</v>
+        <v>-173519.7795</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>53063710.23</v>
+        <v>371282.6702</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>53108763.7401</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>89077679.8018</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>157381974.3137</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>80938967.2787</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>77585967.1931</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>103358499.5228</v>
-      </c>
+        <v>-67390.9</v>
+      </c>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
       <c r="AT3" s="3" t="n">
-        <v>95969336.6816</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>41928674.1291</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>43179483.2368</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>70431677.8448</v>
-      </c>
+        <v>-2164.04</v>
+      </c>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5754,95 +5896,119 @@
       <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>2625000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>5364000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>10972000</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>42776000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>19208000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>14868000</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>3742076</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>779297861</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>349555443</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>317524376</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>46616562</v>
+        <v>1667195712</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>58743049</v>
+        <v>1572119200</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>65982705.0298</v>
+        <v>2086776603.9</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>174022821</v>
+        <v>2718922824.9402</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>110534832</v>
+        <v>2346290592.8697</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>140213100.1094</v>
+        <v>2642218528.2238</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>59198494.2425</v>
+        <v>2453724998.3075</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>25165281.6259</v>
+        <v>3202886352.6307</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>30376675.1304</v>
+        <v>2861249725.1939</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>32101743.8946</v>
+        <v>3312060341.1848</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>41409123.5261</v>
+        <v>4236859152.2956</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>65650961.8043</v>
+        <v>4424522995.8196</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>29613076.7526</v>
+        <v>4772575509.1658</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>13200990.7966</v>
+        <v>4971147367.9373</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>17506633.5072</v>
+        <v>4791133612.0942</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>5576212.1403</v>
+        <v>5043099309.9133</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>13082959.8042</v>
+        <v>6152383375.9916</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>14559790.6104</v>
+        <v>6490750320.2916</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>3169753.1363</v>
+        <v>10228432056.6647</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>-2969035.9445</v>
+        <v>9679880850.6415</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>1117704.6305</v>
+        <v>9777907133.6996</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>-747226.0256</v>
+        <v>10354145772.7022</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>1198822.3339</v>
+        <v>10265070153.331</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>2905045.7204</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>11467537350.4014</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>11235102119.5709</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>5052618468.86</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5854,95 +6020,113 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>255000</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3" t="n">
+        <v>945000</v>
+      </c>
       <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="U5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>12526000</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>624858591</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>608172894</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>1374801138</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>1616998464</v>
+        <v>4005329951</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>2697976663</v>
+        <v>6677452016</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>4435139448</v>
+        <v>4319774564</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>3443823452</v>
+        <v>5267270472.1104</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>5756277311</v>
+        <v>5130624406.3486</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>4538650462</v>
+        <v>5462556047.3018</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>5911155459</v>
+        <v>6091538284.8352</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>3259575704.61</v>
+        <v>4657659438.9289</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>3456928050.8257</v>
+        <v>2973877189.0207</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>4794309221.59</v>
+        <v>4386736949.9467</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>5086650779.3947</v>
+        <v>5479095339.4926</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>15289390780.2664</v>
+        <v>7581428872.1536</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>11206652460.1353</v>
+        <v>6763489180.6834</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>10678338421.22</v>
+        <v>6147954275.0357</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>7274551809.9082</v>
+        <v>6552574804.5961</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>5190649825.2102</v>
+        <v>7155598438.2935</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>5615949372.3369</v>
+        <v>8202056308.259</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>8060537642.4228</v>
+        <v>8094565621.5037</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>10726923898.8154</v>
+        <v>6148298108.0356</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>13462761909.4059</v>
+        <v>6474099374.4362</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>19720359224.2609</v>
+        <v>6746942910.2704</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>12736423770.1615</v>
+        <v>6270744568.147</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>15612966018.898</v>
+        <v>7547670482.652</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>17528180041.2796</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>7159694395.4955</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>10695061062.28</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>5509204924.25</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5954,95 +6138,113 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>28000</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="T6" s="3" t="n">
+        <v>475000</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>278000</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>256000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>2635302</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>5270145</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>59374387</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>4005329951</v>
+        <v>42608597</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>6677452016</v>
+        <v>79793254</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>4319774557</v>
+        <v>32403293</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>5267270468.1104</v>
+        <v>177010212</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>5130624406.3486</v>
+        <v>73103772</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>5462556047.3018</v>
+        <v>196581720</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>6091538284.8327</v>
+        <v>143628794.21</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>4657659438.9289</v>
+        <v>156354933.1983</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>2973877189.0205</v>
+        <v>243207270.7395</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>4386736949.9321</v>
+        <v>20495863.5518</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>5479095335.5009</v>
+        <v>34008317.3251</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>7580586843.098</v>
+        <v>5372142.8962</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>6854719630.6743</v>
+        <v>16910367.747</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>6091895031.0357</v>
+        <v>53809081.3</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>10322279061.4678</v>
+        <v>53108763.7401</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>11015888196.5484</v>
+        <v>88825791.0961</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>11570884116.7565</v>
+        <v>157381973.6739</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>10913180367.195</v>
+        <v>80938967.5183</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>6074035740.262</v>
+        <v>77585967.3932</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>6400522803.6655</v>
+        <v>103358499.1749</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>7056305133.2614</v>
+        <v>95969336.2946</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>6109320634.3225</v>
+        <v>41928673.9632</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>7286909659.2551</v>
+        <v>43280319.6154</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>6848820333.0683</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>70432758.7821</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>84086485.34</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>28039430.99</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6054,11 +6256,9 @@
       <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -6067,82 +6267,94 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="n">
+        <v>5206027</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>5367479</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>7381026</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>257328243</v>
+        <v>46616562</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>1470475460</v>
+        <v>58743049</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>1356399766</v>
+        <v>65982705.0298</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>395984997</v>
+        <v>174022821</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>678680532</v>
+        <v>110534832</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>746852966</v>
+        <v>140213100.1094</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>1682374888.83</v>
+        <v>59198494.2425</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>1828612103.7904</v>
+        <v>25165281.6259</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>1722360493.6623</v>
+        <v>30376675.1303</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>2052820904.8849</v>
+        <v>32101743.8959</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>2673368525.4409</v>
+        <v>41409123.5261</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>1020734586.6304</v>
+        <v>65650961.8043</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>936718114.1251</v>
+        <v>29613076.7638</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>1261465628.7801</v>
+        <v>13220277.7966</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>1361449328.264</v>
+        <v>17506633.5072</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>77370557.0903</v>
+        <v>5488520.0906</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>1142257912.731</v>
+        <v>13082959.8049</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>1665810518.1036</v>
+        <v>14633790.5696</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>4239599519.7901</v>
+        <v>3169753.12</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>3713743320.2584</v>
+        <v>-2969035.9441</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>3522630491.776</v>
+        <v>-881633.3693</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>2830869196.9417</v>
+        <v>-747226.0256</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>1236349426.1606</v>
+        <v>1198822.3395</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>4189786665.016</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>2905045.7195</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>1567636.04</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>750203.46</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6154,11 +6366,9 @@
       <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -6167,56 +6377,94 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="W8" s="3" t="n">
+        <v>187940844</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>189079678</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>240376759</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>257328243</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>1470475460</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>1356399765</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>395984997</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>678680532</v>
+      </c>
       <c r="AE8" s="3" t="n">
-        <v>7691886</v>
+        <v>746852966</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>218594699.58</v>
+        <v>1682374888.92</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>3912092207.03</v>
+        <v>1829593317.0102</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>5685520688.6132</v>
+        <v>1722965742.6662</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>6028533334.2041</v>
+        <v>2054199059.322</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>7931174.4824</v>
+        <v>2673368533.4296</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>1819345.7709</v>
+        <v>1039413698.6829</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>-173519.7795</v>
+        <v>1049290037.1251</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>371282.6702</v>
+        <v>1294009849.2899</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-67390.9</v>
-      </c>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
+        <v>1449380519.264</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>223573171.7487</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>1141869067.7968</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>1638715358.1792</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>4214175723.0534</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>3681582864.5767</v>
+      </c>
       <c r="AT8" s="3" t="n">
-        <v>-2164.04</v>
-      </c>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>3444262914.0092</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>2773047676.0792</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>1230602057.1534</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>4189812846.022</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>5755044907.23</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>2414546787.84</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6228,21 +6476,19 @@
       <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
-        <v>10680657493</v>
+        <v>10681446493</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>9512770712</v>
+        <v>9512857712</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>8600082026</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>9502770472</v>
+        <v>9502972472</v>
       </c>
       <c r="T9" s="3" t="n">
         <v>7389026646</v>
@@ -6254,13 +6500,13 @@
         <v>7969628348</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>8340521642</v>
+        <v>8509361957</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>9369233233</v>
+        <v>9598684583</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>8320132027</v>
+        <v>8614965601</v>
       </c>
       <c r="Z9" s="3" t="n">
         <v>1719744234</v>
@@ -6287,34 +6533,34 @@
         <v>210148994.58</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>2379565457.94</v>
+        <v>2379565457.9403</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>874233650.9562</v>
+        <v>873925593.9551</v>
       </c>
       <c r="AJ9" s="3" t="n">
         <v>1110216.962</v>
       </c>
       <c r="AK9" s="3" t="n">
-        <v>563105</v>
+        <v>-2300</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>4189074</v>
+        <v>3265924</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>995980</v>
+        <v>19980</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>6030811.2188</v>
+        <v>4966974</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>3498178.89</v>
+        <v>3279971.24</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>-388944.2299</v>
+        <v>-517621.2499</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>191325.7388</v>
+        <v>-196700</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
@@ -6334,7 +6580,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6448,8 +6700,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6569,6 +6829,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6581,94 +6847,112 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>15216350.2121534</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>1801196.46651901</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="V14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>1026920238.37303</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>1454705208.04706</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>106685793.975646</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>2693738210.72471</v>
+        <v>2718454791.5739</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>2479982099.04181</v>
+        <v>4428425589.16789</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>3240692783.99436</v>
+        <v>7167030349.29744</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>4143198833.90679</v>
+        <v>5460287419.11842</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>3490058755.98296</v>
+        <v>8909202122.2802</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>3814451212.8948</v>
+        <v>6817190380.16182</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>3430638270.24233</v>
+        <v>8599389181.56335</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>4358542020.84223</v>
+        <v>4614896849.42002</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>3814091007.86604</v>
+        <v>4794764310.79995</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>4370881958.17239</v>
+        <v>6582401600.99109</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>5545075531.37427</v>
+        <v>6923812001.44421</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>5675125852.9186</v>
+        <v>20376720310.1435</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>6013016875.67151</v>
+        <v>14662845622.0325</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>6123919730.90012</v>
+        <v>13732364277.9547</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>5814335329.95073</v>
+        <v>13853645744.7922</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>6112562827.69639</v>
+        <v>11216326779.5836</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>7320132503.6416</v>
+        <v>11173690046.8967</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>7564797721.26585</v>
+        <v>13355229061.7886</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>11634269698.3299</v>
+        <v>12812420461.5107</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>10783926538.5459</v>
+        <v>15785656093.4312</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>10706286099.662</v>
+        <v>23456788545.7035</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>10952797534.3304</v>
+        <v>14307768054.5004</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>10199925090.6668</v>
+        <v>16366285211.9617</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>10912252954.5981</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>17591415150.9776</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>11570656211.3476</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>8152151057.04833</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6680,11 +6964,9 @@
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -6696,79 +6978,55 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
-        <v>68843990.5514046</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>125872034.095313</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>50321207.1460649</v>
-      </c>
-      <c r="AC15" s="3" t="n">
-        <v>269734946.851384</v>
-      </c>
-      <c r="AD15" s="3" t="n">
-        <v>108740349.698953</v>
-      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
       <c r="AE15" s="3" t="n">
-        <v>283796125.217198</v>
+        <v>11553445.6075726</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>200812413.074028</v>
+        <v>318005660.434342</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>212770442.361281</v>
+        <v>5538727624.98807</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>324199127.676212</v>
+        <v>7885825588.65251</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>27046464.4102072</v>
+        <v>8276943692.32451</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>44490623.302178</v>
+        <v>10795701.0338059</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>6889144.14062054</v>
+        <v>2427716.86047094</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>21295226.099734</v>
+        <v>-227416.357007532</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>65622243.2121495</v>
+        <v>477933.940059207</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>64431470.3196153</v>
-      </c>
-      <c r="AO15" s="3" t="n">
-        <v>106844006.319006</v>
-      </c>
-      <c r="AP15" s="3" t="n">
-        <v>187220026.79197</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>94595305.3780997</v>
-      </c>
-      <c r="AR15" s="3" t="n">
-        <v>88596308.0125113</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>115758945.634835</v>
-      </c>
+        <v>-85194.7717808369</v>
+      </c>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
       <c r="AT15" s="3" t="n">
-        <v>106068269.044315</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>44833811.1178699</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>43179483.2368</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>67177620.1892807</v>
-      </c>
+        <v>-2504.63982896395</v>
+      </c>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6780,95 +7038,119 @@
       <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
-        <v>50</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>5429240.08521173</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>10711327.9893658</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>21374912.8663522</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>81423145.4713215</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>35780872.290053</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>27120991.6524641</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>6699841.84791278</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>1370930824.73942</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>607319000.303408</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>544920575.831562</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>75319780.0403277</v>
+        <v>2802845069.23184</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>92665816.9196942</v>
+        <v>2580457047.67542</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>102468886.969675</v>
+        <v>3372158063.50789</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>265182645.921936</v>
+        <v>4310935303.6852</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>164418277.699747</v>
+        <v>3631440252.11137</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>202419301.834061</v>
+        <v>3968692210.09701</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>82767473.9217279</v>
+        <v>3569612804.47453</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>34245341.6349717</v>
+        <v>4534636246.33756</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>40492587.0391748</v>
+        <v>3968557593.60367</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>42361653.6847326</v>
+        <v>4547331072.05873</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>54172563.0957148</v>
+        <v>5767098534.02274</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>84189670.2264038</v>
+        <v>5904039379.59468</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>37291747.5474339</v>
+        <v>6254974153.17918</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>16325255.5266306</v>
+        <v>6399113771.97704</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>21239020.7901574</v>
+        <v>6056893952.35651</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>6688374.08518014</v>
+        <v>6310077211.46878</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>15563358.4833443</v>
+        <v>7636988397.68666</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>17016375.2434537</v>
+        <v>7923258917.50201</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>3619577.55180544</v>
+        <v>12214681087.1748</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>-3325246.32298316</v>
+        <v>11349755603.9138</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>1235321.60958116</v>
+        <v>11316859046.4939</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>-798999.519778664</v>
+        <v>11585064843.9221</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>1198822.3339</v>
+        <v>10734662157.3938</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>2770827.90030303</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>11467537350.4014</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>10942862173.6751</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>4815530422.5231</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6880,95 +7162,113 @@
       <c r="M17" t="s">
         <v>53</v>
       </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>527411.893991996</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="S17" s="3" t="n">
+        <v>1798786.05924815</v>
+      </c>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="U17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>22426647.3975824</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>1099243237.24679</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>1056641975.95032</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>2359369813.46228</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>2612633008.71539</v>
+        <v>6733654137.3056</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>4255996509.59836</v>
+        <v>10960287308.4952</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>6887620060.2356</v>
+        <v>6980604728.51024</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>5247830197.4508</v>
+        <v>8351418445.56722</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>8562343510.29503</v>
+        <v>7940856108.91507</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>6552244098.94698</v>
+        <v>8204924536.16945</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>8264592056.95162</v>
+        <v>8861805245.28753</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>4435685848.81398</v>
+        <v>6594299325.51794</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>4608139613.21716</v>
+        <v>4124772052.2308</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>6326599189.41909</v>
+        <v>6022820595.80622</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>6654497531.65975</v>
+        <v>7457996965.28454</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>19606853157.6172</v>
+        <v>10116583111.2376</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>14112537440.3557</v>
+        <v>8864280916.92494</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>13205569643.3901</v>
+        <v>7913959486.41736</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>8825475044.42666</v>
+        <v>8283686893.25156</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>6225912304.38965</v>
+        <v>8953299521.81205</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>6680677355.43548</v>
+        <v>10181259039.8353</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>9420542977.4159</v>
+        <v>9881036256.06771</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>12249197737.0199</v>
+        <v>7342229992.09361</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>15077958089.1833</v>
+        <v>7590945259.45868</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>21795548871.9188</v>
+        <v>7808849160.27854</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>13618899941.1326</v>
+        <v>7016221717.98883</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>15612966018.898</v>
+        <v>7892950705.29166</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>16718349717.823</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>7159694395.4955</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>10416868302.3986</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>5250692107.49762</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6980,95 +7280,113 @@
       <c r="M18" t="s">
         <v>54</v>
       </c>
-      <c r="N18" t="s">
-        <v>54</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>57911.8942422584</v>
+      </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="T18" s="3" t="n">
+        <v>884835.190429777</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>507104.901761167</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>458344.382387122</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>4635989.55560002</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>9156370.63289558</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>101895563.299008</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>6471531961.07118</v>
+        <v>71632439.5202958</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>10533527907.3563</v>
+        <v>130971662.098685</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>6708462325.32902</v>
+        <v>52362589.0619747</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>8026468663.67022</v>
+        <v>280655105.405717</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>7631697747.6939</v>
+        <v>113145396.83564</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>7886044745.18804</v>
+        <v>295271694.024466</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>8516791560.06529</v>
+        <v>208947287.596163</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>6338221883.4901</v>
+        <v>221366813.965269</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>3964225195.92069</v>
+        <v>337328843.621806</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>5788764376.45193</v>
+        <v>28140029.9441513</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>7167904376.98535</v>
+        <v>46291205.3340027</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>9721214874.89366</v>
+        <v>7168533.928277</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>8632148429.26113</v>
+        <v>22162857.9736663</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>7533657477.33749</v>
+        <v>69265786.6924466</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>12522973048.9392</v>
+        <v>67139465.512409</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>13212980296.5266</v>
+        <v>111141495.683896</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>13764608328.1938</v>
+        <v>195359137.020437</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>12754494703.7243</v>
+        <v>98802197.6685687</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>6936011250.38385</v>
+        <v>92652309.1024869</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>7168426154.45087</v>
+        <v>121188857.933587</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>7798845935.7253</v>
+        <v>111074019.908454</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>6532620767.69608</v>
+        <v>46913228.5121936</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>7286909659.2551</v>
+        <v>45260246.8561385</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>6532393734.72421</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>70432758.7821</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>81899284.0431354</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>26723714.4056608</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7080,11 +7398,9 @@
       <c r="M19" t="s">
         <v>56</v>
       </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -7093,82 +7409,94 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="n">
+        <v>9158376.07916349</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>9325479.10698543</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>12666973.7574659</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>415772974.869403</v>
+        <v>78370523.6318652</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>2319641422.78796</v>
+        <v>96420115.4683388</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>2106442502.54935</v>
+        <v>106625745.373253</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>603417118.780358</v>
+        <v>275918505.598734</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>1009523262.13142</v>
+        <v>171078825.191138</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>1078197799.15331</v>
+        <v>210604320.65466</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>2352186850.68917</v>
+        <v>86120369.3157947</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>2488406334.68997</v>
+        <v>35628925.1775573</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>2295933702.52232</v>
+        <v>42132493.2582089</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>2708914772.20157</v>
+        <v>44074455.9118988</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>3497374800.29646</v>
+        <v>56364983.3516761</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>1308972570.62682</v>
+        <v>87603988.9875299</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>1179609120.89267</v>
+        <v>38811126.0676641</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>1560015384.08775</v>
+        <v>17017814.0892025</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>1651708226.81886</v>
+        <v>22131677.2189814</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>92801926.4652425</v>
+        <v>6867401.06035688</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>1358818619.20589</v>
+        <v>16239952.2479886</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>1946872562.87157</v>
+        <v>17863468.1517423</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>4841247438.08598</v>
+        <v>3785284.32035188</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>4159300039.14862</v>
+        <v>-3481223.87710353</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>3893319800.52166</v>
+        <v>-1020394.28628512</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>3027013315.14306</v>
+        <v>-836057.570530323</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>1236349426.1606</v>
+        <v>1253664.37920475</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>3996211731.27197</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>2905045.7195</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>1526859.7420511</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>715001.064690956</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7180,11 +7508,9 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="N20" t="s">
-        <v>58</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -7193,56 +7519,94 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
+      <c r="W20" s="3" t="n">
+        <v>330623127.768526</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>328507775.576678</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>412523421.290984</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>432613394.981334</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>2413620267.59215</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>2191894616.95927</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>627846324.889535</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>1050418822.68077</v>
+      </c>
       <c r="AE20" s="3" t="n">
-        <v>11104427.4229181</v>
+        <v>1121795762.38328</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>305624852.936319</v>
+        <v>2447473514.57787</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>5323641361.49267</v>
+        <v>2590332362.10739</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>7578888747.97561</v>
+        <v>2389756029.11192</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>7955288727.27001</v>
+        <v>2820336059.24801</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>10375782.2789978</v>
+        <v>3638917225.20228</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>2333097.89027099</v>
+        <v>1386983278.08718</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>-218513.458282658</v>
+        <v>1375207589.44537</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>459153.75270058</v>
+        <v>1665715303.68869</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-81758.5360188613</v>
-      </c>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
+        <v>1832289560.79066</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>279741462.432458</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>1417408553.64624</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>2000379838.11362</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>5032522308.13534</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>4316692156.98385</v>
+      </c>
       <c r="AT20" s="3" t="n">
-        <v>-2391.76371203019</v>
-      </c>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>3986357958.19433</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>3102712463.96418</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>1286897910.72191</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>4189812846.022</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>5605348536.47897</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>2301247083.0936</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7254,93 +7618,91 @@
       <c r="M21" t="s">
         <v>58</v>
       </c>
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>21228143918.8223</v>
+        <v>22092242844.8914</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>18255763741.9323</v>
+        <v>18996148223.2289</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>16101818741.1213</v>
+        <v>16754101708.8253</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>17383554422.2538</v>
+        <v>18088692491.0609</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>13228605702.3603</v>
+        <v>13764359577.6929</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>16925701573.5089</v>
+        <v>17610689302.8955</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>13714338594.7575</v>
+        <v>14268884308.6678</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>14102066190.5562</v>
+        <v>14969560664.1941</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>15646035550.2611</v>
+        <v>16676792314.1031</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>13723041606.5727</v>
+        <v>14784603548.2517</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>2778642436.79107</v>
+        <v>2891188246.17441</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>-240143058.373052</v>
+        <v>-249872306.605962</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>619749786.858156</v>
+        <v>644891195.004605</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>755220796.616601</v>
+        <v>785795740.422925</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>1111608577.25205</v>
+        <v>1156639590.98245</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>441287019.282418</v>
+        <v>459130883.604574</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>362100548.023396</v>
+        <v>376769175.711669</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>285974312.571618</v>
+        <v>297528273.88682</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>3171998285.11253</v>
+        <v>3300460803.69515</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>1153643966.60007</v>
+        <v>1199866125.21613</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>1452416.60055832</v>
+        <v>1511197.41861805</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>722116.218101378</v>
+        <v>-3069.09707236188</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>5275300.88719347</v>
+        <v>4280345.10234878</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>1231697.54830837</v>
+        <v>25719.2723733621</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>7316570.87611551</v>
+        <v>6279189.27290407</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>4195882.15880565</v>
+        <v>4103998.4549011</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>-462684.176253351</v>
+        <v>-642526.194857816</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>223606.963332721</v>
+        <v>-240111.690046125</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -7360,7 +7722,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7404,6 +7772,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7557,115 +7927,115 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="4" t="n">
         <v>1814000</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="4" t="n">
         <v>2669000</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="4" t="n">
         <v>4531000</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="4" t="n">
         <v>15427000</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="4" t="n">
         <v>8327000</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="4" t="n">
         <v>14324000</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="4" t="n">
         <v>15491076</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="4" t="n">
         <v>2189057809</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="4" t="n">
         <v>1961624443</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="4" t="n">
         <v>2040376342</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="4" t="n">
         <v>8265639486</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="4" t="n">
         <v>11222966161</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="4" t="n">
         <v>11120140580</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="4" t="n">
         <v>10540513121</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="4" t="n">
         <v>12818877334.57</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="4" t="n">
         <v>11596204979.52</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="4" t="n">
         <v>14102583285</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="4" t="n">
         <v>14500076521.68</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="4" t="n">
         <v>16553847850.7</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="4" t="n">
         <v>18661425686</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>13967338496.9877</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="4" t="n">
         <v>24577714675.5281</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="4" t="n">
         <v>19845707086.3542</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="4" t="n">
         <v>19392720607.4728</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="4" t="n">
         <v>19853932891.6631</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="4" t="n">
         <v>17542640484.7404</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="4" t="n">
         <v>20148799632.3527</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>21828882456.4197</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="4" t="n">
         <v>23361268259.13</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="4" t="n">
         <v>25213168052.63</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="4" t="n">
         <v>32015942869.09</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="4" t="n">
         <v>24116859427.32</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="4" t="n">
         <v>25626396771.61</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="4" t="n">
         <v>30353777996.72</v>
       </c>
-      <c r="AX2" s="12" t="n">
+      <c r="AX2" s="4" t="n">
         <v>28804314039.95</v>
       </c>
-      <c r="AY2" s="12" t="n">
+      <c r="AY2" s="4" t="n">
         <v>17326927524.12</v>
       </c>
-      <c r="AZ2" s="12"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7680,115 +8050,115 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="4" t="n">
         <v>8295000</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="4" t="n">
         <v>3455000</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="4" t="n">
         <v>5567000</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="4" t="n">
         <v>26764000</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="4" t="n">
         <v>10741000</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="4" t="n">
         <v>157000</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="4" t="n">
         <v>687000</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="4" t="n">
         <v>32335956</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="4" t="n">
         <v>67289485</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="4" t="n">
         <v>69585164</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="4" t="n">
         <v>128306121</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="4" t="n">
         <v>146068198</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="4" t="n">
         <v>199804095.9</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="4" t="n">
         <v>252967277.01</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="4" t="n">
         <v>256300483.33</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="4" t="n">
         <v>329764593.61</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="4" t="n">
         <v>353801648.01</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="4" t="n">
         <v>347617661.27</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="4" t="n">
         <v>429847400.27</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="4" t="n">
         <v>450976954.13</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>518817833.1562</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="4" t="n">
         <v>600293030.6082</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="4" t="n">
         <v>567779250.3213</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="4" t="n">
         <v>607299008.0947</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="4" t="n">
         <v>734309615.4967</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="4" t="n">
         <v>759040129.0227</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="4" t="n">
         <v>789281333.2861</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>805554446.8029</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="4" t="n">
         <v>1053406503.77</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="4" t="n">
         <v>979068512.48</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="4" t="n">
         <v>696370586.42</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="4" t="n">
         <v>817588060.57</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="4" t="n">
         <v>998032260.47</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="4" t="n">
         <v>282258818.31</v>
       </c>
-      <c r="AX3" s="12" t="n">
+      <c r="AX3" s="4" t="n">
         <v>260140021.68</v>
       </c>
-      <c r="AY3" s="12" t="n">
+      <c r="AY3" s="4" t="n">
         <v>106362638.29</v>
       </c>
-      <c r="AZ3" s="12"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7803,99 +8173,99 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="4" t="n">
         <v>902000</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="4" t="n">
         <v>125000</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="4" t="n">
         <v>806000</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12" t="n">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="n">
         <v>90000</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="4" t="n">
         <v>20107275</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="4" t="n">
         <v>12071642</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="4" t="n">
         <v>6411174</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="4" t="n">
         <v>6338932</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="4" t="n">
         <v>3668769</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="4" t="n">
         <v>3036643</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="4" t="n">
         <v>1170677</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="4" t="n">
         <v>3702</v>
       </c>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12" t="n">
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4" t="n">
         <v>56409823.1518</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="4" t="n">
         <v>250065008.9206</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="4" t="n">
         <v>381304486.5259</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="4" t="n">
         <v>485048310.6497</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="4" t="n">
         <v>643784577.0028</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="4" t="n">
         <v>721638605.4281</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="4" t="n">
         <v>682863278.2314</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>671340743.4822</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="4" t="n">
         <v>913401495.7336</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="4" t="n">
         <v>776702118.5728</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="4" t="n">
         <v>784756524.9483</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="4" t="n">
         <v>735989386.4552</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="4" t="n">
         <v>928439837.9877</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="4" t="n">
         <v>1212720063.0024</v>
       </c>
-      <c r="AX4" s="12" t="n">
+      <c r="AX4" s="4" t="n">
         <v>1088446255.878</v>
       </c>
-      <c r="AY4" s="12" t="n">
+      <c r="AY4" s="4" t="n">
         <v>378794645.47</v>
       </c>
-      <c r="AZ4" s="12"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -7910,107 +8280,107 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="n">
         <v>406000</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="4" t="n">
         <v>102000</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="4" t="n">
         <v>256000</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="4" t="n">
         <v>996702</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="4" t="n">
         <v>1339877</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="4" t="n">
         <v>3057742</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="4" t="n">
         <v>32951027</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="4" t="n">
         <v>56035838</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="4" t="n">
         <v>118925328</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="4" t="n">
         <v>119321926</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="4" t="n">
         <v>134804712</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="4" t="n">
         <v>109775836.0935</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="4" t="n">
         <v>133366884.7812</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="4" t="n">
         <v>212214642.033</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="4" t="n">
         <v>170544365.131</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="4" t="n">
         <v>195375550.9657</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>132369603.1856</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="4" t="n">
         <v>94562158.5968</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="4" t="n">
         <v>152492011.5009</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="4" t="n">
         <v>59656161.8556</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="4" t="n">
         <v>58246214.2534</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="4" t="n">
         <v>34223954.225</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="4" t="n">
         <v>18421629.4286</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>13022425.15</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="4" t="n">
         <v>16425608.0416</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="4" t="n">
         <v>41579470.8422</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="4" t="n">
         <v>26540799.9307</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="4" t="n">
         <v>24438825.2104</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="4" t="n">
         <v>13677340.1858</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="4" t="n">
         <v>18435455.3499</v>
       </c>
-      <c r="AX5" s="12" t="n">
+      <c r="AX5" s="4" t="n">
         <v>17452208.89</v>
       </c>
-      <c r="AY5" s="12" t="n">
+      <c r="AY5" s="4" t="n">
         <v>11545168.22</v>
       </c>
-      <c r="AZ5" s="12"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -8025,101 +8395,101 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>8827164</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="4" t="n">
         <v>5281910</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="4" t="n">
         <v>19569845</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="4" t="n">
         <v>124083067</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="4" t="n">
         <v>102877275</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="4" t="n">
         <v>131319695</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="4" t="n">
         <v>303568109.1104</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="4" t="n">
         <v>341229471</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="4" t="n">
         <v>496105422.2316</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="4" t="n">
         <v>779178032.1475</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="4" t="n">
         <v>609435905.6012</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="4" t="n">
         <v>635615279.8954</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="4" t="n">
         <v>599379421.0735</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>874308123.0407</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="4" t="n">
         <v>904116064.0393</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="4" t="n">
         <v>793595993.9639</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="4" t="n">
         <v>724599028.7005</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="4" t="n">
         <v>830065216.9256</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="4" t="n">
         <v>537515375.4024</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="4" t="n">
         <v>708363482.1655</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>1130972206.0579</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="4" t="n">
         <v>1701928911.7988</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="4" t="n">
         <v>1384055518.5279</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="4" t="n">
         <v>1588908324.1799</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="4" t="n">
         <v>3962560249.4637</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="4" t="n">
         <v>5289073717.3362</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="4" t="n">
         <v>7107391310.3156</v>
       </c>
-      <c r="AX6" s="12" t="n">
+      <c r="AX6" s="4" t="n">
         <v>7714037639.0704</v>
       </c>
-      <c r="AY6" s="12" t="n">
+      <c r="AY6" s="4" t="n">
         <v>2910628897.93</v>
       </c>
-      <c r="AZ6" s="12"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -8134,113 +8504,113 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="4" t="n">
         <v>43000</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="4" t="n">
         <v>104000</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="4" t="n">
         <v>68000</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="4" t="n">
         <v>1732000</v>
       </c>
-      <c r="T7" s="12" t="n">
+      <c r="T7" s="4" t="n">
         <v>209000</v>
       </c>
-      <c r="U7" s="12" t="n">
+      <c r="U7" s="4" t="n">
         <v>563000</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="n">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="n">
         <v>97180962</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="4" t="n">
         <v>170998360</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="4" t="n">
         <v>211400903</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="4" t="n">
         <v>792136941</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="4" t="n">
         <v>871079231</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="4" t="n">
         <v>1121078883.0298</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="4" t="n">
         <v>1464312699.9302</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="4" t="n">
         <v>1289828353.3183</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="4" t="n">
         <v>1508419219.6701</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="4" t="n">
         <v>1450220312.2365</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="4" t="n">
         <v>1584090169.3198</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="4" t="n">
         <v>1563834499.5037</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="4" t="n">
         <v>1595201595.4811</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>2011188756.3735</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="4" t="n">
         <v>1961892829.5621</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="4" t="n">
         <v>2081913822.1831</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="4" t="n">
         <v>1879187246.8164</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="4" t="n">
         <v>1706797661.8882</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="4" t="n">
         <v>1889047176.4959</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="4" t="n">
         <v>2320088753.0641</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>2810266733.4823</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="4" t="n">
         <v>4354202895.1859</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="4" t="n">
         <v>5004511960.9469</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="4" t="n">
         <v>5218636779.7144</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="4" t="n">
         <v>2569243888.9792</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="4" t="n">
         <v>1882537557.2822</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="4" t="n">
         <v>1507213903.7002</v>
       </c>
-      <c r="AX7" s="12" t="n">
+      <c r="AX7" s="4" t="n">
         <v>1766134062.2725</v>
       </c>
-      <c r="AY7" s="12" t="n">
+      <c r="AY7" s="4" t="n">
         <v>824415378.56</v>
       </c>
-      <c r="AZ7" s="12"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -8255,71 +8625,71 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="4" t="n">
         <v>4020064</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="4" t="n">
         <v>5577975</v>
       </c>
-      <c r="Y8" s="12" t="n">
+      <c r="Y8" s="4" t="n">
         <v>6055737</v>
       </c>
-      <c r="Z8" s="12" t="n">
+      <c r="Z8" s="4" t="n">
         <v>6366189</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="4" t="n">
         <v>1631816</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="4" t="n">
         <v>1246118</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="4" t="n">
         <v>-9214755</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="4" t="n">
         <v>1777659</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="4" t="n">
         <v>168181</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="4" t="n">
         <v>53752</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="4" t="n">
         <v>41329.71</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="4" t="n">
         <v>1403.64</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="4" t="n">
         <v>2900</v>
       </c>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -8330,73 +8700,73 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="4" t="n">
         <v>10680657493</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="4" t="n">
         <v>9512770712</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="4" t="n">
         <v>8600082026</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="4" t="n">
         <v>9502770472</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="4" t="n">
         <v>7389026646</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="4" t="n">
         <v>9654356740</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="4" t="n">
         <v>7969628348</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="4" t="n">
         <v>8340521642</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="4" t="n">
         <v>9369233233</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="4" t="n">
         <v>8320132027</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12" t="n">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12" t="n">
+      <c r="AX9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="12" t="n">
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="12"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -8411,115 +8781,115 @@
       <c r="O10" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="12" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="12" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="12"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -8656,115 +9026,115 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="4" t="n">
         <v>3751863.43412346</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="4" t="n">
         <v>5329704.40037609</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="4" t="n">
         <v>8826989.6279112</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="4" t="n">
         <v>29364944.4825621</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="4" t="n">
         <v>15511626.5909658</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="4" t="n">
         <v>26128671.2691617</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="4" t="n">
         <v>27735342.4286405</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="4" t="n">
         <v>3850962485.18336</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="4" t="n">
         <v>3408134015.79185</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="4" t="n">
         <v>3501599043.2046</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="4" t="n">
         <v>13895973166.5763</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="4" t="n">
         <v>18421238113.4809</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="4" t="n">
         <v>17969758552.0684</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="4" t="n">
         <v>16712305960.0911</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="4" t="n">
         <v>19840247956.1153</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="4" t="n">
         <v>17417850899.6554</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="4" t="n">
         <v>20516056976.6489</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="4" t="n">
         <v>20529161927.9193</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="4" t="n">
         <v>22960211411.3976</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="4" t="n">
         <v>25621417525.4146</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>19011964871.7927</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="4" t="n">
         <v>32796257459.1343</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="4" t="n">
         <v>26009936278.2859</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="4" t="n">
         <v>24963296464.6699</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="4" t="n">
         <v>25099105096.642</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="4" t="n">
         <v>21949878269.1339</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="4" t="n">
         <v>25010819322.4858</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>26646516819.6703</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="4" t="n">
         <v>27897769667.5692</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="4" t="n">
         <v>29562687786.4713</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="4" t="n">
         <v>37054955394.4276</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="4" t="n">
         <v>26983914118.136</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="4" t="n">
         <v>26798717158.8197</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="4" t="n">
         <v>30353777996.72</v>
       </c>
-      <c r="AX14" s="12" t="n">
+      <c r="AX14" s="4" t="n">
         <v>28055075529.5196</v>
       </c>
-      <c r="AY14" s="12" t="n">
+      <c r="AY14" s="4" t="n">
         <v>16513882284.1058</v>
       </c>
-      <c r="AZ14" s="12"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -8779,115 +9149,115 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="4" t="n">
         <v>17156398.6692691</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="4" t="n">
         <v>6899261.41000351</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="4" t="n">
         <v>10845255.188387</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="4" t="n">
         <v>50944666.7616058</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="4" t="n">
         <v>20008452.1692763</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="4" t="n">
         <v>286386.581210443</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="4" t="n">
         <v>1230010.11992169</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="4" t="n">
         <v>56885000.0062011</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="4" t="n">
         <v>116909015.664022</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="4" t="n">
         <v>119418824.198284</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="4" t="n">
         <v>215704836.575967</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="4" t="n">
         <v>239754537.041688</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="4" t="n">
         <v>322876436.247115</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="4" t="n">
         <v>401087355.307154</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="4" t="n">
         <v>396685685.323314</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="4" t="n">
         <v>495316401.670075</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="4" t="n">
         <v>514701074.428396</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="4" t="n">
         <v>492155972.180318</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="4" t="n">
         <v>596198978.862882</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="4" t="n">
         <v>619173959.724465</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>706200857.160621</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="4" t="n">
         <v>801025035.999508</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="4" t="n">
         <v>744135850.475406</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="4" t="n">
         <v>781746176.239249</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="4" t="n">
         <v>928305455.316897</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="4" t="n">
         <v>949733789.957589</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="4" t="n">
         <v>979739397.960566</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>983340313.4012</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="4" t="n">
         <v>1257966463.22956</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="4" t="n">
         <v>1147967470.63255</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="4" t="n">
         <v>805972859.312449</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="4" t="n">
         <v>914784368.044304</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="4" t="n">
         <v>1043688837.80584</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="4" t="n">
         <v>282258818.31</v>
       </c>
-      <c r="AX15" s="12" t="n">
+      <c r="AX15" s="4" t="n">
         <v>253373433.797486</v>
       </c>
-      <c r="AY15" s="12" t="n">
+      <c r="AY15" s="4" t="n">
         <v>101371699.379644</v>
       </c>
-      <c r="AZ15" s="12"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -8902,99 +9272,99 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="4" t="n">
         <v>1865590.30737561</v>
       </c>
-      <c r="Q16" s="12" t="n">
+      <c r="Q16" s="4" t="n">
         <v>249611.483719375</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="4" t="n">
         <v>1570195.02098796</v>
       </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12" t="n">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4" t="n">
         <v>161136.696932972</v>
       </c>
-      <c r="W16" s="12" t="n">
+      <c r="W16" s="4" t="n">
         <v>35372460.8760504</v>
       </c>
-      <c r="X16" s="12" t="n">
+      <c r="X16" s="4" t="n">
         <v>20973318.248289</v>
       </c>
-      <c r="Y16" s="12" t="n">
+      <c r="Y16" s="4" t="n">
         <v>11002558.8329519</v>
       </c>
-      <c r="Z16" s="12" t="n">
+      <c r="Z16" s="4" t="n">
         <v>10656843.8081467</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="4" t="n">
         <v>6021872.14706308</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="4" t="n">
         <v>4907108.96379951</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="4" t="n">
         <v>1856144.19144952</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="4" t="n">
         <v>5729.72156738424</v>
       </c>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12" t="n">
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4" t="n">
         <v>76783531.5523679</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="4" t="n">
         <v>333684255.121027</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="4" t="n">
         <v>499740591.454288</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="4" t="n">
         <v>624378859.65159</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="4" t="n">
         <v>813864781.651175</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="4" t="n">
         <v>902935881.131052</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="4" t="n">
         <v>847642062.328237</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>819505645.726149</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="4" t="n">
         <v>1090774022.16938</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="4" t="n">
         <v>910690881.309674</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="4" t="n">
         <v>908269924.96666</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="4" t="n">
         <v>823485099.949171</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="4" t="n">
         <v>970912798.976755</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="4" t="n">
         <v>1212720063.0024</v>
       </c>
-      <c r="AX16" s="12" t="n">
+      <c r="AX16" s="4" t="n">
         <v>1060134321.41198</v>
       </c>
-      <c r="AY16" s="12" t="n">
+      <c r="AY16" s="4" t="n">
         <v>361020162.197444</v>
       </c>
-      <c r="AZ16" s="12"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -9009,107 +9379,107 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12" t="n">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4" t="n">
         <v>756301.236451557</v>
       </c>
-      <c r="U17" s="12" t="n">
+      <c r="U17" s="4" t="n">
         <v>186060.071869205</v>
       </c>
-      <c r="V17" s="12" t="n">
+      <c r="V17" s="4" t="n">
         <v>458344.382387122</v>
       </c>
-      <c r="W17" s="12" t="n">
+      <c r="W17" s="4" t="n">
         <v>1753385.40404312</v>
       </c>
-      <c r="X17" s="12" t="n">
+      <c r="X17" s="4" t="n">
         <v>2327907.56506552</v>
       </c>
-      <c r="Y17" s="12" t="n">
+      <c r="Y17" s="4" t="n">
         <v>5247554.69918427</v>
       </c>
-      <c r="Z17" s="12" t="n">
+      <c r="Z17" s="4" t="n">
         <v>55396389.8109373</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="4" t="n">
         <v>91976532.7524134</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="4" t="n">
         <v>192179173.861266</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="4" t="n">
         <v>189188563.418833</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="4" t="n">
         <v>208642211.16462</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="4" t="n">
         <v>164886628.758156</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="4" t="n">
         <v>194018539.133858</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="4" t="n">
         <v>300452810.939105</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="4" t="n">
         <v>236545286.252874</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="4" t="n">
         <v>268243094.058216</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>180177937.722388</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="4" t="n">
         <v>126182801.785069</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="4" t="n">
         <v>199857202.609489</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="4" t="n">
         <v>76792446.2218993</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="4" t="n">
         <v>73634169.1595771</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="4" t="n">
         <v>42822038.6651945</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="4" t="n">
         <v>22866873.1473559</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>15896474.3836587</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="4" t="n">
         <v>19615280.5023863</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="4" t="n">
         <v>48752338.9472046</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="4" t="n">
         <v>30718075.7282651</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="4" t="n">
         <v>27344155.7601206</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="4" t="n">
         <v>14303031.9241086</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="4" t="n">
         <v>18435455.3499</v>
       </c>
-      <c r="AX17" s="12" t="n">
+      <c r="AX17" s="4" t="n">
         <v>16998253.7298692</v>
       </c>
-      <c r="AY17" s="12" t="n">
+      <c r="AY17" s="4" t="n">
         <v>11003425.0832917</v>
       </c>
-      <c r="AZ17" s="12"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -9124,101 +9494,101 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>15528633.9514669</v>
       </c>
-      <c r="X18" s="12" t="n">
+      <c r="X18" s="4" t="n">
         <v>9176811.19012807</v>
       </c>
-      <c r="Y18" s="12" t="n">
+      <c r="Y18" s="4" t="n">
         <v>33584858.3994522</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="4" t="n">
         <v>208605150.56082</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="4" t="n">
         <v>168861489.204758</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="4" t="n">
         <v>212208037.776557</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="4" t="n">
         <v>481316522.349532</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="4" t="n">
         <v>528133403.407838</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="4" t="n">
         <v>745165361.443818</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="4" t="n">
         <v>1133527140.34273</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="4" t="n">
         <v>862837404.483269</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="4" t="n">
         <v>881599331.728541</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="4" t="n">
         <v>822924821.600654</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>1190084662.58319</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="4" t="n">
         <v>1206443463.13842</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="4" t="n">
         <v>1040093010.73968</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="4" t="n">
         <v>932740729.760848</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="4" t="n">
         <v>1049358544.24243</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="4" t="n">
         <v>672555369.765082</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="4" t="n">
         <v>879295610.178216</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>1380577772.20009</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="4" t="n">
         <v>2032424791.55144</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="4" t="n">
         <v>1622818722.66008</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="4" t="n">
         <v>1838987760.53739</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="4" t="n">
         <v>4433636385.43835</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="4" t="n">
         <v>5531030829.12015</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="4" t="n">
         <v>7107391310.3156</v>
       </c>
-      <c r="AX18" s="12" t="n">
+      <c r="AX18" s="4" t="n">
         <v>7513385262.41302</v>
       </c>
-      <c r="AY18" s="12" t="n">
+      <c r="AY18" s="4" t="n">
         <v>2774051136.66127</v>
       </c>
-      <c r="AZ18" s="12"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -9233,113 +9603,113 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="12" t="n">
+      <c r="P19" s="4" t="n">
         <v>88936.1233006111</v>
       </c>
-      <c r="Q19" s="12" t="n">
+      <c r="Q19" s="4" t="n">
         <v>207676.75445452</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="R19" s="4" t="n">
         <v>132473.029065981</v>
       </c>
-      <c r="S19" s="12" t="n">
+      <c r="S19" s="4" t="n">
         <v>3296822.70329925</v>
       </c>
-      <c r="T19" s="12" t="n">
+      <c r="T19" s="4" t="n">
         <v>389327.483789102</v>
       </c>
-      <c r="U19" s="12" t="n">
+      <c r="U19" s="4" t="n">
         <v>1026978.63198395</v>
       </c>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12" t="n">
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="n">
         <v>170959504.768396</v>
       </c>
-      <c r="X19" s="12" t="n">
+      <c r="X19" s="4" t="n">
         <v>297093222.629986</v>
       </c>
-      <c r="Y19" s="12" t="n">
+      <c r="Y19" s="4" t="n">
         <v>362796403.996625</v>
       </c>
-      <c r="Z19" s="12" t="n">
+      <c r="Z19" s="4" t="n">
         <v>1331719547.53579</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="4" t="n">
         <v>1429778696.62659</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="4" t="n">
         <v>1811624295.65869</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="4" t="n">
         <v>2321712575.23741</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="4" t="n">
         <v>1996314785.04364</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="4" t="n">
         <v>2265691328.22245</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="4" t="n">
         <v>2109741311.45063</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="4" t="n">
         <v>2242749791.40754</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="4" t="n">
         <v>2169040759.88133</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="4" t="n">
         <v>2190150249.11472</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>2737575952.28065</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="4" t="n">
         <v>2617930234.56383</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="4" t="n">
         <v>2728572260.80388</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="4" t="n">
         <v>2418985417.48846</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="4" t="n">
         <v>2157713241.4114</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="4" t="n">
         <v>2363632521.84323</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="4" t="n">
         <v>2879939335.03829</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>3430492602.22084</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="4" t="n">
         <v>5199741217.31536</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="4" t="n">
         <v>5867839547.8232</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="4" t="n">
         <v>6040001816.6803</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="4" t="n">
         <v>2874680123.98928</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="4" t="n">
         <v>1968657239.95779</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="4" t="n">
         <v>1507213903.7002</v>
       </c>
-      <c r="AX19" s="12" t="n">
+      <c r="AX19" s="4" t="n">
         <v>1720194566.81351</v>
       </c>
-      <c r="AY19" s="12" t="n">
+      <c r="AY19" s="4" t="n">
         <v>785730678.205614</v>
       </c>
-      <c r="AZ19" s="12"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -9354,71 +9724,71 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="12" t="n">
+      <c r="W20" s="4" t="n">
         <v>7072045.1458101</v>
       </c>
-      <c r="X20" s="12" t="n">
+      <c r="X20" s="4" t="n">
         <v>9691195.68456384</v>
       </c>
-      <c r="Y20" s="12" t="n">
+      <c r="Y20" s="4" t="n">
         <v>10392574.3739577</v>
       </c>
-      <c r="Z20" s="12" t="n">
+      <c r="Z20" s="4" t="n">
         <v>10702667.5512754</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="4" t="n">
         <v>2678442.63826147</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="4" t="n">
         <v>2013683.1388319</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="4" t="n">
         <v>-14610275.90777</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="4" t="n">
         <v>2751348.22035514</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="4" t="n">
         <v>252612.95288661</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="4" t="n">
         <v>78196.9567080513</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="4" t="n">
         <v>58514.4711309179</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="4" t="n">
         <v>1946.85075253554</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="4" t="n">
         <v>3981.58812053918</v>
       </c>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -9429,73 +9799,73 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="4" t="n">
         <v>22090610970.4429</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="4" t="n">
         <v>18995974493.6362</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="4" t="n">
         <v>16754101708.8253</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="4" t="n">
         <v>18088307988.644</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="4" t="n">
         <v>13764359577.6929</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="4" t="n">
         <v>17610689302.8955</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="4" t="n">
         <v>14268884308.6678</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="4" t="n">
         <v>14672538942.6214</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="4" t="n">
         <v>16278142636.9465</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="4" t="n">
         <v>14278623872.1636</v>
       </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12" t="n">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12" t="n">
+      <c r="AX21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY21" s="12" t="n">
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="12"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -9504,43 +9874,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ships_and_Submarines/DoD_Ships_and_Submarines_Contracts.xlsx
@@ -836,17 +836,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -884,18 +884,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
